--- a/web/news.xlsx
+++ b/web/news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="502">
   <si>
     <t>来源</t>
   </si>
@@ -106,586 +106,598 @@
     <t>消息</t>
   </si>
   <si>
-    <t>王毅回答中外记者提问</t>
-  </si>
-  <si>
-    <t>全国妇联向广大妇女发出倡议</t>
-  </si>
-  <si>
-    <t>从全国两会看构建新发展格局发力点</t>
-  </si>
-  <si>
-    <t>今年的国防费预算如何安排？</t>
-  </si>
-  <si>
-    <t>家校边界不清、App泛滥 教育“焦虑”怎么破</t>
-  </si>
-  <si>
-    <t>未来五年数字中国建设路线图出炉</t>
-  </si>
-  <si>
-    <t>两会</t>
-  </si>
-  <si>
-    <t>政协视频会议</t>
-  </si>
-  <si>
-    <t>今日看点:人代会听取常委会 "两高"工作报告</t>
-  </si>
-  <si>
-    <t>房住不炒3次现身政府工作报告</t>
-  </si>
-  <si>
-    <t>资本市场新图谱</t>
-  </si>
-  <si>
-    <t>热议注册制改革</t>
-  </si>
-  <si>
-    <t>十四五开局 代表委员建言金融监管改革</t>
-  </si>
-  <si>
-    <t>企业家提案议案(搜索版)</t>
-  </si>
-  <si>
-    <t>多省定2021消费增速目标</t>
-  </si>
-  <si>
-    <t>激发内需潜力</t>
-  </si>
-  <si>
-    <t>我国力促大宗消费 家电业望再迎春天</t>
-  </si>
-  <si>
-    <t>扩大居民消费提升消费层次</t>
-  </si>
-  <si>
-    <t>投资消费双驱动 深挖扩内需潜力</t>
-  </si>
-  <si>
-    <t>多领域发力</t>
-  </si>
-  <si>
-    <t>2021消费走势如何?</t>
-  </si>
-  <si>
-    <t>沪指高开0.66%</t>
-  </si>
-  <si>
-    <t>十大券商:反攻号角吹响</t>
-  </si>
-  <si>
-    <t>全球三大变量集体飙涨</t>
-  </si>
-  <si>
-    <t>星石投资:牛市远未结束</t>
-  </si>
-  <si>
-    <t>中金称白酒可配</t>
+    <t>中共中央宣传部发布中共成立100周年庆祝活动标识</t>
+  </si>
+  <si>
+    <t>疫苗接种日报告来了</t>
+  </si>
+  <si>
+    <t>民政部公布2021年第二批涉嫌非法社会组织名单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"补偿式返乡"要来？ </t>
+  </si>
+  <si>
+    <t>三星堆最大青铜尊浮土清理露真容</t>
+  </si>
+  <si>
+    <t>李克强详解延续两项普惠小微企业政策</t>
+  </si>
+  <si>
+    <t>今年再为企业新增减税八百亿</t>
+  </si>
+  <si>
+    <t>贷款延期还本付息政策延至今年底</t>
+  </si>
+  <si>
+    <t>提高制造业研发费用加计扣除比例</t>
+  </si>
+  <si>
+    <t>今年结构性减税力度最大政策</t>
+  </si>
+  <si>
+    <t>H&amp;M碰瓷新疆棉花</t>
+  </si>
+  <si>
+    <t>电商平台集体下架</t>
+  </si>
+  <si>
+    <t>回应遭怒批</t>
+  </si>
+  <si>
+    <t>店铺被百度高德地图屏蔽</t>
+  </si>
+  <si>
+    <t>深挖背后还有阿迪耐克等</t>
+  </si>
+  <si>
+    <t>中储粮：新疆棉花中国还不够用</t>
+  </si>
+  <si>
+    <t>人民日报：H&amp;M你该掂量掂量了</t>
+  </si>
+  <si>
+    <t>两市调整</t>
+  </si>
+  <si>
+    <t>解密A股资金面</t>
+  </si>
+  <si>
+    <t>茅板块迎机会?</t>
+  </si>
+  <si>
+    <t>港股体育股爆发</t>
+  </si>
+  <si>
+    <t>制造业板块迎利好</t>
+  </si>
+  <si>
+    <t>邓晓峰冯柳林园持仓变动来了</t>
   </si>
   <si>
     <t>直播</t>
   </si>
   <si>
-    <t>电池企业竞争格局如何演变</t>
-  </si>
-  <si>
-    <t>环保板块低估值掘金</t>
-  </si>
-  <si>
-    <t>上车秘籍</t>
-  </si>
-  <si>
-    <t>三大指数高开</t>
-  </si>
-  <si>
-    <t>券商:反攻号角吹响</t>
-  </si>
-  <si>
-    <t>抗跌明星基金是怎么操作的？原因...</t>
+    <t>这只锂电净利暴增44倍</t>
+  </si>
+  <si>
+    <t>这类厂商有望实现戴维斯双击</t>
+  </si>
+  <si>
+    <t>秘籍</t>
+  </si>
+  <si>
+    <t>沪指翻红</t>
+  </si>
+  <si>
+    <t>体育股逆市爆发!李宁大涨8%</t>
+  </si>
+  <si>
+    <t>129家公司近5年净利润增长率超20%</t>
   </si>
   <si>
     <t>大盘</t>
   </si>
   <si>
-    <t>股市调整1-2周内可以结束</t>
-  </si>
-  <si>
-    <t>A股账户首破1.8亿个</t>
+    <t>反弹一触即发</t>
+  </si>
+  <si>
+    <t>适度布局军工</t>
+  </si>
+  <si>
+    <t>中金辐照等四股申购</t>
   </si>
   <si>
     <t>板块</t>
   </si>
   <si>
-    <t>化工板块走强</t>
-  </si>
-  <si>
-    <t>银行板块异动</t>
-  </si>
-  <si>
-    <t>注册制次新股走强</t>
+    <t>白酒板块回调</t>
+  </si>
+  <si>
+    <t>碳中和概念走低</t>
+  </si>
+  <si>
+    <t>纺织概念大幅高开</t>
   </si>
   <si>
     <t>个股</t>
   </si>
   <si>
-    <t xml:space="preserve">中盐化工涨停 </t>
-  </si>
-  <si>
-    <t>南京银行创新高</t>
-  </si>
-  <si>
-    <t>南极光再度涨停</t>
+    <t>协鑫能科跌停</t>
+  </si>
+  <si>
+    <t>否认京东方收购 彩虹股份复牌大跌</t>
   </si>
   <si>
     <t>观点</t>
   </si>
   <si>
-    <t>3412点附近是关键</t>
-  </si>
-  <si>
-    <t>星石投资:A股牛市远未结束！</t>
+    <t>汽车芯片:自动驾驶浪潮之巅</t>
+  </si>
+  <si>
+    <t>盘面弱不宜惯性看空</t>
   </si>
   <si>
     <t>博客</t>
   </si>
   <si>
-    <t>IPO市场化任重道远</t>
-  </si>
-  <si>
-    <t>三个要点要注意</t>
-  </si>
-  <si>
-    <t>坐等大反弹</t>
+    <t>周四反抽看点</t>
+  </si>
+  <si>
+    <t>地量信号是加仓信号</t>
+  </si>
+  <si>
+    <t>短期或迎重生</t>
   </si>
   <si>
     <t>研报</t>
   </si>
   <si>
-    <t>波动带来新能源布局良机</t>
-  </si>
-  <si>
-    <t>军工行业景气持续上行</t>
+    <t>布局动力电池回收业务相关企业</t>
+  </si>
+  <si>
+    <t>大中客出口迎机遇</t>
   </si>
   <si>
     <t>策略</t>
   </si>
   <si>
-    <t>A股市场短期有望企稳</t>
-  </si>
-  <si>
-    <t>基金经理梳理出四大方向</t>
+    <t>碳中和催生光伏长期风口</t>
+  </si>
+  <si>
+    <t>医药及科技板块仍是重点</t>
   </si>
   <si>
     <t>解读</t>
   </si>
   <si>
-    <t>出口超预期助力短线企稳</t>
-  </si>
-  <si>
-    <t>美国投资周期开启了么？</t>
-  </si>
-  <si>
-    <t>本周有机会出巨大阳线 要有解套潮</t>
-  </si>
-  <si>
-    <t>美股反弹油价狂飙 抱团资金现新方向</t>
-  </si>
-  <si>
-    <t>会议受益方向降临 这个方向政策超预期</t>
-  </si>
-  <si>
-    <t>转折信号调整结束 A股今年将是加速上涨年</t>
-  </si>
-  <si>
-    <t>上证60分钟背离反弹继续</t>
-  </si>
-  <si>
-    <t>3月8日热点分析及实战策略</t>
-  </si>
-  <si>
-    <t>美股深V反转 有望提振A股情绪回升</t>
-  </si>
-  <si>
-    <t>3月8日股指期货指数24</t>
-  </si>
-  <si>
-    <t>周末多重利好 市场有望震荡反弹回升</t>
-  </si>
-  <si>
-    <t>今日反弹是否会冲高回落</t>
-  </si>
-  <si>
-    <t>暖风频吹 反攻号角能否吹响</t>
-  </si>
-  <si>
-    <t>周末重磅消息叠加后市独家策略</t>
-  </si>
-  <si>
-    <t>3月8日利好及其影响个股</t>
-  </si>
-  <si>
-    <t>19股连续6日主力资金净流入</t>
-  </si>
-  <si>
-    <t>A股漂亮50行情 现处于何阶段</t>
-  </si>
-  <si>
-    <t>本周大涨 三条涨停主线</t>
-  </si>
-  <si>
-    <t>本周市场迎来超跌反弹</t>
-  </si>
-  <si>
-    <t>高开高走 本周继续挑战3572</t>
-  </si>
-  <si>
-    <t>又一板块具备大波段上涨的条件</t>
-  </si>
-  <si>
-    <t>指数的熊市 个股的牛市</t>
-  </si>
-  <si>
-    <t>美国金融市场换刀</t>
-  </si>
-  <si>
-    <t>反弹是否冲高回落</t>
-  </si>
-  <si>
-    <t>政府工作报告再提深化国企混改 A股哪些板块将受益？</t>
-  </si>
-  <si>
-    <t>明星基金关注点疑似转向 最新调研曝光 新宠变成这类股</t>
-  </si>
-  <si>
-    <t>最厉害前妻:被扫地出门 特佳创始人联合二股东图谋复辟</t>
-  </si>
-  <si>
-    <t>国泰君安:蓝筹股并非“陨落” 而是“新兴”与“分化”</t>
+    <t>跌落神坛的头部券商股</t>
+  </si>
+  <si>
+    <t>注意控仓及把握配置方向</t>
+  </si>
+  <si>
+    <t>失守半年线百日无生机</t>
+  </si>
+  <si>
+    <t>公司涨到自己都怕：呼吁别再买了</t>
+  </si>
+  <si>
+    <t>资金动手 现在多套点后面翻倍涨</t>
+  </si>
+  <si>
+    <t>这类股今天直接大涨</t>
+  </si>
+  <si>
+    <t>市场买盘不足 大盘或继续震荡</t>
+  </si>
+  <si>
+    <t>不确定性大增 指数继续向下寻求支撑</t>
+  </si>
+  <si>
+    <t>HM遭斩杀 这些服装公司受益</t>
+  </si>
+  <si>
+    <t>上证第二次倒鸭嘴随时会结束</t>
+  </si>
+  <si>
+    <t>3月25日股指期货指数-11</t>
+  </si>
+  <si>
+    <t>注意抄底的机会来了</t>
+  </si>
+  <si>
+    <t>9股股东户数连续4期下降</t>
+  </si>
+  <si>
+    <t>指数下跌会毁掉行情吗</t>
+  </si>
+  <si>
+    <t>市场诱空之后的碳中和能源结构与环保机会</t>
+  </si>
+  <si>
+    <t>短线将迎反弹</t>
+  </si>
+  <si>
+    <t>3月25日利好及其影响个股</t>
+  </si>
+  <si>
+    <t>短期市场或迎来新的重生机会</t>
+  </si>
+  <si>
+    <t>A股跌跌不休港股抹去年内涨幅</t>
+  </si>
+  <si>
+    <t>小心黑周四</t>
+  </si>
+  <si>
+    <t>铁心做多的资金很强 今天翻天巨变</t>
+  </si>
+  <si>
+    <t>市场第二只脚悄然迈出</t>
+  </si>
+  <si>
+    <t>三大热点继续做多</t>
+  </si>
+  <si>
+    <t>三热点继续做多</t>
+  </si>
+  <si>
+    <t>小盘快涨的风格很难持续 茅板块长线投资迎来好时机</t>
+  </si>
+  <si>
+    <t>企业密集披露 电力钢铁有望率先推进"碳达峰""碳中和"</t>
+  </si>
+  <si>
+    <t>南网能源成首只10倍股 个别机构在投机道路上走太远</t>
+  </si>
+  <si>
+    <t>制造业板块利好 今年结构性减税力度最大的政策来了</t>
   </si>
   <si>
     <t>行业</t>
   </si>
   <si>
-    <t>快看 有你手中的票吗？这些企业一季度大幅预增</t>
-  </si>
-  <si>
-    <t>未来5年数字中国建设路线图 发展云计算等七大重点产业</t>
-  </si>
-  <si>
-    <t>半导体硅片上调报价 行业景气度有望持续提升</t>
-  </si>
-  <si>
-    <t>稳健医疗股价暴跌 “后疫情时代”盈利能否持续仍是谜</t>
-  </si>
-  <si>
-    <t>新能源车动见|</t>
-  </si>
-  <si>
-    <t>上游持续涨价 电池企业格局将如何演变</t>
-  </si>
-  <si>
-    <t>半导体动态|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">芯片进口量飙升60% 全球最大硅片厂涨价 </t>
+    <t>种业发展迎春天 多家种业公司2020年业绩报喜</t>
+  </si>
+  <si>
+    <t>每3.2天有1家拟上科创公司摁下终止键:中信等坐火山口</t>
+  </si>
+  <si>
+    <t>A股市场IPO节奏稳步加快 一季度IPO家数同比翻番</t>
+  </si>
+  <si>
+    <t>社保基金重仓股曝光:减持中国人保套现30亿 新进22股</t>
+  </si>
+  <si>
+    <t>券商荐股精选|</t>
+  </si>
+  <si>
+    <t>这类厂商有望扶摇直上 实现戴维斯双击</t>
   </si>
   <si>
     <t>硬核研报|</t>
   </si>
   <si>
-    <t>诺奖级理论已变为现实 这些公司加速布局(股)</t>
-  </si>
-  <si>
-    <t>牛年首个超级打新周来了:11只新股登场 中一签望赚6万</t>
-  </si>
-  <si>
-    <t>爱建证券屡被罚：卖资管产品承诺收益 不签风险提示书</t>
-  </si>
-  <si>
-    <t xml:space="preserve">直播| </t>
-  </si>
-  <si>
-    <t>深挖价值洼地和景气度拐点</t>
-  </si>
-  <si>
-    <t>2021向阳而升</t>
-  </si>
-  <si>
-    <t>上车</t>
+    <t>涨价行情最大受益者已挖出 原料半年涨60%</t>
+  </si>
+  <si>
+    <t>碳中和动态|</t>
+  </si>
+  <si>
+    <t>碳中和成为A股最强概念 投资者如何布局？</t>
+  </si>
+  <si>
+    <t>每3.2天就有一家拟上科创板公司终止：中信等坐火山口</t>
+  </si>
+  <si>
+    <t>多只债券被抛售:地产公司踩红线 红星美凯龙能否渡劫?</t>
+  </si>
+  <si>
+    <t>直播|</t>
+  </si>
+  <si>
+    <t>风格切换白酒还有机会吗</t>
+  </si>
+  <si>
+    <t>食品饮料行业</t>
+  </si>
+  <si>
+    <t>赚钱秘诀</t>
   </si>
   <si>
     <t>研报|</t>
   </si>
   <si>
-    <t>蓝筹股并非陨落而是分化</t>
-  </si>
-  <si>
-    <t>美国投资周期开启了吗</t>
+    <t>跌落神坛的头部券商</t>
+  </si>
+  <si>
+    <t>汽车芯片 自动驾驶浪潮之巅</t>
   </si>
   <si>
     <t>公司</t>
   </si>
   <si>
-    <t>万科的猪场战事:是不是在借猪圈地？为什么养猪</t>
-  </si>
-  <si>
-    <t>华夏幸福王文学变现退出:国资入局 维信诺将无实控人</t>
-  </si>
-  <si>
-    <t>证券界痛失老兵:安信证券副总裁李军因病去世 仅53岁</t>
-  </si>
-  <si>
-    <t>金城医药商誉爆雷预亏近5亿 200吨尼古丁项目何时落地</t>
+    <t>排队5年后撤回IPO:万达商业等不起 再回港股上市</t>
+  </si>
+  <si>
+    <t>股东排队跑路：牛股三和管桩高位跌停 游资胜利大逃亡</t>
+  </si>
+  <si>
+    <t>益客食品大而不强:鸡鸭全产业链难御风险 业绩骤降6成</t>
+  </si>
+  <si>
+    <t>5个月暴跌75% 开心汽车遭子公司揭发虚伪合资流水造假</t>
   </si>
   <si>
     <t>地产</t>
   </si>
   <si>
-    <t>债务高企、业绩疲软双重暴击 亿达中国卖子求生</t>
-  </si>
-  <si>
-    <t>十大明星基金经理仅两人抗住杀跌 拒买白酒成最大优势</t>
-  </si>
-  <si>
-    <t>高特佳创始人蔡达建被老婆开除 公司二股东要抢班夺权</t>
-  </si>
-  <si>
-    <t>少赚21亿后 海底捞大变样:免费牛肉粒没了</t>
-  </si>
-  <si>
-    <t>陷舆论漩涡</t>
-  </si>
-  <si>
-    <t>券商再融资热潮不减:华创阳安定增80亿 输血华创证券</t>
-  </si>
-  <si>
-    <t>碳中和日报</t>
-  </si>
-  <si>
-    <t>单个药物收入达47亿美元 这些公司在布局</t>
-  </si>
-  <si>
-    <t>房地产行业最具影响力的10位女性董事长</t>
-  </si>
-  <si>
-    <t>奈雪的茶拟赴港上市：业绩亏损 奈雪PRO将是扩张主力</t>
-  </si>
-  <si>
-    <t>万科的“猪场战事”：是不是在借猪圈地？为什么养猪</t>
-  </si>
-  <si>
-    <t>产投启示录：腾讯、阿里、京东、小米的贪吃蛇游戏</t>
-  </si>
-  <si>
-    <t>基金抱团重仓股“过山车”3月新基金发行降温</t>
-  </si>
-  <si>
-    <t>公募行业女性基金经理占比24.38% 震荡市中表现更稳健</t>
-  </si>
-  <si>
-    <t>恒指高开0.91%</t>
-  </si>
-  <si>
-    <t>中金：港股更具吸引力</t>
-  </si>
-  <si>
-    <t>房地产行业最具影响力10位女性董事长</t>
-  </si>
-  <si>
-    <t>消息指百度最快本周招股</t>
-  </si>
-  <si>
-    <t>传B站本周寻求通过在港聆讯</t>
-  </si>
-  <si>
-    <t>卖子保命深陷财务危机 亿达中国还能讲好产业园故事吗？</t>
-  </si>
-  <si>
-    <t>美图公司：3月5日购买以太币和比特币 总耗资4000万美元</t>
-  </si>
-  <si>
-    <t>八年“联姻”终要散:与蒙牛一别两宽 达能能生几分欢喜?</t>
-  </si>
-  <si>
-    <t>汽车之家开启招股：年媒体服务营收降5% 3月15日上市</t>
-  </si>
-  <si>
-    <t>中国有赞的谜操作：母公司私有化 子公司有赞科技港交所再上市</t>
-  </si>
-  <si>
-    <t>奈雪的茶拟赴港上市：业绩亏损 新店“奈雪PRO”将是扩张主力</t>
-  </si>
-  <si>
-    <t>恒生科技指数直线跳水跌超1% 小米、京东跌超3%</t>
-  </si>
-  <si>
-    <t>国泰君安(香港)：宝龙地产给予买入评级 目标价8港元</t>
-  </si>
-  <si>
-    <t>耀才证券植耀辉：就业数据佳美股反弹 港股续维持震荡格局</t>
-  </si>
-  <si>
-    <t>沙特能源设施遇袭 油价飙升突破7</t>
-  </si>
-  <si>
-    <t>周末要闻：美参议院通过1.9万亿美元新冠纾困救助法案</t>
-  </si>
-  <si>
-    <t>外盘头条：看跌愈发流行 大量债券交易员押注美债空头</t>
-  </si>
-  <si>
-    <t>沙特石油重镇遇袭 油价飙升</t>
-  </si>
-  <si>
-    <t>日韩股市高开 日经指数上涨1.2%</t>
-  </si>
-  <si>
-    <t>加拿大卫生部部长：疫苗护照问题已列入讨论日程</t>
-  </si>
-  <si>
-    <t>传比尔·盖茨投资的Evolv Technology将通过SPAC交易在美上市</t>
-  </si>
-  <si>
-    <t>英国外卖平台Deliveroo上市在即：用户获配5000万英镑新股</t>
-  </si>
-  <si>
-    <t>两油跳空高开，沙特石油重镇港口遭无人机袭击</t>
-  </si>
-  <si>
-    <t>美参院艰难通过1.9万亿美元经济救助计划 拜登:美国人迫切需要它</t>
-  </si>
-  <si>
-    <t>美股精选： 每日大行评级丨中信力挺百度再涨4...</t>
-  </si>
-  <si>
-    <t>通胀升温之下 美国市场投资者正转向周期性股票和海外市场</t>
-  </si>
-  <si>
-    <t>又一车企入局！阿斯顿马丁宣布2025年开始生产电动汽车</t>
-  </si>
-  <si>
-    <t>饥寒交迫里“揩油”？！美国得州多收了160亿美元电费…</t>
-  </si>
-  <si>
-    <t>美国机构调查：Facebook招聘和晋升方面存在“系统性”歧视</t>
-  </si>
-  <si>
-    <t>看跌愈发流行 大量债券交易员押注美债空头</t>
-  </si>
-  <si>
-    <t>希腊将启动“无新冠岛计划”助推旅游重振</t>
-  </si>
-  <si>
-    <t>李斌放话 今年有BBA的地方就会有蔚来</t>
-  </si>
-  <si>
-    <t>拜登宣布将从本月开始发放1400美元纾困金</t>
+    <t>万通往事 地产思想家、控制权战争与失去的20年</t>
+  </si>
+  <si>
+    <t>基金减持近半被疑明股实债 中南建设又陷质量投诉泥潭</t>
+  </si>
+  <si>
+    <t>海富通新发基遇冷：权益类落后同行 吕超越凭实力亏损</t>
+  </si>
+  <si>
+    <t>蒙牛乳业净利降14%</t>
+  </si>
+  <si>
+    <t>腾邦国际母子孙三代皆被申请破产</t>
+  </si>
+  <si>
+    <t>景瑞控股再转型 卖房百亿不挣钱</t>
+  </si>
+  <si>
+    <t>马化腾首度回应监管</t>
+  </si>
+  <si>
+    <t>券商荐股</t>
+  </si>
+  <si>
+    <t>市占第一的隐藏冠军 检测巨头续写十倍传奇</t>
+  </si>
+  <si>
+    <t>腾讯赚了1227亿 马化腾回应监管</t>
+  </si>
+  <si>
+    <t>人均年薪81万</t>
+  </si>
+  <si>
+    <t>小米2020年净赚130亿</t>
+  </si>
+  <si>
+    <t>面临缺芯难题</t>
+  </si>
+  <si>
+    <t>周受资跳槽</t>
+  </si>
+  <si>
+    <t>美国SEC再下黑手：中概股重挫 赴港二次上市潮将至？</t>
+  </si>
+  <si>
+    <t>快手电商意外崛起 万亿规模还有多远？</t>
+  </si>
+  <si>
+    <t>年报揭示百亿级私募变化 高毅资产持股市值最高</t>
+  </si>
+  <si>
+    <t>"固收+"变"固收-"部分基金敲响警钟</t>
+  </si>
+  <si>
+    <t>基金被套怎办</t>
+  </si>
+  <si>
+    <t>美国SEC下“黑手”：赴港上市潮将至？</t>
+  </si>
+  <si>
+    <t>腾讯2020赚1227亿：人均年薪81万</t>
+  </si>
+  <si>
+    <t>马化腾回应监管</t>
+  </si>
+  <si>
+    <t>港股恒指低开1.04% 百度跌9%小米跌5%腾讯跌4%</t>
+  </si>
+  <si>
+    <t>国际部总裁周受资离职 跳槽字节跳动</t>
+  </si>
+  <si>
+    <t>小米业绩电话会</t>
+  </si>
+  <si>
+    <t>腾讯业绩电话会：有哪些投资亮点</t>
+  </si>
+  <si>
+    <t>小米公布重大人事调整：卢伟冰晋升集团高级副总裁</t>
+  </si>
+  <si>
+    <t>安踏退出BCI组织李宁将新疆棉写在标签上：李宁大涨8% 安踏涨超6%</t>
+  </si>
+  <si>
+    <t>恒生科技指数暴跌近5% 小米跌8%阿里跌6%腾讯美团跌5%</t>
+  </si>
+  <si>
+    <t>腾讯2020赚1227亿：人均年薪81万 马化腾首度回应监管</t>
+  </si>
+  <si>
+    <t>小米2020年赚130亿：周受资跳槽 面临缺芯难题</t>
+  </si>
+  <si>
+    <t>发生了什么？腾讯音乐、爱奇艺、唯品会同日暴跌20%</t>
+  </si>
+  <si>
+    <t>安踏体育净利润51亿元超越阿迪达斯 靠这三招开启逆袭之路</t>
+  </si>
+  <si>
+    <t>快手上市后首份财报亮相  港股股价应声大跌12.02%</t>
+  </si>
+  <si>
+    <t>25万人撑起的京东物流 是物流界的富士康吗？</t>
+  </si>
+  <si>
+    <t>美股收跌科技股领跌 纳指收跌2%</t>
+  </si>
+  <si>
+    <t>美国SEC再下“黑手”：中概股集体重挫 赴港二次上市潮将至？</t>
+  </si>
+  <si>
+    <t>美国14个州起诉拜登政府 反对暂停石油和天然气租赁</t>
+  </si>
+  <si>
+    <t>美财长耶伦对银行业派息和股票回购持开放态度</t>
+  </si>
+  <si>
+    <t>美联储Williams：高失业率将使通胀保持在低水平</t>
+  </si>
+  <si>
+    <t>货船脱浅工作取得进展 苏伊士运河有望尽快恢复通航</t>
+  </si>
+  <si>
+    <t>欧盟收紧疫苗出口限制 或加剧与盟友和药企的紧张关系</t>
+  </si>
+  <si>
+    <t>小摩：美国散户正在“进化” 开始学会对冲风险了</t>
+  </si>
+  <si>
+    <t>买车需注意！特斯拉汽车收比特币了 但税务问题令人头大</t>
+  </si>
+  <si>
+    <t>美国人因新冠疫情相关欺诈损失3.82亿美元</t>
+  </si>
+  <si>
+    <t>美股精选： 聚焦中概 | 热门中概股集体重挫...</t>
+  </si>
+  <si>
+    <t>英特尔新CEO试图修复与苹果之间关系，称双方竞争是有趣的</t>
+  </si>
+  <si>
+    <t>5年期美债标售又敲响警钟 明日的7年期标售会否再次制造灾难？</t>
+  </si>
+  <si>
+    <t>高盛事件后 瑞信将发放2万美元特别奖金安抚初级员工</t>
+  </si>
+  <si>
+    <t>活久见！巨轮“堵死”全球输油生命线 油价一夜暴涨6%</t>
+  </si>
+  <si>
+    <t>阿根廷副总统：我们无法偿还IMF的450亿美元债务</t>
+  </si>
+  <si>
+    <t>资管巨头富达投资申请上市比特币ETF</t>
+  </si>
+  <si>
+    <t>反垄断大棒下：亚马逊、Facebook政府游说开支位列美国前二</t>
+  </si>
+  <si>
+    <t>阿斯利康在美疫苗试验数据更新：有效性76%，低于此前数值</t>
   </si>
   <si>
     <t>新浪财经诚聘国际财经新闻编辑若干</t>
   </si>
   <si>
-    <t>[IT业界]迪斯尼《寻龙传说》首周末北美票房不佳</t>
-  </si>
-  <si>
-    <t>遭遇倒春寒 部分绩优基金经理表现“抗跌”(附基)</t>
-  </si>
-  <si>
-    <t>近5年257只权益基金涨超100% 长跑心态持优基</t>
-  </si>
-  <si>
-    <t>基金投顾将扩容 20多家机构参与新一轮答辩</t>
-  </si>
-  <si>
-    <t>大咖说:女性该如何投资理财？小盘股春天来了？</t>
-  </si>
-  <si>
-    <t>杨德龙罗云裳:女性如何投资？与男性有啥不一样？</t>
-  </si>
-  <si>
-    <t>“她经济”下，女性如何巧用工具为财富增值？</t>
-  </si>
-  <si>
-    <t>暖风吹向“低估值” 基金经理加速调仓换股</t>
-  </si>
-  <si>
-    <t>汇安基金道歉上热搜 牛年跌超20%基金已近百只</t>
-  </si>
-  <si>
-    <t>刘新华:建议修改基金法 建立和完善基金长期持有机制</t>
-  </si>
-  <si>
-    <t>“差等生”变成“领头羊”油气QDII基金迎来春天</t>
-  </si>
-  <si>
-    <t>工银瑞信赵蓓、中信建投武超则：如何布局本轮调整窗口</t>
-  </si>
-  <si>
-    <t>追求安全边际 定增成基金建仓新方向</t>
+    <t>[IT业界]用比特币买特斯拉汽车：买家可能收巨额税单</t>
+  </si>
+  <si>
+    <t>邓晓峰、冯柳、林园 私募大佬们持仓变动来了</t>
+  </si>
+  <si>
+    <t>基金减持近半被疑明股实债 中南建设陷质量投诉</t>
+  </si>
+  <si>
+    <t>公募基金年度“交作业” 行业分化显著小公司艰难</t>
+  </si>
+  <si>
+    <t>大咖说：白酒还有机会吗？基金被套怎么办？</t>
+  </si>
+  <si>
+    <t>工银瑞信赵栩：如何把握深证红利指数配置机会</t>
+  </si>
+  <si>
+    <t>上投陈思郁、广发郭磊:如何捕捉2021投资机遇?</t>
+  </si>
+  <si>
+    <t>新发基金画风大变 价值型持有期产品骤增</t>
+  </si>
+  <si>
+    <t>海富通新发基金为何遇冷？权益类落后同行 吕超越亏损</t>
+  </si>
+  <si>
+    <t>证监会：少数证券基金机构及从业人员合规底线不牢</t>
+  </si>
+  <si>
+    <t>15只“固收+”变“固收-” 部分基金敲响警钟</t>
   </si>
   <si>
     <t>私募华曜奖年度领军人物评选进行中</t>
   </si>
   <si>
-    <t>诺德基金阎安琪：“碳达峰、碳中和”下看好新能源汽车行业</t>
-  </si>
-  <si>
-    <t>A股女性基金经理大调查：14名铿锵玫瑰跻身前50 投资偏爱大消费</t>
-  </si>
-  <si>
-    <t>期市开盘：原油燃油涨停 沥青涨逾7%</t>
-  </si>
-  <si>
-    <t>欧佩克+不增产是沙特一次豪赌</t>
-  </si>
-  <si>
-    <t>OPEC+松绑政策似乎有所犹豫</t>
-  </si>
-  <si>
-    <t>通胀“火上浇油”：沙特油库遭无人机攻击</t>
-  </si>
-  <si>
-    <t>布伦特原油期货站上70美元/桶 为去年1月以来首次</t>
-  </si>
-  <si>
-    <t>豪气冲天三连阳！沙特稳定市场的决心不容置疑！</t>
-  </si>
-  <si>
-    <t>中信建投：马棕美豆相向而行 油脂市场强势不改</t>
-  </si>
-  <si>
-    <t>4月1日活猪调运将逐步限制 “北肉南运”或成趋势</t>
-  </si>
-  <si>
-    <t>美参议院通过1.9万亿美元经济刺激计划 有何影响？</t>
-  </si>
-  <si>
-    <t>进出口数据出炉 油脂、玉米价格将如何演绎？</t>
-  </si>
-  <si>
-    <t>一条消息砸崩了金属市场：铜、镍携手暴跌</t>
-  </si>
-  <si>
-    <t>俄军密集发射圆点导弹 摧毁美石油交易市场</t>
-  </si>
-  <si>
-    <t>光大期货：非农就业数据好于预期 黄金续跌</t>
-  </si>
-  <si>
-    <t>机构：A股近期为何走软？未来又将如何演绎？</t>
-  </si>
-  <si>
-    <t>徐小庆：一直上涨的大宗商品价格何时见顶回落</t>
+    <t>逾七成量化对冲基金年内获正收益 个别产品大举减仓</t>
+  </si>
+  <si>
+    <t>3月以来公募基金累计调研近2000次 碳中和概念公司成调研重点</t>
+  </si>
+  <si>
+    <t>新上任基金经理躺枪:基金净值急降 菜鸟vs老法师谁更抗跌?</t>
+  </si>
+  <si>
+    <t>监管正式出手！这家第三方基金销售公司被重罚</t>
+  </si>
+  <si>
+    <t>早盘能化品涨幅居前：原油涨超2%</t>
+  </si>
+  <si>
+    <t>苏伊士河道受阻或影响原油运输</t>
+  </si>
+  <si>
+    <t>原油反弹近6%</t>
+  </si>
+  <si>
+    <t>巨轮搁浅、海运大动脉堵塞 国际油价会怎么走</t>
+  </si>
+  <si>
+    <t>电力钢铁行业有望率先推进“碳达峰”“碳中和”</t>
+  </si>
+  <si>
+    <t>厕纸危机！高企浆价已传至下游 未来还会涨吗？</t>
+  </si>
+  <si>
+    <t>全球食品价格涨了？食糖和植物油价格涨幅最大</t>
+  </si>
+  <si>
+    <t>宏观看多情绪减弱 铁矿石压力来了?</t>
+  </si>
+  <si>
+    <t>苹果需理性看待天气影响</t>
+  </si>
+  <si>
+    <t>大豆看涨氛围浓厚</t>
+  </si>
+  <si>
+    <t>风险偏好回落 铁矿石承压</t>
+  </si>
+  <si>
+    <t>短纤关注做多机会</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金价收涨 耶伦一句话令黄金多头备受鼓舞 </t>
+  </si>
+  <si>
+    <t>期指中期前景不必过于悲观 趋势性机会仍需等待</t>
+  </si>
+  <si>
+    <t>五矿经易：环保限产长期化 焦炭何时止跌？</t>
   </si>
   <si>
     <t>DCE一周观察</t>
   </si>
   <si>
-    <t>年内美联储仍有转向风险</t>
-  </si>
-  <si>
-    <t>华创宏观：2月非农超预期 年内美联储仍有转向风险&gt;&gt;</t>
+    <t>美债收益率上升驱动美元创年内新高</t>
+  </si>
+  <si>
+    <t>美债收益率上升驱动美元创年内新高 全球金融市场遇新一轮震荡&gt;&gt;</t>
   </si>
   <si>
     <t>全球财经直播</t>
@@ -697,277 +709,274 @@
     <t>人民币汇率</t>
   </si>
   <si>
-    <t>美参议院通过1.9万亿美元纾困计划 美元将再走弱</t>
-  </si>
-  <si>
-    <t>东北宏观：海外宏观周度观察 美联储不够鸽即是鹰</t>
-  </si>
-  <si>
-    <t>招商宏观：美联储为什么不倾听金融市场的呼声？</t>
-  </si>
-  <si>
-    <t>屠光绍、姜洋联名建议：加快推出人民币汇率期货</t>
-  </si>
-  <si>
-    <t>受海外债市连带影响 中国2月外储下降57亿美元</t>
-  </si>
-  <si>
-    <t>看点：美将公布关键通胀数据 欧央行利率决议来袭</t>
-  </si>
-  <si>
-    <t>中银证券管涛：美股剧震凸显美联储的两难处境</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这家公司耗资4000万美元购买数字货币 </t>
-  </si>
-  <si>
-    <t>金价收复千七！美国刺激方案获通过</t>
-  </si>
-  <si>
-    <t>开盘劲爆行情！金价短线急涨、突破1710美元 ...</t>
-  </si>
-  <si>
-    <t>美联储的鲍威尔或许改变了量化宽松的规则？</t>
-  </si>
-  <si>
-    <t>华创宏观：2月非农超预期 年内美联储仍有转向风险</t>
-  </si>
-  <si>
-    <t>东北宏观：海外宏观周度观察 美联储“不够鸽即是...</t>
-  </si>
-  <si>
-    <t>专家：若通胀达2%并向2.2%迈进 美联储可能...</t>
-  </si>
-  <si>
-    <t>美股剧震凸显美联储的两难处境</t>
-  </si>
-  <si>
-    <t>Axi Group策略师：若通胀达2%并向2....</t>
-  </si>
-  <si>
-    <t>美股大逆转 道指狂拉800点！美联储布拉德：美...</t>
-  </si>
-  <si>
-    <t>若攻克该阻力 金价恐还有近30美元大涨空间</t>
-  </si>
-  <si>
-    <t>非农就业数据好于预期 黄金延续下跌</t>
-  </si>
-  <si>
-    <t>专家答疑</t>
-  </si>
-  <si>
-    <t>深交所通报国开债异常交易情况</t>
-  </si>
-  <si>
-    <t>关于临时调整“国开2008”“国开2009”交易有关公告</t>
-  </si>
-  <si>
-    <t>涉嫌操纵债市 国开债离奇暴涨谁获利？</t>
-  </si>
-  <si>
-    <t>天风研究：如何看目前转债市场的估值水平？</t>
-  </si>
-  <si>
-    <t>评论：宏观政策渐进式回归 加强定向、相机调控</t>
-  </si>
-  <si>
-    <t>评论：宏观政策“不急转弯” 意在中国经济行稳致远</t>
-  </si>
-  <si>
-    <t>债市聚焦：美债收益率上行 美联储与市场的供需错配</t>
-  </si>
-  <si>
-    <t>国海证券：通胀上行期 债市怎么看？</t>
-  </si>
-  <si>
-    <t>方正固收：关注3、4月到期与再融资压力</t>
-  </si>
-  <si>
-    <t>招商固收：举债“内卷化” 融资节奏已经发生变化</t>
-  </si>
-  <si>
-    <t>江海证券:目前债市面临的两大背离 预期与实际</t>
-  </si>
-  <si>
-    <t>美国1.9万亿美元刺激计划获通过！6大机构解读市场影响</t>
+    <t>避险升温，美元创四个月新高 瑞士央行决议来袭</t>
+  </si>
+  <si>
+    <t>评论：美债收益率走高宣告流动性行情的结束</t>
+  </si>
+  <si>
+    <t>欧元区气候压力测试 各国央行将迎绿色监管新挑战</t>
+  </si>
+  <si>
+    <t>全球通胀预期升温 穆迪首席：高通胀只是短期现象</t>
+  </si>
+  <si>
+    <t>美元升至四个月高位 黄金止跌反弹，油价大涨6%</t>
+  </si>
+  <si>
+    <t>鲍威尔证词盖过美元走高影响 金价一度涨逾10美元</t>
+  </si>
+  <si>
+    <t>美元依然是“百兽之王” 两大优势支撑其保持高位</t>
+  </si>
+  <si>
+    <t>马斯克无力回天，比特币持续下跌</t>
+  </si>
+  <si>
+    <t>耶伦一句话令黄金多头备受鼓舞</t>
+  </si>
+  <si>
+    <t>光大期货：避险情绪再起 黄金小幅上涨</t>
+  </si>
+  <si>
+    <t>黄金交易提醒：避险情绪助金价逆势上行，今日或迎...</t>
+  </si>
+  <si>
+    <t>5年期美债标售又敲响警钟 明日的7年期标售会否...</t>
+  </si>
+  <si>
+    <t>信保狂亏、踩雷假黄金案后  人保重回C位有多难</t>
+  </si>
+  <si>
+    <t>美联储不担心10年期美债收益率向上冲 然后会怎...</t>
+  </si>
+  <si>
+    <t>CNBC财经名嘴建议：将资产配置为5%的黄金和...</t>
+  </si>
+  <si>
+    <t>美元多头笑开花！欧元英镑齐下跌 黄金被困三角区</t>
+  </si>
+  <si>
+    <t>黄金涨势受限 美指创四个月新高！但须切记FED...</t>
+  </si>
+  <si>
+    <t>光大期货：黄金缺乏新的提振 短线仍存下跌空间</t>
+  </si>
+  <si>
+    <t>耶伦为增税辩护 华尔街大佬齐声警告</t>
+  </si>
+  <si>
+    <t>黄金专家答疑</t>
+  </si>
+  <si>
+    <t>债市在纠结中前进，终点在哪儿</t>
+  </si>
+  <si>
+    <t>债券大跌21%！红星美凯龙能否“渡劫”？</t>
+  </si>
+  <si>
+    <t>货币进入“走走停停”时代：年内降息仍值得期待</t>
+  </si>
+  <si>
+    <t>美联储不担心10年期美债收益率向上冲 然后会怎么样？</t>
+  </si>
+  <si>
+    <t>湖北"首发"地方债250亿 这些领域或成今年热门投向</t>
+  </si>
+  <si>
+    <t>避险情绪升温，债市强势未改 国债期货创近两个月新高</t>
+  </si>
+  <si>
+    <t>万亿级地方新增债本周开闸 穿透式监管提高资金效率</t>
+  </si>
+  <si>
+    <t>汇率暴跌、国债受挫 土耳其为何遭遇金融风暴？</t>
+  </si>
+  <si>
+    <t>SLR到期谁遭殃？PIMCO：美债市场流动性将付出代价</t>
+  </si>
+  <si>
+    <t>股市下挫叠加资金宽松提振 期现货延续震荡偏强格局</t>
+  </si>
+  <si>
+    <t>2021年二季度债市展望：是左侧机会 还是诱多风险？</t>
   </si>
   <si>
     <t>全球银行同业拆借利率</t>
   </si>
   <si>
-    <t>U.S. will defend troops and interests after rocket attack in Iraq, Defense Secretary says</t>
-  </si>
-  <si>
-    <t>Chinese foreign minister takes firm tone, calls for 'non-interference' between China and the U.S.</t>
-  </si>
-  <si>
-    <t>Asia-Pacific shares rise in 'fragile' market environment, oil jumps more than 2%</t>
-  </si>
-  <si>
-    <t>Dow futures rise more than 100 points after Senate passes $1.9 trillion Covid relief bill</t>
-  </si>
-  <si>
-    <t>Tesla closes below $600 for the first time since December — here's what's weighing the stock down</t>
-  </si>
-  <si>
-    <t>Why this rate-driven sell-off is hitting tech stocks hardest</t>
-  </si>
-  <si>
-    <t>Op-ed: Biden and Xi are offering dueling worldviews — the winner will shape the global future</t>
-  </si>
-  <si>
-    <t>Senate passes $1.9 trillion Covid relief bill, House Democrats plan final approval Tuesday</t>
-  </si>
-  <si>
-    <t>‘A side of shares’: Deliveroo to offer 50 million pounds of stock to customers</t>
-  </si>
-  <si>
-    <t>Central banks around the world want to get into digital currencies—here's why</t>
-  </si>
-  <si>
-    <t>Yes, 'vaccine passports' will help you travel abroad this year. But it won't be without challenges</t>
-  </si>
-  <si>
-    <t>Senate passes bill to tighten controls on China-funded Confucius Institutes on U.S. college campuses</t>
-  </si>
-  <si>
-    <t>Retailers pay more to fly everything from bikes to hot tubs from Asia amid U.S. port backup</t>
-  </si>
-  <si>
-    <t>Robinhood chooses the Nasdaq for its IPO, sources say</t>
-  </si>
-  <si>
-    <t>In battle with U.S., China to focus on 7 'frontier' technologies from chips to brain-computer fusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBA Commissioner Adam Silver supports new league that pays high schoolers $100,000 </t>
-  </si>
-  <si>
-    <t>Stocks face the crosscurrents of higher interest rates and fiscal stimulus in the week ahead</t>
-  </si>
-  <si>
-    <t>Too much stimulus in the U.S. may bring 'imported inflation' to China, economists warn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO says pandemic has caused more 'mass trauma' than WWII </t>
-  </si>
-  <si>
-    <t>Biden to mark ‘Bloody Sunday’ by signing voting-rights order</t>
-  </si>
-  <si>
-    <t>South Korea, U.S. scale back drills over virus, North Korea diplomacy</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/2021homepro/rsznb/index.htm?item=1</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/politics/2021-03/07/c_1127180786.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/politics/2021lh/2021-03/08/c_1127181526.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/politics/2021lh/2021-03/07/c_1127181422.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/politics/2021lh/2021-03/08/c_1127181504.htm</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-03-08/doc-ikkntiak5919637.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/2021qglh/</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8256</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-03-08/doc-ikknscsh9065758.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-03-08/doc-ikkntiak5959312.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikknscsh9077377.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikkntiak5946713.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikknscsh9096274.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/2021_lhqyjtayassb/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-03-08/doc-ikkntiak5910423.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-03-08/doc-ikkntiak5974873.shtml</t>
-  </si>
-  <si>
-    <t>https://cj.sina.com.cn/articles/view/2311077472/89c03e6002001jlrp?from=finance</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-03-08/doc-ikkntiak5960783.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-03-08/doc-ikkntiak5921244.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/cdhzagnssfjs/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-08/doc-ikknscsh9063044.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-08/doc-ikknscsh9063077.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/money/smjj/smgd/2021-03-08/doc-ikknscsh9041294.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-03-07/doc-ikkntiak5882632.shtml</t>
+    <t>Stock futures rise as pressure on tech stocks pauses</t>
+  </si>
+  <si>
+    <t>AstraZeneca revises Covid vaccine data with lower efficacy rate after accuracy questions</t>
+  </si>
+  <si>
+    <t>Ever Given, the massive cargo ship that ran aground in the Suez Canal, is still stuck</t>
+  </si>
+  <si>
+    <t>Top U.S. diplomat warns China threatens NATO security, calls for joint approach to counter Beijing</t>
+  </si>
+  <si>
+    <t>Germany's Merkel admits 'mistake' and reverses Easter lockdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fidelity to launch bitcoin ETF as investment giant builds its digital asset business </t>
+  </si>
+  <si>
+    <t>Why China is so far ahead of the U.S. in electric vehicle production</t>
+  </si>
+  <si>
+    <t>GameStop shares fall 33% on lack of transformation detail, possible share sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer travel is selling out in some places — see what's already booked and where  </t>
+  </si>
+  <si>
+    <t>The No. 1 reason top soccer coaches are losing their jobs</t>
+  </si>
+  <si>
+    <t>What are NFTs?</t>
+  </si>
+  <si>
+    <t>Photos show container ship stuck in Suez Canal</t>
+  </si>
+  <si>
+    <t>North Korea fires unidentified projectiles into Sea of Japan, U.S. allies say</t>
+  </si>
+  <si>
+    <t>Tech and GameStop losses have traders wondering if retail investors are losing interest in market</t>
+  </si>
+  <si>
+    <t>Yellen supports banks’ share buybacks. Sen. Warren wants BlackRock designated too big to fail</t>
+  </si>
+  <si>
+    <t>AstraZeneca missteps threaten to further erode trust in Covid vaccine as company seeks U.S. approval</t>
+  </si>
+  <si>
+    <t>Satellite imagery shows mega container ship blocking Egypt's Suez Canal</t>
+  </si>
+  <si>
+    <t>Erdogan calls on Turks to help stabilize the lira as investors fear a monetary crisis</t>
+  </si>
+  <si>
+    <t>EU announces plan for tougher controls on coronavirus vaccine exports</t>
+  </si>
+  <si>
+    <t>Egyptian billionaire: Erdogan firing Turkey's central bank chief is 'only going to add to the mess'</t>
+  </si>
+  <si>
+    <t>Covid updates: JetBlue brings back flight attendants; CDC says variants are fueling new cases</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/politics/2021-03/24/c_1127247261.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/politics/2021-03/24/c_1127251473.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/politics/2021-03/24/c_1127249341.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/politics/2021-03/24/c_1127247490.htm</t>
+  </si>
+  <si>
+    <t>http://my-h5news.app.xinhuanet.com/xhh-pc/article/?id=c880510b-75b5-4f4c-979a-5192e561d8cf</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7898015.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7782145.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-25/doc-ikknscsk1052994.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7804387.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-03-25/doc-ikknscsk1046380.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/hmdzxjcp/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0908957.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-03-25/doc-ikkntiam7769254.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-03-25/doc-ikknscsk1073454.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-03-25/doc-ikknscsk1053752.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-03-24/doc-ikkntiam7724027.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/review/jcgc/2021-03-25/doc-ikknscsk1058711.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/fdhdhgdgfh/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-03-24/doc-ikkntiam7698740.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7799571.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-25/doc-ikkntiam7977193.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-03-24/doc-ikkntiam7697294.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zldx/2021-03-25/doc-ikknscsk0951439.shtml</t>
   </si>
   <si>
     <t>http://live.finance.sina.com.cn/</t>
   </si>
   <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/23mk2nn74k9j?parentType=column&amp;parentId=a0e7a911df0a42bca9e4d8c70cf6967e</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8242</t>
+    <t>https://www.sinadaxue.cn/#/sina/single/m97kl65j2kjl?parentType=column&amp;parentId=a0e7a911df0a42bca9e4d8c70cf6967e</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-03-25/doc-ikknscsk1109011.shtml</t>
   </si>
   <si>
     <t>https://www.guosen.com.cn/gs/openaccount/?qrcode=1595905431891</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-03-08/doc-ikknscsh9145076.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-08/doc-ikknscsh9130588.shtml</t>
-  </si>
-  <si>
-    <t>http://finance.sina.com.cn/roll/index.d.html?cid=56605</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-03-07/doc-ikknscsh9037685.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/jjxw/2021-03-08/doc-ikkntiak5965440.shtml</t>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-03-25/doc-ikknscsk1144916.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-03-25/doc-ikkntiam7799582.shtml</t>
+  </si>
+  <si>
+    <t>http://roll.finance.sina.com.cn/finance/zq1/scyj/index.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-03-25/doc-ikknscsk1115740.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-03-25/doc-ikknscsk1110629.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/newstock/2021-03-25/doc-ikkntiam7910817.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/jyts/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-08/doc-ikknscsh9149705.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-08/doc-ikkntiak5994317.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-08/doc-ikkntiak5995189.shtml</t>
+    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-25/doc-ikkntiam7968046.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-25/doc-ikkntiam7966476.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-25/doc-ikknscsk1123069.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/marketresearch/2020-08-17/doc-iivhuipn9137795.shtml</t>
@@ -976,31 +985,40 @@
     <t xml:space="preserve">http://roll.finance.sina.com.cn/finance/zq1/zldx/index.shtml </t>
   </si>
   <si>
+    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-25/doc-ikkntiam7979628.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-25/doc-ikkntiam7964620.shtml</t>
+  </si>
+  <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=230808</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-07/doc-ikkntiak5901202.shtml</t>
+    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-25/doc-ikknscsk1088158.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/jsy/2021-03-25/doc-ikkntiam7890761.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=57563&amp;page=1</t>
   </si>
   <si>
-    <t>http://blog.sina.com.cn/s/blog_4151be0f0102yrrs.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_763294c70102ylfo.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_1bf37e1c70102ytqk.html?tj=fina</t>
+    <t>http://blog.sina.com.cn/s/blog_66314a7c0102zbyg.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_131ac399f0102zta5.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_131add862010301pu.html?tj=fina</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/reportch/jinqilin.shtml</t>
   </si>
   <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/668484004675/index.phtml</t>
-  </si>
-  <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/668483927325/index.phtml</t>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/669924325154/index.phtml</t>
+  </si>
+  <si>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/669932439129/index.phtml</t>
   </si>
   <si>
     <t>http://vip.stock.finance.sina.com.cn/q/go.php/vReport_List/kind/lastest/index.phtml</t>
@@ -1009,82 +1027,82 @@
     <t>http://licaishi.sina.com.cn/s/%E6%B7%B1%E6%B8%AF%E9%80%9A?ind_id=0&amp;t=1&amp;all=0&amp;fr=finance_top</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-03-08/doc-ikkntiak5971244.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/wm/2021-03-08/doc-ikkntiak5973738.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-03-08/doc-ikknscsh9134713.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/stockzmt/2021-03-08/doc-ikkntiak5972990.shtml</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_470dbd1d0102ygew.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_131651e210102zugw.html?tj=fina</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikknscsh9088569.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/money/fund/jjyj/2021-03-08/doc-ikkntiak5902638.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-03-08/doc-ikknscsh9066733.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-08/doc-ikknscsh9123722.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0942048.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0943415.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/stockzmt/2021-03-25/doc-ikkntiam7897268.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk1019917.shtml</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_62dc4e590102zomm.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://live.finance.sina.com.cn/bozhu/1658605145/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7899218.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/stocktalk/2021-03-25/doc-ikkntiam7904988.shtml</t>
   </si>
   <si>
     <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_List/kind/industry/index.phtml</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/marketresearch/2021-03-08/doc-ikknscsh9131397.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-03-08/doc-ikkntiak5973287.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/relnews/cn/2021-03-08/doc-ikknscsh9121671.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://www.sinadaxue.cn/#/sina/single/724k966238nj?parentType=column&amp;parentId=a0e7a911df0a42bca9e4d8c70cf6967e</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/brief/column/a0e7a911df0a42bca9e4d8c70cf6967e</t>
+    <t xml:space="preserve"> https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7850352.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk1002357.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/newstock/zxdt/2021-03-25/doc-ikkntiam7899871.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7952218.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/#/sina/brief/column/757bacbe813249689ab15c319e8baea4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.sinadaxue.cn/#/sina/single/1n5879mnm834?parentType=column&amp;parentId=757bacbe813249689ab15c319e8baea4</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/#/sina/brief/column/a601af39262c4bdd80274231f1fde815</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/#/sina/single/l348j2553862?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
   </si>
   <si>
     <t>https://www.sinadaxue.cn/#/sina/brief/column/ffea76e99fbd4caf936b258faabc8d8e</t>
   </si>
   <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/24j84mm3mk51?parentType=column&amp;parentId=ffea76e99fbd4caf936b258faabc8d8e</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/brief/column/a601af39262c4bdd80274231f1fde815</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/l348j22mm862?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-03-08/doc-ikkntiak5910399.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/quanshang/qsyj/2021-03-08/doc-ikkntiak5973762.shtml</t>
+    <t>https://www.sinadaxue.cn/#/sina/single/724k96m6n8nj?parentType=column&amp;parentId=6273e22402aa4630a1277ebfa2991b69</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk1002357.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7843740.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/jjzbj/</t>
   </si>
   <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8201</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8220</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-08/doc-ikkntiak5972990.shtml</t>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8663</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8657</t>
+  </si>
+  <si>
+    <t>http://finance.sina.com.cn/zt_d/quanshangkaihu/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-25/doc-ikkntiam7897268.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/s/2019-07-09/doc-ihytcitm0843478.shtml</t>
@@ -1093,253 +1111,256 @@
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=56592&amp;page=1</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-08/doc-ikknscsh9126292.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikkntiak5964013.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-08/doc-ikkntiak5907165.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-03-08/doc-ikkntiak5965217.shtml</t>
+    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-03-25/doc-ikkntiam7745849.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7910621.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-03-25/doc-ikkntiam7914760.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-25/doc-ikkntiam7747759.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/estate/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-03-08/doc-ikkntiak5969267.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-07/doc-ikkntiak5844130.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-08/doc-ikkntiak5907172.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikknscsh9126789.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikkntiak5970421.shtml</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/brief/column/6273e22402aa4630a1277ebfa2991b69</t>
+    <t>https://finance.sina.com.cn/stock/s/2021-03-25/doc-ikknscsk0918637.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-03-25/doc-ikknscsk1069586.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-25/doc-ikkntiam7903185.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk1072792.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0918797.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-03-25/doc-ikknscsk1074621.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/txjl_12/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.sinadaxue.cn/#/sina/single/m97kl6592kjl?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/hkstock/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/estate/sd/2021-03-08/doc-ikkntiak5971900.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggipo/2021-03-08/doc-ikknscsh9123626.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-08/doc-ikkntiak5968184.shtml</t>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-25/doc-ikknscsk0907208.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/xm_12/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/hk/2021-03-24/doc-ikknscsk0873797.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/tech/2021-03-24/doc-ikkntiam7625448.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/marketresearch/2021-03-25/doc-ikkntiam7893374.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-03-24/doc-ikkntiam7692763.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/fund/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikknscsh9110821.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikknscsh9120096.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-03-08/doc-ikkntiak5988055.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-03-08/doc-ikknscsh9123244.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hkstock/ggipo/2021-03-08/doc-ikkntiak5972713.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggipo/2021-03-08/doc-ikkntiak5972862.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-08/doc-ikkntiak5970119.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-08/doc-ikkntiak5977037.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/hk/2021-03-08/doc-ikkntiak5970215.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/hkzmt/2021-03-07/doc-ikkntiak5897540.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-08/doc-ikknscsh9122483.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-03-08/doc-ikkntiak5994715.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/hkgg/2021-03-08/doc-ikknscsh9148277.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-03-08/doc-ikknscsh9147970.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-08/doc-ikkntiak5969374.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/gjcj/2021-03-08/doc-ikkntiak5918773.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-08/doc-ikkntiak5906715.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/shate</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-08/doc-ikkntiak5972184.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-03-08/doc-ikknscsh9123171.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-08/doc-ikkntiak5965822.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-08/doc-ikkntiak5969470.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-03-08/doc-ikkntiak5963169.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-03-08/doc-ikkntiak5962254.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0913721.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-25/doc-ikkntiam7901096.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8669</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-03-25/doc-ikkntiam7893374.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-03-25/doc-ikkntiam7960036.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.cn/imeeting/hyt/detail/8671</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8610</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-24/doc-ikknscsk0775346.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-03-25/doc-ikknscsk1126847.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/txjl_12</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/xm_12</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-03-25/doc-ikknscsk1065098.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-03-24/doc-ikknscsk0871841.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-24/doc-ikkntiam7737424.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-25/doc-ikkntiam7934292.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikknscsk0996689.shtml</t>
+  </si>
+  <si>
+    <t>https://mil.news.sina.com.cn/2021-03-25/doc-ikkntiam7912089.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikknscsk0930159.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikknscsk0981127.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7772983.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikkntiam7774909.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-24/doc-ikkntiam7745318.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikkntiam7849069.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikkntiam7826433.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/other/hsnews/detail_index.d.html</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/world/gjcj/2021-03-08/doc-ikkntiak5927511.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/gjcj/2021-03-08/doc-ikkntiak5914397.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-03-07/doc-ikkntiak5906096.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-08/doc-ikkntiak5940490.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-08/doc-ikkntiak5935009.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/gjcj/2021-03-08/doc-ikkntiak5938257.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikknscsh9088602.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-07/doc-ikknscsh8840683.shtml</t>
+    <t>https://k.sina.cn/article_5044281310_12ca99fde02001j493.html?from=news&amp;subch=onews</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-03-25/doc-ikkntiam7938331.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/flashnews/2021-03-25/doc-ikkntiam7912288.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikkntiam7918114.shtml</t>
+  </si>
+  <si>
+    <t>https://zx.sina.cn/push/2021-03-25/zx-ikknscsk1071129.d.html</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikknscsk1057682.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-25/doc-ikkntiam7938106.shtml</t>
+  </si>
+  <si>
+    <t>https://zx.sina.cn/push/2021-03-25/zx-ikknscsk1121293.d.html</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/usstock/c/2019-06-04/doc-ihvhiews6789878.shtml</t>
   </si>
   <si>
-    <t>http://tech.sina.com.cn/it/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjpl/2021-03-08/doc-ikknscsh9089392.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-03-08/doc-ikkntiak5935273.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-08/doc-ikknscsh9089402.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjpl/2021-03-08/doc-ikknscsh9128364.shtml</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8250</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8251</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjcc/2021-03-08/doc-ikkntiak5921241.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/jkhajjdq/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-08/doc-ikknscsh9123005.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjzl/2021-03-08/doc-ikknscsh9089397.shtml</t>
-  </si>
-  <si>
-    <t>http://video.sina.com.cn/l/p/40032973.html</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjzl/2021-03-08/doc-ikkntiak5933673.shtml</t>
+    <t>https://tech.sina.com.cn/it/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-25/doc-ikkntiam7922603.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/original/2021-03-25/doc-ikkntiam7923619.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8661</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8590</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0943424.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7829129.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/2020dfzqhyj/#/index</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/fund/jjsy/2021-03-08/doc-ikkntiak5993779.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikknscsh9142293.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-08/doc-ikknscsh9139111.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-05/doc-ikftssaq1521176.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-03/doc-ikftpnnz1459982.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/shate/index.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-08/doc-ikknscsh9119938.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-08/doc-ikknscsh9118558.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-08/doc-ikkntiak5881529.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-03-07/doc-ikkntiak5871053.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-08/doc-ikknscsh9125295.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-03-08/doc-ikkntiak5968029.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-03-05/doc-ikftssaq1506129.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-08/doc-ikkntiak5967654.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-08/doc-ikknscsh9124811.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-03-05/doc-ikftpnnz2597593.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-08/doc-ikknscsh8937714.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7782515.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-25/doc-ikknscsk1137025.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk1121892.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7930747.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikkntiam7950209.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikkntiam7867102.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-25/doc-ikkntiam7899656.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/suyishi/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk1019892.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikkntiam7919115.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-24/doc-ikkntiam7685560.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-03-25/doc-ikkntiam7918293.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikkntiam7908255.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikknscsk1062721.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikkntiam7906512.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikknscsk1067782.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-03-25/doc-ikkntiam7869905.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/gzqh/2021-03-25/doc-ikkntiam7904762.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikkntiam7914045.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/dcefutures/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-03-08/doc-ikkntiak5967906.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7759723.shtml</t>
   </si>
   <si>
     <t>http://live.sina.com.cn/zt/l/v/finance/globalnews1/</t>
@@ -1348,160 +1369,157 @@
     <t>http://finance.sina.com.cn/forex/paijia.html#0</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-07/doc-ikkntiak5796308.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-03-08/doc-ikknscsh9091664.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-03-08/doc-ikkntiak5805697.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-07/doc-ikkntiak5875572.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-03-08/doc-ikknscsh8946253.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-03-07/doc-ikkntiak5865731.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-03-07/doc-ikkntiak5875798.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/hk/2021-03-08/doc-ikkntiak5966467.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-03-08/doc-ikkntiak5981066.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-03-08/doc-ikkntiak5969690.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockptd/2021-03-07/doc-ikknscsh8868007.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-03-08/doc-ikkntiak5906415.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikknscsh9088596.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-08/doc-ikknscsh9057130.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-06/doc-ikkntiak5342231.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-03-08/doc-ikkntiak5976167.shtml</t>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikknscsk1043385.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0960917.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0918785.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0918638.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikknscsk1036001.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikknscsk1001562.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikkntiam7809785.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikknscsk1028895.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/2021-03-25/doc-ikkntiam7926435.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikkntiam7960440.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-03-25/doc-ikknscsk1071082.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-03-24/doc-ikknscsk0822972.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikkntiam7888838.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-24/doc-ikkntiam7743905.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-24/doc-ikkntiam7663429.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-24/doc-ikknscsk0443739.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-03-24/doc-ikkntiam7326291.shtml</t>
   </si>
   <si>
     <t>http://biz.finance.sina.com.cn/zjzt/gold_2014.php</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-08/doc-ikkntiak5923723.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-08/doc-ikknscsh9147693.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-07/doc-ikknscsh8982101.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-08/doc-ikkntiak5968147.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-08/doc-ikknscsh9077395.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-08/doc-ikkntiak5926601.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-07/doc-ikknscsh9019906.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-08/doc-ikknscsh9145384.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-08/doc-ikknscsh9143190.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-08/doc-ikkntiak5973699.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-07/doc-ikkntiak5875969.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-08/doc-ikknscsh9144869.shtml</t>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-03-25/doc-ikkntiam7909212.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-03-25/doc-ikkntiam7715309.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bank/bank_hydt/2021-03-25/doc-ikknscsk1065328.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-03-25/doc-ikkntiam7747754.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-03-25/doc-ikknscsk1074226.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-03-24/doc-ikknscsk0295385.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-03-24/doc-ikkntiam7277812.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-24/doc-ikknscsk0288437.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-03-24/doc-ikkntiam7288300.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-03-24/doc-ikknscsk0501946.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/money/globalindex/ibor.shtml</t>
   </si>
   <si>
-    <t>https://www.cnbc.com/2021/03/07/us-will-defend-troops-after-rocket-attack-in-iraq-lloyd-austin-says.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/07/chinese-foreign-minister-calls-for-non-interference-between-china-us.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/08/asia-markets-us-coronavirus-relief-package-currency-moves-oil.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/07/stock-market-open-to-close-news.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/05/tesla-whats-weighing-the-stock-down.html</t>
+    <t>https://www.cnbc.com/2021/03/24/stock-market-open-to-close-news.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/covid-vaccine-astrazeneca-issues-updated-phase-3-trial-data.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/ever-given-a-massive-cargo-ship-is-still-stuck-in-the-suez-canal.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/blinken-says-china-threatens-nato-calls-for-joint-approach-to-counter-beijing.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/germanys-merkel-admits-mistake-and-reverses-easter-lockdown.html</t>
   </si>
   <si>
     <t>/pro/</t>
   </si>
   <si>
-    <t>https://www.cnbc.com/2021/03/05/why-this-rate-driven-sell-off-is-hitting-tech-stocks-the-hardest.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/06/op-ed-biden-and-xi-offer-dueling-worldviews-on-how-to-shape-the-globe.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/06/covid-stimulus-update-senate-passes-1point9-trillion-relief-bill.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/07/deliveroo-to-offer-50-million-pounds-of-stock-to-customers.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/06/why-central-banks-want-digital-currencies.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/05/digital-health-passport-will-i-need-proof-of-vaccine-to-travel-abroad.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/05/us-senate-approves-bill-against-china-funded-confucius-institutes.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/05/retailers-pay-more-to-fly-bikes-to-hot-tubs-from-china-as-backup-at-us-ports-delays-deliveries.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/05/robinhood-chooses-the-nasdaq-for-its-ipo-sources-say.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/05/china-to-focus-on-frontier-tech-from-chips-to-quantum-computing.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/07/nba-commissioner-adam-silver-supports-new-league-that-pays-high-schoolers-100000-.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/05/stocks-face-the-crosscurrents-of-higher-interest-rates-and-fiscal-stimulus-in-the-week-ahead.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/05/too-much-stimulus-in-the-us-may-bring-imported-inflation-to-china-economists-warn.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/05/who-says-pandemic-has-caused-more-mass-trauma-than-wwii-and-will-last-for-years.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/07/biden-to-mark-bloody-sunday-by-signing-voting-rights-order.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/07/south-korea-us-scale-back-drills-over-virus-north-korea-diplomacy.html</t>
+    <t>https://www.cnbc.com/2021/03/24/fidelity-to-launch-bitcoin-etf-as-investment-giant-builds-its-digital-asset-business-.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/why-china-is-so-far-ahead-of-the-us-when-it-comes-to-ev-production-.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/23/gamestop-shares-rise-on-e-commerce-sales-jump-new-coo.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/is-it-safe-to-travel-this-summer-optimistic-travelers-booking-now-.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/premier-league-the-no-1-reason-football-managers-lose-their-job.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/video/2021/03/23/what-are-nfts.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/photos-show-container-ship-stuck-in-suez-canal.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/north-korea-fires-unidentified-projectiles-into-sea-of-japan-us-allies-say.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/tech-and-gamestop-losses-have-traders-wondering-if-retail-investors-are-losing-interest-in-market.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/yellen-supports-buybacks-warren-wants-blackrock-deemed-too-big-to-fail.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/covid-vaccine-astrazeneca-missteps-threaten-to-further-erode-trust-as-company-seeks-us-approval.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/satellite-imagery-of-ship-ever-given-blocking-egypts-suez-canal.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/erdogan-calls-on-turks-to-support-lira-investors-fear-monetary-crisis.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/eu-announces-tougher-controls-on-coronavirus-vaccine-exports.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/erdogan-firing-turkeys-central-bank-chief-adds-to-mess-naguib-sawiris.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/24/covid-live-updates.html</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F264"/>
+  <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1915,7 +1933,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1935,7 +1953,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1955,7 +1973,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1975,7 +1993,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1995,7 +2013,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2015,7 +2033,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2035,7 +2053,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2055,7 +2073,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2075,7 +2093,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2095,7 +2113,7 @@
         <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2115,7 +2133,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2135,7 +2153,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2155,7 +2173,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2175,7 +2193,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2195,7 +2213,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2215,7 +2233,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2235,7 +2253,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2255,7 +2273,7 @@
         <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2275,7 +2293,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2295,7 +2313,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2315,7 +2333,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2335,7 +2353,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2355,7 +2373,7 @@
         <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2375,7 +2393,7 @@
         <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2394,8 +2412,8 @@
       <c r="E26" t="s">
         <v>54</v>
       </c>
-      <c r="F26" t="s">
-        <v>303</v>
+      <c r="F26" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2415,7 +2433,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2435,18 +2453,18 @@
         <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -2455,18 +2473,18 @@
         <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -2475,27 +2493,24 @@
         <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
       </c>
-      <c r="E31" t="s">
-        <v>59</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2512,10 +2527,10 @@
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2529,13 +2544,13 @@
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2549,10 +2564,13 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2566,13 +2584,13 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2592,7 +2610,7 @@
         <v>63</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2612,7 +2630,7 @@
         <v>64</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2631,8 +2649,8 @@
       <c r="E38" t="s">
         <v>65</v>
       </c>
-      <c r="F38" t="s">
-        <v>313</v>
+      <c r="F38" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2652,7 +2670,7 @@
         <v>66</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2672,7 +2690,7 @@
         <v>67</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2688,11 +2706,8 @@
       <c r="D41" t="s">
         <v>29</v>
       </c>
-      <c r="E41" t="s">
-        <v>68</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2709,10 +2724,10 @@
         <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2728,8 +2743,11 @@
       <c r="D43" t="s">
         <v>29</v>
       </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2749,7 +2767,7 @@
         <v>70</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2769,7 +2787,7 @@
         <v>71</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2789,7 +2807,7 @@
         <v>72</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2808,8 +2826,8 @@
       <c r="E47" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>317</v>
+      <c r="F47" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2829,7 +2847,7 @@
         <v>74</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2849,7 +2867,7 @@
         <v>75</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2868,8 +2886,8 @@
       <c r="E50" t="s">
         <v>76</v>
       </c>
-      <c r="F50" t="s">
-        <v>303</v>
+      <c r="F50" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2889,7 +2907,7 @@
         <v>77</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2909,7 +2927,7 @@
         <v>78</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2929,7 +2947,7 @@
         <v>79</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2949,7 +2967,7 @@
         <v>80</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2969,7 +2987,7 @@
         <v>81</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2985,11 +3003,8 @@
       <c r="D56" t="s">
         <v>29</v>
       </c>
-      <c r="E56" t="s">
-        <v>82</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3006,10 +3021,10 @@
         <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3026,10 +3041,10 @@
         <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3045,8 +3060,11 @@
       <c r="D59" t="s">
         <v>29</v>
       </c>
+      <c r="E59" t="s">
+        <v>84</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3065,8 +3083,8 @@
       <c r="E60" t="s">
         <v>85</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>331</v>
+      <c r="F60" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3086,7 +3104,7 @@
         <v>86</v>
       </c>
       <c r="F61" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3106,7 +3124,7 @@
         <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3126,7 +3144,7 @@
         <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3145,8 +3163,8 @@
       <c r="E64" t="s">
         <v>89</v>
       </c>
-      <c r="F64" t="s">
-        <v>334</v>
+      <c r="F64" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3166,7 +3184,7 @@
         <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3186,7 +3204,7 @@
         <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3206,7 +3224,7 @@
         <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3226,7 +3244,7 @@
         <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3246,7 +3264,7 @@
         <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3266,7 +3284,7 @@
         <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3286,7 +3304,7 @@
         <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3306,7 +3324,7 @@
         <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3326,7 +3344,7 @@
         <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3346,7 +3364,7 @@
         <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3366,7 +3384,7 @@
         <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3386,7 +3404,7 @@
         <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3406,7 +3424,7 @@
         <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3426,7 +3444,7 @@
         <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3446,7 +3464,7 @@
         <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3466,7 +3484,7 @@
         <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3486,7 +3504,7 @@
         <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3506,7 +3524,7 @@
         <v>107</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3526,7 +3544,7 @@
         <v>108</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3546,7 +3564,7 @@
         <v>109</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3565,8 +3583,8 @@
       <c r="E85" t="s">
         <v>110</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>335</v>
+      <c r="F85" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3585,8 +3603,8 @@
       <c r="E86" t="s">
         <v>111</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>336</v>
+      <c r="F86" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3606,7 +3624,7 @@
         <v>112</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3625,8 +3643,8 @@
       <c r="E88" t="s">
         <v>113</v>
       </c>
-      <c r="F88" t="s">
-        <v>338</v>
+      <c r="F88" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3645,8 +3663,8 @@
       <c r="E89" t="s">
         <v>114</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>339</v>
+      <c r="F89" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3665,8 +3683,8 @@
       <c r="E90" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>340</v>
+      <c r="F90" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3686,7 +3704,7 @@
         <v>116</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3705,8 +3723,8 @@
       <c r="E92" t="s">
         <v>117</v>
       </c>
-      <c r="F92" t="s">
-        <v>342</v>
+      <c r="F92" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3726,7 +3744,7 @@
         <v>118</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>286</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3745,8 +3763,8 @@
       <c r="E94" t="s">
         <v>119</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>343</v>
+      <c r="F94" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3765,8 +3783,8 @@
       <c r="E95" t="s">
         <v>120</v>
       </c>
-      <c r="F95" t="s">
-        <v>344</v>
+      <c r="F95" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3785,8 +3803,8 @@
       <c r="E96" t="s">
         <v>121</v>
       </c>
-      <c r="F96" t="s">
-        <v>345</v>
+      <c r="F96" s="2" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3806,7 +3824,7 @@
         <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3826,7 +3844,7 @@
         <v>123</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3846,7 +3864,7 @@
         <v>124</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3866,7 +3884,7 @@
         <v>125</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3886,7 +3904,7 @@
         <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3906,7 +3924,7 @@
         <v>127</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3926,7 +3944,7 @@
         <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3946,7 +3964,7 @@
         <v>129</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3966,7 +3984,7 @@
         <v>130</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3986,7 +4004,7 @@
         <v>131</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4006,7 +4024,7 @@
         <v>132</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4022,11 +4040,8 @@
       <c r="D108" t="s">
         <v>29</v>
       </c>
-      <c r="E108" t="s">
-        <v>133</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4043,10 +4058,10 @@
         <v>29</v>
       </c>
       <c r="E109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4063,10 +4078,10 @@
         <v>29</v>
       </c>
       <c r="E110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4082,8 +4097,11 @@
       <c r="D111" t="s">
         <v>29</v>
       </c>
+      <c r="E111" t="s">
+        <v>135</v>
+      </c>
       <c r="F111" s="2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4103,7 +4121,7 @@
         <v>136</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4123,7 +4141,7 @@
         <v>137</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4143,7 +4161,7 @@
         <v>138</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4163,7 +4181,7 @@
         <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4183,7 +4201,7 @@
         <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4203,7 +4221,7 @@
         <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4223,7 +4241,7 @@
         <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4243,7 +4261,7 @@
         <v>143</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>310</v>
+        <v>374</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4263,7 +4281,7 @@
         <v>144</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4283,7 +4301,7 @@
         <v>145</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4303,7 +4321,7 @@
         <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4322,8 +4340,8 @@
       <c r="E123" t="s">
         <v>147</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>368</v>
+      <c r="F123" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4340,10 +4358,10 @@
         <v>29</v>
       </c>
       <c r="E124" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4360,10 +4378,10 @@
         <v>29</v>
       </c>
       <c r="E125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4380,10 +4398,10 @@
         <v>29</v>
       </c>
       <c r="E126" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4403,7 +4421,7 @@
         <v>150</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4423,7 +4441,7 @@
         <v>151</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4443,7 +4461,7 @@
         <v>152</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4462,8 +4480,8 @@
       <c r="E130" t="s">
         <v>153</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>373</v>
+      <c r="F130" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4480,10 +4498,10 @@
         <v>29</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4500,10 +4518,10 @@
         <v>29</v>
       </c>
       <c r="E132" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4523,18 +4541,18 @@
         <v>155</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B134" t="s">
         <v>18</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
@@ -4543,18 +4561,18 @@
         <v>156</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
         <v>18</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D135" t="s">
         <v>29</v>
@@ -4563,7 +4581,7 @@
         <v>157</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4580,10 +4598,10 @@
         <v>29</v>
       </c>
       <c r="E136" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4600,10 +4618,10 @@
         <v>29</v>
       </c>
       <c r="E137" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4620,10 +4638,10 @@
         <v>29</v>
       </c>
       <c r="E138" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4640,10 +4658,10 @@
         <v>29</v>
       </c>
       <c r="E139" t="s">
-        <v>159</v>
-      </c>
-      <c r="F139" t="s">
-        <v>379</v>
+        <v>161</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4660,7 +4678,7 @@
         <v>29</v>
       </c>
       <c r="E140" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>380</v>
@@ -4680,10 +4698,10 @@
         <v>29</v>
       </c>
       <c r="E141" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4700,10 +4718,10 @@
         <v>29</v>
       </c>
       <c r="E142" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4720,10 +4738,10 @@
         <v>29</v>
       </c>
       <c r="E143" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4740,10 +4758,10 @@
         <v>29</v>
       </c>
       <c r="E144" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>384</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4760,10 +4778,10 @@
         <v>29</v>
       </c>
       <c r="E145" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4780,10 +4798,10 @@
         <v>29</v>
       </c>
       <c r="E146" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4800,10 +4818,10 @@
         <v>29</v>
       </c>
       <c r="E147" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4820,10 +4838,10 @@
         <v>29</v>
       </c>
       <c r="E148" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4840,50 +4858,50 @@
         <v>29</v>
       </c>
       <c r="E149" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
         <v>18</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D150" t="s">
         <v>29</v>
       </c>
       <c r="E150" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
         <v>18</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D151" t="s">
         <v>29</v>
       </c>
       <c r="E151" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4900,10 +4918,10 @@
         <v>29</v>
       </c>
       <c r="E152" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4920,10 +4938,10 @@
         <v>29</v>
       </c>
       <c r="E153" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4940,10 +4958,10 @@
         <v>29</v>
       </c>
       <c r="E154" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4960,10 +4978,10 @@
         <v>29</v>
       </c>
       <c r="E155" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4980,10 +4998,10 @@
         <v>29</v>
       </c>
       <c r="E156" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5000,10 +5018,10 @@
         <v>29</v>
       </c>
       <c r="E157" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5020,10 +5038,10 @@
         <v>29</v>
       </c>
       <c r="E158" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5040,10 +5058,10 @@
         <v>29</v>
       </c>
       <c r="E159" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5060,10 +5078,10 @@
         <v>29</v>
       </c>
       <c r="E160" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5080,10 +5098,10 @@
         <v>29</v>
       </c>
       <c r="E161" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5100,10 +5118,10 @@
         <v>29</v>
       </c>
       <c r="E162" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5120,10 +5138,10 @@
         <v>29</v>
       </c>
       <c r="E163" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5140,10 +5158,10 @@
         <v>29</v>
       </c>
       <c r="E164" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5160,10 +5178,10 @@
         <v>29</v>
       </c>
       <c r="E165" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5180,10 +5198,10 @@
         <v>29</v>
       </c>
       <c r="E166" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5200,10 +5218,10 @@
         <v>29</v>
       </c>
       <c r="E167" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5220,10 +5238,10 @@
         <v>29</v>
       </c>
       <c r="E168" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5240,10 +5258,10 @@
         <v>29</v>
       </c>
       <c r="E169" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5260,50 +5278,50 @@
         <v>29</v>
       </c>
       <c r="E170" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
         <v>18</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
         <v>29</v>
       </c>
       <c r="E171" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B172" t="s">
         <v>18</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D172" t="s">
         <v>29</v>
       </c>
       <c r="E172" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5320,10 +5338,10 @@
         <v>29</v>
       </c>
       <c r="E173" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>412</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5340,10 +5358,10 @@
         <v>29</v>
       </c>
       <c r="E174" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5360,10 +5378,10 @@
         <v>29</v>
       </c>
       <c r="E175" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5380,10 +5398,10 @@
         <v>29</v>
       </c>
       <c r="E176" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5400,10 +5418,10 @@
         <v>29</v>
       </c>
       <c r="E177" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5420,10 +5438,10 @@
         <v>29</v>
       </c>
       <c r="E178" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5440,10 +5458,10 @@
         <v>29</v>
       </c>
       <c r="E179" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5460,10 +5478,10 @@
         <v>29</v>
       </c>
       <c r="E180" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5480,10 +5498,10 @@
         <v>29</v>
       </c>
       <c r="E181" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5500,10 +5518,10 @@
         <v>29</v>
       </c>
       <c r="E182" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5520,10 +5538,10 @@
         <v>29</v>
       </c>
       <c r="E183" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5540,10 +5558,10 @@
         <v>29</v>
       </c>
       <c r="E184" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5560,50 +5578,50 @@
         <v>29</v>
       </c>
       <c r="E185" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B186" t="s">
         <v>18</v>
       </c>
       <c r="C186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E186" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
         <v>18</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E187" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5620,10 +5638,10 @@
         <v>28</v>
       </c>
       <c r="E188" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5637,13 +5655,13 @@
         <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E189" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5657,13 +5675,13 @@
         <v>23</v>
       </c>
       <c r="D190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E190" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5680,10 +5698,10 @@
         <v>29</v>
       </c>
       <c r="E191" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5700,10 +5718,10 @@
         <v>29</v>
       </c>
       <c r="E192" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5720,10 +5738,10 @@
         <v>29</v>
       </c>
       <c r="E193" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5740,10 +5758,10 @@
         <v>29</v>
       </c>
       <c r="E194" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5760,10 +5778,10 @@
         <v>29</v>
       </c>
       <c r="E195" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5780,10 +5798,10 @@
         <v>29</v>
       </c>
       <c r="E196" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5800,10 +5818,10 @@
         <v>29</v>
       </c>
       <c r="E197" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5820,10 +5838,10 @@
         <v>29</v>
       </c>
       <c r="E198" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5840,10 +5858,10 @@
         <v>29</v>
       </c>
       <c r="E199" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5860,10 +5878,10 @@
         <v>29</v>
       </c>
       <c r="E200" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5880,50 +5898,50 @@
         <v>29</v>
       </c>
       <c r="E201" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B202" t="s">
         <v>18</v>
       </c>
       <c r="C202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D202" t="s">
         <v>29</v>
       </c>
       <c r="E202" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B203" t="s">
         <v>18</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D203" t="s">
         <v>29</v>
       </c>
       <c r="E203" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5940,10 +5958,10 @@
         <v>29</v>
       </c>
       <c r="E204" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5960,10 +5978,10 @@
         <v>29</v>
       </c>
       <c r="E205" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5980,10 +5998,10 @@
         <v>29</v>
       </c>
       <c r="E206" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6000,10 +6018,10 @@
         <v>29</v>
       </c>
       <c r="E207" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6020,10 +6038,10 @@
         <v>29</v>
       </c>
       <c r="E208" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6040,10 +6058,10 @@
         <v>29</v>
       </c>
       <c r="E209" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6060,10 +6078,10 @@
         <v>29</v>
       </c>
       <c r="E210" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6080,10 +6098,10 @@
         <v>29</v>
       </c>
       <c r="E211" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6100,10 +6118,10 @@
         <v>29</v>
       </c>
       <c r="E212" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6120,10 +6138,10 @@
         <v>29</v>
       </c>
       <c r="E213" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6140,50 +6158,50 @@
         <v>29</v>
       </c>
       <c r="E214" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B215" t="s">
         <v>18</v>
       </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E215" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
         <v>18</v>
       </c>
       <c r="C216" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D216" t="s">
         <v>29</v>
       </c>
       <c r="E216" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6197,13 +6215,13 @@
         <v>25</v>
       </c>
       <c r="D217" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E217" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6220,10 +6238,10 @@
         <v>29</v>
       </c>
       <c r="E218" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6240,10 +6258,10 @@
         <v>29</v>
       </c>
       <c r="E219" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6260,10 +6278,10 @@
         <v>29</v>
       </c>
       <c r="E220" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6280,10 +6298,10 @@
         <v>29</v>
       </c>
       <c r="E221" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6300,10 +6318,10 @@
         <v>29</v>
       </c>
       <c r="E222" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6320,10 +6338,10 @@
         <v>29</v>
       </c>
       <c r="E223" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6340,10 +6358,10 @@
         <v>29</v>
       </c>
       <c r="E224" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6360,10 +6378,10 @@
         <v>29</v>
       </c>
       <c r="E225" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6380,10 +6398,10 @@
         <v>29</v>
       </c>
       <c r="E226" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6400,10 +6418,10 @@
         <v>29</v>
       </c>
       <c r="E227" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6420,50 +6438,50 @@
         <v>29</v>
       </c>
       <c r="E228" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
         <v>18</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E229" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B230" t="s">
         <v>18</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
         <v>29</v>
       </c>
       <c r="E230" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6477,13 +6495,13 @@
         <v>26</v>
       </c>
       <c r="D231" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E231" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6500,10 +6518,10 @@
         <v>29</v>
       </c>
       <c r="E232" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6520,10 +6538,10 @@
         <v>29</v>
       </c>
       <c r="E233" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6540,10 +6558,10 @@
         <v>29</v>
       </c>
       <c r="E234" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6560,10 +6578,10 @@
         <v>29</v>
       </c>
       <c r="E235" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6580,10 +6598,10 @@
         <v>29</v>
       </c>
       <c r="E236" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6600,10 +6618,10 @@
         <v>29</v>
       </c>
       <c r="E237" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6620,10 +6638,10 @@
         <v>29</v>
       </c>
       <c r="E238" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6640,10 +6658,10 @@
         <v>29</v>
       </c>
       <c r="E239" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6660,10 +6678,10 @@
         <v>29</v>
       </c>
       <c r="E240" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6680,50 +6698,50 @@
         <v>29</v>
       </c>
       <c r="E241" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B242" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C242" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D242" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E242" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B243" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C243" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D243" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E243" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6740,10 +6758,10 @@
         <v>28</v>
       </c>
       <c r="E244" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6757,13 +6775,13 @@
         <v>27</v>
       </c>
       <c r="D245" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E245" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6777,13 +6795,13 @@
         <v>27</v>
       </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E246" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6799,8 +6817,11 @@
       <c r="D247" t="s">
         <v>29</v>
       </c>
-      <c r="F247" t="s">
-        <v>479</v>
+      <c r="E247" t="s">
+        <v>266</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6817,10 +6838,10 @@
         <v>29</v>
       </c>
       <c r="E248" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6836,11 +6857,8 @@
       <c r="D249" t="s">
         <v>29</v>
       </c>
-      <c r="E249" t="s">
-        <v>266</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>481</v>
+      <c r="F249" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6857,10 +6875,10 @@
         <v>29</v>
       </c>
       <c r="E250" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6877,10 +6895,10 @@
         <v>29</v>
       </c>
       <c r="E251" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6897,10 +6915,10 @@
         <v>29</v>
       </c>
       <c r="E252" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6917,10 +6935,10 @@
         <v>29</v>
       </c>
       <c r="E253" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6937,10 +6955,10 @@
         <v>29</v>
       </c>
       <c r="E254" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6956,8 +6974,11 @@
       <c r="D255" t="s">
         <v>29</v>
       </c>
-      <c r="F255" t="s">
-        <v>479</v>
+      <c r="E255" t="s">
+        <v>273</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6974,10 +6995,10 @@
         <v>29</v>
       </c>
       <c r="E256" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6994,10 +7015,10 @@
         <v>29</v>
       </c>
       <c r="E257" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -7013,11 +7034,8 @@
       <c r="D258" t="s">
         <v>29</v>
       </c>
-      <c r="E258" t="s">
-        <v>274</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>489</v>
+      <c r="F258" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -7034,10 +7052,10 @@
         <v>29</v>
       </c>
       <c r="E259" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -7054,10 +7072,10 @@
         <v>29</v>
       </c>
       <c r="E260" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7074,10 +7092,10 @@
         <v>29</v>
       </c>
       <c r="E261" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -7094,10 +7112,10 @@
         <v>29</v>
       </c>
       <c r="E262" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7114,10 +7132,10 @@
         <v>29</v>
       </c>
       <c r="E263" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7134,10 +7152,50 @@
         <v>29</v>
       </c>
       <c r="E264" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>16</v>
+      </c>
+      <c r="B265" t="s">
+        <v>17</v>
+      </c>
+      <c r="C265" t="s">
+        <v>27</v>
+      </c>
+      <c r="D265" t="s">
+        <v>29</v>
+      </c>
+      <c r="E265" t="s">
+        <v>282</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>16</v>
+      </c>
+      <c r="B266" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266" t="s">
+        <v>27</v>
+      </c>
+      <c r="D266" t="s">
+        <v>29</v>
+      </c>
+      <c r="E266" t="s">
+        <v>283</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -7166,110 +7224,110 @@
     <hyperlink ref="F23" r:id="rId22"/>
     <hyperlink ref="F24" r:id="rId23"/>
     <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F27" r:id="rId25"/>
-    <hyperlink ref="F28" r:id="rId26"/>
-    <hyperlink ref="F29" r:id="rId27" location="/sina/single/23mk2nn74k9j?parentType=column&amp;parentId=a0e7a911df0a42bca9e4d8c70cf6967e"/>
-    <hyperlink ref="F30" r:id="rId28"/>
-    <hyperlink ref="F31" r:id="rId29"/>
-    <hyperlink ref="F32" r:id="rId30"/>
-    <hyperlink ref="F33" r:id="rId31"/>
-    <hyperlink ref="F34" r:id="rId32"/>
-    <hyperlink ref="F35" r:id="rId33"/>
-    <hyperlink ref="F36" r:id="rId34"/>
-    <hyperlink ref="F37" r:id="rId35"/>
-    <hyperlink ref="F39" r:id="rId36"/>
-    <hyperlink ref="F40" r:id="rId37"/>
-    <hyperlink ref="F41" r:id="rId38"/>
-    <hyperlink ref="F42" r:id="rId39"/>
-    <hyperlink ref="F43" r:id="rId40"/>
-    <hyperlink ref="F44" r:id="rId41"/>
-    <hyperlink ref="F45" r:id="rId42"/>
-    <hyperlink ref="F46" r:id="rId43"/>
-    <hyperlink ref="F47" r:id="rId44"/>
-    <hyperlink ref="F48" r:id="rId45"/>
-    <hyperlink ref="F49" r:id="rId46"/>
-    <hyperlink ref="F51" r:id="rId47"/>
-    <hyperlink ref="F52" r:id="rId48"/>
-    <hyperlink ref="F53" r:id="rId49"/>
-    <hyperlink ref="F54" r:id="rId50"/>
-    <hyperlink ref="F55" r:id="rId51"/>
-    <hyperlink ref="F56" r:id="rId52"/>
-    <hyperlink ref="F57" r:id="rId53"/>
-    <hyperlink ref="F58" r:id="rId54"/>
-    <hyperlink ref="F59" r:id="rId55"/>
-    <hyperlink ref="F60" r:id="rId56"/>
-    <hyperlink ref="F62" r:id="rId57"/>
-    <hyperlink ref="F63" r:id="rId58"/>
-    <hyperlink ref="F65" r:id="rId59"/>
-    <hyperlink ref="F66" r:id="rId60"/>
-    <hyperlink ref="F67" r:id="rId61"/>
-    <hyperlink ref="F68" r:id="rId62"/>
-    <hyperlink ref="F69" r:id="rId63"/>
-    <hyperlink ref="F70" r:id="rId64"/>
-    <hyperlink ref="F71" r:id="rId65"/>
-    <hyperlink ref="F72" r:id="rId66"/>
-    <hyperlink ref="F73" r:id="rId67"/>
-    <hyperlink ref="F74" r:id="rId68"/>
-    <hyperlink ref="F75" r:id="rId69"/>
-    <hyperlink ref="F76" r:id="rId70"/>
-    <hyperlink ref="F77" r:id="rId71"/>
-    <hyperlink ref="F78" r:id="rId72"/>
-    <hyperlink ref="F79" r:id="rId73"/>
-    <hyperlink ref="F80" r:id="rId74"/>
-    <hyperlink ref="F81" r:id="rId75"/>
-    <hyperlink ref="F82" r:id="rId76"/>
-    <hyperlink ref="F83" r:id="rId77"/>
-    <hyperlink ref="F84" r:id="rId78"/>
-    <hyperlink ref="F85" r:id="rId79"/>
-    <hyperlink ref="F86" r:id="rId80"/>
+    <hyperlink ref="F26" r:id="rId25" location="/sina/single/m97kl65j2kjl?parentType=column&amp;parentId=a0e7a911df0a42bca9e4d8c70cf6967e"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F48" r:id="rId46"/>
+    <hyperlink ref="F49" r:id="rId47"/>
+    <hyperlink ref="F50" r:id="rId48"/>
+    <hyperlink ref="F51" r:id="rId49"/>
+    <hyperlink ref="F52" r:id="rId50"/>
+    <hyperlink ref="F53" r:id="rId51"/>
+    <hyperlink ref="F54" r:id="rId52"/>
+    <hyperlink ref="F55" r:id="rId53"/>
+    <hyperlink ref="F56" r:id="rId54"/>
+    <hyperlink ref="F57" r:id="rId55"/>
+    <hyperlink ref="F58" r:id="rId56"/>
+    <hyperlink ref="F59" r:id="rId57"/>
+    <hyperlink ref="F62" r:id="rId58"/>
+    <hyperlink ref="F63" r:id="rId59"/>
+    <hyperlink ref="F64" r:id="rId60"/>
+    <hyperlink ref="F65" r:id="rId61"/>
+    <hyperlink ref="F66" r:id="rId62"/>
+    <hyperlink ref="F67" r:id="rId63"/>
+    <hyperlink ref="F68" r:id="rId64"/>
+    <hyperlink ref="F69" r:id="rId65"/>
+    <hyperlink ref="F70" r:id="rId66"/>
+    <hyperlink ref="F71" r:id="rId67"/>
+    <hyperlink ref="F72" r:id="rId68"/>
+    <hyperlink ref="F73" r:id="rId69"/>
+    <hyperlink ref="F74" r:id="rId70"/>
+    <hyperlink ref="F75" r:id="rId71"/>
+    <hyperlink ref="F76" r:id="rId72"/>
+    <hyperlink ref="F77" r:id="rId73"/>
+    <hyperlink ref="F78" r:id="rId74"/>
+    <hyperlink ref="F79" r:id="rId75"/>
+    <hyperlink ref="F80" r:id="rId76"/>
+    <hyperlink ref="F81" r:id="rId77"/>
+    <hyperlink ref="F82" r:id="rId78"/>
+    <hyperlink ref="F83" r:id="rId79"/>
+    <hyperlink ref="F84" r:id="rId80"/>
     <hyperlink ref="F87" r:id="rId81"/>
-    <hyperlink ref="F89" r:id="rId82"/>
-    <hyperlink ref="F90" r:id="rId83"/>
-    <hyperlink ref="F91" r:id="rId84"/>
-    <hyperlink ref="F93" r:id="rId85"/>
-    <hyperlink ref="F94" r:id="rId86"/>
-    <hyperlink ref="F97" r:id="rId87" location="/sina/brief/column/a0e7a911df0a42bca9e4d8c70cf6967e"/>
-    <hyperlink ref="F98" r:id="rId88" location="/sina/brief/column/ffea76e99fbd4caf936b258faabc8d8e"/>
-    <hyperlink ref="F99" r:id="rId89" location="/sina/single/24j84mm3mk51?parentType=column&amp;parentId=ffea76e99fbd4caf936b258faabc8d8e"/>
-    <hyperlink ref="F100" r:id="rId90" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F101" r:id="rId91" location="/sina/single/l348j22mm862?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F102" r:id="rId92"/>
-    <hyperlink ref="F103" r:id="rId93"/>
-    <hyperlink ref="F104" r:id="rId94"/>
-    <hyperlink ref="F105" r:id="rId95"/>
-    <hyperlink ref="F106" r:id="rId96"/>
-    <hyperlink ref="F107" r:id="rId97"/>
-    <hyperlink ref="F108" r:id="rId98"/>
-    <hyperlink ref="F109" r:id="rId99"/>
-    <hyperlink ref="F110" r:id="rId100"/>
-    <hyperlink ref="F111" r:id="rId101"/>
-    <hyperlink ref="F112" r:id="rId102"/>
-    <hyperlink ref="F113" r:id="rId103"/>
-    <hyperlink ref="F114" r:id="rId104"/>
-    <hyperlink ref="F115" r:id="rId105"/>
-    <hyperlink ref="F116" r:id="rId106"/>
-    <hyperlink ref="F117" r:id="rId107"/>
-    <hyperlink ref="F118" r:id="rId108"/>
-    <hyperlink ref="F119" r:id="rId109"/>
-    <hyperlink ref="F120" r:id="rId110"/>
-    <hyperlink ref="F121" r:id="rId111"/>
-    <hyperlink ref="F122" r:id="rId112"/>
-    <hyperlink ref="F123" r:id="rId113"/>
-    <hyperlink ref="F124" r:id="rId114" location="/sina/brief/column/6273e22402aa4630a1277ebfa2991b69"/>
-    <hyperlink ref="F125" r:id="rId115" location="/sina/single/l348j22mm862?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F88" r:id="rId82"/>
+    <hyperlink ref="F91" r:id="rId83"/>
+    <hyperlink ref="F92" r:id="rId84"/>
+    <hyperlink ref="F93" r:id="rId85" location="/sina/brief/column/757bacbe813249689ab15c319e8baea4"/>
+    <hyperlink ref="F95" r:id="rId86" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F96" r:id="rId87" location="/sina/single/l348j2553862?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F97" r:id="rId88" location="/sina/brief/column/ffea76e99fbd4caf936b258faabc8d8e"/>
+    <hyperlink ref="F98" r:id="rId89" location="/sina/single/724k96m6n8nj?parentType=column&amp;parentId=6273e22402aa4630a1277ebfa2991b69"/>
+    <hyperlink ref="F99" r:id="rId90"/>
+    <hyperlink ref="F100" r:id="rId91"/>
+    <hyperlink ref="F101" r:id="rId92"/>
+    <hyperlink ref="F102" r:id="rId93"/>
+    <hyperlink ref="F103" r:id="rId94"/>
+    <hyperlink ref="F104" r:id="rId95"/>
+    <hyperlink ref="F105" r:id="rId96"/>
+    <hyperlink ref="F106" r:id="rId97"/>
+    <hyperlink ref="F107" r:id="rId98"/>
+    <hyperlink ref="F108" r:id="rId99"/>
+    <hyperlink ref="F109" r:id="rId100"/>
+    <hyperlink ref="F110" r:id="rId101"/>
+    <hyperlink ref="F111" r:id="rId102"/>
+    <hyperlink ref="F112" r:id="rId103"/>
+    <hyperlink ref="F113" r:id="rId104"/>
+    <hyperlink ref="F114" r:id="rId105"/>
+    <hyperlink ref="F115" r:id="rId106"/>
+    <hyperlink ref="F116" r:id="rId107"/>
+    <hyperlink ref="F117" r:id="rId108"/>
+    <hyperlink ref="F118" r:id="rId109"/>
+    <hyperlink ref="F119" r:id="rId110"/>
+    <hyperlink ref="F120" r:id="rId111"/>
+    <hyperlink ref="F121" r:id="rId112"/>
+    <hyperlink ref="F122" r:id="rId113" location="/sina/brief/column/757bacbe813249689ab15c319e8baea4"/>
+    <hyperlink ref="F124" r:id="rId114"/>
+    <hyperlink ref="F125" r:id="rId115"/>
     <hyperlink ref="F126" r:id="rId116"/>
     <hyperlink ref="F127" r:id="rId117"/>
     <hyperlink ref="F128" r:id="rId118"/>
     <hyperlink ref="F129" r:id="rId119"/>
-    <hyperlink ref="F130" r:id="rId120"/>
-    <hyperlink ref="F131" r:id="rId121"/>
-    <hyperlink ref="F132" r:id="rId122"/>
-    <hyperlink ref="F133" r:id="rId123"/>
-    <hyperlink ref="F134" r:id="rId124"/>
-    <hyperlink ref="F135" r:id="rId125"/>
-    <hyperlink ref="F136" r:id="rId126"/>
-    <hyperlink ref="F137" r:id="rId127"/>
-    <hyperlink ref="F138" r:id="rId128"/>
+    <hyperlink ref="F131" r:id="rId120"/>
+    <hyperlink ref="F132" r:id="rId121"/>
+    <hyperlink ref="F133" r:id="rId122"/>
+    <hyperlink ref="F134" r:id="rId123"/>
+    <hyperlink ref="F135" r:id="rId124"/>
+    <hyperlink ref="F136" r:id="rId125"/>
+    <hyperlink ref="F137" r:id="rId126"/>
+    <hyperlink ref="F138" r:id="rId127"/>
+    <hyperlink ref="F139" r:id="rId128"/>
     <hyperlink ref="F140" r:id="rId129"/>
     <hyperlink ref="F141" r:id="rId130"/>
     <hyperlink ref="F142" r:id="rId131"/>
@@ -7335,10 +7393,10 @@
     <hyperlink ref="F202" r:id="rId191"/>
     <hyperlink ref="F203" r:id="rId192"/>
     <hyperlink ref="F204" r:id="rId193"/>
-    <hyperlink ref="F205" r:id="rId194" location="0"/>
-    <hyperlink ref="F206" r:id="rId195" location="0"/>
-    <hyperlink ref="F207" r:id="rId196"/>
-    <hyperlink ref="F208" r:id="rId197"/>
+    <hyperlink ref="F205" r:id="rId194"/>
+    <hyperlink ref="F206" r:id="rId195"/>
+    <hyperlink ref="F207" r:id="rId196" location="0"/>
+    <hyperlink ref="F208" r:id="rId197" location="0"/>
     <hyperlink ref="F209" r:id="rId198"/>
     <hyperlink ref="F210" r:id="rId199"/>
     <hyperlink ref="F211" r:id="rId200"/>
@@ -7377,22 +7435,24 @@
     <hyperlink ref="F244" r:id="rId233"/>
     <hyperlink ref="F245" r:id="rId234"/>
     <hyperlink ref="F246" r:id="rId235"/>
-    <hyperlink ref="F248" r:id="rId236"/>
-    <hyperlink ref="F249" r:id="rId237"/>
+    <hyperlink ref="F247" r:id="rId236"/>
+    <hyperlink ref="F248" r:id="rId237"/>
     <hyperlink ref="F250" r:id="rId238"/>
     <hyperlink ref="F251" r:id="rId239"/>
     <hyperlink ref="F252" r:id="rId240"/>
     <hyperlink ref="F253" r:id="rId241"/>
     <hyperlink ref="F254" r:id="rId242"/>
-    <hyperlink ref="F256" r:id="rId243"/>
-    <hyperlink ref="F257" r:id="rId244"/>
-    <hyperlink ref="F258" r:id="rId245"/>
+    <hyperlink ref="F255" r:id="rId243"/>
+    <hyperlink ref="F256" r:id="rId244"/>
+    <hyperlink ref="F257" r:id="rId245"/>
     <hyperlink ref="F259" r:id="rId246"/>
     <hyperlink ref="F260" r:id="rId247"/>
     <hyperlink ref="F261" r:id="rId248"/>
     <hyperlink ref="F262" r:id="rId249"/>
     <hyperlink ref="F263" r:id="rId250"/>
     <hyperlink ref="F264" r:id="rId251"/>
+    <hyperlink ref="F265" r:id="rId252"/>
+    <hyperlink ref="F266" r:id="rId253"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/news.xlsx
+++ b/web/news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="487">
   <si>
     <t>来源</t>
   </si>
@@ -106,301 +106,311 @@
     <t>消息</t>
   </si>
   <si>
-    <t>中共中央宣传部发布中共成立100周年庆祝活动标识</t>
-  </si>
-  <si>
-    <t>疫苗接种日报告来了</t>
-  </si>
-  <si>
-    <t>民政部公布2021年第二批涉嫌非法社会组织名单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"补偿式返乡"要来？ </t>
-  </si>
-  <si>
-    <t>三星堆最大青铜尊浮土清理露真容</t>
-  </si>
-  <si>
-    <t>李克强详解延续两项普惠小微企业政策</t>
-  </si>
-  <si>
-    <t>今年再为企业新增减税八百亿</t>
-  </si>
-  <si>
-    <t>贷款延期还本付息政策延至今年底</t>
-  </si>
-  <si>
-    <t>提高制造业研发费用加计扣除比例</t>
-  </si>
-  <si>
-    <t>今年结构性减税力度最大政策</t>
-  </si>
-  <si>
-    <t>H&amp;M碰瓷新疆棉花</t>
-  </si>
-  <si>
-    <t>电商平台集体下架</t>
-  </si>
-  <si>
-    <t>回应遭怒批</t>
-  </si>
-  <si>
-    <t>店铺被百度高德地图屏蔽</t>
-  </si>
-  <si>
-    <t>深挖背后还有阿迪耐克等</t>
-  </si>
-  <si>
-    <t>中储粮：新疆棉花中国还不够用</t>
-  </si>
-  <si>
-    <t>人民日报：H&amp;M你该掂量掂量了</t>
-  </si>
-  <si>
-    <t>两市调整</t>
-  </si>
-  <si>
-    <t>解密A股资金面</t>
-  </si>
-  <si>
-    <t>茅板块迎机会?</t>
-  </si>
-  <si>
-    <t>港股体育股爆发</t>
-  </si>
-  <si>
-    <t>制造业板块迎利好</t>
-  </si>
-  <si>
-    <t>邓晓峰冯柳林园持仓变动来了</t>
+    <t>新冠病毒疫苗接种技术指南发布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新疆官员向H&amp;M喊话：擦亮眼睛、明辨是非 </t>
+  </si>
+  <si>
+    <t>社保将迎来6大新变化</t>
+  </si>
+  <si>
+    <t>49.8万吨！“洋垃圾”，全部退运！</t>
+  </si>
+  <si>
+    <t>地铁拟禁用充电宝？西安新规征求意见引热议</t>
+  </si>
+  <si>
+    <t>钢铁行业碳达峰方案成型</t>
+  </si>
+  <si>
+    <t>碳减排工具箱</t>
+  </si>
+  <si>
+    <t>全球最大碳排放交易市场即将揭面纱</t>
+  </si>
+  <si>
+    <t>央行:强化绿色金融信息披露</t>
+  </si>
+  <si>
+    <t>三大油气央企"双碳"目标时间表提前 路线图拟定</t>
+  </si>
+  <si>
+    <t>外国展商咋呼应</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中概股巨震 基金爆仓惹的祸？
+</t>
+  </si>
+  <si>
+    <t>Archegos爆仓全球投行损失或超60亿美元</t>
+  </si>
+  <si>
+    <t>华尔街高杠杆投资恶果</t>
+  </si>
+  <si>
+    <t>人类史上最大单日亏损 BillHwang是何人</t>
+  </si>
+  <si>
+    <t>大投行成股市下个威胁</t>
+  </si>
+  <si>
+    <t>沪指三连阳 资金调仓</t>
+  </si>
+  <si>
+    <t>白酒股重拾升势</t>
+  </si>
+  <si>
+    <t>黑色系卷土重来</t>
+  </si>
+  <si>
+    <t>机构看好二季度筑底</t>
+  </si>
+  <si>
+    <t>私募仓位近9成</t>
+  </si>
+  <si>
+    <t>公募隐仓股</t>
   </si>
   <si>
     <t>直播</t>
   </si>
   <si>
-    <t>这只锂电净利暴增44倍</t>
-  </si>
-  <si>
-    <t>这类厂商有望实现戴维斯双击</t>
+    <t>锂精矿接领涨大旗</t>
+  </si>
+  <si>
+    <t>碳中和机遇</t>
+  </si>
+  <si>
+    <t>抓紧"最强抗生素"药企</t>
   </si>
   <si>
     <t>秘籍</t>
   </si>
   <si>
-    <t>沪指翻红</t>
-  </si>
-  <si>
-    <t>体育股逆市爆发!李宁大涨8%</t>
-  </si>
-  <si>
-    <t>129家公司近5年净利润增长率超20%</t>
+    <t>A股频现"土豪级"大额分红</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白酒重拾升势 </t>
+  </si>
+  <si>
+    <t>机构观点：看好二季度震荡筑底</t>
   </si>
   <si>
     <t>大盘</t>
   </si>
   <si>
-    <t>反弹一触即发</t>
-  </si>
-  <si>
-    <t>适度布局军工</t>
-  </si>
-  <si>
-    <t>中金辐照等四股申购</t>
-  </si>
-  <si>
-    <t>板块</t>
-  </si>
-  <si>
-    <t>白酒板块回调</t>
-  </si>
-  <si>
-    <t>碳中和概念走低</t>
-  </si>
-  <si>
-    <t>纺织概念大幅高开</t>
-  </si>
-  <si>
-    <t>个股</t>
-  </si>
-  <si>
-    <t>协鑫能科跌停</t>
-  </si>
-  <si>
-    <t>否认京东方收购 彩虹股份复牌大跌</t>
+    <t>一季报预增王登场</t>
+  </si>
+  <si>
+    <t>权重或难有大涨</t>
+  </si>
+  <si>
+    <t>后市观点来了</t>
+  </si>
+  <si>
+    <t>必读</t>
+  </si>
+  <si>
+    <t>报刊头条</t>
+  </si>
+  <si>
+    <t>股海导航</t>
+  </si>
+  <si>
+    <t>十大博客</t>
+  </si>
+  <si>
+    <t>操盘必读</t>
+  </si>
+  <si>
+    <t>财经早报</t>
+  </si>
+  <si>
+    <t>主力</t>
+  </si>
+  <si>
+    <t>隐形重仓股曝光</t>
+  </si>
+  <si>
+    <t>"黑色系"卷土重来</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新基发行遇冷 </t>
   </si>
   <si>
     <t>观点</t>
   </si>
   <si>
-    <t>汽车芯片:自动驾驶浪潮之巅</t>
-  </si>
-  <si>
-    <t>盘面弱不宜惯性看空</t>
+    <t>任泽平:反思过度依赖货币放水</t>
+  </si>
+  <si>
+    <t>B站破发与它有关</t>
   </si>
   <si>
     <t>博客</t>
   </si>
   <si>
-    <t>周四反抽看点</t>
-  </si>
-  <si>
-    <t>地量信号是加仓信号</t>
-  </si>
-  <si>
-    <t>短期或迎重生</t>
+    <t>股指仍将继续上行</t>
+  </si>
+  <si>
+    <t>追涨增仓需谨慎</t>
+  </si>
+  <si>
+    <t>把握轮动机会</t>
   </si>
   <si>
     <t>研报</t>
   </si>
   <si>
-    <t>布局动力电池回收业务相关企业</t>
-  </si>
-  <si>
-    <t>大中客出口迎机遇</t>
+    <t>电解铝社会库存拐点到来</t>
+  </si>
+  <si>
+    <t>把握先机者优势将凸显</t>
   </si>
   <si>
     <t>策略</t>
   </si>
   <si>
-    <t>碳中和催生光伏长期风口</t>
-  </si>
-  <si>
-    <t>医药及科技板块仍是重点</t>
+    <t>石头如何书写神话</t>
+  </si>
+  <si>
+    <t>被动元器件量价齐升景气持续</t>
   </si>
   <si>
     <t>解读</t>
   </si>
   <si>
-    <t>跌落神坛的头部券商股</t>
-  </si>
-  <si>
-    <t>注意控仓及把握配置方向</t>
-  </si>
-  <si>
-    <t>失守半年线百日无生机</t>
-  </si>
-  <si>
-    <t>公司涨到自己都怕：呼吁别再买了</t>
-  </si>
-  <si>
-    <t>资金动手 现在多套点后面翻倍涨</t>
-  </si>
-  <si>
-    <t>这类股今天直接大涨</t>
-  </si>
-  <si>
-    <t>市场买盘不足 大盘或继续震荡</t>
-  </si>
-  <si>
-    <t>不确定性大增 指数继续向下寻求支撑</t>
-  </si>
-  <si>
-    <t>HM遭斩杀 这些服装公司受益</t>
-  </si>
-  <si>
-    <t>上证第二次倒鸭嘴随时会结束</t>
-  </si>
-  <si>
-    <t>3月25日股指期货指数-11</t>
-  </si>
-  <si>
-    <t>注意抄底的机会来了</t>
-  </si>
-  <si>
-    <t>9股股东户数连续4期下降</t>
-  </si>
-  <si>
-    <t>指数下跌会毁掉行情吗</t>
-  </si>
-  <si>
-    <t>市场诱空之后的碳中和能源结构与环保机会</t>
-  </si>
-  <si>
-    <t>短线将迎反弹</t>
-  </si>
-  <si>
-    <t>3月25日利好及其影响个股</t>
-  </si>
-  <si>
-    <t>短期市场或迎来新的重生机会</t>
-  </si>
-  <si>
-    <t>A股跌跌不休港股抹去年内涨幅</t>
-  </si>
-  <si>
-    <t>小心黑周四</t>
-  </si>
-  <si>
-    <t>铁心做多的资金很强 今天翻天巨变</t>
-  </si>
-  <si>
-    <t>市场第二只脚悄然迈出</t>
-  </si>
-  <si>
-    <t>三大热点继续做多</t>
-  </si>
-  <si>
-    <t>三热点继续做多</t>
-  </si>
-  <si>
-    <t>小盘快涨的风格很难持续 茅板块长线投资迎来好时机</t>
-  </si>
-  <si>
-    <t>企业密集披露 电力钢铁有望率先推进"碳达峰""碳中和"</t>
-  </si>
-  <si>
-    <t>南网能源成首只10倍股 个别机构在投机道路上走太远</t>
-  </si>
-  <si>
-    <t>制造业板块利好 今年结构性减税力度最大的政策来了</t>
+    <t>物管龙头迎高速成长新格局</t>
+  </si>
+  <si>
+    <t>光伏电动车发展提速</t>
+  </si>
+  <si>
+    <t>3.30日早盘消息及策略</t>
+  </si>
+  <si>
+    <t>外围利空传导困顿中的变局</t>
+  </si>
+  <si>
+    <t>机构看好9股目标涨幅翻倍</t>
+  </si>
+  <si>
+    <t>大白拉大车散户坐轿子</t>
+  </si>
+  <si>
+    <t>3月30日利好及其影响个股</t>
+  </si>
+  <si>
+    <t>市场仍有震荡反复</t>
+  </si>
+  <si>
+    <t>美股怕了 A股却很淡定</t>
+  </si>
+  <si>
+    <t>一行业突发利空该如何操作面对</t>
+  </si>
+  <si>
+    <t>全球芯片短缺是因为比特币吗</t>
+  </si>
+  <si>
+    <t>要注意防守了</t>
+  </si>
+  <si>
+    <t>三大指数十字星 今天周二有大动作</t>
+  </si>
+  <si>
+    <t>地量见地价之际 真正的大机会显现之时</t>
+  </si>
+  <si>
+    <t>3.30浪子炒股日记</t>
+  </si>
+  <si>
+    <t>一场总爆发开始 两个预言必须清楚</t>
+  </si>
+  <si>
+    <t>大盘在阻力位还会有震荡</t>
+  </si>
+  <si>
+    <t>大盘还会在犹豫中上行</t>
+  </si>
+  <si>
+    <t>反弹将延续量能需放大</t>
+  </si>
+  <si>
+    <t>市场若迎调整 将重现低吸机会</t>
+  </si>
+  <si>
+    <t>单日最大亏损的罪魁祸首</t>
+  </si>
+  <si>
+    <t>反弹魔咒又来一个 看穿了成倍的赢</t>
+  </si>
+  <si>
+    <t>中概股能否逃过问责</t>
+  </si>
+  <si>
+    <t>关注一重要指标</t>
+  </si>
+  <si>
+    <t>上海证监局：加强年报监管强化审计责任 提高信披质量</t>
+  </si>
+  <si>
+    <t>长江策略:一季报行情的两种策略 优选半导体与军工行业</t>
+  </si>
+  <si>
+    <t>两大石油公司中石油、中石化“十四五”双双发力碳达峰</t>
+  </si>
+  <si>
+    <t>白酒重拾升势:市场情绪修复 公募提示布局高景气度行业</t>
   </si>
   <si>
     <t>行业</t>
   </si>
   <si>
-    <t>种业发展迎春天 多家种业公司2020年业绩报喜</t>
-  </si>
-  <si>
-    <t>每3.2天有1家拟上科创公司摁下终止键:中信等坐火山口</t>
-  </si>
-  <si>
-    <t>A股市场IPO节奏稳步加快 一季度IPO家数同比翻番</t>
-  </si>
-  <si>
-    <t>社保基金重仓股曝光:减持中国人保套现30亿 新进22股</t>
+    <t>一季报预增王来了：暴增近70倍 化工板块成大赢家</t>
+  </si>
+  <si>
+    <t>环保政策利好需求猛增 纸价持续上涨行业景气度又推高</t>
+  </si>
+  <si>
+    <t>锂电材料需求太火爆 行业龙头去年净利增874%（附股）</t>
+  </si>
+  <si>
+    <t>A股频现“土豪级”大额分红方案 成熟行业分红预期高</t>
   </si>
   <si>
     <t>券商荐股精选|</t>
   </si>
   <si>
-    <t>这类厂商有望扶摇直上 实现戴维斯双击</t>
+    <t>毛利率顺利爬坡，这只票有41%上涨空间</t>
   </si>
   <si>
     <t>硬核研报|</t>
   </si>
   <si>
-    <t>涨价行情最大受益者已挖出 原料半年涨60%</t>
+    <t>涨价行情最大受益者已挖出 核心原料暴涨60%</t>
   </si>
   <si>
     <t>碳中和动态|</t>
   </si>
   <si>
-    <t>碳中和成为A股最强概念 投资者如何布局？</t>
-  </si>
-  <si>
-    <t>每3.2天就有一家拟上科创板公司终止：中信等坐火山口</t>
-  </si>
-  <si>
-    <t>多只债券被抛售:地产公司踩红线 红星美凯龙能否渡劫?</t>
+    <t xml:space="preserve">国家能源局十四五规划新能源装机1.2亿千瓦 </t>
+  </si>
+  <si>
+    <t>被质疑数据造假：风暴中的牧原股份长达33页回复内容</t>
+  </si>
+  <si>
+    <t>水茅不香了？农夫山泉跌回首日开盘价 钟老板身价缩水</t>
   </si>
   <si>
     <t>直播|</t>
   </si>
   <si>
-    <t>风格切换白酒还有机会吗</t>
-  </si>
-  <si>
-    <t>食品饮料行业</t>
+    <t>起底金融科技</t>
+  </si>
+  <si>
+    <t>化工何时能开启反弹</t>
   </si>
   <si>
     <t>赚钱秘诀</t>
@@ -409,295 +419,265 @@
     <t>研报|</t>
   </si>
   <si>
-    <t>跌落神坛的头部券商</t>
-  </si>
-  <si>
-    <t>汽车芯片 自动驾驶浪潮之巅</t>
+    <t>富人通胀 穷人通缩</t>
+  </si>
+  <si>
+    <t>长江:一季报行情的两种策略</t>
   </si>
   <si>
     <t>公司</t>
   </si>
   <si>
-    <t>排队5年后撤回IPO:万达商业等不起 再回港股上市</t>
-  </si>
-  <si>
-    <t>股东排队跑路：牛股三和管桩高位跌停 游资胜利大逃亡</t>
-  </si>
-  <si>
-    <t>益客食品大而不强:鸡鸭全产业链难御风险 业绩骤降6成</t>
-  </si>
-  <si>
-    <t>5个月暴跌75% 开心汽车遭子公司揭发虚伪合资流水造假</t>
+    <t>羽绒服产品被曝不合格上热搜戎美股份IPO添堵</t>
+  </si>
+  <si>
+    <t>3月最牛股豪取15连板 交易所紧急关注 追涨的要慌了？</t>
+  </si>
+  <si>
+    <t>净赚5.5亿却给股东分红30亿 江铃汽车：账上有100多亿</t>
+  </si>
+  <si>
+    <t>股权法拍“暗战”大戏几近落定 ST德豪控制权生变在即</t>
   </si>
   <si>
     <t>地产</t>
   </si>
   <si>
-    <t>万通往事 地产思想家、控制权战争与失去的20年</t>
-  </si>
-  <si>
-    <t>基金减持近半被疑明股实债 中南建设又陷质量投诉泥潭</t>
-  </si>
-  <si>
-    <t>海富通新发基遇冷：权益类落后同行 吕超越凭实力亏损</t>
-  </si>
-  <si>
-    <t>蒙牛乳业净利降14%</t>
-  </si>
-  <si>
-    <t>腾邦国际母子孙三代皆被申请破产</t>
-  </si>
-  <si>
-    <t>景瑞控股再转型 卖房百亿不挣钱</t>
-  </si>
-  <si>
-    <t>马化腾首度回应监管</t>
-  </si>
-  <si>
-    <t>券商荐股</t>
-  </si>
-  <si>
-    <t>市占第一的隐藏冠军 检测巨头续写十倍传奇</t>
-  </si>
-  <si>
-    <t>腾讯赚了1227亿 马化腾回应监管</t>
-  </si>
-  <si>
-    <t>人均年薪81万</t>
-  </si>
-  <si>
-    <t>小米2020年净赚130亿</t>
-  </si>
-  <si>
-    <t>面临缺芯难题</t>
-  </si>
-  <si>
-    <t>周受资跳槽</t>
-  </si>
-  <si>
-    <t>美国SEC再下黑手：中概股重挫 赴港二次上市潮将至？</t>
-  </si>
-  <si>
-    <t>快手电商意外崛起 万亿规模还有多远？</t>
-  </si>
-  <si>
-    <t>年报揭示百亿级私募变化 高毅资产持股市值最高</t>
-  </si>
-  <si>
-    <t>"固收+"变"固收-"部分基金敲响警钟</t>
-  </si>
-  <si>
-    <t>基金被套怎办</t>
-  </si>
-  <si>
-    <t>美国SEC下“黑手”：赴港上市潮将至？</t>
-  </si>
-  <si>
-    <t>腾讯2020赚1227亿：人均年薪81万</t>
-  </si>
-  <si>
-    <t>马化腾回应监管</t>
-  </si>
-  <si>
-    <t>港股恒指低开1.04% 百度跌9%小米跌5%腾讯跌4%</t>
-  </si>
-  <si>
-    <t>国际部总裁周受资离职 跳槽字节跳动</t>
-  </si>
-  <si>
-    <t>小米业绩电话会</t>
-  </si>
-  <si>
-    <t>腾讯业绩电话会：有哪些投资亮点</t>
-  </si>
-  <si>
-    <t>小米公布重大人事调整：卢伟冰晋升集团高级副总裁</t>
-  </si>
-  <si>
-    <t>安踏退出BCI组织李宁将新疆棉写在标签上：李宁大涨8% 安踏涨超6%</t>
-  </si>
-  <si>
-    <t>恒生科技指数暴跌近5% 小米跌8%阿里跌6%腾讯美团跌5%</t>
-  </si>
-  <si>
-    <t>腾讯2020赚1227亿：人均年薪81万 马化腾首度回应监管</t>
-  </si>
-  <si>
-    <t>小米2020年赚130亿：周受资跳槽 面临缺芯难题</t>
-  </si>
-  <si>
-    <t>发生了什么？腾讯音乐、爱奇艺、唯品会同日暴跌20%</t>
-  </si>
-  <si>
-    <t>安踏体育净利润51亿元超越阿迪达斯 靠这三招开启逆袭之路</t>
-  </si>
-  <si>
-    <t>快手上市后首份财报亮相  港股股价应声大跌12.02%</t>
-  </si>
-  <si>
-    <t>25万人撑起的京东物流 是物流界的富士康吗？</t>
-  </si>
-  <si>
-    <t>美股收跌科技股领跌 纳指收跌2%</t>
-  </si>
-  <si>
-    <t>美国SEC再下“黑手”：中概股集体重挫 赴港二次上市潮将至？</t>
-  </si>
-  <si>
-    <t>美国14个州起诉拜登政府 反对暂停石油和天然气租赁</t>
-  </si>
-  <si>
-    <t>美财长耶伦对银行业派息和股票回购持开放态度</t>
-  </si>
-  <si>
-    <t>美联储Williams：高失业率将使通胀保持在低水平</t>
-  </si>
-  <si>
-    <t>货船脱浅工作取得进展 苏伊士运河有望尽快恢复通航</t>
-  </si>
-  <si>
-    <t>欧盟收紧疫苗出口限制 或加剧与盟友和药企的紧张关系</t>
-  </si>
-  <si>
-    <t>小摩：美国散户正在“进化” 开始学会对冲风险了</t>
-  </si>
-  <si>
-    <t>买车需注意！特斯拉汽车收比特币了 但税务问题令人头大</t>
-  </si>
-  <si>
-    <t>美国人因新冠疫情相关欺诈损失3.82亿美元</t>
-  </si>
-  <si>
-    <t>美股精选： 聚焦中概 | 热门中概股集体重挫...</t>
-  </si>
-  <si>
-    <t>英特尔新CEO试图修复与苹果之间关系，称双方竞争是有趣的</t>
-  </si>
-  <si>
-    <t>5年期美债标售又敲响警钟 明日的7年期标售会否再次制造灾难？</t>
-  </si>
-  <si>
-    <t>高盛事件后 瑞信将发放2万美元特别奖金安抚初级员工</t>
-  </si>
-  <si>
-    <t>活久见！巨轮“堵死”全球输油生命线 油价一夜暴涨6%</t>
-  </si>
-  <si>
-    <t>阿根廷副总统：我们无法偿还IMF的450亿美元债务</t>
-  </si>
-  <si>
-    <t>资管巨头富达投资申请上市比特币ETF</t>
-  </si>
-  <si>
-    <t>反垄断大棒下：亚马逊、Facebook政府游说开支位列美国前二</t>
-  </si>
-  <si>
-    <t>阿斯利康在美疫苗试验数据更新：有效性76%，低于此前数值</t>
+    <t>调整阵痛 销售、毛利增速下滑 正荣地产换挡失速</t>
+  </si>
+  <si>
+    <t>神华的利润分配值得商榷？上市公司要把握好分红尺度</t>
+  </si>
+  <si>
+    <t>至信药业IPO获受理：研发投入占比不足1%引关注 回应</t>
+  </si>
+  <si>
+    <t>红外热成像商富吉瑞冲刺IPO 一半发明专利与客户共有</t>
+  </si>
+  <si>
+    <t>长虹华意压缩机营收71亿 2家子公司拟商誉减值6857万</t>
+  </si>
+  <si>
+    <t>硬核研报</t>
+  </si>
+  <si>
+    <t>远景与红杉中国成立百亿碳中和基金 机会&gt;&gt;</t>
+  </si>
+  <si>
+    <t>红星美凯龙太缺钱了：业绩预警 债务压力大</t>
+  </si>
+  <si>
+    <t>B站破发背后:招股书"抄作业"闹乌龙 合规水平亟待提升</t>
+  </si>
+  <si>
+    <t>上市不满3年市值即腰斩 汇付天下退市港股后或转战A股</t>
+  </si>
+  <si>
+    <t>中南服务港交所递表 有211个住宅项目来自中南集团</t>
+  </si>
+  <si>
+    <t>基金彻底赚翻了 易方达27.5亿、工银瑞信19.7亿</t>
+  </si>
+  <si>
+    <t>“隐形重仓股”曝光 知名基金经理掘金中小市值品种</t>
+  </si>
+  <si>
+    <t>B站陈睿不妥协：理想不止 商业不歇</t>
+  </si>
+  <si>
+    <t>开盘前瞻：港股转仓行情明显 跟随主力进攻</t>
+  </si>
+  <si>
+    <t>B站上市破发:招股书抄作业闹乌龙 合规水平亟待提升</t>
+  </si>
+  <si>
+    <t>"水茅"不香了?农夫山泉跌回首日开盘价</t>
+  </si>
+  <si>
+    <t>绿茶集团递表港交所 运营餐厅总数复合年增长率达28.3%</t>
+  </si>
+  <si>
+    <t>许家印再引“老朋友”战投房车宝 对赌一年内上市</t>
+  </si>
+  <si>
+    <t>销售、毛利增速下滑 千亿正荣换挡“失速”</t>
+  </si>
+  <si>
+    <t>美团2020：营收突破千亿 新业务更具想象力</t>
+  </si>
+  <si>
+    <t>中国信达：推动绿色发展 建设美丽中国</t>
+  </si>
+  <si>
+    <t>恒大房车宝引战163.5亿港元：谁的资本盛宴？</t>
+  </si>
+  <si>
+    <t>B站回港：视频化趋势下的AB面</t>
+  </si>
+  <si>
+    <t>交银国际：申洲国际目标价升至176港元 升至买入评级</t>
+  </si>
+  <si>
+    <t>美股涨跌不一 道指再创历史新高</t>
+  </si>
+  <si>
+    <t>3月29日美股成交额最大20只股票 Archegos爆仓概念股大多上榜</t>
+  </si>
+  <si>
+    <t>外盘头条：苏伊士运河搁浅货轮解困 运河完全疏通仍需时日</t>
+  </si>
+  <si>
+    <t>隔夜要闻：道指再创新高 Archegos爆仓余波未息跟谁学跌超18%</t>
+  </si>
+  <si>
+    <t>白宫新闻发言人透露拜登“心系”股市 确认周三公布3万亿基建计划</t>
+  </si>
+  <si>
+    <t>Archegos爆仓余波未息 相关股票陷入动荡走势</t>
+  </si>
+  <si>
+    <t>美联储理事表示联储不会运用货币政策来帮助政府债务融资</t>
+  </si>
+  <si>
+    <t>被史上最大单日亏损暴雷拖累 华尔街顶级银行股价跌至数月低位</t>
+  </si>
+  <si>
+    <t>富国银行据称经手20亿美元的4笔大宗交易 包括百度和唯品会</t>
+  </si>
+  <si>
+    <t>热门中概股周一收盘多数走低 跟谁学跌超18%</t>
+  </si>
+  <si>
+    <t>美股精选： ARK每日追踪 | 中概股异常暴...</t>
+  </si>
+  <si>
+    <t>报道称特斯拉对部分客户购买新车重复收费</t>
+  </si>
+  <si>
+    <t>“木头姐”旗下ARK Invest推出全新太空ETF 将于周二正式亮相</t>
+  </si>
+  <si>
+    <t>史上最惨烈爆仓 加剧美股波动</t>
+  </si>
+  <si>
+    <t>视频：爆出人类史上最大单日亏损的Bill Hwang到底是什么人？</t>
+  </si>
+  <si>
+    <t>深夜重磅！苏伊士河终于通了！跟谁学等爆仓股又暴跌</t>
+  </si>
+  <si>
+    <t>美国利率波动率有望下滑 因面临4月份的季节性沉闷</t>
+  </si>
+  <si>
+    <t>野村瑞信股价大跌 美国对冲基金爆仓冲击有多大</t>
+  </si>
+  <si>
+    <t>最新研究表明辉瑞和Moderna疫苗注射两针后保护效力高达90%</t>
   </si>
   <si>
     <t>新浪财经诚聘国际财经新闻编辑若干</t>
   </si>
   <si>
-    <t>[IT业界]用比特币买特斯拉汽车：买家可能收巨额税单</t>
-  </si>
-  <si>
-    <t>邓晓峰、冯柳、林园 私募大佬们持仓变动来了</t>
-  </si>
-  <si>
-    <t>基金减持近半被疑明股实债 中南建设陷质量投诉</t>
-  </si>
-  <si>
-    <t>公募基金年度“交作业” 行业分化显著小公司艰难</t>
-  </si>
-  <si>
-    <t>大咖说：白酒还有机会吗？基金被套怎么办？</t>
-  </si>
-  <si>
-    <t>工银瑞信赵栩：如何把握深证红利指数配置机会</t>
-  </si>
-  <si>
-    <t>上投陈思郁、广发郭磊:如何捕捉2021投资机遇?</t>
-  </si>
-  <si>
-    <t>新发基金画风大变 价值型持有期产品骤增</t>
-  </si>
-  <si>
-    <t>海富通新发基金为何遇冷？权益类落后同行 吕超越亏损</t>
-  </si>
-  <si>
-    <t>证监会：少数证券基金机构及从业人员合规底线不牢</t>
-  </si>
-  <si>
-    <t>15只“固收+”变“固收-” 部分基金敲响警钟</t>
+    <t>[IT业界]特斯拉得州工厂大规模招聘：或生产电池芯</t>
+  </si>
+  <si>
+    <t>隐形重仓股曝光 知名基金经理掘金中小市值品种</t>
+  </si>
+  <si>
+    <t>节后新基金建仓放缓 机构看好二季度震荡筑底</t>
+  </si>
+  <si>
+    <t>基金彻底赚翻了 易方达27.5亿工银瑞信19.7亿</t>
+  </si>
+  <si>
+    <t>华安、银华、汇添富等基金 直播解析窗口期</t>
+  </si>
+  <si>
+    <t>华安基金顾昕：从美股看A股科技股的发展趋势</t>
+  </si>
+  <si>
+    <t>汇添富赖中立：碳中和风起如何把握配置窗口期</t>
+  </si>
+  <si>
+    <t>新基金发行“有点冷”封闭式品种受宠</t>
   </si>
   <si>
     <t>私募华曜奖年度领军人物评选进行中</t>
   </si>
   <si>
-    <t>逾七成量化对冲基金年内获正收益 个别产品大举减仓</t>
-  </si>
-  <si>
-    <t>3月以来公募基金累计调研近2000次 碳中和概念公司成调研重点</t>
-  </si>
-  <si>
-    <t>新上任基金经理躺枪:基金净值急降 菜鸟vs老法师谁更抗跌?</t>
-  </si>
-  <si>
-    <t>监管正式出手！这家第三方基金销售公司被重罚</t>
-  </si>
-  <si>
-    <t>早盘能化品涨幅居前：原油涨超2%</t>
-  </si>
-  <si>
-    <t>苏伊士河道受阻或影响原油运输</t>
-  </si>
-  <si>
-    <t>原油反弹近6%</t>
-  </si>
-  <si>
-    <t>巨轮搁浅、海运大动脉堵塞 国际油价会怎么走</t>
-  </si>
-  <si>
-    <t>电力钢铁行业有望率先推进“碳达峰”“碳中和”</t>
-  </si>
-  <si>
-    <t>厕纸危机！高企浆价已传至下游 未来还会涨吗？</t>
-  </si>
-  <si>
-    <t>全球食品价格涨了？食糖和植物油价格涨幅最大</t>
-  </si>
-  <si>
-    <t>宏观看多情绪减弱 铁矿石压力来了?</t>
-  </si>
-  <si>
-    <t>苹果需理性看待天气影响</t>
-  </si>
-  <si>
-    <t>大豆看涨氛围浓厚</t>
-  </si>
-  <si>
-    <t>风险偏好回落 铁矿石承压</t>
-  </si>
-  <si>
-    <t>短纤关注做多机会</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金价收涨 耶伦一句话令黄金多头备受鼓舞 </t>
-  </si>
-  <si>
-    <t>期指中期前景不必过于悲观 趋势性机会仍需等待</t>
-  </si>
-  <si>
-    <t>五矿经易：环保限产长期化 焦炭何时止跌？</t>
+    <t>广州"双雄基金"去年大赚45.7亿 这才是"核心资产"？</t>
+  </si>
+  <si>
+    <t>发行遇冷 今年募集失败基金增至5只</t>
+  </si>
+  <si>
+    <t>白酒板块重拾升势 公募提示布局高景气度行业</t>
+  </si>
+  <si>
+    <t>公募总规模连续第8个月正增长 混基和货基成主力</t>
+  </si>
+  <si>
+    <t>泸州老窖净利增29%，机构短期推荐次高端白酒，长期看好高端白酒</t>
+  </si>
+  <si>
+    <t>债市回暖但债基发行未见起色 交银施罗德一产品募集失败</t>
+  </si>
+  <si>
+    <t>溢价约75％收购境外芯片企业 中国私募股权机构豪掷近百亿</t>
+  </si>
+  <si>
+    <t>沙特欲支持OPEC+延长石油减产</t>
+  </si>
+  <si>
+    <t>两大原油期货小幅收涨</t>
+  </si>
+  <si>
+    <t>美油涨逾1%收复61关口</t>
+  </si>
+  <si>
+    <t>苏伊士运河堵船 对大宗商品价格影响有限</t>
+  </si>
+  <si>
+    <t>钢铁行业碳达峰及降碳行动方案成型 双焦涨超5%</t>
+  </si>
+  <si>
+    <t>棉花基本面存在较强支撑 中长期向好格局不改</t>
+  </si>
+  <si>
+    <t>大宗商品波动加剧 CTA策略受市场追捧</t>
+  </si>
+  <si>
+    <t>配方改革 有望助力养殖业迈过饲料成本这道坎</t>
+  </si>
+  <si>
+    <t>清明临近蛋价“扑街”  能否“顺节而上”？</t>
+  </si>
+  <si>
+    <t>寒潮降温影响新疆冬小麦</t>
+  </si>
+  <si>
+    <t>沪铝二季度看涨</t>
+  </si>
+  <si>
+    <t>油价围绕运河疏通展开博弈 多头更胜一筹</t>
+  </si>
+  <si>
+    <t>美元美债收益率攀升 黄金创近三周最大跌幅</t>
+  </si>
+  <si>
+    <t>基本面稳中向好 股指逐步回归合理估值区间</t>
+  </si>
+  <si>
+    <t>新旧合约走势分化 苹果的未来将何去何从？</t>
   </si>
   <si>
     <t>DCE一周观察</t>
   </si>
   <si>
-    <t>美债收益率上升驱动美元创年内新高</t>
-  </si>
-  <si>
-    <t>美债收益率上升驱动美元创年内新高 全球金融市场遇新一轮震荡&gt;&gt;</t>
+    <t xml:space="preserve">美联储理事：距离加息还早得很 </t>
+  </si>
+  <si>
+    <t>在低利率的刺激之下，美国政府的债务以及财政赤字也是一路上升&gt;&gt;</t>
   </si>
   <si>
     <t>全球财经直播</t>
@@ -709,274 +689,280 @@
     <t>人民币汇率</t>
   </si>
   <si>
-    <t>避险升温，美元创四个月新高 瑞士央行决议来袭</t>
-  </si>
-  <si>
-    <t>评论：美债收益率走高宣告流动性行情的结束</t>
-  </si>
-  <si>
-    <t>欧元区气候压力测试 各国央行将迎绿色监管新挑战</t>
-  </si>
-  <si>
-    <t>全球通胀预期升温 穆迪首席：高通胀只是短期现象</t>
-  </si>
-  <si>
-    <t>美元升至四个月高位 黄金止跌反弹，油价大涨6%</t>
-  </si>
-  <si>
-    <t>鲍威尔证词盖过美元走高影响 金价一度涨逾10美元</t>
-  </si>
-  <si>
-    <t>美元依然是“百兽之王” 两大优势支撑其保持高位</t>
-  </si>
-  <si>
-    <t>马斯克无力回天，比特币持续下跌</t>
-  </si>
-  <si>
-    <t>耶伦一句话令黄金多头备受鼓舞</t>
-  </si>
-  <si>
-    <t>光大期货：避险情绪再起 黄金小幅上涨</t>
-  </si>
-  <si>
-    <t>黄金交易提醒：避险情绪助金价逆势上行，今日或迎...</t>
-  </si>
-  <si>
-    <t>5年期美债标售又敲响警钟 明日的7年期标售会否...</t>
-  </si>
-  <si>
-    <t>信保狂亏、踩雷假黄金案后  人保重回C位有多难</t>
-  </si>
-  <si>
-    <t>美联储不担心10年期美债收益率向上冲 然后会怎...</t>
-  </si>
-  <si>
-    <t>CNBC财经名嘴建议：将资产配置为5%的黄金和...</t>
-  </si>
-  <si>
-    <t>美元多头笑开花！欧元英镑齐下跌 黄金被困三角区</t>
-  </si>
-  <si>
-    <t>黄金涨势受限 美指创四个月新高！但须切记FED...</t>
-  </si>
-  <si>
-    <t>光大期货：黄金缺乏新的提振 短线仍存下跌空间</t>
-  </si>
-  <si>
-    <t>耶伦为增税辩护 华尔街大佬齐声警告</t>
+    <t>美元和美债收益率双双攀升 日元接近一年低点</t>
+  </si>
+  <si>
+    <t>美联储沃勒：没有保持低利率为政府债务融资</t>
+  </si>
+  <si>
+    <t>Archegos爆仓或导致“雷曼危机”重演 美元窃喜</t>
+  </si>
+  <si>
+    <t>央财谭小芬：美债收益率上升对中国影响整体可控</t>
+  </si>
+  <si>
+    <t>人民币将录下一年以来最大月跌幅 美元恢复强势</t>
+  </si>
+  <si>
+    <t>拜登面临一场政治恶仗 本周将公布重大支出计划</t>
+  </si>
+  <si>
+    <t>欧洲多所研究机构：欧元区经济将迎积极复苏态势</t>
+  </si>
+  <si>
+    <t>比特币和美元也有一点相似之处</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美元逼近93关口 黄金跌逾20美元 </t>
+  </si>
+  <si>
+    <t>土耳其总统埃尔多安敦促国民将黄金和外汇储蓄投入...</t>
+  </si>
+  <si>
+    <t>美联储理事：距离加息还早得很 低息并非为政府融...</t>
+  </si>
+  <si>
+    <t>美联储沃勒：中央银行没有保持低利率为政府债务融资</t>
+  </si>
+  <si>
+    <t>任泽平：美联储超发货币实际上是在向全球收铸币税</t>
+  </si>
+  <si>
+    <t>中信期货：2021年二季度贵金属将继续偏空</t>
+  </si>
+  <si>
+    <t>黄金承压美指创四个月新高！本周两看点 或不乏重...</t>
+  </si>
+  <si>
+    <t>美联储理事Waller：美联储距离加息还有很长的路要走</t>
+  </si>
+  <si>
+    <t>周一黄金期货价格收跌1.2% 创3周新低</t>
+  </si>
+  <si>
+    <t>美联储理事表示联储不会运用货币政策来帮助政府债...</t>
+  </si>
+  <si>
+    <t>基辛格：若美倒下，谁也别好过，美联储挪用黄金，...</t>
+  </si>
+  <si>
+    <t>美元美债收益率攀升 黄金创近三周来最大跌幅</t>
+  </si>
+  <si>
+    <t>美联储距离加息还有很长的路要走</t>
   </si>
   <si>
     <t>黄金专家答疑</t>
   </si>
   <si>
-    <t>债市在纠结中前进，终点在哪儿</t>
-  </si>
-  <si>
-    <t>债券大跌21%！红星美凯龙能否“渡劫”？</t>
-  </si>
-  <si>
-    <t>货币进入“走走停停”时代：年内降息仍值得期待</t>
-  </si>
-  <si>
-    <t>美联储不担心10年期美债收益率向上冲 然后会怎么样？</t>
-  </si>
-  <si>
-    <t>湖北"首发"地方债250亿 这些领域或成今年热门投向</t>
-  </si>
-  <si>
-    <t>避险情绪升温，债市强势未改 国债期货创近两个月新高</t>
-  </si>
-  <si>
-    <t>万亿级地方新增债本周开闸 穿透式监管提高资金效率</t>
-  </si>
-  <si>
-    <t>汇率暴跌、国债受挫 土耳其为何遭遇金融风暴？</t>
-  </si>
-  <si>
-    <t>SLR到期谁遭殃？PIMCO：美债市场流动性将付出代价</t>
-  </si>
-  <si>
-    <t>股市下挫叠加资金宽松提振 期现货延续震荡偏强格局</t>
-  </si>
-  <si>
-    <t>2021年二季度债市展望：是左侧机会 还是诱多风险？</t>
+    <t>针对地方国企债券违约 国资委出手了</t>
+  </si>
+  <si>
+    <t>强化地方国企债务风险管控 防范化解系统性金融风险</t>
+  </si>
+  <si>
+    <t>23万亿信用债市场迎评级新规：    “AAA级盛况”将难续</t>
+  </si>
+  <si>
+    <t>富时罗素10月29日起将中国国债纳入WGBI指数 权重5.25%</t>
+  </si>
+  <si>
+    <t>评级集中下调刷新纪录：488只债券主体评级遭下调</t>
+  </si>
+  <si>
+    <t>强制评级取消后市场或萎缩 信用评级将进入买方时代</t>
+  </si>
+  <si>
+    <t>“通用语言”进化 信披新规助信用债市场进阶发展</t>
+  </si>
+  <si>
+    <t>上海国际信托： 捕捉中资美元债蕴藏的投资机会</t>
+  </si>
+  <si>
+    <t>美国银行:资金流向显示投资者正从中长期债券基金撤出</t>
+  </si>
+  <si>
+    <t>爆雷！正通汽车去年预亏超80亿 11亿债券还安全吗？</t>
+  </si>
+  <si>
+    <t>金信基金成被执行人:执行标的近4千万 涉专户债券踩雷</t>
+  </si>
+  <si>
+    <t>央财教授谭小芬：美债收益率上升对中国影响整体可控</t>
   </si>
   <si>
     <t>全球银行同业拆借利率</t>
   </si>
   <si>
-    <t>Stock futures rise as pressure on tech stocks pauses</t>
-  </si>
-  <si>
-    <t>AstraZeneca revises Covid vaccine data with lower efficacy rate after accuracy questions</t>
-  </si>
-  <si>
-    <t>Ever Given, the massive cargo ship that ran aground in the Suez Canal, is still stuck</t>
-  </si>
-  <si>
-    <t>Top U.S. diplomat warns China threatens NATO security, calls for joint approach to counter Beijing</t>
-  </si>
-  <si>
-    <t>Germany's Merkel admits 'mistake' and reverses Easter lockdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fidelity to launch bitcoin ETF as investment giant builds its digital asset business </t>
-  </si>
-  <si>
-    <t>Why China is so far ahead of the U.S. in electric vehicle production</t>
-  </si>
-  <si>
-    <t>GameStop shares fall 33% on lack of transformation detail, possible share sale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer travel is selling out in some places — see what's already booked and where  </t>
-  </si>
-  <si>
-    <t>The No. 1 reason top soccer coaches are losing their jobs</t>
-  </si>
-  <si>
-    <t>What are NFTs?</t>
-  </si>
-  <si>
-    <t>Photos show container ship stuck in Suez Canal</t>
-  </si>
-  <si>
-    <t>North Korea fires unidentified projectiles into Sea of Japan, U.S. allies say</t>
-  </si>
-  <si>
-    <t>Tech and GameStop losses have traders wondering if retail investors are losing interest in market</t>
-  </si>
-  <si>
-    <t>Yellen supports banks’ share buybacks. Sen. Warren wants BlackRock designated too big to fail</t>
-  </si>
-  <si>
-    <t>AstraZeneca missteps threaten to further erode trust in Covid vaccine as company seeks U.S. approval</t>
-  </si>
-  <si>
-    <t>Satellite imagery shows mega container ship blocking Egypt's Suez Canal</t>
-  </si>
-  <si>
-    <t>Erdogan calls on Turks to help stabilize the lira as investors fear a monetary crisis</t>
-  </si>
-  <si>
-    <t>EU announces plan for tougher controls on coronavirus vaccine exports</t>
-  </si>
-  <si>
-    <t>Egyptian billionaire: Erdogan firing Turkey's central bank chief is 'only going to add to the mess'</t>
-  </si>
-  <si>
-    <t>Covid updates: JetBlue brings back flight attendants; CDC says variants are fueling new cases</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/politics/2021-03/24/c_1127247261.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/politics/2021-03/24/c_1127251473.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/politics/2021-03/24/c_1127249341.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/politics/2021-03/24/c_1127247490.htm</t>
-  </si>
-  <si>
-    <t>http://my-h5news.app.xinhuanet.com/xhh-pc/article/?id=c880510b-75b5-4f4c-979a-5192e561d8cf</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7898015.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7782145.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-25/doc-ikknscsk1052994.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7804387.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-03-25/doc-ikknscsk1046380.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/hmdzxjcp/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0908957.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-03-25/doc-ikkntiam7769254.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-03-25/doc-ikknscsk1073454.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-03-25/doc-ikknscsk1053752.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-03-24/doc-ikkntiam7724027.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/review/jcgc/2021-03-25/doc-ikknscsk1058711.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/fdhdhgdgfh/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-03-24/doc-ikkntiam7698740.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7799571.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-25/doc-ikkntiam7977193.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-03-24/doc-ikkntiam7697294.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zldx/2021-03-25/doc-ikknscsk0951439.shtml</t>
+    <t>How Archegos’ $20 billion move to flee certain names led to banks’ share prices tumbling</t>
+  </si>
+  <si>
+    <t>Ever Given is no longer blocking the Suez Canal, but the supply chain impact could last months</t>
+  </si>
+  <si>
+    <t>China's Xiaomi launches premium phone to challenge Apple and Samsung and fill void left by Huawei</t>
+  </si>
+  <si>
+    <t>Myanmar is on the brink of becoming a 'failed state,' says expert from think tank</t>
+  </si>
+  <si>
+    <t>Australia will 'vigorously defend' its wine industry against China, minister says</t>
+  </si>
+  <si>
+    <t>Asia-Pacific shares mixed; Nomura stock continues slide following Monday tumble</t>
+  </si>
+  <si>
+    <t>Stock futures are flat after Dow closes at record</t>
+  </si>
+  <si>
+    <t>How Goldman and Morgan Stanley avoided losses after fund meltdown burned Nomura, Credit Suisse</t>
+  </si>
+  <si>
+    <t>Facebook and Google reveal plans to build subsea cables between U.S. and Southeast Asia</t>
+  </si>
+  <si>
+    <t>Tesla double-charged some customers for new cars, leaving them desperate for refund details</t>
+  </si>
+  <si>
+    <t>VW accidentally leaks new name for its U.S. operations: Voltswagen</t>
+  </si>
+  <si>
+    <t>One dose of Pfizer or Moderna vaccines was 80% effective in preventing Covid in CDC study</t>
+  </si>
+  <si>
+    <t>China’s government bonds are in a ‘sweet spot' after sell off, says portfolio manager</t>
+  </si>
+  <si>
+    <t>SpaceX should be forced to comply with DOJ subpoena in probe of hiring practices, judge recommends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draft of joint WHO-China study says animals likely source of Covid </t>
+  </si>
+  <si>
+    <t>What is Daylight Saving Time?</t>
+  </si>
+  <si>
+    <t>The EU’s huge Covid stimulus plan has hit an obstacle — and it could delay the funds</t>
+  </si>
+  <si>
+    <t>5 killed in Alaska helicopter crash, including Czech Republic's richest man</t>
+  </si>
+  <si>
+    <t>Europe looks to contain spiraling Covid crisis, but it's 'Happy Monday' in the UK</t>
+  </si>
+  <si>
+    <t>Governments — ‘not BlackRock’ — should lead the economy away from fossil fuels, economist says</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/2021-03/29/c_1127268183.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/2021-03/29/c_1127267661.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/fortune/2021-03/28/c_1127265543.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/politics/2021-03/28/c_1127265800.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/2021-03/29/c_1127268101.htm</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian0957490.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-03-30/doc-ikknscsk4386467.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1155075.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-03-30/doc-ikknscsk4149244.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-03-30/doc-ikknscsk4220343.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/zggjy/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4416403.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4124423.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-29/doc-ikknscsk3969008.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/2021-03-30/doc-ikkntian1241325.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4235279.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1158468.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-30/doc-ikkntian0947025.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zldx/2021-03-30/doc-ikknscsk4408577.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1074032.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1122266.shtml</t>
   </si>
   <si>
     <t>http://live.finance.sina.com.cn/</t>
   </si>
   <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/m97kl65j2kjl?parentType=column&amp;parentId=a0e7a911df0a42bca9e4d8c70cf6967e</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-03-25/doc-ikknscsk1109011.shtml</t>
+    <t>https://www.sinadaxue.cn/#/sina/single/1n5879713834?parentType=column&amp;parentId=a0e7a911df0a42bca9e4d8c70cf6967e</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/#/sina/single/l348j214j862?parentType=column&amp;parentId=6273e22402aa4630a1277ebfa2991b69</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/#/sina/single/23mk2nj92k9j?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
   </si>
   <si>
     <t>https://www.guosen.com.cn/gs/openaccount/?qrcode=1595905431891</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-03-25/doc-ikknscsk1144916.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-03-25/doc-ikkntiam7799582.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1158458.shtml</t>
   </si>
   <si>
     <t>http://roll.finance.sina.com.cn/finance/zq1/scyj/index.shtml</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-03-25/doc-ikknscsk1115740.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-03-25/doc-ikknscsk1110629.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/2021-03-25/doc-ikkntiam7910817.shtml</t>
-  </si>
-  <si>
-    <t>http://finance.sina.com.cn/stock/jyts/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-25/doc-ikkntiam7968046.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-25/doc-ikkntiam7966476.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-25/doc-ikknscsk1123069.shtml</t>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-03-30/doc-ikknscsk4402060.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikknscsk4083914.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikknscsk4087856.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://finance.sina.com.cn/stock/jyts/ </t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-03-30/doc-ikkntian1238178.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-03-30/doc-ikkntian1237088.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-03-29/doc-ikknscsk3767478.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/cpbd/2021-03-30/doc-ikkntian1238913.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-03-30/doc-ikknscsk4425416.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/marketresearch/2020-08-17/doc-iivhuipn9137795.shtml</t>
@@ -985,40 +971,40 @@
     <t xml:space="preserve">http://roll.finance.sina.com.cn/finance/zq1/zldx/index.shtml </t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-25/doc-ikkntiam7979628.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-03-25/doc-ikkntiam7964620.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4316687.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1122300.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=230808</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-25/doc-ikknscsk1088158.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/jsy/2021-03-25/doc-ikkntiam7890761.shtml</t>
+    <t>https://finance.sina.com.cn/stock/stockptd/2021-03-30/doc-ikkntian1245218.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-29/doc-ikkntian0903676.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=57563&amp;page=1</t>
   </si>
   <si>
-    <t>http://blog.sina.com.cn/s/blog_66314a7c0102zbyg.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_131ac399f0102zta5.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_131add862010301pu.html?tj=fina</t>
+    <t>http://blog.sina.com.cn/s/blog_4184ca780102z61v.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_8cc315680102z4kk.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_599d75180102zn4r.html?tj=fina</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/reportch/jinqilin.shtml</t>
   </si>
   <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/669924325154/index.phtml</t>
-  </si>
-  <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/669932439129/index.phtml</t>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/670382039763/index.phtml</t>
+  </si>
+  <si>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/670381479016/index.phtml</t>
   </si>
   <si>
     <t>http://vip.stock.finance.sina.com.cn/q/go.php/vReport_List/kind/lastest/index.phtml</t>
@@ -1027,49 +1013,46 @@
     <t>http://licaishi.sina.com.cn/s/%E6%B7%B1%E6%B8%AF%E9%80%9A?ind_id=0&amp;t=1&amp;all=0&amp;fr=finance_top</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0942048.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0943415.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/stockzmt/2021-03-25/doc-ikkntiam7897268.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk1019917.shtml</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_62dc4e590102zomm.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://live.finance.sina.com.cn/bozhu/1658605145/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7899218.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/stocktalk/2021-03-25/doc-ikkntiam7904988.shtml</t>
+    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/670381955104/index.phtml</t>
+  </si>
+  <si>
+    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/670381574571/index.phtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-30/doc-ikkntian1249157.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-30/doc-ikkntian1249103.shtml</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_540eaf530102zb0l.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://tzxy.sina.com.cn/content/detail/1658605145/113561</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-03-30/doc-ikkntian1228400.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-03-30/doc-ikkntian1219366.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-03-30/doc-ikkntian1222321.shtml</t>
   </si>
   <si>
     <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_List/kind/industry/index.phtml</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7850352.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk1002357.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zxdt/2021-03-25/doc-ikkntiam7899871.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7952218.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4319990.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1119419.shtml</t>
   </si>
   <si>
     <t>https://www.sinadaxue.cn/#/sina/brief/column/757bacbe813249689ab15c319e8baea4</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.sinadaxue.cn/#/sina/single/1n5879mnm834?parentType=column&amp;parentId=757bacbe813249689ab15c319e8baea4</t>
+    <t>https://www.sinadaxue.cn/#/sina/single/5lm832ljnk96?parentType=column&amp;parentId=757bacbe813249689ab15c319e8baea4</t>
   </si>
   <si>
     <t>https://www.sinadaxue.cn/#/sina/brief/column/a601af39262c4bdd80274231f1fde815</t>
@@ -1081,196 +1064,169 @@
     <t>https://www.sinadaxue.cn/#/sina/brief/column/ffea76e99fbd4caf936b258faabc8d8e</t>
   </si>
   <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/724k96m6n8nj?parentType=column&amp;parentId=6273e22402aa4630a1277ebfa2991b69</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk1002357.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7843740.shtml</t>
+    <t>https://www.sinadaxue.cn/#/sina/single/23mk2n411k9j?parentType=column&amp;parentId=6273e22402aa4630a1277ebfa2991b69</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-03-30/doc-ikknscsk4375150.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-30/doc-ikkntian1263951.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/jjzbj/</t>
   </si>
   <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8663</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8657</t>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8733</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8717</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/quanshangkaihu/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-25/doc-ikkntiam7897268.shtml</t>
-  </si>
-  <si>
     <t>https://finance.sina.com.cn/stock/s/2019-07-09/doc-ihytcitm0843478.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=56592&amp;page=1</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-03-25/doc-ikkntiam7745849.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7910621.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-03-25/doc-ikkntiam7914760.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-25/doc-ikkntiam7747759.shtml</t>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/newstock/zxdt/2021-03-30/doc-ikknscsk4403488.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-03-30/doc-ikknscsk4111890.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1237591.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1158444.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/estate/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-03-25/doc-ikknscsk0918637.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-03-25/doc-ikknscsk1069586.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-25/doc-ikkntiam7903185.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk1072792.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0918797.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-03-25/doc-ikknscsk1074621.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/txjl_12/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://www.sinadaxue.cn/#/sina/single/m97kl6592kjl?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
+    <t>https://finance.sina.com.cn/stock/relnews/hk/2021-03-30/doc-ikkntian1247696.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian0966039.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/newstock/zxdt/2021-03-30/doc-ikkntian1224801.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikknscsk4084010.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-03-30/doc-ikkntian1259099.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/#/sina/single/l25km67668n1?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/hkstock/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-25/doc-ikknscsk0907208.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/xm_12/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/hk/2021-03-24/doc-ikknscsk0873797.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/tech/2021-03-24/doc-ikkntiam7625448.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/marketresearch/2021-03-25/doc-ikkntiam7893374.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-03-24/doc-ikkntiam7692763.shtml</t>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-30/doc-ikknscsk4418214.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-30/doc-ikkntian1247042.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikkntian0750428.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/estate/integration/2021-03-30/doc-ikknscsk4120028.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/fund/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0913721.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-25/doc-ikkntiam7901096.shtml</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8669</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-03-25/doc-ikkntiam7893374.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-03-25/doc-ikkntiam7960036.shtml</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.cn/imeeting/hyt/detail/8671</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8610</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-24/doc-ikknscsk0775346.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-03-25/doc-ikknscsk1126847.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/txjl_12</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/xm_12</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-03-25/doc-ikknscsk1065098.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-03-24/doc-ikknscsk0871841.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-24/doc-ikkntiam7737424.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-25/doc-ikkntiam7934292.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikknscsk0996689.shtml</t>
-  </si>
-  <si>
-    <t>https://mil.news.sina.com.cn/2021-03-25/doc-ikkntiam7912089.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikknscsk0930159.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikknscsk0981127.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7772983.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikkntiam7774909.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-24/doc-ikkntiam7745318.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikkntiam7849069.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikkntiam7826433.shtml</t>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-30/doc-ikknscsk4437605.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-03-29/doc-ikknscsk3980523.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-30/doc-ikknscsk4422328.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/hk/2021-03-30/doc-ikkntian1202376.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-29/doc-ikknscsk3858535.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-03-30/doc-ikknscsk4127722.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/focus/2021-03-29/doc-ikknscsk3631692.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-29/doc-ikknscsk3511769.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-03-29/doc-ikkntian0837108.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-30/doc-ikknscsk4417532.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/hkgg/2021-03-30/doc-ikkntian1302079.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4268824.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4288625.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikkntian1166019.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikkntian1204777.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-30/doc-ikknscsk4225675.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-29/doc-ikknscsk4056963.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-29/doc-ikknscsk4094944.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikkntian1056681.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4285311.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikkntian1128161.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/other/hsnews/detail_index.d.html</t>
   </si>
   <si>
-    <t>https://k.sina.cn/article_5044281310_12ca99fde02001j493.html?from=news&amp;subch=onews</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-03-25/doc-ikkntiam7938331.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/flashnews/2021-03-25/doc-ikkntiam7912288.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikkntiam7918114.shtml</t>
-  </si>
-  <si>
-    <t>https://zx.sina.cn/push/2021-03-25/zx-ikknscsk1071129.d.html</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-25/doc-ikknscsk1057682.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-25/doc-ikkntiam7938106.shtml</t>
-  </si>
-  <si>
-    <t>https://zx.sina.cn/push/2021-03-25/zx-ikknscsk1121293.d.html</t>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikkntian1165542.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikkntian0993620.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian0999227.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-30/doc-ikkntian0955232.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4232173.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian0999199.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4220224.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/usstock/c/2019-06-04/doc-ihvhiews6789878.shtml</t>
@@ -1279,88 +1235,85 @@
     <t>https://tech.sina.com.cn/it/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-25/doc-ikkntiam7922603.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/original/2021-03-25/doc-ikkntiam7923619.shtml</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8661</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8590</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0943424.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7829129.shtml</t>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-30/doc-ikknscsk4427737.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8760</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8752</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4316701.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/2020dfzqhyj/#/index</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7782515.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-25/doc-ikknscsk1137025.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk1121892.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7930747.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikkntiam7950209.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikkntiam7867102.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-25/doc-ikkntiam7899656.shtml</t>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-30/doc-ikknscsk4108518.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-30/doc-ikkntian0980511.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-03-30/doc-ikkntian1292837.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-30/doc-ikknscsk4439191.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-03-30/doc-ikkntian1267712.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikkntian1243337.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikkntian1277868.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-30/doc-ikknscsk4350388.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/zt_d/suyishi/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk1019892.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikkntiam7919115.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-24/doc-ikkntiam7685560.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-03-25/doc-ikkntiam7918293.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikkntiam7908255.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikknscsk1062721.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikkntiam7906512.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikknscsk1067782.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-03-25/doc-ikkntiam7869905.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/gzqh/2021-03-25/doc-ikkntiam7904762.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-25/doc-ikkntiam7914045.shtml</t>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikknscsk4399157.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikkntian1251070.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-03-30/doc-ikknscsk4389653.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikknscsk4418035.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikknscsk4391947.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikknscsk4416496.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikknscsk4410089.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikknscsk4416342.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4394003.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/gzqh/futuresforrep/2021-03-30/doc-ikknscsk4411632.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikkntian1302295.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/dcefutures/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikkntiam7759723.shtml</t>
+    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-03-30/doc-ikknscsk4231061.shtml</t>
   </si>
   <si>
     <t>http://live.sina.com.cn/zt/l/v/finance/globalnews1/</t>
@@ -1369,157 +1322,160 @@
     <t>http://finance.sina.com.cn/forex/paijia.html#0</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikknscsk1043385.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0960917.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0918785.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-25/doc-ikknscsk0918638.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikknscsk1036001.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikknscsk1001562.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikkntiam7809785.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikknscsk1028895.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/2021-03-25/doc-ikkntiam7926435.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikkntiam7960440.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-03-25/doc-ikknscsk1071082.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-03-24/doc-ikknscsk0822972.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-25/doc-ikkntiam7888838.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-24/doc-ikkntiam7743905.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-24/doc-ikkntiam7663429.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-24/doc-ikknscsk0443739.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-03-24/doc-ikkntiam7326291.shtml</t>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-30/doc-ikknscsk4360572.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4264022.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-30/doc-ikkntian1025570.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4160363.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-30/doc-ikknscsk4109272.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-29/doc-ikknscsk3961262.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikkntian0694705.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-29/doc-ikknscsk3968848.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-30/doc-ikknscsk4334367.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/7x24/2021-03-30/doc-ikkntian0977835.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikknscsk3419289.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-03-29/doc-ikknscsk3739673.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-29/doc-ikkntian0800357.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-30/doc-ikknscsk4372450.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4261456.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-29/doc-ikkntian0866170.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-30/doc-ikknscsk4281693.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4374597.shtml</t>
   </si>
   <si>
     <t>http://biz.finance.sina.com.cn/zjzt/gold_2014.php</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-25/doc-ikkntiam7909212.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-25/doc-ikkntiam7715309.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bank/bank_hydt/2021-03-25/doc-ikknscsk1065328.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-03-25/doc-ikkntiam7747754.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-03-25/doc-ikknscsk1074226.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-24/doc-ikknscsk0295385.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-03-24/doc-ikkntiam7277812.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-24/doc-ikknscsk0288437.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-03-24/doc-ikkntiam7288300.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-24/doc-ikknscsk0501946.shtml</t>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-03-30/doc-ikknscsk4219744.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4124466.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4124312.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/2021-03-30/doc-ikkntian1185873.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikkntian0764665.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-03-29/doc-ikkntian0763783.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-03-30/doc-ikknscsk4125183.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-03-29/doc-ikkntian0813251.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-29/doc-ikkntian0885828.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4028917.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-03-29/doc-ikkntian0715701.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/money/globalindex/ibor.shtml</t>
   </si>
   <si>
-    <t>https://www.cnbc.com/2021/03/24/stock-market-open-to-close-news.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/covid-vaccine-astrazeneca-issues-updated-phase-3-trial-data.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/ever-given-a-massive-cargo-ship-is-still-stuck-in-the-suez-canal.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/blinken-says-china-threatens-nato-calls-for-joint-approach-to-counter-beijing.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/germanys-merkel-admits-mistake-and-reverses-easter-lockdown.html</t>
+    <t>https://www.cnbc.com/2021/03/29/the-archegos-blowup-and-its-ripple-effect-across-markets.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/suez-canal-is-moving-but-the-supply-chain-impact-could-last-months.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/xiaomi-mi-11-ultra-price-features-specs-availability-.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/30/myanmar-is-on-the-brink-of-becoming-a-failed-state-says-expert-from-think-tank.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/australia-will-vigorously-defend-its-wine-industry-against-china-minister-says.html</t>
   </si>
   <si>
     <t>/pro/</t>
   </si>
   <si>
-    <t>https://www.cnbc.com/2021/03/24/fidelity-to-launch-bitcoin-etf-as-investment-giant-builds-its-digital-asset-business-.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/why-china-is-so-far-ahead-of-the-us-when-it-comes-to-ev-production-.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/23/gamestop-shares-rise-on-e-commerce-sales-jump-new-coo.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/is-it-safe-to-travel-this-summer-optimistic-travelers-booking-now-.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/premier-league-the-no-1-reason-football-managers-lose-their-job.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/video/2021/03/23/what-are-nfts.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/photos-show-container-ship-stuck-in-suez-canal.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/north-korea-fires-unidentified-projectiles-into-sea-of-japan-us-allies-say.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/tech-and-gamestop-losses-have-traders-wondering-if-retail-investors-are-losing-interest-in-market.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/yellen-supports-buybacks-warren-wants-blackrock-deemed-too-big-to-fail.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/covid-vaccine-astrazeneca-missteps-threaten-to-further-erode-trust-as-company-seeks-us-approval.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/satellite-imagery-of-ship-ever-given-blocking-egypts-suez-canal.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/erdogan-calls-on-turks-to-support-lira-investors-fear-monetary-crisis.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/eu-announces-tougher-controls-on-coronavirus-vaccine-exports.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/erdogan-firing-turkeys-central-bank-chief-adds-to-mess-naguib-sawiris.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/24/covid-live-updates.html</t>
+    <t>https://www.cnbc.com/2021/03/30/japan-stocks-set-for-mixed-start-dow-closes-at-new-record-overnight.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/stock-market-open-to-close-news.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/goldman-morgan-stanley-avoided-losses-after-fund-meltdown-hit-nomura.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/facebook-google-to-lay-subsea-cables-between-us-and-southeast-asia.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/tesla-double-charged-some-customers-for-new-cars.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/vw-accidentally-leaks-new-name-for-its-us-operations-voltswagen.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/cdc-study-shows-single-dose-of-pfizer-or-moderna-covid-vaccines-was-80percent-effective.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/chinas-government-bonds-are-in-a-sweet-spot-after-sell-off-says-portfolio-manager.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/elon-musk-spacex-should-comply-with-doj-subpoena-in-hiring-probe-judge-says.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/draft-of-joint-who-china-study-says-animals-likely-source-of-covid-.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/video/2021/03/26/seasonal-clock-changes-for-daylight-saving-time.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/germany-constitutional-court-puts-eu-covid-funds-on-hold.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/5-killed-in-alaska-helicopter-crash-including-czech-republics-richest-man.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/uk-lockdown-eases-on-happy-monday-germany-and-france-hospital-fears.html</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2021/03/29/pettifor-governments-not-blackrock-should-lead-green-economy-transition.html</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F266"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1933,7 +1889,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1953,7 +1909,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1973,7 +1929,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1993,7 +1949,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2013,7 +1969,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2033,7 +1989,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2053,7 +2009,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2073,7 +2029,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2093,7 +2049,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2113,7 +2069,7 @@
         <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2133,7 +2089,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2153,7 +2109,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2173,7 +2129,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2193,7 +2149,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2213,7 +2169,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2233,7 +2189,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2253,7 +2209,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2273,7 +2229,7 @@
         <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2293,7 +2249,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2313,7 +2269,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2333,7 +2289,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2353,7 +2309,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2373,7 +2329,7 @@
         <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2393,7 +2349,7 @@
         <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2413,7 +2369,7 @@
         <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2433,7 +2389,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2453,7 +2409,7 @@
         <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2473,7 +2429,7 @@
         <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2493,7 +2449,7 @@
         <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2510,7 +2466,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2530,7 +2486,7 @@
         <v>59</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2550,7 +2506,7 @@
         <v>60</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2570,7 +2526,7 @@
         <v>61</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2590,7 +2546,7 @@
         <v>62</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2610,7 +2566,7 @@
         <v>63</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2630,7 +2586,7 @@
         <v>64</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2650,7 +2606,7 @@
         <v>65</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2670,7 +2626,7 @@
         <v>66</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2690,7 +2646,7 @@
         <v>67</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2706,8 +2662,11 @@
       <c r="D41" t="s">
         <v>29</v>
       </c>
+      <c r="E41" t="s">
+        <v>68</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2724,10 +2683,10 @@
         <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2743,11 +2702,8 @@
       <c r="D43" t="s">
         <v>29</v>
       </c>
-      <c r="E43" t="s">
-        <v>69</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2767,7 +2723,7 @@
         <v>70</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2787,7 +2743,7 @@
         <v>71</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2807,7 +2763,7 @@
         <v>72</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2826,8 +2782,8 @@
       <c r="E47" t="s">
         <v>73</v>
       </c>
-      <c r="F47" t="s">
-        <v>327</v>
+      <c r="F47" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2847,7 +2803,7 @@
         <v>74</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2867,7 +2823,7 @@
         <v>75</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2887,7 +2843,7 @@
         <v>76</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2907,7 +2863,7 @@
         <v>77</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2927,7 +2883,7 @@
         <v>78</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2947,7 +2903,7 @@
         <v>79</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2967,7 +2923,7 @@
         <v>80</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2987,7 +2943,7 @@
         <v>81</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3003,8 +2959,11 @@
       <c r="D56" t="s">
         <v>29</v>
       </c>
+      <c r="E56" t="s">
+        <v>82</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3021,10 +2980,10 @@
         <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3041,10 +3000,10 @@
         <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3060,11 +3019,8 @@
       <c r="D59" t="s">
         <v>29</v>
       </c>
-      <c r="E59" t="s">
-        <v>84</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3083,8 +3039,8 @@
       <c r="E60" t="s">
         <v>85</v>
       </c>
-      <c r="F60" t="s">
-        <v>339</v>
+      <c r="F60" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3103,8 +3059,8 @@
       <c r="E61" t="s">
         <v>86</v>
       </c>
-      <c r="F61" t="s">
-        <v>340</v>
+      <c r="F61" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3124,7 +3080,7 @@
         <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3144,7 +3100,7 @@
         <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3164,7 +3120,7 @@
         <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3184,7 +3140,7 @@
         <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3204,7 +3160,7 @@
         <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3224,7 +3180,7 @@
         <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3244,7 +3200,7 @@
         <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3264,7 +3220,7 @@
         <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3284,7 +3240,7 @@
         <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3304,7 +3260,7 @@
         <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3324,7 +3280,7 @@
         <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3344,7 +3300,7 @@
         <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3364,7 +3320,7 @@
         <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3384,7 +3340,7 @@
         <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3404,7 +3360,7 @@
         <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3424,7 +3380,7 @@
         <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3444,7 +3400,7 @@
         <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3464,7 +3420,7 @@
         <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3484,7 +3440,7 @@
         <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3504,7 +3460,7 @@
         <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3524,7 +3480,7 @@
         <v>107</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3544,7 +3500,7 @@
         <v>108</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3564,7 +3520,7 @@
         <v>109</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3583,8 +3539,8 @@
       <c r="E85" t="s">
         <v>110</v>
       </c>
-      <c r="F85" t="s">
-        <v>343</v>
+      <c r="F85" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3603,8 +3559,8 @@
       <c r="E86" t="s">
         <v>111</v>
       </c>
-      <c r="F86" t="s">
-        <v>344</v>
+      <c r="F86" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3624,7 +3580,7 @@
         <v>112</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3644,7 +3600,7 @@
         <v>113</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3663,8 +3619,8 @@
       <c r="E89" t="s">
         <v>114</v>
       </c>
-      <c r="F89" t="s">
-        <v>346</v>
+      <c r="F89" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3683,8 +3639,8 @@
       <c r="E90" t="s">
         <v>115</v>
       </c>
-      <c r="F90" t="s">
-        <v>347</v>
+      <c r="F90" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3704,7 +3660,7 @@
         <v>116</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3724,7 +3680,7 @@
         <v>117</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3744,7 +3700,7 @@
         <v>118</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3763,8 +3719,8 @@
       <c r="E94" t="s">
         <v>119</v>
       </c>
-      <c r="F94" t="s">
-        <v>351</v>
+      <c r="F94" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3784,7 +3740,7 @@
         <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3804,7 +3760,7 @@
         <v>121</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3824,7 +3780,7 @@
         <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3844,7 +3800,7 @@
         <v>123</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3864,7 +3820,7 @@
         <v>124</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3884,7 +3840,7 @@
         <v>125</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3904,7 +3860,7 @@
         <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3924,7 +3880,7 @@
         <v>127</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3944,7 +3900,7 @@
         <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3964,7 +3920,7 @@
         <v>129</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3984,7 +3940,7 @@
         <v>130</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4004,7 +3960,7 @@
         <v>131</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4024,7 +3980,7 @@
         <v>132</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4040,8 +3996,11 @@
       <c r="D108" t="s">
         <v>29</v>
       </c>
+      <c r="E108" t="s">
+        <v>133</v>
+      </c>
       <c r="F108" s="2" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4058,10 +4017,10 @@
         <v>29</v>
       </c>
       <c r="E109" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4078,10 +4037,10 @@
         <v>29</v>
       </c>
       <c r="E110" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4097,11 +4056,8 @@
       <c r="D111" t="s">
         <v>29</v>
       </c>
-      <c r="E111" t="s">
-        <v>135</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4121,7 +4077,7 @@
         <v>136</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4140,8 +4096,8 @@
       <c r="E113" t="s">
         <v>137</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>368</v>
+      <c r="F113" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4161,7 +4117,7 @@
         <v>138</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4181,7 +4137,7 @@
         <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4201,7 +4157,7 @@
         <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4221,7 +4177,7 @@
         <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4241,7 +4197,7 @@
         <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4261,7 +4217,7 @@
         <v>143</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4281,7 +4237,7 @@
         <v>144</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4301,7 +4257,7 @@
         <v>145</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4321,7 +4277,7 @@
         <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4340,8 +4296,8 @@
       <c r="E123" t="s">
         <v>147</v>
       </c>
-      <c r="F123" t="s">
-        <v>377</v>
+      <c r="F123" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4358,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="E124" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4378,10 +4334,10 @@
         <v>29</v>
       </c>
       <c r="E125" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4401,7 +4357,7 @@
         <v>149</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4421,7 +4377,7 @@
         <v>150</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4441,7 +4397,7 @@
         <v>151</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4461,7 +4417,7 @@
         <v>152</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4478,10 +4434,10 @@
         <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>153</v>
-      </c>
-      <c r="F130" t="s">
-        <v>383</v>
+        <v>22</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4498,10 +4454,10 @@
         <v>29</v>
       </c>
       <c r="E131" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4518,21 +4474,21 @@
         <v>29</v>
       </c>
       <c r="E132" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
         <v>18</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
@@ -4541,18 +4497,18 @@
         <v>155</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
         <v>18</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
@@ -4561,18 +4517,18 @@
         <v>156</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B135" t="s">
         <v>18</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D135" t="s">
         <v>29</v>
@@ -4581,7 +4537,7 @@
         <v>157</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4601,7 +4557,7 @@
         <v>158</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4621,7 +4577,7 @@
         <v>159</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4638,10 +4594,10 @@
         <v>29</v>
       </c>
       <c r="E138" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4658,10 +4614,10 @@
         <v>29</v>
       </c>
       <c r="E139" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4678,10 +4634,10 @@
         <v>29</v>
       </c>
       <c r="E140" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4698,10 +4654,10 @@
         <v>29</v>
       </c>
       <c r="E141" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4718,10 +4674,10 @@
         <v>29</v>
       </c>
       <c r="E142" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4738,10 +4694,10 @@
         <v>29</v>
       </c>
       <c r="E143" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4758,10 +4714,10 @@
         <v>29</v>
       </c>
       <c r="E144" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4778,10 +4734,10 @@
         <v>29</v>
       </c>
       <c r="E145" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4798,110 +4754,110 @@
         <v>29</v>
       </c>
       <c r="E146" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B147" t="s">
         <v>18</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
         <v>29</v>
       </c>
       <c r="E147" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B148" t="s">
         <v>18</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
         <v>29</v>
       </c>
       <c r="E148" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
         <v>18</v>
       </c>
       <c r="C149" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D149" t="s">
         <v>29</v>
       </c>
       <c r="E149" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B150" t="s">
         <v>18</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D150" t="s">
         <v>29</v>
       </c>
       <c r="E150" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B151" t="s">
         <v>18</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D151" t="s">
         <v>29</v>
       </c>
       <c r="E151" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4918,10 +4874,10 @@
         <v>29</v>
       </c>
       <c r="E152" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4938,10 +4894,10 @@
         <v>29</v>
       </c>
       <c r="E153" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4958,10 +4914,10 @@
         <v>29</v>
       </c>
       <c r="E154" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4978,10 +4934,10 @@
         <v>29</v>
       </c>
       <c r="E155" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4998,10 +4954,10 @@
         <v>29</v>
       </c>
       <c r="E156" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5018,10 +4974,10 @@
         <v>29</v>
       </c>
       <c r="E157" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5038,10 +4994,10 @@
         <v>29</v>
       </c>
       <c r="E158" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5058,10 +5014,10 @@
         <v>29</v>
       </c>
       <c r="E159" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5078,10 +5034,10 @@
         <v>29</v>
       </c>
       <c r="E160" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5098,10 +5054,10 @@
         <v>29</v>
       </c>
       <c r="E161" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>409</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5118,10 +5074,10 @@
         <v>29</v>
       </c>
       <c r="E162" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5138,10 +5094,10 @@
         <v>29</v>
       </c>
       <c r="E163" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5158,10 +5114,10 @@
         <v>29</v>
       </c>
       <c r="E164" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5178,10 +5134,10 @@
         <v>29</v>
       </c>
       <c r="E165" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5198,10 +5154,10 @@
         <v>29</v>
       </c>
       <c r="E166" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5218,110 +5174,110 @@
         <v>29</v>
       </c>
       <c r="E167" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
         <v>18</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D168" t="s">
         <v>29</v>
       </c>
       <c r="E168" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>416</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
         <v>18</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D169" t="s">
         <v>29</v>
       </c>
       <c r="E169" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
         <v>18</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D170" t="s">
         <v>29</v>
       </c>
       <c r="E170" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
         <v>18</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D171" t="s">
         <v>29</v>
       </c>
       <c r="E171" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B172" t="s">
         <v>18</v>
       </c>
       <c r="C172" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D172" t="s">
         <v>29</v>
       </c>
       <c r="E172" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5338,10 +5294,10 @@
         <v>29</v>
       </c>
       <c r="E173" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>306</v>
+        <v>408</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5358,10 +5314,10 @@
         <v>29</v>
       </c>
       <c r="E174" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5378,10 +5334,10 @@
         <v>29</v>
       </c>
       <c r="E175" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5398,10 +5354,10 @@
         <v>29</v>
       </c>
       <c r="E176" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5418,10 +5374,10 @@
         <v>29</v>
       </c>
       <c r="E177" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>423</v>
+        <v>319</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5438,10 +5394,10 @@
         <v>29</v>
       </c>
       <c r="E178" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>424</v>
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5458,10 +5414,10 @@
         <v>29</v>
       </c>
       <c r="E179" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5478,10 +5434,10 @@
         <v>29</v>
       </c>
       <c r="E180" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5498,10 +5454,10 @@
         <v>29</v>
       </c>
       <c r="E181" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5518,110 +5474,110 @@
         <v>29</v>
       </c>
       <c r="E182" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
         <v>18</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E183" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B184" t="s">
         <v>18</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E184" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
         <v>18</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E185" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B186" t="s">
         <v>18</v>
       </c>
       <c r="C186" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D186" t="s">
         <v>29</v>
       </c>
       <c r="E186" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B187" t="s">
         <v>18</v>
       </c>
       <c r="C187" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
       </c>
       <c r="E187" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5635,13 +5591,13 @@
         <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E188" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5655,13 +5611,13 @@
         <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E189" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5675,13 +5631,13 @@
         <v>23</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E190" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5698,10 +5654,10 @@
         <v>29</v>
       </c>
       <c r="E191" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5718,10 +5674,10 @@
         <v>29</v>
       </c>
       <c r="E192" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5738,10 +5694,10 @@
         <v>29</v>
       </c>
       <c r="E193" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5758,10 +5714,10 @@
         <v>29</v>
       </c>
       <c r="E194" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5778,10 +5734,10 @@
         <v>29</v>
       </c>
       <c r="E195" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5798,10 +5754,10 @@
         <v>29</v>
       </c>
       <c r="E196" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5818,10 +5774,10 @@
         <v>29</v>
       </c>
       <c r="E197" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5838,110 +5794,110 @@
         <v>29</v>
       </c>
       <c r="E198" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B199" t="s">
         <v>18</v>
       </c>
       <c r="C199" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>29</v>
       </c>
       <c r="E199" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
         <v>18</v>
       </c>
       <c r="C200" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
         <v>29</v>
       </c>
       <c r="E200" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B201" t="s">
         <v>18</v>
       </c>
       <c r="C201" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D201" t="s">
         <v>29</v>
       </c>
       <c r="E201" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
         <v>18</v>
       </c>
       <c r="C202" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D202" t="s">
         <v>29</v>
       </c>
       <c r="E202" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B203" t="s">
         <v>18</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D203" t="s">
         <v>29</v>
       </c>
       <c r="E203" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5958,10 +5914,10 @@
         <v>29</v>
       </c>
       <c r="E204" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5978,10 +5934,10 @@
         <v>29</v>
       </c>
       <c r="E205" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5998,10 +5954,10 @@
         <v>29</v>
       </c>
       <c r="E206" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6018,10 +5974,10 @@
         <v>29</v>
       </c>
       <c r="E207" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6038,10 +5994,10 @@
         <v>29</v>
       </c>
       <c r="E208" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6058,10 +6014,10 @@
         <v>29</v>
       </c>
       <c r="E209" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6078,10 +6034,10 @@
         <v>29</v>
       </c>
       <c r="E210" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6098,110 +6054,110 @@
         <v>29</v>
       </c>
       <c r="E211" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B212" t="s">
         <v>18</v>
       </c>
       <c r="C212" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D212" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E212" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B213" t="s">
         <v>18</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D213" t="s">
         <v>29</v>
       </c>
       <c r="E213" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B214" t="s">
         <v>18</v>
       </c>
       <c r="C214" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D214" t="s">
         <v>29</v>
       </c>
       <c r="E214" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B215" t="s">
         <v>18</v>
       </c>
       <c r="C215" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D215" t="s">
         <v>29</v>
       </c>
       <c r="E215" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B216" t="s">
         <v>18</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D216" t="s">
         <v>29</v>
       </c>
       <c r="E216" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6215,13 +6171,13 @@
         <v>25</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E217" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6238,10 +6194,10 @@
         <v>29</v>
       </c>
       <c r="E218" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6258,10 +6214,10 @@
         <v>29</v>
       </c>
       <c r="E219" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6278,10 +6234,10 @@
         <v>29</v>
       </c>
       <c r="E220" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6298,10 +6254,10 @@
         <v>29</v>
       </c>
       <c r="E221" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>461</v>
+        <v>392</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6318,10 +6274,10 @@
         <v>29</v>
       </c>
       <c r="E222" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6338,10 +6294,10 @@
         <v>29</v>
       </c>
       <c r="E223" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6358,10 +6314,10 @@
         <v>29</v>
       </c>
       <c r="E224" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6378,41 +6334,41 @@
         <v>29</v>
       </c>
       <c r="E225" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B226" t="s">
         <v>18</v>
       </c>
       <c r="C226" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D226" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E226" t="s">
         <v>246</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B227" t="s">
         <v>18</v>
       </c>
       <c r="C227" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D227" t="s">
         <v>29</v>
@@ -6421,18 +6377,18 @@
         <v>247</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B228" t="s">
         <v>18</v>
       </c>
       <c r="C228" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D228" t="s">
         <v>29</v>
@@ -6441,18 +6397,18 @@
         <v>248</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B229" t="s">
         <v>18</v>
       </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D229" t="s">
         <v>29</v>
@@ -6461,18 +6417,18 @@
         <v>249</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B230" t="s">
         <v>18</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D230" t="s">
         <v>29</v>
@@ -6481,7 +6437,7 @@
         <v>250</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6495,13 +6451,13 @@
         <v>26</v>
       </c>
       <c r="D231" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E231" t="s">
         <v>251</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6521,7 +6477,7 @@
         <v>252</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6538,10 +6494,10 @@
         <v>29</v>
       </c>
       <c r="E233" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6558,10 +6514,10 @@
         <v>29</v>
       </c>
       <c r="E234" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6578,10 +6534,10 @@
         <v>29</v>
       </c>
       <c r="E235" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6598,10 +6554,10 @@
         <v>29</v>
       </c>
       <c r="E236" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6618,10 +6574,10 @@
         <v>29</v>
       </c>
       <c r="E237" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6638,110 +6594,110 @@
         <v>29</v>
       </c>
       <c r="E238" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E239" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B240" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C240" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D240" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E240" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B241" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C241" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E241" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B242" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C242" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D242" t="s">
         <v>29</v>
       </c>
       <c r="E242" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B243" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C243" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D243" t="s">
         <v>29</v>
       </c>
       <c r="E243" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6755,13 +6711,10 @@
         <v>27</v>
       </c>
       <c r="D244" t="s">
-        <v>28</v>
-      </c>
-      <c r="E244" t="s">
-        <v>263</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>480</v>
+        <v>29</v>
+      </c>
+      <c r="F244" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6775,13 +6728,13 @@
         <v>27</v>
       </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E245" t="s">
         <v>264</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6795,13 +6748,13 @@
         <v>27</v>
       </c>
       <c r="D246" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E246" t="s">
         <v>265</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6821,7 +6774,7 @@
         <v>266</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6841,7 +6794,7 @@
         <v>267</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6857,8 +6810,11 @@
       <c r="D249" t="s">
         <v>29</v>
       </c>
-      <c r="F249" t="s">
-        <v>485</v>
+      <c r="E249" t="s">
+        <v>268</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6875,10 +6831,10 @@
         <v>29</v>
       </c>
       <c r="E250" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6895,10 +6851,10 @@
         <v>29</v>
       </c>
       <c r="E251" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6914,11 +6870,8 @@
       <c r="D252" t="s">
         <v>29</v>
       </c>
-      <c r="E252" t="s">
-        <v>270</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>488</v>
+      <c r="F252" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6938,7 +6891,7 @@
         <v>271</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6958,7 +6911,7 @@
         <v>272</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6978,7 +6931,7 @@
         <v>273</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6998,7 +6951,7 @@
         <v>274</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -7018,7 +6971,7 @@
         <v>275</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -7034,8 +6987,11 @@
       <c r="D258" t="s">
         <v>29</v>
       </c>
-      <c r="F258" t="s">
-        <v>485</v>
+      <c r="E258" t="s">
+        <v>276</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -7051,11 +7007,8 @@
       <c r="D259" t="s">
         <v>29</v>
       </c>
-      <c r="E259" t="s">
-        <v>276</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>494</v>
+      <c r="F259" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -7075,7 +7028,7 @@
         <v>277</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7095,107 +7048,7 @@
         <v>278</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262" t="s">
-        <v>16</v>
-      </c>
-      <c r="B262" t="s">
-        <v>17</v>
-      </c>
-      <c r="C262" t="s">
-        <v>27</v>
-      </c>
-      <c r="D262" t="s">
-        <v>29</v>
-      </c>
-      <c r="E262" t="s">
-        <v>279</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263" t="s">
-        <v>16</v>
-      </c>
-      <c r="B263" t="s">
-        <v>17</v>
-      </c>
-      <c r="C263" t="s">
-        <v>27</v>
-      </c>
-      <c r="D263" t="s">
-        <v>29</v>
-      </c>
-      <c r="E263" t="s">
-        <v>280</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264" t="s">
-        <v>16</v>
-      </c>
-      <c r="B264" t="s">
-        <v>17</v>
-      </c>
-      <c r="C264" t="s">
-        <v>27</v>
-      </c>
-      <c r="D264" t="s">
-        <v>29</v>
-      </c>
-      <c r="E264" t="s">
-        <v>281</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265" t="s">
-        <v>16</v>
-      </c>
-      <c r="B265" t="s">
-        <v>17</v>
-      </c>
-      <c r="C265" t="s">
-        <v>27</v>
-      </c>
-      <c r="D265" t="s">
-        <v>29</v>
-      </c>
-      <c r="E265" t="s">
-        <v>282</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="A266" t="s">
-        <v>16</v>
-      </c>
-      <c r="B266" t="s">
-        <v>17</v>
-      </c>
-      <c r="C266" t="s">
-        <v>27</v>
-      </c>
-      <c r="D266" t="s">
-        <v>29</v>
-      </c>
-      <c r="E266" t="s">
-        <v>283</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -7223,9 +7076,9 @@
     <hyperlink ref="F22" r:id="rId21"/>
     <hyperlink ref="F23" r:id="rId22"/>
     <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25" location="/sina/single/m97kl65j2kjl?parentType=column&amp;parentId=a0e7a911df0a42bca9e4d8c70cf6967e"/>
-    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F25" r:id="rId24" location="/sina/single/1n5879713834?parentType=column&amp;parentId=a0e7a911df0a42bca9e4d8c70cf6967e"/>
+    <hyperlink ref="F26" r:id="rId25" location="/sina/single/l348j214j862?parentType=column&amp;parentId=6273e22402aa4630a1277ebfa2991b69"/>
+    <hyperlink ref="F27" r:id="rId26" location="/sina/single/23mk2nj92k9j?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
     <hyperlink ref="F28" r:id="rId27"/>
     <hyperlink ref="F29" r:id="rId28"/>
     <hyperlink ref="F30" r:id="rId29"/>
@@ -7245,214 +7098,217 @@
     <hyperlink ref="F44" r:id="rId43"/>
     <hyperlink ref="F45" r:id="rId44"/>
     <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F48" r:id="rId46"/>
-    <hyperlink ref="F49" r:id="rId47"/>
-    <hyperlink ref="F50" r:id="rId48"/>
-    <hyperlink ref="F51" r:id="rId49"/>
-    <hyperlink ref="F52" r:id="rId50"/>
-    <hyperlink ref="F53" r:id="rId51"/>
-    <hyperlink ref="F54" r:id="rId52"/>
-    <hyperlink ref="F55" r:id="rId53"/>
-    <hyperlink ref="F56" r:id="rId54"/>
-    <hyperlink ref="F57" r:id="rId55"/>
-    <hyperlink ref="F58" r:id="rId56"/>
-    <hyperlink ref="F59" r:id="rId57"/>
-    <hyperlink ref="F62" r:id="rId58"/>
-    <hyperlink ref="F63" r:id="rId59"/>
-    <hyperlink ref="F64" r:id="rId60"/>
-    <hyperlink ref="F65" r:id="rId61"/>
-    <hyperlink ref="F66" r:id="rId62"/>
-    <hyperlink ref="F67" r:id="rId63"/>
-    <hyperlink ref="F68" r:id="rId64"/>
-    <hyperlink ref="F69" r:id="rId65"/>
-    <hyperlink ref="F70" r:id="rId66"/>
-    <hyperlink ref="F71" r:id="rId67"/>
-    <hyperlink ref="F72" r:id="rId68"/>
-    <hyperlink ref="F73" r:id="rId69"/>
-    <hyperlink ref="F74" r:id="rId70"/>
-    <hyperlink ref="F75" r:id="rId71"/>
-    <hyperlink ref="F76" r:id="rId72"/>
-    <hyperlink ref="F77" r:id="rId73"/>
-    <hyperlink ref="F78" r:id="rId74"/>
-    <hyperlink ref="F79" r:id="rId75"/>
-    <hyperlink ref="F80" r:id="rId76"/>
-    <hyperlink ref="F81" r:id="rId77"/>
-    <hyperlink ref="F82" r:id="rId78"/>
-    <hyperlink ref="F83" r:id="rId79"/>
-    <hyperlink ref="F84" r:id="rId80"/>
-    <hyperlink ref="F87" r:id="rId81"/>
-    <hyperlink ref="F88" r:id="rId82"/>
-    <hyperlink ref="F91" r:id="rId83"/>
-    <hyperlink ref="F92" r:id="rId84"/>
-    <hyperlink ref="F93" r:id="rId85" location="/sina/brief/column/757bacbe813249689ab15c319e8baea4"/>
-    <hyperlink ref="F95" r:id="rId86" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F96" r:id="rId87" location="/sina/single/l348j2553862?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F97" r:id="rId88" location="/sina/brief/column/ffea76e99fbd4caf936b258faabc8d8e"/>
-    <hyperlink ref="F98" r:id="rId89" location="/sina/single/724k96m6n8nj?parentType=column&amp;parentId=6273e22402aa4630a1277ebfa2991b69"/>
-    <hyperlink ref="F99" r:id="rId90"/>
-    <hyperlink ref="F100" r:id="rId91"/>
-    <hyperlink ref="F101" r:id="rId92"/>
-    <hyperlink ref="F102" r:id="rId93"/>
-    <hyperlink ref="F103" r:id="rId94"/>
-    <hyperlink ref="F104" r:id="rId95"/>
-    <hyperlink ref="F105" r:id="rId96"/>
-    <hyperlink ref="F106" r:id="rId97"/>
-    <hyperlink ref="F107" r:id="rId98"/>
-    <hyperlink ref="F108" r:id="rId99"/>
-    <hyperlink ref="F109" r:id="rId100"/>
-    <hyperlink ref="F110" r:id="rId101"/>
-    <hyperlink ref="F111" r:id="rId102"/>
-    <hyperlink ref="F112" r:id="rId103"/>
-    <hyperlink ref="F113" r:id="rId104"/>
-    <hyperlink ref="F114" r:id="rId105"/>
-    <hyperlink ref="F115" r:id="rId106"/>
-    <hyperlink ref="F116" r:id="rId107"/>
-    <hyperlink ref="F117" r:id="rId108"/>
-    <hyperlink ref="F118" r:id="rId109"/>
-    <hyperlink ref="F119" r:id="rId110"/>
-    <hyperlink ref="F120" r:id="rId111"/>
-    <hyperlink ref="F121" r:id="rId112"/>
-    <hyperlink ref="F122" r:id="rId113" location="/sina/brief/column/757bacbe813249689ab15c319e8baea4"/>
-    <hyperlink ref="F124" r:id="rId114"/>
-    <hyperlink ref="F125" r:id="rId115"/>
-    <hyperlink ref="F126" r:id="rId116"/>
-    <hyperlink ref="F127" r:id="rId117"/>
-    <hyperlink ref="F128" r:id="rId118"/>
-    <hyperlink ref="F129" r:id="rId119"/>
-    <hyperlink ref="F131" r:id="rId120"/>
-    <hyperlink ref="F132" r:id="rId121"/>
-    <hyperlink ref="F133" r:id="rId122"/>
-    <hyperlink ref="F134" r:id="rId123"/>
-    <hyperlink ref="F135" r:id="rId124"/>
-    <hyperlink ref="F136" r:id="rId125"/>
-    <hyperlink ref="F137" r:id="rId126"/>
-    <hyperlink ref="F138" r:id="rId127"/>
-    <hyperlink ref="F139" r:id="rId128"/>
-    <hyperlink ref="F140" r:id="rId129"/>
-    <hyperlink ref="F141" r:id="rId130"/>
-    <hyperlink ref="F142" r:id="rId131"/>
-    <hyperlink ref="F143" r:id="rId132"/>
-    <hyperlink ref="F144" r:id="rId133"/>
-    <hyperlink ref="F145" r:id="rId134"/>
-    <hyperlink ref="F146" r:id="rId135"/>
-    <hyperlink ref="F147" r:id="rId136"/>
-    <hyperlink ref="F148" r:id="rId137"/>
-    <hyperlink ref="F149" r:id="rId138"/>
-    <hyperlink ref="F150" r:id="rId139"/>
-    <hyperlink ref="F151" r:id="rId140"/>
-    <hyperlink ref="F152" r:id="rId141"/>
-    <hyperlink ref="F153" r:id="rId142"/>
-    <hyperlink ref="F154" r:id="rId143"/>
-    <hyperlink ref="F155" r:id="rId144"/>
-    <hyperlink ref="F156" r:id="rId145"/>
-    <hyperlink ref="F157" r:id="rId146"/>
-    <hyperlink ref="F158" r:id="rId147"/>
-    <hyperlink ref="F159" r:id="rId148"/>
-    <hyperlink ref="F160" r:id="rId149"/>
-    <hyperlink ref="F161" r:id="rId150"/>
-    <hyperlink ref="F162" r:id="rId151"/>
-    <hyperlink ref="F163" r:id="rId152"/>
-    <hyperlink ref="F164" r:id="rId153"/>
-    <hyperlink ref="F165" r:id="rId154"/>
-    <hyperlink ref="F166" r:id="rId155"/>
-    <hyperlink ref="F167" r:id="rId156"/>
-    <hyperlink ref="F168" r:id="rId157"/>
-    <hyperlink ref="F169" r:id="rId158"/>
-    <hyperlink ref="F170" r:id="rId159"/>
-    <hyperlink ref="F171" r:id="rId160"/>
-    <hyperlink ref="F172" r:id="rId161"/>
-    <hyperlink ref="F173" r:id="rId162"/>
-    <hyperlink ref="F174" r:id="rId163"/>
-    <hyperlink ref="F175" r:id="rId164"/>
-    <hyperlink ref="F176" r:id="rId165"/>
-    <hyperlink ref="F177" r:id="rId166"/>
-    <hyperlink ref="F178" r:id="rId167"/>
-    <hyperlink ref="F179" r:id="rId168"/>
-    <hyperlink ref="F180" r:id="rId169"/>
-    <hyperlink ref="F181" r:id="rId170"/>
-    <hyperlink ref="F182" r:id="rId171"/>
-    <hyperlink ref="F183" r:id="rId172" location="/index"/>
-    <hyperlink ref="F184" r:id="rId173"/>
-    <hyperlink ref="F185" r:id="rId174"/>
-    <hyperlink ref="F186" r:id="rId175"/>
-    <hyperlink ref="F187" r:id="rId176"/>
-    <hyperlink ref="F188" r:id="rId177"/>
-    <hyperlink ref="F189" r:id="rId178"/>
-    <hyperlink ref="F190" r:id="rId179"/>
-    <hyperlink ref="F191" r:id="rId180"/>
-    <hyperlink ref="F192" r:id="rId181"/>
-    <hyperlink ref="F193" r:id="rId182"/>
-    <hyperlink ref="F194" r:id="rId183"/>
-    <hyperlink ref="F195" r:id="rId184"/>
-    <hyperlink ref="F196" r:id="rId185"/>
-    <hyperlink ref="F197" r:id="rId186"/>
-    <hyperlink ref="F198" r:id="rId187"/>
-    <hyperlink ref="F199" r:id="rId188"/>
-    <hyperlink ref="F200" r:id="rId189"/>
-    <hyperlink ref="F201" r:id="rId190"/>
-    <hyperlink ref="F202" r:id="rId191"/>
-    <hyperlink ref="F203" r:id="rId192"/>
-    <hyperlink ref="F204" r:id="rId193"/>
-    <hyperlink ref="F205" r:id="rId194"/>
-    <hyperlink ref="F206" r:id="rId195"/>
-    <hyperlink ref="F207" r:id="rId196" location="0"/>
-    <hyperlink ref="F208" r:id="rId197" location="0"/>
-    <hyperlink ref="F209" r:id="rId198"/>
-    <hyperlink ref="F210" r:id="rId199"/>
-    <hyperlink ref="F211" r:id="rId200"/>
-    <hyperlink ref="F212" r:id="rId201"/>
-    <hyperlink ref="F213" r:id="rId202"/>
-    <hyperlink ref="F214" r:id="rId203"/>
-    <hyperlink ref="F215" r:id="rId204"/>
-    <hyperlink ref="F216" r:id="rId205"/>
-    <hyperlink ref="F217" r:id="rId206"/>
-    <hyperlink ref="F218" r:id="rId207"/>
-    <hyperlink ref="F219" r:id="rId208"/>
-    <hyperlink ref="F220" r:id="rId209"/>
-    <hyperlink ref="F221" r:id="rId210"/>
-    <hyperlink ref="F222" r:id="rId211"/>
-    <hyperlink ref="F223" r:id="rId212"/>
-    <hyperlink ref="F224" r:id="rId213"/>
-    <hyperlink ref="F225" r:id="rId214"/>
-    <hyperlink ref="F226" r:id="rId215"/>
-    <hyperlink ref="F227" r:id="rId216"/>
-    <hyperlink ref="F228" r:id="rId217"/>
-    <hyperlink ref="F229" r:id="rId218"/>
-    <hyperlink ref="F230" r:id="rId219"/>
-    <hyperlink ref="F231" r:id="rId220"/>
-    <hyperlink ref="F232" r:id="rId221"/>
-    <hyperlink ref="F233" r:id="rId222"/>
-    <hyperlink ref="F234" r:id="rId223"/>
-    <hyperlink ref="F235" r:id="rId224"/>
-    <hyperlink ref="F236" r:id="rId225"/>
-    <hyperlink ref="F237" r:id="rId226"/>
-    <hyperlink ref="F238" r:id="rId227"/>
-    <hyperlink ref="F239" r:id="rId228"/>
-    <hyperlink ref="F240" r:id="rId229"/>
-    <hyperlink ref="F241" r:id="rId230"/>
-    <hyperlink ref="F242" r:id="rId231"/>
-    <hyperlink ref="F243" r:id="rId232"/>
-    <hyperlink ref="F244" r:id="rId233"/>
-    <hyperlink ref="F245" r:id="rId234"/>
-    <hyperlink ref="F246" r:id="rId235"/>
-    <hyperlink ref="F247" r:id="rId236"/>
-    <hyperlink ref="F248" r:id="rId237"/>
-    <hyperlink ref="F250" r:id="rId238"/>
-    <hyperlink ref="F251" r:id="rId239"/>
-    <hyperlink ref="F252" r:id="rId240"/>
-    <hyperlink ref="F253" r:id="rId241"/>
-    <hyperlink ref="F254" r:id="rId242"/>
-    <hyperlink ref="F255" r:id="rId243"/>
-    <hyperlink ref="F256" r:id="rId244"/>
-    <hyperlink ref="F257" r:id="rId245"/>
-    <hyperlink ref="F259" r:id="rId246"/>
-    <hyperlink ref="F260" r:id="rId247"/>
-    <hyperlink ref="F261" r:id="rId248"/>
-    <hyperlink ref="F262" r:id="rId249"/>
-    <hyperlink ref="F263" r:id="rId250"/>
-    <hyperlink ref="F264" r:id="rId251"/>
-    <hyperlink ref="F265" r:id="rId252"/>
-    <hyperlink ref="F266" r:id="rId253"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F50" r:id="rId49"/>
+    <hyperlink ref="F51" r:id="rId50"/>
+    <hyperlink ref="F52" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
+    <hyperlink ref="F59" r:id="rId58"/>
+    <hyperlink ref="F60" r:id="rId59"/>
+    <hyperlink ref="F61" r:id="rId60"/>
+    <hyperlink ref="F62" r:id="rId61"/>
+    <hyperlink ref="F63" r:id="rId62"/>
+    <hyperlink ref="F64" r:id="rId63"/>
+    <hyperlink ref="F65" r:id="rId64"/>
+    <hyperlink ref="F66" r:id="rId65"/>
+    <hyperlink ref="F67" r:id="rId66"/>
+    <hyperlink ref="F68" r:id="rId67"/>
+    <hyperlink ref="F69" r:id="rId68"/>
+    <hyperlink ref="F70" r:id="rId69"/>
+    <hyperlink ref="F71" r:id="rId70"/>
+    <hyperlink ref="F72" r:id="rId71"/>
+    <hyperlink ref="F73" r:id="rId72"/>
+    <hyperlink ref="F74" r:id="rId73"/>
+    <hyperlink ref="F75" r:id="rId74"/>
+    <hyperlink ref="F76" r:id="rId75"/>
+    <hyperlink ref="F77" r:id="rId76"/>
+    <hyperlink ref="F78" r:id="rId77"/>
+    <hyperlink ref="F79" r:id="rId78"/>
+    <hyperlink ref="F80" r:id="rId79"/>
+    <hyperlink ref="F81" r:id="rId80"/>
+    <hyperlink ref="F82" r:id="rId81"/>
+    <hyperlink ref="F83" r:id="rId82"/>
+    <hyperlink ref="F84" r:id="rId83"/>
+    <hyperlink ref="F85" r:id="rId84"/>
+    <hyperlink ref="F86" r:id="rId85"/>
+    <hyperlink ref="F87" r:id="rId86"/>
+    <hyperlink ref="F88" r:id="rId87"/>
+    <hyperlink ref="F89" r:id="rId88"/>
+    <hyperlink ref="F90" r:id="rId89"/>
+    <hyperlink ref="F91" r:id="rId90"/>
+    <hyperlink ref="F92" r:id="rId91"/>
+    <hyperlink ref="F93" r:id="rId92"/>
+    <hyperlink ref="F94" r:id="rId93"/>
+    <hyperlink ref="F95" r:id="rId94"/>
+    <hyperlink ref="F96" r:id="rId95" location="/sina/brief/column/757bacbe813249689ab15c319e8baea4"/>
+    <hyperlink ref="F97" r:id="rId96" location="/sina/single/5lm832ljnk96?parentType=column&amp;parentId=757bacbe813249689ab15c319e8baea4"/>
+    <hyperlink ref="F98" r:id="rId97" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F99" r:id="rId98" location="/sina/single/l348j2553862?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F100" r:id="rId99" location="/sina/brief/column/ffea76e99fbd4caf936b258faabc8d8e"/>
+    <hyperlink ref="F101" r:id="rId100" location="/sina/single/23mk2n411k9j?parentType=column&amp;parentId=6273e22402aa4630a1277ebfa2991b69"/>
+    <hyperlink ref="F102" r:id="rId101"/>
+    <hyperlink ref="F103" r:id="rId102"/>
+    <hyperlink ref="F104" r:id="rId103"/>
+    <hyperlink ref="F105" r:id="rId104"/>
+    <hyperlink ref="F106" r:id="rId105"/>
+    <hyperlink ref="F107" r:id="rId106"/>
+    <hyperlink ref="F108" r:id="rId107"/>
+    <hyperlink ref="F109" r:id="rId108"/>
+    <hyperlink ref="F110" r:id="rId109"/>
+    <hyperlink ref="F111" r:id="rId110"/>
+    <hyperlink ref="F112" r:id="rId111"/>
+    <hyperlink ref="F114" r:id="rId112"/>
+    <hyperlink ref="F115" r:id="rId113"/>
+    <hyperlink ref="F116" r:id="rId114"/>
+    <hyperlink ref="F117" r:id="rId115"/>
+    <hyperlink ref="F118" r:id="rId116"/>
+    <hyperlink ref="F119" r:id="rId117"/>
+    <hyperlink ref="F120" r:id="rId118"/>
+    <hyperlink ref="F121" r:id="rId119"/>
+    <hyperlink ref="F122" r:id="rId120"/>
+    <hyperlink ref="F123" r:id="rId121" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F124" r:id="rId122" location="/sina/single/l25km67668n1?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F125" r:id="rId123"/>
+    <hyperlink ref="F126" r:id="rId124"/>
+    <hyperlink ref="F127" r:id="rId125"/>
+    <hyperlink ref="F128" r:id="rId126"/>
+    <hyperlink ref="F129" r:id="rId127"/>
+    <hyperlink ref="F130" r:id="rId128"/>
+    <hyperlink ref="F131" r:id="rId129"/>
+    <hyperlink ref="F132" r:id="rId130"/>
+    <hyperlink ref="F133" r:id="rId131"/>
+    <hyperlink ref="F134" r:id="rId132"/>
+    <hyperlink ref="F135" r:id="rId133"/>
+    <hyperlink ref="F136" r:id="rId134"/>
+    <hyperlink ref="F137" r:id="rId135"/>
+    <hyperlink ref="F138" r:id="rId136"/>
+    <hyperlink ref="F139" r:id="rId137"/>
+    <hyperlink ref="F140" r:id="rId138"/>
+    <hyperlink ref="F141" r:id="rId139"/>
+    <hyperlink ref="F142" r:id="rId140"/>
+    <hyperlink ref="F143" r:id="rId141"/>
+    <hyperlink ref="F144" r:id="rId142"/>
+    <hyperlink ref="F145" r:id="rId143"/>
+    <hyperlink ref="F146" r:id="rId144"/>
+    <hyperlink ref="F147" r:id="rId145"/>
+    <hyperlink ref="F148" r:id="rId146"/>
+    <hyperlink ref="F149" r:id="rId147"/>
+    <hyperlink ref="F150" r:id="rId148"/>
+    <hyperlink ref="F151" r:id="rId149"/>
+    <hyperlink ref="F152" r:id="rId150"/>
+    <hyperlink ref="F153" r:id="rId151"/>
+    <hyperlink ref="F154" r:id="rId152"/>
+    <hyperlink ref="F155" r:id="rId153"/>
+    <hyperlink ref="F156" r:id="rId154"/>
+    <hyperlink ref="F157" r:id="rId155"/>
+    <hyperlink ref="F158" r:id="rId156"/>
+    <hyperlink ref="F159" r:id="rId157"/>
+    <hyperlink ref="F160" r:id="rId158"/>
+    <hyperlink ref="F161" r:id="rId159"/>
+    <hyperlink ref="F162" r:id="rId160"/>
+    <hyperlink ref="F163" r:id="rId161"/>
+    <hyperlink ref="F164" r:id="rId162"/>
+    <hyperlink ref="F165" r:id="rId163"/>
+    <hyperlink ref="F166" r:id="rId164"/>
+    <hyperlink ref="F167" r:id="rId165"/>
+    <hyperlink ref="F168" r:id="rId166"/>
+    <hyperlink ref="F169" r:id="rId167"/>
+    <hyperlink ref="F170" r:id="rId168"/>
+    <hyperlink ref="F171" r:id="rId169"/>
+    <hyperlink ref="F172" r:id="rId170"/>
+    <hyperlink ref="F173" r:id="rId171"/>
+    <hyperlink ref="F174" r:id="rId172"/>
+    <hyperlink ref="F175" r:id="rId173" location="/index"/>
+    <hyperlink ref="F176" r:id="rId174"/>
+    <hyperlink ref="F177" r:id="rId175"/>
+    <hyperlink ref="F178" r:id="rId176"/>
+    <hyperlink ref="F179" r:id="rId177"/>
+    <hyperlink ref="F180" r:id="rId178"/>
+    <hyperlink ref="F181" r:id="rId179"/>
+    <hyperlink ref="F182" r:id="rId180"/>
+    <hyperlink ref="F183" r:id="rId181"/>
+    <hyperlink ref="F184" r:id="rId182"/>
+    <hyperlink ref="F185" r:id="rId183"/>
+    <hyperlink ref="F186" r:id="rId184"/>
+    <hyperlink ref="F187" r:id="rId185"/>
+    <hyperlink ref="F188" r:id="rId186"/>
+    <hyperlink ref="F189" r:id="rId187"/>
+    <hyperlink ref="F190" r:id="rId188"/>
+    <hyperlink ref="F191" r:id="rId189"/>
+    <hyperlink ref="F192" r:id="rId190"/>
+    <hyperlink ref="F193" r:id="rId191"/>
+    <hyperlink ref="F194" r:id="rId192"/>
+    <hyperlink ref="F195" r:id="rId193"/>
+    <hyperlink ref="F196" r:id="rId194"/>
+    <hyperlink ref="F197" r:id="rId195"/>
+    <hyperlink ref="F198" r:id="rId196"/>
+    <hyperlink ref="F199" r:id="rId197"/>
+    <hyperlink ref="F200" r:id="rId198"/>
+    <hyperlink ref="F201" r:id="rId199"/>
+    <hyperlink ref="F202" r:id="rId200" location="0"/>
+    <hyperlink ref="F203" r:id="rId201" location="0"/>
+    <hyperlink ref="F204" r:id="rId202"/>
+    <hyperlink ref="F205" r:id="rId203"/>
+    <hyperlink ref="F206" r:id="rId204"/>
+    <hyperlink ref="F207" r:id="rId205"/>
+    <hyperlink ref="F208" r:id="rId206"/>
+    <hyperlink ref="F209" r:id="rId207"/>
+    <hyperlink ref="F210" r:id="rId208"/>
+    <hyperlink ref="F211" r:id="rId209"/>
+    <hyperlink ref="F212" r:id="rId210"/>
+    <hyperlink ref="F213" r:id="rId211"/>
+    <hyperlink ref="F214" r:id="rId212"/>
+    <hyperlink ref="F215" r:id="rId213"/>
+    <hyperlink ref="F216" r:id="rId214"/>
+    <hyperlink ref="F217" r:id="rId215"/>
+    <hyperlink ref="F218" r:id="rId216"/>
+    <hyperlink ref="F219" r:id="rId217"/>
+    <hyperlink ref="F220" r:id="rId218"/>
+    <hyperlink ref="F221" r:id="rId219"/>
+    <hyperlink ref="F222" r:id="rId220"/>
+    <hyperlink ref="F223" r:id="rId221"/>
+    <hyperlink ref="F224" r:id="rId222"/>
+    <hyperlink ref="F225" r:id="rId223"/>
+    <hyperlink ref="F226" r:id="rId224"/>
+    <hyperlink ref="F227" r:id="rId225"/>
+    <hyperlink ref="F228" r:id="rId226"/>
+    <hyperlink ref="F229" r:id="rId227"/>
+    <hyperlink ref="F230" r:id="rId228"/>
+    <hyperlink ref="F231" r:id="rId229"/>
+    <hyperlink ref="F232" r:id="rId230"/>
+    <hyperlink ref="F233" r:id="rId231"/>
+    <hyperlink ref="F234" r:id="rId232"/>
+    <hyperlink ref="F235" r:id="rId233"/>
+    <hyperlink ref="F236" r:id="rId234"/>
+    <hyperlink ref="F237" r:id="rId235"/>
+    <hyperlink ref="F238" r:id="rId236"/>
+    <hyperlink ref="F239" r:id="rId237"/>
+    <hyperlink ref="F240" r:id="rId238"/>
+    <hyperlink ref="F241" r:id="rId239"/>
+    <hyperlink ref="F242" r:id="rId240"/>
+    <hyperlink ref="F243" r:id="rId241"/>
+    <hyperlink ref="F245" r:id="rId242"/>
+    <hyperlink ref="F246" r:id="rId243"/>
+    <hyperlink ref="F247" r:id="rId244"/>
+    <hyperlink ref="F248" r:id="rId245"/>
+    <hyperlink ref="F249" r:id="rId246"/>
+    <hyperlink ref="F250" r:id="rId247"/>
+    <hyperlink ref="F251" r:id="rId248"/>
+    <hyperlink ref="F253" r:id="rId249"/>
+    <hyperlink ref="F254" r:id="rId250"/>
+    <hyperlink ref="F255" r:id="rId251"/>
+    <hyperlink ref="F256" r:id="rId252"/>
+    <hyperlink ref="F257" r:id="rId253"/>
+    <hyperlink ref="F258" r:id="rId254"/>
+    <hyperlink ref="F260" r:id="rId255"/>
+    <hyperlink ref="F261" r:id="rId256"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/news.xlsx
+++ b/web/news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="451">
   <si>
     <t>来源</t>
   </si>
@@ -64,9 +64,6 @@
     <t>新浪财经_债券</t>
   </si>
   <si>
-    <t>CNBC</t>
-  </si>
-  <si>
     <t>时政</t>
   </si>
   <si>
@@ -97,587 +94,596 @@
     <t>债券</t>
   </si>
   <si>
-    <t>全球</t>
-  </si>
-  <si>
     <t>头条</t>
   </si>
   <si>
     <t>消息</t>
   </si>
   <si>
-    <t>新冠病毒疫苗接种技术指南发布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新疆官员向H&amp;M喊话：擦亮眼睛、明辨是非 </t>
-  </si>
-  <si>
-    <t>社保将迎来6大新变化</t>
-  </si>
-  <si>
-    <t>49.8万吨！“洋垃圾”，全部退运！</t>
-  </si>
-  <si>
-    <t>地铁拟禁用充电宝？西安新规征求意见引热议</t>
-  </si>
-  <si>
-    <t>钢铁行业碳达峰方案成型</t>
-  </si>
-  <si>
-    <t>碳减排工具箱</t>
-  </si>
-  <si>
-    <t>全球最大碳排放交易市场即将揭面纱</t>
-  </si>
-  <si>
-    <t>央行:强化绿色金融信息披露</t>
-  </si>
-  <si>
-    <t>三大油气央企"双碳"目标时间表提前 路线图拟定</t>
-  </si>
-  <si>
-    <t>外国展商咋呼应</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中概股巨震 基金爆仓惹的祸？
+    <t>天舟二号与天和核心舱对接</t>
+  </si>
+  <si>
+    <t>今天，让我们再次致敬……</t>
+  </si>
+  <si>
+    <t>我国每年因吸烟死亡人数超100万</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广州此轮疫情溯源结果公布 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">北大教授吐槽“学渣”女儿！网友：人间真实…… </t>
+  </si>
+  <si>
+    <t>人民币汇率现急涨行情</t>
+  </si>
+  <si>
+    <t>四因素不能忽视</t>
+  </si>
+  <si>
+    <t>盛松成:人民币快速升值不可持续</t>
+  </si>
+  <si>
+    <t>人民币升值 哪些行业或将受益</t>
+  </si>
+  <si>
+    <t>不能对冲个别大宗商品大涨</t>
+  </si>
+  <si>
+    <t>明明:人民币对美元汇率很可能到6.2</t>
+  </si>
+  <si>
+    <t>热点城市调控</t>
+  </si>
+  <si>
+    <t>发布二手房成交参考价</t>
+  </si>
+  <si>
+    <t>深圳成都稳楼市预期</t>
+  </si>
+  <si>
+    <t>多地上调房贷利率 全国楼市"加息潮"来了?</t>
+  </si>
+  <si>
+    <t>一线城市围堵炒房资金</t>
+  </si>
+  <si>
+    <t>中国住房市值报告：在国际处于什么水平</t>
+  </si>
+  <si>
+    <t>券商:人民币升值助力牛市重建</t>
+  </si>
+  <si>
+    <t>受益行业</t>
+  </si>
+  <si>
+    <t>最早喊挑战四千点机构有新观点</t>
+  </si>
+  <si>
+    <t>机构盯一板块</t>
+  </si>
+  <si>
+    <t>公募调仓瞄五行业</t>
+  </si>
+  <si>
+    <t>直播</t>
+  </si>
+  <si>
+    <t>货币政策对市场的影响</t>
+  </si>
+  <si>
+    <t>10股能翻涨一倍</t>
+  </si>
+  <si>
+    <t>电子行业策略</t>
+  </si>
+  <si>
+    <t>秘籍</t>
+  </si>
+  <si>
+    <t>做多窗口继续</t>
+  </si>
+  <si>
+    <t>人民币汇率急涨</t>
+  </si>
+  <si>
+    <t>首批公募REITs开售</t>
+  </si>
+  <si>
+    <t>深化市场改革</t>
+  </si>
+  <si>
+    <t>大盘</t>
+  </si>
+  <si>
+    <t>大盘看涨</t>
+  </si>
+  <si>
+    <t>存量博弈转向增量行情</t>
+  </si>
+  <si>
+    <t>汇率是关键变量</t>
+  </si>
+  <si>
+    <t>必读</t>
+  </si>
+  <si>
+    <t>报刊头条</t>
+  </si>
+  <si>
+    <t>交易提示</t>
+  </si>
+  <si>
+    <t>操盘必读</t>
+  </si>
+  <si>
+    <t>股海导航</t>
+  </si>
+  <si>
+    <t>财经早报</t>
+  </si>
+  <si>
+    <t>主力</t>
+  </si>
+  <si>
+    <t>北向净买破纪录</t>
+  </si>
+  <si>
+    <t>未来3~5年1万亿外资流入</t>
+  </si>
+  <si>
+    <t>龙虎榜</t>
+  </si>
+  <si>
+    <t>观点</t>
+  </si>
+  <si>
+    <t>银河:建党百年行情可期</t>
+  </si>
+  <si>
+    <t>东吴:核心资产散是满天星</t>
+  </si>
+  <si>
+    <t>博客</t>
+  </si>
+  <si>
+    <t>加速反弹条件已具</t>
+  </si>
+  <si>
+    <t>顶部须逃命</t>
+  </si>
+  <si>
+    <t>短期回撤中期上行</t>
+  </si>
+  <si>
+    <t>研报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">招商:产业园公募REITS分析
 </t>
   </si>
   <si>
-    <t>Archegos爆仓全球投行损失或超60亿美元</t>
-  </si>
-  <si>
-    <t>华尔街高杠杆投资恶果</t>
-  </si>
-  <si>
-    <t>人类史上最大单日亏损 BillHwang是何人</t>
-  </si>
-  <si>
-    <t>大投行成股市下个威胁</t>
-  </si>
-  <si>
-    <t>沪指三连阳 资金调仓</t>
-  </si>
-  <si>
-    <t>白酒股重拾升势</t>
-  </si>
-  <si>
-    <t>黑色系卷土重来</t>
-  </si>
-  <si>
-    <t>机构看好二季度筑底</t>
-  </si>
-  <si>
-    <t>私募仓位近9成</t>
-  </si>
-  <si>
-    <t>公募隐仓股</t>
-  </si>
-  <si>
-    <t>直播</t>
-  </si>
-  <si>
-    <t>锂精矿接领涨大旗</t>
-  </si>
-  <si>
-    <t>碳中和机遇</t>
-  </si>
-  <si>
-    <t>抓紧"最强抗生素"药企</t>
-  </si>
-  <si>
-    <t>秘籍</t>
-  </si>
-  <si>
-    <t>A股频现"土豪级"大额分红</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白酒重拾升势 </t>
-  </si>
-  <si>
-    <t>机构观点：看好二季度震荡筑底</t>
-  </si>
-  <si>
-    <t>大盘</t>
-  </si>
-  <si>
-    <t>一季报预增王登场</t>
-  </si>
-  <si>
-    <t>权重或难有大涨</t>
-  </si>
-  <si>
-    <t>后市观点来了</t>
-  </si>
-  <si>
-    <t>必读</t>
-  </si>
-  <si>
-    <t>报刊头条</t>
-  </si>
-  <si>
-    <t>股海导航</t>
-  </si>
-  <si>
-    <t>十大博客</t>
-  </si>
-  <si>
-    <t>操盘必读</t>
-  </si>
-  <si>
-    <t>财经早报</t>
-  </si>
-  <si>
-    <t>主力</t>
-  </si>
-  <si>
-    <t>隐形重仓股曝光</t>
-  </si>
-  <si>
-    <t>"黑色系"卷土重来</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新基发行遇冷 </t>
-  </si>
-  <si>
-    <t>观点</t>
-  </si>
-  <si>
-    <t>任泽平:反思过度依赖货币放水</t>
-  </si>
-  <si>
-    <t>B站破发与它有关</t>
-  </si>
-  <si>
-    <t>博客</t>
-  </si>
-  <si>
-    <t>股指仍将继续上行</t>
-  </si>
-  <si>
-    <t>追涨增仓需谨慎</t>
-  </si>
-  <si>
-    <t>把握轮动机会</t>
-  </si>
-  <si>
-    <t>研报</t>
-  </si>
-  <si>
-    <t>电解铝社会库存拐点到来</t>
-  </si>
-  <si>
-    <t>把握先机者优势将凸显</t>
+    <t>中泰:周期品运行变化</t>
   </si>
   <si>
     <t>策略</t>
   </si>
   <si>
-    <t>石头如何书写神话</t>
-  </si>
-  <si>
-    <t>被动元器件量价齐升景气持续</t>
+    <t>中信:北向资金周解析</t>
+  </si>
+  <si>
+    <t>商品价回落 制造价值回升</t>
   </si>
   <si>
     <t>解读</t>
   </si>
   <si>
-    <t>物管龙头迎高速成长新格局</t>
-  </si>
-  <si>
-    <t>光伏电动车发展提速</t>
-  </si>
-  <si>
-    <t>3.30日早盘消息及策略</t>
-  </si>
-  <si>
-    <t>外围利空传导困顿中的变局</t>
-  </si>
-  <si>
-    <t>机构看好9股目标涨幅翻倍</t>
-  </si>
-  <si>
-    <t>大白拉大车散户坐轿子</t>
-  </si>
-  <si>
-    <t>3月30日利好及其影响个股</t>
-  </si>
-  <si>
-    <t>市场仍有震荡反复</t>
-  </si>
-  <si>
-    <t>美股怕了 A股却很淡定</t>
-  </si>
-  <si>
-    <t>一行业突发利空该如何操作面对</t>
-  </si>
-  <si>
-    <t>全球芯片短缺是因为比特币吗</t>
-  </si>
-  <si>
-    <t>要注意防守了</t>
-  </si>
-  <si>
-    <t>三大指数十字星 今天周二有大动作</t>
-  </si>
-  <si>
-    <t>地量见地价之际 真正的大机会显现之时</t>
-  </si>
-  <si>
-    <t>3.30浪子炒股日记</t>
-  </si>
-  <si>
-    <t>一场总爆发开始 两个预言必须清楚</t>
-  </si>
-  <si>
-    <t>大盘在阻力位还会有震荡</t>
-  </si>
-  <si>
-    <t>大盘还会在犹豫中上行</t>
-  </si>
-  <si>
-    <t>反弹将延续量能需放大</t>
-  </si>
-  <si>
-    <t>市场若迎调整 将重现低吸机会</t>
-  </si>
-  <si>
-    <t>单日最大亏损的罪魁祸首</t>
-  </si>
-  <si>
-    <t>反弹魔咒又来一个 看穿了成倍的赢</t>
-  </si>
-  <si>
-    <t>中概股能否逃过问责</t>
-  </si>
-  <si>
-    <t>关注一重要指标</t>
-  </si>
-  <si>
-    <t>上海证监局：加强年报监管强化审计责任 提高信披质量</t>
-  </si>
-  <si>
-    <t>长江策略:一季报行情的两种策略 优选半导体与军工行业</t>
-  </si>
-  <si>
-    <t>两大石油公司中石油、中石化“十四五”双双发力碳达峰</t>
-  </si>
-  <si>
-    <t>白酒重拾升势:市场情绪修复 公募提示布局高景气度行业</t>
+    <t>银河:黑色系产品价格上行</t>
+  </si>
+  <si>
+    <t>深圳成都稳定楼市</t>
+  </si>
+  <si>
+    <t>中阳反弹 只欠东风</t>
+  </si>
+  <si>
+    <t>短期注意关注这几类品种机会</t>
+  </si>
+  <si>
+    <t>这个顶部必须要逃命</t>
+  </si>
+  <si>
+    <t>3731点运行到现在的一些感悟和经验之谈</t>
+  </si>
+  <si>
+    <t>5月31日利好及其影响个股</t>
+  </si>
+  <si>
+    <t>5.31浪子炒股日记</t>
+  </si>
+  <si>
+    <t>继续坚定看好6月份行情</t>
+  </si>
+  <si>
+    <t>依然是分化和轮动</t>
+  </si>
+  <si>
+    <t>首批公募REITs开始认购</t>
+  </si>
+  <si>
+    <t>都是资金面大利好 本周会有大冲锋</t>
+  </si>
+  <si>
+    <t>大盘已具备加速反弹的条件</t>
+  </si>
+  <si>
+    <t>短期需回撤中期将上行</t>
+  </si>
+  <si>
+    <t>要剑指4000了 本周出暴涨并不稀奇</t>
+  </si>
+  <si>
+    <t>五月收官 机会看这里</t>
+  </si>
+  <si>
+    <t>打破五穷魔咒六月大盘稳了吗</t>
+  </si>
+  <si>
+    <t>白酒医疗钢铁等五大主题基金的应对之策</t>
+  </si>
+  <si>
+    <t>收官战如何演绎</t>
+  </si>
+  <si>
+    <t>5.31早间要闻评论</t>
+  </si>
+  <si>
+    <t>5月31日重点关注的板块及个股</t>
+  </si>
+  <si>
+    <t>周一早间市场信息</t>
+  </si>
+  <si>
+    <t>春季行情之尾声？</t>
+  </si>
+  <si>
+    <t>四消息影响大盘</t>
+  </si>
+  <si>
+    <t>证监会副主席李超:落实“九字方针”</t>
+  </si>
+  <si>
+    <t>退市新规威力彰显</t>
+  </si>
+  <si>
+    <t>银保监会梁涛:防范热钱大进出</t>
+  </si>
+  <si>
+    <t>29家券商入选“白名单”</t>
+  </si>
+  <si>
+    <t>时隔3个月再现爆款权益基金 “10倍基”大卖近400亿元</t>
+  </si>
+  <si>
+    <t>散户又胜：华尔街空头爆亏509亿 多只锂电龙头获调研</t>
   </si>
   <si>
     <t>行业</t>
   </si>
   <si>
-    <t>一季报预增王来了：暴增近70倍 化工板块成大赢家</t>
-  </si>
-  <si>
-    <t>环保政策利好需求猛增 纸价持续上涨行业景气度又推高</t>
-  </si>
-  <si>
-    <t>锂电材料需求太火爆 行业龙头去年净利增874%（附股）</t>
-  </si>
-  <si>
-    <t>A股频现“土豪级”大额分红方案 成熟行业分红预期高</t>
-  </si>
-  <si>
-    <t>券商荐股精选|</t>
-  </si>
-  <si>
-    <t>毛利率顺利爬坡，这只票有41%上涨空间</t>
+    <t>多地上调房贷利率 全国楼市“加息潮”真的来了？</t>
+  </si>
+  <si>
+    <t>人民币升值影响整体偏正面 不必担忧</t>
+  </si>
+  <si>
+    <t>哪些行业将受益？</t>
+  </si>
+  <si>
+    <t>教育巨头纷纷转向职业教育 哪些细分领域最受资本青睐</t>
+  </si>
+  <si>
+    <t>义乌快递价格战缩影：黄牛1000万快递单爆仓 圆通拖垮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蠢蠢欲动的福利：如何“搞钱”？这些大佬教你|报名 </t>
+  </si>
+  <si>
+    <t>王牌投研|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">估值近十年低位，稀缺标的开启扩张新征程 </t>
   </si>
   <si>
     <t>硬核研报|</t>
   </si>
   <si>
-    <t>涨价行情最大受益者已挖出 核心原料暴涨60%</t>
-  </si>
-  <si>
-    <t>碳中和动态|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家能源局十四五规划新能源装机1.2亿千瓦 </t>
-  </si>
-  <si>
-    <t>被质疑数据造假：风暴中的牧原股份长达33页回复内容</t>
-  </si>
-  <si>
-    <t>水茅不香了？农夫山泉跌回首日开盘价 钟老板身价缩水</t>
-  </si>
-  <si>
-    <t>直播|</t>
-  </si>
-  <si>
-    <t>起底金融科技</t>
-  </si>
-  <si>
-    <t>化工何时能开启反弹</t>
-  </si>
-  <si>
-    <t>赚钱秘诀</t>
+    <t>“至暗时刻”已过！军工板块预期差正在逆转</t>
+  </si>
+  <si>
+    <t>5年来最容易中签的新股就在今天</t>
+  </si>
+  <si>
+    <t>顶格申购或中20多签</t>
+  </si>
+  <si>
+    <t>王兴的无限战争:美团的烧钱无底洞 一季度亏损48.4亿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">让你蠢蠢欲动的福利：如何搞钱？这些大佬教你 </t>
+  </si>
+  <si>
+    <t>秘诀</t>
   </si>
   <si>
     <t>研报|</t>
   </si>
   <si>
-    <t>富人通胀 穷人通缩</t>
-  </si>
-  <si>
-    <t>长江:一季报行情的两种策略</t>
+    <t>任泽平谈“躺平”、“内卷”</t>
+  </si>
+  <si>
+    <t>掘金车联网时代</t>
   </si>
   <si>
     <t>公司</t>
   </si>
   <si>
-    <t>羽绒服产品被曝不合格上热搜戎美股份IPO添堵</t>
-  </si>
-  <si>
-    <t>3月最牛股豪取15连板 交易所紧急关注 追涨的要慌了？</t>
-  </si>
-  <si>
-    <t>净赚5.5亿却给股东分红30亿 江铃汽车：账上有100多亿</t>
-  </si>
-  <si>
-    <t>股权法拍“暗战”大戏几近落定 ST德豪控制权生变在即</t>
+    <t>浪潮信息任职9年董事长离职 毛利率走低惹的祸？</t>
+  </si>
+  <si>
+    <t>BOSS直聘上市背后：绕不过的烧钱与盈利 三年亏10个亿</t>
+  </si>
+  <si>
+    <t>嘀嗒出行亏22亿二冲上市：屡被约谈与投诉 超车难度大</t>
   </si>
   <si>
     <t>地产</t>
   </si>
   <si>
-    <t>调整阵痛 销售、毛利增速下滑 正荣地产换挡失速</t>
-  </si>
-  <si>
-    <t>神华的利润分配值得商榷？上市公司要把握好分红尺度</t>
-  </si>
-  <si>
-    <t>至信药业IPO获受理：研发投入占比不足1%引关注 回应</t>
-  </si>
-  <si>
-    <t>红外热成像商富吉瑞冲刺IPO 一半发明专利与客户共有</t>
-  </si>
-  <si>
-    <t>长虹华意压缩机营收71亿 2家子公司拟商誉减值6857万</t>
+    <t>毛利率大幅下降 美的置业仍高溢价疯狂“抢”地</t>
+  </si>
+  <si>
+    <t>海悦生活难断奶:在管规模小 依赖母公司 外拓能力不足</t>
+  </si>
+  <si>
+    <t>中梁控股降速：盈利降债务高企 楼盘质量问题频遭投诉</t>
+  </si>
+  <si>
+    <t>三问家居重返IPO:主打原创设计研发费仅2% 痛失大客户</t>
+  </si>
+  <si>
+    <t>麦迪科技营收停滞不前 辅助生殖赛道标的收购疑点重重</t>
+  </si>
+  <si>
+    <t>宁德时代3900亿市值解禁来袭 中信建投本月解禁1700亿</t>
   </si>
   <si>
     <t>硬核研报</t>
   </si>
   <si>
-    <t>远景与红杉中国成立百亿碳中和基金 机会&gt;&gt;</t>
-  </si>
-  <si>
-    <t>红星美凯龙太缺钱了：业绩预警 债务压力大</t>
-  </si>
-  <si>
-    <t>B站破发背后:招股书"抄作业"闹乌龙 合规水平亟待提升</t>
-  </si>
-  <si>
-    <t>上市不满3年市值即腰斩 汇付天下退市港股后或转战A股</t>
-  </si>
-  <si>
-    <t>中南服务港交所递表 有211个住宅项目来自中南集团</t>
-  </si>
-  <si>
-    <t>基金彻底赚翻了 易方达27.5亿、工银瑞信19.7亿</t>
-  </si>
-  <si>
-    <t>“隐形重仓股”曝光 知名基金经理掘金中小市值品种</t>
-  </si>
-  <si>
-    <t>B站陈睿不妥协：理想不止 商业不歇</t>
-  </si>
-  <si>
-    <t>开盘前瞻：港股转仓行情明显 跟随主力进攻</t>
-  </si>
-  <si>
-    <t>B站上市破发:招股书抄作业闹乌龙 合规水平亟待提升</t>
-  </si>
-  <si>
-    <t>"水茅"不香了?农夫山泉跌回首日开盘价</t>
-  </si>
-  <si>
-    <t>绿茶集团递表港交所 运营餐厅总数复合年增长率达28.3%</t>
-  </si>
-  <si>
-    <t>许家印再引“老朋友”战投房车宝 对赌一年内上市</t>
-  </si>
-  <si>
-    <t>销售、毛利增速下滑 千亿正荣换挡“失速”</t>
-  </si>
-  <si>
-    <t>美团2020：营收突破千亿 新业务更具想象力</t>
-  </si>
-  <si>
-    <t>中国信达：推动绿色发展 建设美丽中国</t>
-  </si>
-  <si>
-    <t>恒大房车宝引战163.5亿港元：谁的资本盛宴？</t>
-  </si>
-  <si>
-    <t>B站回港：视频化趋势下的AB面</t>
-  </si>
-  <si>
-    <t>交银国际：申洲国际目标价升至176港元 升至买入评级</t>
-  </si>
-  <si>
-    <t>美股涨跌不一 道指再创历史新高</t>
-  </si>
-  <si>
-    <t>3月29日美股成交额最大20只股票 Archegos爆仓概念股大多上榜</t>
-  </si>
-  <si>
-    <t>外盘头条：苏伊士运河搁浅货轮解困 运河完全疏通仍需时日</t>
-  </si>
-  <si>
-    <t>隔夜要闻：道指再创新高 Archegos爆仓余波未息跟谁学跌超18%</t>
-  </si>
-  <si>
-    <t>白宫新闻发言人透露拜登“心系”股市 确认周三公布3万亿基建计划</t>
-  </si>
-  <si>
-    <t>Archegos爆仓余波未息 相关股票陷入动荡走势</t>
-  </si>
-  <si>
-    <t>美联储理事表示联储不会运用货币政策来帮助政府债务融资</t>
-  </si>
-  <si>
-    <t>被史上最大单日亏损暴雷拖累 华尔街顶级银行股价跌至数月低位</t>
-  </si>
-  <si>
-    <t>富国银行据称经手20亿美元的4笔大宗交易 包括百度和唯品会</t>
-  </si>
-  <si>
-    <t>热门中概股周一收盘多数走低 跟谁学跌超18%</t>
-  </si>
-  <si>
-    <t>美股精选： ARK每日追踪 | 中概股异常暴...</t>
-  </si>
-  <si>
-    <t>报道称特斯拉对部分客户购买新车重复收费</t>
-  </si>
-  <si>
-    <t>“木头姐”旗下ARK Invest推出全新太空ETF 将于周二正式亮相</t>
-  </si>
-  <si>
-    <t>史上最惨烈爆仓 加剧美股波动</t>
-  </si>
-  <si>
-    <t>视频：爆出人类史上最大单日亏损的Bill Hwang到底是什么人？</t>
-  </si>
-  <si>
-    <t>深夜重磅！苏伊士河终于通了！跟谁学等爆仓股又暴跌</t>
-  </si>
-  <si>
-    <t>美国利率波动率有望下滑 因面临4月份的季节性沉闷</t>
-  </si>
-  <si>
-    <t>野村瑞信股价大跌 美国对冲基金爆仓冲击有多大</t>
-  </si>
-  <si>
-    <t>最新研究表明辉瑞和Moderna疫苗注射两针后保护效力高达90%</t>
+    <t>家具出口超景气 龙头1季度业绩竟然暴增130%</t>
+  </si>
+  <si>
+    <t>解读美团：一季报的隐忧与流量生意的终结</t>
+  </si>
+  <si>
+    <t>中信建投:港股新经济板块盈利高增长具有较强配置价值</t>
+  </si>
+  <si>
+    <t>中梁控股降速：盈利下降债务高企 质量问题频遭投诉</t>
+  </si>
+  <si>
+    <t>德盈控股招股书疑似数据打架 小黄鸭遭遇脸盲症尴尬</t>
+  </si>
+  <si>
+    <t>22年累计盈利逾5万亿元 公募基金交出亮丽答卷</t>
+  </si>
+  <si>
+    <t>公私募大佬加持：医药主题基金回暖 掘金2条投资主线</t>
+  </si>
+  <si>
+    <t>美团：第一季度经调整净亏损38.92亿元</t>
+  </si>
+  <si>
+    <t>烧钱无底洞</t>
+  </si>
+  <si>
+    <t>美团外卖变现率创新高至14.4% 商户困在美团财报里？</t>
+  </si>
+  <si>
+    <t>顺丰控股拟拆分同城实业在港交所上市</t>
+  </si>
+  <si>
+    <t>网易云音乐：版权不够，社交来凑？三年累计亏损近50亿</t>
+  </si>
+  <si>
+    <t>祥生活服务递表上市 一个仅有累计一年盈利的物业公司</t>
+  </si>
+  <si>
+    <t>“一早起来，又跌了快2万”比特币末日来临？爆仓数十亿 日赚3亿的挖矿机也要停了</t>
+  </si>
+  <si>
+    <t>上市公司“收购”上市公司 从法庭斗到董事会</t>
+  </si>
+  <si>
+    <t>嘀嗒出行亏22亿二度冲刺上市:半年内屡被约谈与投诉 超车难度大</t>
+  </si>
+  <si>
+    <t>市值蒸发20亿港元，呷哺“出局” 火锅内卷的终点究竟是什么？</t>
+  </si>
+  <si>
+    <t>“黑马”中梁控股降速：盈利下降债务高企 楼盘质量问题频遭投诉</t>
+  </si>
+  <si>
+    <t>海悦生活难断“奶”：在管规模小、高度依赖母公司 外拓能力严重不足</t>
+  </si>
+  <si>
+    <t>俄铝成员公司与En+的联系人订立新维修服务合约</t>
+  </si>
+  <si>
+    <t>百济神州因受限制股份单位获归属而发行16.796万股</t>
+  </si>
+  <si>
+    <t>因阵亡将士纪念日 美股周一休市</t>
+  </si>
+  <si>
+    <t>美国数据前瞻：继4月份令人失望的数据后 就业报告引关注</t>
+  </si>
+  <si>
+    <t>周末要闻：5月魔咒未现美股再创新高 美联储政策转向或成隐忧</t>
+  </si>
+  <si>
+    <t>外盘头条：美国汽油价格飙升至3美元以上 下周一迎来阵亡将士纪念日</t>
+  </si>
+  <si>
+    <t>争揽全球芯片制造商 韩国“强芯”追赶台积电</t>
+  </si>
+  <si>
+    <t>亚利桑那州诉讼显示：谷歌员工对位置跟踪表示担忧</t>
+  </si>
+  <si>
+    <t>美国汽油价格飙升至3美元以上 下周一迎来阵亡将士纪念日</t>
+  </si>
+  <si>
+    <t>苏伊士运河管理局：“长赐”号货轮船长应对搁浅事故负责</t>
+  </si>
+  <si>
+    <t>5月魔咒未现美股再创新高 美联储政策转向或成隐忧</t>
+  </si>
+  <si>
+    <t>共和党参议员：美国基础设施法案可能“真正妥协”</t>
+  </si>
+  <si>
+    <t>美股精选： ETF周报 | 半导体股强势“夺...</t>
+  </si>
+  <si>
+    <t>疲软开局，持续走弱的美元对美股意味着什么？</t>
+  </si>
+  <si>
+    <t>苹果在CarPlay上的巨大成功为其汽车雄心铺平了道路</t>
+  </si>
+  <si>
+    <t>由印度变种突变成的越南变种，到底有多厉害？</t>
+  </si>
+  <si>
+    <t>美国又要“放水” 大宗商品或将再起波澜</t>
+  </si>
+  <si>
+    <t>债务货币化 美国打算再次“收割”世界？</t>
+  </si>
+  <si>
+    <t>美邮政总局陷入财务危机 局长建议提高信函邮寄费</t>
+  </si>
+  <si>
+    <t>韩国海盐短缺致价格飙升，韩国泡菜生产企业面临困境</t>
+  </si>
+  <si>
+    <t>专家：虚拟货币缺乏价值支撑 受流动性影响易暴涨暴跌</t>
   </si>
   <si>
     <t>新浪财经诚聘国际财经新闻编辑若干</t>
   </si>
   <si>
-    <t>[IT业界]特斯拉得州工厂大规模招聘：或生产电池芯</t>
-  </si>
-  <si>
-    <t>隐形重仓股曝光 知名基金经理掘金中小市值品种</t>
-  </si>
-  <si>
-    <t>节后新基金建仓放缓 机构看好二季度震荡筑底</t>
-  </si>
-  <si>
-    <t>基金彻底赚翻了 易方达27.5亿工银瑞信19.7亿</t>
-  </si>
-  <si>
-    <t>华安、银华、汇添富等基金 直播解析窗口期</t>
-  </si>
-  <si>
-    <t>华安基金顾昕：从美股看A股科技股的发展趋势</t>
-  </si>
-  <si>
-    <t>汇添富赖中立：碳中和风起如何把握配置窗口期</t>
-  </si>
-  <si>
-    <t>新基金发行“有点冷”封闭式品种受宠</t>
-  </si>
-  <si>
-    <t>私募华曜奖年度领军人物评选进行中</t>
-  </si>
-  <si>
-    <t>广州"双雄基金"去年大赚45.7亿 这才是"核心资产"？</t>
-  </si>
-  <si>
-    <t>发行遇冷 今年募集失败基金增至5只</t>
-  </si>
-  <si>
-    <t>白酒板块重拾升势 公募提示布局高景气度行业</t>
-  </si>
-  <si>
-    <t>公募总规模连续第8个月正增长 混基和货基成主力</t>
-  </si>
-  <si>
-    <t>泸州老窖净利增29%，机构短期推荐次高端白酒，长期看好高端白酒</t>
-  </si>
-  <si>
-    <t>债市回暖但债基发行未见起色 交银施罗德一产品募集失败</t>
-  </si>
-  <si>
-    <t>溢价约75％收购境外芯片企业 中国私募股权机构豪掷近百亿</t>
-  </si>
-  <si>
-    <t>沙特欲支持OPEC+延长石油减产</t>
-  </si>
-  <si>
-    <t>两大原油期货小幅收涨</t>
-  </si>
-  <si>
-    <t>美油涨逾1%收复61关口</t>
-  </si>
-  <si>
-    <t>苏伊士运河堵船 对大宗商品价格影响有限</t>
-  </si>
-  <si>
-    <t>钢铁行业碳达峰及降碳行动方案成型 双焦涨超5%</t>
-  </si>
-  <si>
-    <t>棉花基本面存在较强支撑 中长期向好格局不改</t>
-  </si>
-  <si>
-    <t>大宗商品波动加剧 CTA策略受市场追捧</t>
-  </si>
-  <si>
-    <t>配方改革 有望助力养殖业迈过饲料成本这道坎</t>
-  </si>
-  <si>
-    <t>清明临近蛋价“扑街”  能否“顺节而上”？</t>
-  </si>
-  <si>
-    <t>寒潮降温影响新疆冬小麦</t>
-  </si>
-  <si>
-    <t>沪铝二季度看涨</t>
-  </si>
-  <si>
-    <t>油价围绕运河疏通展开博弈 多头更胜一筹</t>
-  </si>
-  <si>
-    <t>美元美债收益率攀升 黄金创近三周最大跌幅</t>
-  </si>
-  <si>
-    <t>基本面稳中向好 股指逐步回归合理估值区间</t>
-  </si>
-  <si>
-    <t>新旧合约走势分化 苹果的未来将何去何从？</t>
+    <t>[互联网]Facebook董事会否决限制扎克伯格权力的提案</t>
+  </si>
+  <si>
+    <t>公募REITs来了:314亿今日开抢！怎么买？买哪只?</t>
+  </si>
+  <si>
+    <t>首批公募REITs开售:涨跌幅多少?收益率多高?攻略</t>
+  </si>
+  <si>
+    <t>基金发行分化:东方红启恒爆款重现 九泰发行失败</t>
+  </si>
+  <si>
+    <t>如何把握“创时代”下投资机遇？听基金大咖说</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华安基金常锐：电子行业投资价值展望	</t>
+  </si>
+  <si>
+    <t>亢龙有悔还是飞龙在天 机构激辩周期股后市</t>
+  </si>
+  <si>
+    <t>开售！预期年化收益最高11% 9只公募REITs底层资产详解</t>
+  </si>
+  <si>
+    <t>公募累计盈利超5万亿 "基金赚钱、基民不赚钱"难题仍存</t>
+  </si>
+  <si>
+    <t>21只新基月底“卡点” 5月新发基金超190只</t>
+  </si>
+  <si>
+    <t>卷入虚假基金诈骗案 建行株洲分行等3家银行被判连带责任</t>
+  </si>
+  <si>
+    <t>私募江湖大浪淘沙 谁主沉浮:和聚投资等老牌私募掉队</t>
+  </si>
+  <si>
+    <t>权益类基金仓位降至年内最低位 公募调仓瞄准五大行业</t>
+  </si>
+  <si>
+    <t>期权“末日轮”惊现暴涨暴跌 私募火速解读来了</t>
+  </si>
+  <si>
+    <t>多家公募实施二次首发 为基金销售再添一把火</t>
+  </si>
+  <si>
+    <t>【食品饮料α掘金】次高端白酒迎新一轮“牛市”，6月是配置白酒板块最佳时间</t>
+  </si>
+  <si>
+    <t>美国要"放水" 大宗商品或将再起波澜</t>
+  </si>
+  <si>
+    <t>OPEC+会议影响油市命运</t>
+  </si>
+  <si>
+    <t>原油市场面临方向选择</t>
+  </si>
+  <si>
+    <t>需求下滑 利润受压缩 钢材市场延续调整态势</t>
+  </si>
+  <si>
+    <t>李克强：注重用市场化办法解决大宗商品上涨等问题</t>
+  </si>
+  <si>
+    <t>5.31原油市场早评：OPEC+会议在即 利空风险加剧</t>
+  </si>
+  <si>
+    <t>三大油脂价格5月冲高回落 牛市行情结束了吗？</t>
+  </si>
+  <si>
+    <t>大宗商品市场5月演绎“过山车”行情 6月如何走？</t>
+  </si>
+  <si>
+    <t>卖1斤亏1元！苹果价格大跌滞销 遭历史最严重行情？</t>
+  </si>
+  <si>
+    <t>养猪业盈亏平衡点到了吗</t>
+  </si>
+  <si>
+    <t>铝价 不宜过分悲观</t>
+  </si>
+  <si>
+    <t>再来6万亿 拜登新一轮经济刺激再给多头送东风</t>
+  </si>
+  <si>
+    <t>光大：黄金重返1900关口 本周聚焦5月非农数据</t>
+  </si>
+  <si>
+    <t>道达投资手记：核心资产牛市再度开启？谨慎</t>
+  </si>
+  <si>
+    <t>业内：推动期货法出台 助力大宗商品稳价保供</t>
   </si>
   <si>
     <t>DCE一周观察</t>
   </si>
   <si>
-    <t xml:space="preserve">美联储理事：距离加息还早得很 </t>
-  </si>
-  <si>
-    <t>在低利率的刺激之下，美国政府的债务以及财政赤字也是一路上升&gt;&gt;</t>
+    <t>弱美元何时“逆袭”？</t>
+  </si>
+  <si>
+    <t>一旦经济复苏预期再度转强，或者美联储释放偏鹰派信号，美元可能逆转&gt;&gt;</t>
   </si>
   <si>
     <t>全球财经直播</t>
@@ -689,280 +695,211 @@
     <t>人民币汇率</t>
   </si>
   <si>
-    <t>美元和美债收益率双双攀升 日元接近一年低点</t>
-  </si>
-  <si>
-    <t>美联储沃勒：没有保持低利率为政府债务融资</t>
-  </si>
-  <si>
-    <t>Archegos爆仓或导致“雷曼危机”重演 美元窃喜</t>
-  </si>
-  <si>
-    <t>央财谭小芬：美债收益率上升对中国影响整体可控</t>
-  </si>
-  <si>
-    <t>人民币将录下一年以来最大月跌幅 美元恢复强势</t>
-  </si>
-  <si>
-    <t>拜登面临一场政治恶仗 本周将公布重大支出计划</t>
-  </si>
-  <si>
-    <t>欧洲多所研究机构：欧元区经济将迎积极复苏态势</t>
-  </si>
-  <si>
-    <t>比特币和美元也有一点相似之处</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美元逼近93关口 黄金跌逾20美元 </t>
-  </si>
-  <si>
-    <t>土耳其总统埃尔多安敦促国民将黄金和外汇储蓄投入...</t>
-  </si>
-  <si>
-    <t>美联储理事：距离加息还早得很 低息并非为政府融...</t>
-  </si>
-  <si>
-    <t>美联储沃勒：中央银行没有保持低利率为政府债务融资</t>
-  </si>
-  <si>
-    <t>任泽平：美联储超发货币实际上是在向全球收铸币税</t>
-  </si>
-  <si>
-    <t>中信期货：2021年二季度贵金属将继续偏空</t>
-  </si>
-  <si>
-    <t>黄金承压美指创四个月新高！本周两看点 或不乏重...</t>
-  </si>
-  <si>
-    <t>美联储理事Waller：美联储距离加息还有很长的路要走</t>
-  </si>
-  <si>
-    <t>周一黄金期货价格收跌1.2% 创3周新低</t>
-  </si>
-  <si>
-    <t>美联储理事表示联储不会运用货币政策来帮助政府债...</t>
-  </si>
-  <si>
-    <t>基辛格：若美倒下，谁也别好过，美联储挪用黄金，...</t>
-  </si>
-  <si>
-    <t>美元美债收益率攀升 黄金创近三周来最大跌幅</t>
-  </si>
-  <si>
-    <t>美联储距离加息还有很长的路要走</t>
-  </si>
-  <si>
-    <t>黄金专家答疑</t>
-  </si>
-  <si>
-    <t>针对地方国企债券违约 国资委出手了</t>
-  </si>
-  <si>
-    <t>强化地方国企债务风险管控 防范化解系统性金融风险</t>
-  </si>
-  <si>
-    <t>23万亿信用债市场迎评级新规：    “AAA级盛况”将难续</t>
-  </si>
-  <si>
-    <t>富时罗素10月29日起将中国国债纳入WGBI指数 权重5.25%</t>
-  </si>
-  <si>
-    <t>评级集中下调刷新纪录：488只债券主体评级遭下调</t>
-  </si>
-  <si>
-    <t>强制评级取消后市场或萎缩 信用评级将进入买方时代</t>
-  </si>
-  <si>
-    <t>“通用语言”进化 信披新规助信用债市场进阶发展</t>
-  </si>
-  <si>
-    <t>上海国际信托： 捕捉中资美元债蕴藏的投资机会</t>
-  </si>
-  <si>
-    <t>美国银行:资金流向显示投资者正从中长期债券基金撤出</t>
-  </si>
-  <si>
-    <t>爆雷！正通汽车去年预亏超80亿 11亿债券还安全吗？</t>
-  </si>
-  <si>
-    <t>金信基金成被执行人:执行标的近4千万 涉专户债券踩雷</t>
-  </si>
-  <si>
-    <t>央财教授谭小芬：美债收益率上升对中国影响整体可控</t>
+    <t>本周关注鲍威尔讲话、中美欧制造业PMI、5月非农</t>
+  </si>
+  <si>
+    <t>数字人民币有望为全球贸易结算开辟新视窗</t>
+  </si>
+  <si>
+    <t>未来可能推动人民币贬值的四大因素不能忽视</t>
+  </si>
+  <si>
+    <t>美联储官员态度大转弯：可能要讨论缩减QE了！</t>
+  </si>
+  <si>
+    <t>中金策略:近期美元流动性激增的内外部含义</t>
+  </si>
+  <si>
+    <t>疲软开局 持续走弱的美元对美股意味着什么？</t>
+  </si>
+  <si>
+    <t>央行调查统计司原司长：人民币快速升值不可持续</t>
+  </si>
+  <si>
+    <t>比特币又遇黑色周末!空头犹如嗜血鲨鱼</t>
+  </si>
+  <si>
+    <t>黄金重返1900关口 本周聚焦5月非农数据</t>
+  </si>
+  <si>
+    <t>一图还原白银越野赛赛况和救援状况</t>
+  </si>
+  <si>
+    <t>两个月飙升220美元！Kitco黄金调查：“对...</t>
+  </si>
+  <si>
+    <t>【央行圆桌汇】美联储官员继续淡化通胀风险</t>
+  </si>
+  <si>
+    <t>周末要闻：5月魔咒未现美股再创新高 美联储政策...</t>
+  </si>
+  <si>
+    <t>金价本周有望大涨逾45美元 机构：黄金、白银和...</t>
+  </si>
+  <si>
+    <t>本周外盘看点丨美国5月非农来袭 油价还看OPE...</t>
+  </si>
+  <si>
+    <t>通胀恐慌加剧 美联储官员们态度大转弯：可能要讨...</t>
+  </si>
+  <si>
+    <t>拆解美联储资产负债表：战时债务管理政策</t>
+  </si>
+  <si>
+    <t>投资周报：沪指站上3600 美非农就业报告下周出炉</t>
+  </si>
+  <si>
+    <t>弱美元何时“逆袭”？美联储Taper步伐渐行渐近</t>
+  </si>
+  <si>
+    <t>本周重磅：鲍威尔讲话、盯紧5月非农</t>
+  </si>
+  <si>
+    <t>专家答疑</t>
+  </si>
+  <si>
+    <t>5月债券商品齐涨为哪般？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年内公司信用类债发行逾6万亿元 同比下降2.1% </t>
+  </si>
+  <si>
+    <t>人民币升值如何影响债市？6月主要矛盾仍在于资金面</t>
+  </si>
+  <si>
+    <t>美国通胀的“出门”效应渐显 核心通胀同环比加速上行</t>
+  </si>
+  <si>
+    <t>美国通胀的前世今生：20世纪70年代、80年代和如今</t>
+  </si>
+  <si>
+    <t>施罗德投资周匀：直面不确定性 大类资产配置见招拆招</t>
+  </si>
+  <si>
+    <t>灵魂之问：美国通胀形势严峻 为什么利率却跌了</t>
+  </si>
+  <si>
+    <t>消费和制造业投资推动 中国通胀压力小于发达国家</t>
+  </si>
+  <si>
+    <t>张一格：统一视角自上而下 寻找股债配比最优解</t>
+  </si>
+  <si>
+    <t>5月份新发公募基金超过110只 债券型占比近六成</t>
+  </si>
+  <si>
+    <t>周小川：G20国家中 中国为最贫困国家缓债金额最多</t>
   </si>
   <si>
     <t>全球银行同业拆借利率</t>
   </si>
   <si>
-    <t>How Archegos’ $20 billion move to flee certain names led to banks’ share prices tumbling</t>
-  </si>
-  <si>
-    <t>Ever Given is no longer blocking the Suez Canal, but the supply chain impact could last months</t>
-  </si>
-  <si>
-    <t>China's Xiaomi launches premium phone to challenge Apple and Samsung and fill void left by Huawei</t>
-  </si>
-  <si>
-    <t>Myanmar is on the brink of becoming a 'failed state,' says expert from think tank</t>
-  </si>
-  <si>
-    <t>Australia will 'vigorously defend' its wine industry against China, minister says</t>
-  </si>
-  <si>
-    <t>Asia-Pacific shares mixed; Nomura stock continues slide following Monday tumble</t>
-  </si>
-  <si>
-    <t>Stock futures are flat after Dow closes at record</t>
-  </si>
-  <si>
-    <t>How Goldman and Morgan Stanley avoided losses after fund meltdown burned Nomura, Credit Suisse</t>
-  </si>
-  <si>
-    <t>Facebook and Google reveal plans to build subsea cables between U.S. and Southeast Asia</t>
-  </si>
-  <si>
-    <t>Tesla double-charged some customers for new cars, leaving them desperate for refund details</t>
-  </si>
-  <si>
-    <t>VW accidentally leaks new name for its U.S. operations: Voltswagen</t>
-  </si>
-  <si>
-    <t>One dose of Pfizer or Moderna vaccines was 80% effective in preventing Covid in CDC study</t>
-  </si>
-  <si>
-    <t>China’s government bonds are in a ‘sweet spot' after sell off, says portfolio manager</t>
-  </si>
-  <si>
-    <t>SpaceX should be forced to comply with DOJ subpoena in probe of hiring practices, judge recommends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draft of joint WHO-China study says animals likely source of Covid </t>
-  </si>
-  <si>
-    <t>What is Daylight Saving Time?</t>
-  </si>
-  <si>
-    <t>The EU’s huge Covid stimulus plan has hit an obstacle — and it could delay the funds</t>
-  </si>
-  <si>
-    <t>5 killed in Alaska helicopter crash, including Czech Republic's richest man</t>
-  </si>
-  <si>
-    <t>Europe looks to contain spiraling Covid crisis, but it's 'Happy Monday' in the UK</t>
-  </si>
-  <si>
-    <t>Governments — ‘not BlackRock’ — should lead the economy away from fossil fuels, economist says</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/2021-03/29/c_1127268183.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/2021-03/29/c_1127267661.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/fortune/2021-03/28/c_1127265543.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/politics/2021-03/28/c_1127265800.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/2021-03/29/c_1127268101.htm</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian0957490.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-03-30/doc-ikknscsk4386467.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1155075.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-03-30/doc-ikknscsk4149244.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-03-30/doc-ikknscsk4220343.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/zggjy/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4416403.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4124423.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-29/doc-ikknscsk3969008.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-03-30/doc-ikkntian1241325.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4235279.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1158468.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-30/doc-ikkntian0947025.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zldx/2021-03-30/doc-ikknscsk4408577.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1074032.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1122266.shtml</t>
+    <t>http://www.xinhuanet.com/tech/2021-05/30/c_1127508516.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/politics/2021-05/30/c_1127508892.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/2021-05/30/c_1127510062.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/local/2021-05/30/c_1127510035.htm</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s?__biz=MzA4MjQxNjQzMA==&amp;mid=2768635077&amp;idx=1&amp;sn=ac6c29cec774f885cb0d9fe9ac0d1a2f&amp;scene=0</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5591362.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/2021-05-30/doc-ikmxzfmm5540688.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/2021-05-30/doc-ikmyaawc8397928.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5607635.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-05-31/doc-ikmyaawc8477021.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-05-30/doc-ikmxzfmm5490981.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-05-31/doc-ikmyaawc8462724.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/2021-05-31/doc-ikmxzfmm5588530.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/estate/sd/2021-05-31/doc-ikmyaawc8473658.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-05-31/doc-ikmxzfmm5268283.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-05-31/doc-ikmyaawc8475074.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-31/doc-ikmxzfmm5606774.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-31/doc-ikmyaawc8475216.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-31/doc-ikmyaawc8475150.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-05-31/doc-ikmyaawc8470134.shtml</t>
   </si>
   <si>
     <t>http://live.finance.sina.com.cn/</t>
   </si>
   <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/1n5879713834?parentType=column&amp;parentId=a0e7a911df0a42bca9e4d8c70cf6967e</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/l348j214j862?parentType=column&amp;parentId=6273e22402aa4630a1277ebfa2991b69</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/23mk2nj92k9j?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
-  </si>
-  <si>
-    <t>https://www.guosen.com.cn/gs/openaccount/?qrcode=1595905431891</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1158458.shtml</t>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/9960</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/#/sina/single/1n58719m3834?parentType=column&amp;parentId=f5443bd63a8b4e858b9225ffa008a6c6</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/10016</t>
+  </si>
+  <si>
+    <t>https://www.guosen.com.cn/gs/openaccount/?qrcode=1595905431891&amp;source=gegu01</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-05-31/doc-ikmxzfmm5612184.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmyaawc8462737.shtml</t>
   </si>
   <si>
     <t>http://roll.finance.sina.com.cn/finance/zq1/scyj/index.shtml</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-03-30/doc-ikknscsk4402060.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikknscsk4083914.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikknscsk4087856.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-05-30/doc-ikmxzfmm5575049.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-30/doc-ikmxzfmm5571815.shtml</t>
   </si>
   <si>
     <t xml:space="preserve">http://finance.sina.com.cn/stock/jyts/ </t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-03-30/doc-ikkntian1238178.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-03-30/doc-ikkntian1237088.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-03-29/doc-ikknscsk3767478.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/cpbd/2021-03-30/doc-ikkntian1238913.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-03-30/doc-ikknscsk4425416.shtml</t>
+    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmxzfmm5611588.shtml</t>
+  </si>
+  <si>
+    <t>http://vip.stock.finance.sina.com.cn/q/go.php/vInvestConsult/kind/jyts/index.phtml?tradedate=2021-5-30</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/cpbd/2021-05-31/doc-ikmyaawc8474197.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmyaawc8473975.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmxzfmm5617004.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/marketresearch/2020-08-17/doc-iivhuipn9137795.shtml</t>
@@ -971,40 +908,43 @@
     <t xml:space="preserve">http://roll.finance.sina.com.cn/finance/zq1/zldx/index.shtml </t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4316687.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1122300.shtml</t>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-30/doc-ikmyaawc8431054.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-05-31/doc-ikmxzfmm5618286.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vip.stock.finance.sina.com.cn/q/go.php/vInvestConsult/kind/lhb/index.phtml </t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=230808</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/stockptd/2021-03-30/doc-ikkntian1245218.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-29/doc-ikkntian0903676.shtml</t>
+    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8481782.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8474163.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=57563&amp;page=1</t>
   </si>
   <si>
-    <t>http://blog.sina.com.cn/s/blog_4184ca780102z61v.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_8cc315680102z4kk.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_599d75180102zn4r.html?tj=fina</t>
+    <t>http://blog.sina.com.cn/s/blog_49548d340103035a.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_5d34ec6c0102zj51.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4c7ca1550102ydxu.html?tj=fina</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/reportch/jinqilin.shtml</t>
   </si>
   <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/670382039763/index.phtml</t>
-  </si>
-  <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/670381479016/index.phtml</t>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/675712742005/index.phtml</t>
+  </si>
+  <si>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/675720251181/index.phtml</t>
   </si>
   <si>
     <t>http://vip.stock.finance.sina.com.cn/q/go.php/vReport_List/kind/lastest/index.phtml</t>
@@ -1013,307 +953,331 @@
     <t>http://licaishi.sina.com.cn/s/%E6%B7%B1%E6%B8%AF%E9%80%9A?ind_id=0&amp;t=1&amp;all=0&amp;fr=finance_top</t>
   </si>
   <si>
-    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/670381955104/index.phtml</t>
-  </si>
-  <si>
-    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/670381574571/index.phtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-30/doc-ikkntian1249157.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-03-30/doc-ikkntian1249103.shtml</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_540eaf530102zb0l.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://tzxy.sina.com.cn/content/detail/1658605145/113561</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-03-30/doc-ikkntian1228400.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-03-30/doc-ikkntian1219366.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-03-30/doc-ikkntian1222321.shtml</t>
+    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/675738565503/index.phtml</t>
+  </si>
+  <si>
+    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/675731917114/index.phtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8481703.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8481259.shtml</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_537c46120102za5o.html?tj=fina</t>
+  </si>
+  <si>
+    <t>https://tzxy.sina.com.cn/content/detail/1658605145/118133</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmxzfmm5610157.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5600580.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-05-31/doc-ikmxzfmm5606418.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8453454.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmxzfmm5604725.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-05-30/doc-ikmxzfmm5547098.shtml</t>
   </si>
   <si>
     <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_List/kind/industry/index.phtml</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4319990.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1119419.shtml</t>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-05-31/doc-ikmxzfmm5612042.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/review/2021-05-31/doc-ikmyaawc8474186.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-05-30/doc-ikmyaawc8407490.shtml?cref=cj</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-05-30/doc-ikmxzfmm5554392.shtml?cref=cj</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/2021jjjnh/</t>
   </si>
   <si>
     <t>https://www.sinadaxue.cn/#/sina/brief/column/757bacbe813249689ab15c319e8baea4</t>
   </si>
   <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/5lm832ljnk96?parentType=column&amp;parentId=757bacbe813249689ab15c319e8baea4</t>
+    <t xml:space="preserve">https://www.sinadaxue.cn/#/sina/single/1n5871913834?parentType=column&amp;parentId=757bacbe813249689ab15c319e8baea4  </t>
   </si>
   <si>
     <t>https://www.sinadaxue.cn/#/sina/brief/column/a601af39262c4bdd80274231f1fde815</t>
   </si>
   <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/l348j2553862?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/brief/column/ffea76e99fbd4caf936b258faabc8d8e</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/23mk2n411k9j?parentType=column&amp;parentId=6273e22402aa4630a1277ebfa2991b69</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-03-30/doc-ikknscsk4375150.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-30/doc-ikkntian1263951.shtml</t>
-  </si>
-  <si>
-    <t>http://finance.sina.com.cn/zt_d/jjzbj/</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8733</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8717</t>
+    <t>https://www.sinadaxue.cn/#/sina/single/7lnk6l331kj2?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmyaawc8480149.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-05-31/doc-ikmxzfmm5606550.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmyaawc8474811.shtml</t>
+  </si>
+  <si>
+    <t>https://2831761612775.huodongxing.com/event/2597371946500</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/quanshangkaihu/</t>
   </si>
   <si>
+    <t>https://finance.sina.com.cn/stock/stockptd/2021-05-31/doc-ikmyaawc8407798.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8475420.shtml</t>
+  </si>
+  <si>
     <t>https://finance.sina.com.cn/stock/s/2019-07-09/doc-ihytcitm0843478.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=56592&amp;page=1</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/newstock/zxdt/2021-03-30/doc-ikknscsk4403488.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-03-30/doc-ikknscsk4111890.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1237591.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian1158444.shtml</t>
+    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmyaawc8475660.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmyaawc8473278.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmxzfmm5610080.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/estate/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/relnews/hk/2021-03-30/doc-ikkntian1247696.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian0966039.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zxdt/2021-03-30/doc-ikkntian1224801.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikknscsk4084010.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-03-30/doc-ikkntian1259099.shtml</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/l25km67668n1?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8474245.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmxzfmm5612411.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8474346.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmxzfmm5615540.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmxzfmm5612120.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmxzfmm5616498.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/#/sina/single/24j842571851?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/hkstock/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-30/doc-ikknscsk4418214.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-30/doc-ikkntian1247042.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikkntian0750428.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/estate/integration/2021-03-30/doc-ikknscsk4120028.shtml</t>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8474089.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmxzfmm5613906.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggipo/2021-05-31/doc-ikmxzfmm5612622.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/fund/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-30/doc-ikknscsk4437605.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-03-29/doc-ikknscsk3980523.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-30/doc-ikknscsk4422328.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/hk/2021-03-30/doc-ikkntian1202376.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-29/doc-ikknscsk3858535.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-03-30/doc-ikknscsk4127722.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/focus/2021-03-29/doc-ikknscsk3631692.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-29/doc-ikknscsk3511769.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-03-29/doc-ikkntian0837108.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-30/doc-ikknscsk4417532.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/hkgg/2021-03-30/doc-ikkntian1302079.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4268824.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4288625.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikkntian1166019.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikkntian1204777.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-30/doc-ikknscsk4225675.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-29/doc-ikknscsk4056963.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-29/doc-ikknscsk4094944.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikkntian1056681.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4285311.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikkntian1128161.shtml</t>
+    <t>https://finance.sina.com.cn/money/fund/jjpl/2021-05-31/doc-ikmyaawc8469701.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8456622.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-28/doc-ikmxzfmm5208697.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/observe/2021-05-30/doc-ikmyaawc8361122.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/hkzmt/2021-05-30/doc-ikmxzfmm5569662.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmxzfmm5608925.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/estate/integration/2021-05-30/doc-ikmyaawc8442341.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-05-31/doc-ikmxzfmm5565096.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8473598.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmxzfmm5611858.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmxzfmm5613849.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmxzfmm5620699.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8482663.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmyaawc8461436.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmyaawc8451190.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmxzfmm5604724.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmxzfmm5601496.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5591411.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmyaawc8451687.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmyaawc8462927.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/7x24/2021-05-31/doc-ikmxzfmm5603728.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5591392.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmxzfmm5587391.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/other/hsnews/detail_index.d.html</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikkntian1165542.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikkntian0993620.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian0999227.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/us/2021-03-30/doc-ikkntian0955232.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4232173.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikkntian0999199.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4220224.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-05-30/doc-ikmxzfmm5548385.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmxzfmm5601255.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/2021-05-31/doc-ikmxzfmm5590448.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8450945.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-30/doc-ikmyaawc8322440.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-30/doc-ikmyaawc8335693.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/7x24/2021-05-30/doc-ikmyaawc8352694.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/2021-05-30/doc-ikmxzfmm5579583.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/usstock/c/2019-06-04/doc-ihvhiews6789878.shtml</t>
   </si>
   <si>
-    <t>https://tech.sina.com.cn/it/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-30/doc-ikknscsk4427737.shtml</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8760</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/8752</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4316701.shtml</t>
-  </si>
-  <si>
-    <t>http://finance.sina.com.cn/zt_d/2020dfzqhyj/#/index</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-03-30/doc-ikknscsk4108518.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-30/doc-ikkntian0980511.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-03-30/doc-ikkntian1292837.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-03-30/doc-ikknscsk4439191.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-03-30/doc-ikkntian1267712.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikkntian1243337.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikkntian1277868.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-30/doc-ikknscsk4350388.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/suyishi/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikknscsk4399157.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikkntian1251070.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-03-30/doc-ikknscsk4389653.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikknscsk4418035.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikknscsk4391947.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikknscsk4416496.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikknscsk4410089.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikknscsk4416342.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4394003.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/gzqh/futuresforrep/2021-03-30/doc-ikknscsk4411632.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-03-30/doc-ikkntian1302295.shtml</t>
+    <t>https://tech.sina.com.cn/internet/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-05-31/doc-ikmxzfmm5582067.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmyaawc8469679.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/original/2021-05-31/doc-ikmxzfmm5615065.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmxzfmm5613723.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmxzfmm5606505.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmxzfmm5607575.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-28/doc-ikmyaawc7943737.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-28/doc-ikmxzfmm5087743.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5600606.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/2021-05-30/doc-ikmxzfmm5565305.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmyaawc8468853.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-05-31/doc-ikmxzfmm5626155.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8477899.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8477469.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5600768.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8470756.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/2021-05-31/doc-ikmyaawc8471134.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmxzfmm5612361.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8476984.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-05-30/doc-ikmyaawc8443550.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8453456.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/2021-05-28/doc-ikmyaawc7955944.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8475015.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8472722.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-30/doc-ikmxzfmm5575065.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/2021-05-31/doc-ikmxzfmm5608480.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/dcefutures/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-03-30/doc-ikknscsk4231061.shtml</t>
+    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-05-31/doc-ikmyaawc8397445.shtml</t>
   </si>
   <si>
     <t>http://live.sina.com.cn/zt/l/v/finance/globalnews1/</t>
@@ -1322,160 +1286,88 @@
     <t>http://finance.sina.com.cn/forex/paijia.html#0</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-30/doc-ikknscsk4360572.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4264022.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-30/doc-ikkntian1025570.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4160363.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-30/doc-ikknscsk4109272.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-29/doc-ikknscsk3961262.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikkntian0694705.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-29/doc-ikknscsk3968848.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-30/doc-ikknscsk4334367.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/7x24/2021-03-30/doc-ikkntian0977835.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikknscsk3419289.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-03-29/doc-ikknscsk3739673.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-29/doc-ikkntian0800357.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-03-30/doc-ikknscsk4372450.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-30/doc-ikknscsk4261456.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-29/doc-ikkntian0866170.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-03-30/doc-ikknscsk4281693.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4374597.shtml</t>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-05-31/doc-ikmyaawc8427317.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/blockchain/coin/2021-05-31/doc-ikmxzfmm5594634.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-05-31/doc-ikmxzfmm5573546.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-30/doc-ikmxzfmm5522611.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-05-31/doc-ikmyaawc8420290.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-05-31/doc-ikmyaawc8409318.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bank/bank_hydt/2021-05-30/doc-ikmxzfmm5566725.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/blockchain/coin/2021-05-31/doc-ikmyaawc8426585.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/2021-05-30/doc-ikmyaawc8412652.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8478645.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-05-31/doc-ikmxzfmm5616700.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-05-31/doc-ikmxzfmm5612321.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-05-30/doc-ikmyaawc8419613.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-30/doc-ikmxzfmm5565973.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/clues/hg/2021-05-30/doc-ikmyaawc8293793.shtml</t>
   </si>
   <si>
     <t>http://biz.finance.sina.com.cn/zjzt/gold_2014.php</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-30/doc-ikknscsk4219744.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4124466.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4124312.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-03-30/doc-ikkntian1185873.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-29/doc-ikkntian0764665.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-03-29/doc-ikkntian0763783.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-03-30/doc-ikknscsk4125183.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-03-29/doc-ikkntian0813251.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-03-29/doc-ikkntian0885828.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-03-30/doc-ikknscsk4028917.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-03-29/doc-ikkntian0715701.shtml</t>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmyaawc8474024.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmxzfmm5590862.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/2021-05-31/doc-ikmyaawc8445632.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmxzfmm5617143.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmxzfmm5561299.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5600610.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-30/doc-ikmyaawc8389375.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5594637.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8462752.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmxzfmm5602688.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmyaawc8368728.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/money/globalindex/ibor.shtml</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/the-archegos-blowup-and-its-ripple-effect-across-markets.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/suez-canal-is-moving-but-the-supply-chain-impact-could-last-months.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/xiaomi-mi-11-ultra-price-features-specs-availability-.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/30/myanmar-is-on-the-brink-of-becoming-a-failed-state-says-expert-from-think-tank.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/australia-will-vigorously-defend-its-wine-industry-against-china-minister-says.html</t>
-  </si>
-  <si>
-    <t>/pro/</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/30/japan-stocks-set-for-mixed-start-dow-closes-at-new-record-overnight.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/stock-market-open-to-close-news.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/goldman-morgan-stanley-avoided-losses-after-fund-meltdown-hit-nomura.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/facebook-google-to-lay-subsea-cables-between-us-and-southeast-asia.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/tesla-double-charged-some-customers-for-new-cars.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/vw-accidentally-leaks-new-name-for-its-us-operations-voltswagen.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/cdc-study-shows-single-dose-of-pfizer-or-moderna-covid-vaccines-was-80percent-effective.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/chinas-government-bonds-are-in-a-sweet-spot-after-sell-off-says-portfolio-manager.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/elon-musk-spacex-should-comply-with-doj-subpoena-in-hiring-probe-judge-says.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/draft-of-joint-who-china-study-says-animals-likely-source-of-covid-.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/video/2021/03/26/seasonal-clock-changes-for-daylight-saving-time.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/germany-constitutional-court-puts-eu-covid-funds-on-hold.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/5-killed-in-alaska-helicopter-crash-including-czech-republics-richest-man.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/uk-lockdown-eases-on-happy-monday-germany-and-france-hospital-fears.html</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2021/03/29/pettifor-governments-not-blackrock-should-lead-green-economy-transition.html</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1877,19 +1769,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1897,19 +1789,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1917,19 +1809,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1937,19 +1829,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1957,19 +1849,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1977,19 +1869,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1997,19 +1889,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2017,19 +1909,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2037,19 +1929,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2057,19 +1949,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2077,19 +1969,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2097,19 +1989,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2117,19 +2009,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2137,19 +2029,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2157,19 +2049,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2177,19 +2069,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2197,19 +2089,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2217,19 +2109,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2237,19 +2129,19 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2257,19 +2149,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2277,19 +2169,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2297,19 +2189,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2317,19 +2209,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2337,19 +2229,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2357,19 +2249,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2377,19 +2269,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2397,19 +2289,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2417,19 +2309,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2437,19 +2329,19 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2457,16 +2349,16 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2474,19 +2366,19 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2494,19 +2386,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2514,19 +2406,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2534,19 +2426,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2554,19 +2446,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2574,19 +2466,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2594,19 +2486,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2614,19 +2506,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2634,19 +2526,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2654,19 +2546,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2674,19 +2566,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2694,16 +2586,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2711,19 +2606,16 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2731,19 +2623,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2751,19 +2643,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2771,19 +2663,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2791,19 +2683,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2811,19 +2703,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2831,19 +2723,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2851,19 +2743,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2871,19 +2763,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2891,19 +2783,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2911,19 +2803,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2931,19 +2823,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2951,19 +2843,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2971,19 +2863,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2991,19 +2883,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3011,16 +2903,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3028,19 +2923,16 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3048,19 +2940,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3068,19 +2960,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3088,19 +2980,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3108,19 +3000,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3128,19 +3020,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3148,19 +3040,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3168,19 +3060,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3188,19 +3080,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3208,19 +3100,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3228,19 +3120,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3248,19 +3140,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3268,19 +3160,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3288,19 +3180,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3308,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3328,19 +3220,19 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3348,19 +3240,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3368,19 +3260,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E77" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3388,19 +3280,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3408,19 +3300,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3428,19 +3320,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3448,19 +3340,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3468,19 +3360,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3488,19 +3380,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3508,19 +3400,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3528,19 +3420,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3548,19 +3440,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3568,19 +3460,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3588,19 +3480,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E88" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3608,19 +3500,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3628,19 +3520,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E90" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3648,19 +3540,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E91" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3668,19 +3560,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3688,19 +3580,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3708,19 +3600,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E94" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3728,19 +3620,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E95" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3748,19 +3640,19 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3768,19 +3660,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E97" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>345</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3788,19 +3680,19 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E98" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3808,19 +3700,19 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3828,19 +3720,19 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3848,19 +3740,19 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E101" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3868,19 +3760,19 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3888,19 +3780,19 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E103" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3908,19 +3800,19 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E104" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3928,19 +3820,19 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3948,19 +3840,19 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3968,19 +3860,19 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3988,19 +3880,19 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4008,19 +3900,19 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E109" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4028,19 +3920,19 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4048,16 +3940,19 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="E111" t="s">
+        <v>134</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4065,19 +3960,19 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4085,19 +3980,16 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
-      </c>
-      <c r="E113" t="s">
-        <v>137</v>
-      </c>
-      <c r="F113" t="s">
-        <v>358</v>
+        <v>27</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4105,19 +3997,19 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E114" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4125,19 +4017,19 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E115" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4145,19 +4037,19 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E116" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4165,19 +4057,19 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E117" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4185,19 +4077,19 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E118" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4205,19 +4097,19 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4225,19 +4117,19 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4245,19 +4137,19 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E121" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4265,19 +4157,19 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4285,19 +4177,19 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E123" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4305,19 +4197,19 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4325,19 +4217,19 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4345,19 +4237,19 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4365,19 +4257,19 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" t="s">
         <v>19</v>
       </c>
-      <c r="D127" t="s">
-        <v>29</v>
-      </c>
-      <c r="E127" t="s">
-        <v>150</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4385,19 +4277,19 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E128" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4405,19 +4297,19 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E129" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4425,19 +4317,19 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4445,19 +4337,19 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4465,59 +4357,59 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E133" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E134" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4525,19 +4417,19 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E135" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4545,19 +4437,19 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E136" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4565,19 +4457,19 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4585,19 +4477,19 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E138" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4605,19 +4497,19 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E139" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4625,19 +4517,19 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4645,19 +4537,19 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E141" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4665,19 +4557,19 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4685,19 +4577,19 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4705,19 +4597,19 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4725,19 +4617,19 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4745,79 +4637,79 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E146" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E147" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E149" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4825,19 +4717,19 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E150" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4845,19 +4737,19 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E151" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4865,19 +4757,19 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E152" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4885,19 +4777,19 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E153" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4905,19 +4797,19 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E154" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4925,19 +4817,19 @@
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E155" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4945,19 +4837,19 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E156" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4965,19 +4857,19 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4985,19 +4877,19 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E158" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5005,19 +4897,19 @@
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5025,19 +4917,19 @@
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E160" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5045,19 +4937,19 @@
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E161" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>292</v>
+        <v>383</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5065,19 +4957,19 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E162" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5085,19 +4977,19 @@
         <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E163" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5105,19 +4997,19 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E164" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5125,19 +5017,19 @@
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C165" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5145,19 +5037,19 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E166" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5165,79 +5057,79 @@
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C169" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E169" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>297</v>
+        <v>391</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E170" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5245,19 +5137,19 @@
         <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E171" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5265,19 +5157,19 @@
         <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E172" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>407</v>
+        <v>284</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5285,19 +5177,19 @@
         <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D173" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E173" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5305,19 +5197,19 @@
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D174" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E174" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5325,19 +5217,19 @@
         <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C175" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D175" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E175" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>410</v>
+        <v>282</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5345,19 +5237,19 @@
         <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E176" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5365,19 +5257,19 @@
         <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D177" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E177" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5385,19 +5277,19 @@
         <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E178" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>295</v>
+        <v>398</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5405,19 +5297,19 @@
         <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D179" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E179" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5425,19 +5317,19 @@
         <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D180" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E180" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5445,19 +5337,19 @@
         <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D181" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E181" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5465,79 +5357,79 @@
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D182" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E182" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>415</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E183" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C184" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E184" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5545,19 +5437,19 @@
         <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E186" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5565,19 +5457,19 @@
         <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D187" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E187" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5585,19 +5477,19 @@
         <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E188" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5605,19 +5497,19 @@
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C189" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D189" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E189" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5625,19 +5517,19 @@
         <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C190" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D190" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E190" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5645,19 +5537,19 @@
         <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C191" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D191" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E191" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5665,19 +5557,19 @@
         <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E192" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5685,19 +5577,19 @@
         <v>12</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D193" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E193" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5705,19 +5597,19 @@
         <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C194" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E194" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5725,19 +5617,19 @@
         <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C195" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E195" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5745,19 +5637,19 @@
         <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C196" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E196" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5765,19 +5657,19 @@
         <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C197" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E197" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5785,79 +5677,79 @@
         <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D198" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E198" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C199" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E199" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D200" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E200" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C201" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E201" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5865,19 +5757,19 @@
         <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5885,19 +5777,19 @@
         <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D203" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E203" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5905,19 +5797,19 @@
         <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E204" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5925,19 +5817,19 @@
         <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D205" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E205" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5945,19 +5837,19 @@
         <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D206" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E206" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5965,19 +5857,19 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D207" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E207" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5985,19 +5877,19 @@
         <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C208" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E208" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6005,19 +5897,19 @@
         <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D209" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E209" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6025,19 +5917,19 @@
         <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C210" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D210" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E210" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6045,79 +5937,79 @@
         <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D211" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E211" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B212" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C212" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E212" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D213" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E213" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B214" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C214" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D214" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E214" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6125,19 +6017,19 @@
         <v>14</v>
       </c>
       <c r="B215" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E215" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6145,19 +6037,19 @@
         <v>14</v>
       </c>
       <c r="B216" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C216" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D216" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E216" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6165,19 +6057,19 @@
         <v>14</v>
       </c>
       <c r="B217" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D217" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E217" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6185,19 +6077,19 @@
         <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E218" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6205,19 +6097,19 @@
         <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D219" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E219" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>448</v>
+        <v>374</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6225,19 +6117,19 @@
         <v>14</v>
       </c>
       <c r="B220" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D220" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E220" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6245,19 +6137,19 @@
         <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D221" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6265,19 +6157,19 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D222" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E222" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6285,19 +6177,19 @@
         <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C223" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E223" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>451</v>
+        <v>380</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6305,19 +6197,19 @@
         <v>14</v>
       </c>
       <c r="B224" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D224" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E224" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6325,79 +6217,79 @@
         <v>14</v>
       </c>
       <c r="B225" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D225" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E225" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B226" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C226" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E226" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D227" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E227" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B228" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E228" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6405,19 +6297,19 @@
         <v>15</v>
       </c>
       <c r="B229" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C229" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" t="s">
         <v>26</v>
       </c>
-      <c r="D229" t="s">
-        <v>29</v>
-      </c>
       <c r="E229" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6425,19 +6317,19 @@
         <v>15</v>
       </c>
       <c r="B230" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6445,19 +6337,19 @@
         <v>15</v>
       </c>
       <c r="B231" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C231" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D231" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E231" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6465,19 +6357,19 @@
         <v>15</v>
       </c>
       <c r="B232" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C232" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D232" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E232" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6485,19 +6377,19 @@
         <v>15</v>
       </c>
       <c r="B233" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C233" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E233" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6505,19 +6397,19 @@
         <v>15</v>
       </c>
       <c r="B234" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D234" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E234" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6525,19 +6417,19 @@
         <v>15</v>
       </c>
       <c r="B235" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C235" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E235" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6545,19 +6437,19 @@
         <v>15</v>
       </c>
       <c r="B236" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C236" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E236" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6565,19 +6457,19 @@
         <v>15</v>
       </c>
       <c r="B237" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C237" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D237" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E237" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6585,470 +6477,79 @@
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C238" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E238" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B239" t="s">
         <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E239" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B240" t="s">
         <v>17</v>
       </c>
       <c r="C240" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E240" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B241" t="s">
         <v>17</v>
       </c>
       <c r="C241" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D241" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E241" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" t="s">
-        <v>16</v>
-      </c>
-      <c r="B242" t="s">
-        <v>17</v>
-      </c>
-      <c r="C242" t="s">
-        <v>27</v>
-      </c>
-      <c r="D242" t="s">
-        <v>29</v>
-      </c>
-      <c r="E242" t="s">
-        <v>262</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" t="s">
-        <v>16</v>
-      </c>
-      <c r="B243" t="s">
-        <v>17</v>
-      </c>
-      <c r="C243" t="s">
-        <v>27</v>
-      </c>
-      <c r="D243" t="s">
-        <v>29</v>
-      </c>
-      <c r="E243" t="s">
-        <v>263</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" t="s">
-        <v>16</v>
-      </c>
-      <c r="B244" t="s">
-        <v>17</v>
-      </c>
-      <c r="C244" t="s">
-        <v>27</v>
-      </c>
-      <c r="D244" t="s">
-        <v>29</v>
-      </c>
-      <c r="F244" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" t="s">
-        <v>16</v>
-      </c>
-      <c r="B245" t="s">
-        <v>17</v>
-      </c>
-      <c r="C245" t="s">
-        <v>27</v>
-      </c>
-      <c r="D245" t="s">
-        <v>29</v>
-      </c>
-      <c r="E245" t="s">
-        <v>264</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" t="s">
-        <v>16</v>
-      </c>
-      <c r="B246" t="s">
-        <v>17</v>
-      </c>
-      <c r="C246" t="s">
-        <v>27</v>
-      </c>
-      <c r="D246" t="s">
-        <v>29</v>
-      </c>
-      <c r="E246" t="s">
-        <v>265</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" t="s">
-        <v>16</v>
-      </c>
-      <c r="B247" t="s">
-        <v>17</v>
-      </c>
-      <c r="C247" t="s">
-        <v>27</v>
-      </c>
-      <c r="D247" t="s">
-        <v>29</v>
-      </c>
-      <c r="E247" t="s">
-        <v>266</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" t="s">
-        <v>16</v>
-      </c>
-      <c r="B248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C248" t="s">
-        <v>27</v>
-      </c>
-      <c r="D248" t="s">
-        <v>29</v>
-      </c>
-      <c r="E248" t="s">
-        <v>267</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" t="s">
-        <v>16</v>
-      </c>
-      <c r="B249" t="s">
-        <v>17</v>
-      </c>
-      <c r="C249" t="s">
-        <v>27</v>
-      </c>
-      <c r="D249" t="s">
-        <v>29</v>
-      </c>
-      <c r="E249" t="s">
-        <v>268</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" t="s">
-        <v>16</v>
-      </c>
-      <c r="B250" t="s">
-        <v>17</v>
-      </c>
-      <c r="C250" t="s">
-        <v>27</v>
-      </c>
-      <c r="D250" t="s">
-        <v>29</v>
-      </c>
-      <c r="E250" t="s">
-        <v>269</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" t="s">
-        <v>16</v>
-      </c>
-      <c r="B251" t="s">
-        <v>17</v>
-      </c>
-      <c r="C251" t="s">
-        <v>27</v>
-      </c>
-      <c r="D251" t="s">
-        <v>29</v>
-      </c>
-      <c r="E251" t="s">
-        <v>270</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" t="s">
-        <v>16</v>
-      </c>
-      <c r="B252" t="s">
-        <v>17</v>
-      </c>
-      <c r="C252" t="s">
-        <v>27</v>
-      </c>
-      <c r="D252" t="s">
-        <v>29</v>
-      </c>
-      <c r="F252" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253" t="s">
-        <v>16</v>
-      </c>
-      <c r="B253" t="s">
-        <v>17</v>
-      </c>
-      <c r="C253" t="s">
-        <v>27</v>
-      </c>
-      <c r="D253" t="s">
-        <v>29</v>
-      </c>
-      <c r="E253" t="s">
-        <v>271</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" t="s">
-        <v>16</v>
-      </c>
-      <c r="B254" t="s">
-        <v>17</v>
-      </c>
-      <c r="C254" t="s">
-        <v>27</v>
-      </c>
-      <c r="D254" t="s">
-        <v>29</v>
-      </c>
-      <c r="E254" t="s">
-        <v>272</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" t="s">
-        <v>16</v>
-      </c>
-      <c r="B255" t="s">
-        <v>17</v>
-      </c>
-      <c r="C255" t="s">
-        <v>27</v>
-      </c>
-      <c r="D255" t="s">
-        <v>29</v>
-      </c>
-      <c r="E255" t="s">
-        <v>273</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" t="s">
-        <v>16</v>
-      </c>
-      <c r="B256" t="s">
-        <v>17</v>
-      </c>
-      <c r="C256" t="s">
-        <v>27</v>
-      </c>
-      <c r="D256" t="s">
-        <v>29</v>
-      </c>
-      <c r="E256" t="s">
-        <v>274</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" t="s">
-        <v>16</v>
-      </c>
-      <c r="B257" t="s">
-        <v>17</v>
-      </c>
-      <c r="C257" t="s">
-        <v>27</v>
-      </c>
-      <c r="D257" t="s">
-        <v>29</v>
-      </c>
-      <c r="E257" t="s">
-        <v>275</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" t="s">
-        <v>16</v>
-      </c>
-      <c r="B258" t="s">
-        <v>17</v>
-      </c>
-      <c r="C258" t="s">
-        <v>27</v>
-      </c>
-      <c r="D258" t="s">
-        <v>29</v>
-      </c>
-      <c r="E258" t="s">
-        <v>276</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" t="s">
-        <v>16</v>
-      </c>
-      <c r="B259" t="s">
-        <v>17</v>
-      </c>
-      <c r="C259" t="s">
-        <v>27</v>
-      </c>
-      <c r="D259" t="s">
-        <v>29</v>
-      </c>
-      <c r="F259" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260" t="s">
-        <v>16</v>
-      </c>
-      <c r="B260" t="s">
-        <v>17</v>
-      </c>
-      <c r="C260" t="s">
-        <v>27</v>
-      </c>
-      <c r="D260" t="s">
-        <v>29</v>
-      </c>
-      <c r="E260" t="s">
-        <v>277</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261" t="s">
-        <v>16</v>
-      </c>
-      <c r="B261" t="s">
-        <v>17</v>
-      </c>
-      <c r="C261" t="s">
-        <v>27</v>
-      </c>
-      <c r="D261" t="s">
-        <v>29</v>
-      </c>
-      <c r="E261" t="s">
-        <v>278</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -7076,9 +6577,9 @@
     <hyperlink ref="F22" r:id="rId21"/>
     <hyperlink ref="F23" r:id="rId22"/>
     <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24" location="/sina/single/1n5879713834?parentType=column&amp;parentId=a0e7a911df0a42bca9e4d8c70cf6967e"/>
-    <hyperlink ref="F26" r:id="rId25" location="/sina/single/l348j214j862?parentType=column&amp;parentId=6273e22402aa4630a1277ebfa2991b69"/>
-    <hyperlink ref="F27" r:id="rId26" location="/sina/single/23mk2nj92k9j?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25" location="/sina/single/1n58719m3834?parentType=column&amp;parentId=f5443bd63a8b4e858b9225ffa008a6c6"/>
+    <hyperlink ref="F27" r:id="rId26"/>
     <hyperlink ref="F28" r:id="rId27"/>
     <hyperlink ref="F29" r:id="rId28"/>
     <hyperlink ref="F30" r:id="rId29"/>
@@ -7147,15 +6648,15 @@
     <hyperlink ref="F93" r:id="rId92"/>
     <hyperlink ref="F94" r:id="rId93"/>
     <hyperlink ref="F95" r:id="rId94"/>
-    <hyperlink ref="F96" r:id="rId95" location="/sina/brief/column/757bacbe813249689ab15c319e8baea4"/>
-    <hyperlink ref="F97" r:id="rId96" location="/sina/single/5lm832ljnk96?parentType=column&amp;parentId=757bacbe813249689ab15c319e8baea4"/>
-    <hyperlink ref="F98" r:id="rId97" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F99" r:id="rId98" location="/sina/single/l348j2553862?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F100" r:id="rId99" location="/sina/brief/column/ffea76e99fbd4caf936b258faabc8d8e"/>
-    <hyperlink ref="F101" r:id="rId100" location="/sina/single/23mk2n411k9j?parentType=column&amp;parentId=6273e22402aa4630a1277ebfa2991b69"/>
-    <hyperlink ref="F102" r:id="rId101"/>
-    <hyperlink ref="F103" r:id="rId102"/>
-    <hyperlink ref="F104" r:id="rId103"/>
+    <hyperlink ref="F96" r:id="rId95"/>
+    <hyperlink ref="F97" r:id="rId96"/>
+    <hyperlink ref="F98" r:id="rId97"/>
+    <hyperlink ref="F99" r:id="rId98"/>
+    <hyperlink ref="F100" r:id="rId99"/>
+    <hyperlink ref="F101" r:id="rId100" location="/sina/brief/column/757bacbe813249689ab15c319e8baea4"/>
+    <hyperlink ref="F102" r:id="rId101" location="/sina/single/1n5871913834?parentType=column&amp;parentId=757bacbe813249689ab15c319e8baea4%20%20"/>
+    <hyperlink ref="F103" r:id="rId102" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F104" r:id="rId103" location="/sina/single/7lnk6l331kj2?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
     <hyperlink ref="F105" r:id="rId104"/>
     <hyperlink ref="F106" r:id="rId105"/>
     <hyperlink ref="F107" r:id="rId106"/>
@@ -7164,151 +6665,135 @@
     <hyperlink ref="F110" r:id="rId109"/>
     <hyperlink ref="F111" r:id="rId110"/>
     <hyperlink ref="F112" r:id="rId111"/>
-    <hyperlink ref="F114" r:id="rId112"/>
-    <hyperlink ref="F115" r:id="rId113"/>
-    <hyperlink ref="F116" r:id="rId114"/>
-    <hyperlink ref="F117" r:id="rId115"/>
-    <hyperlink ref="F118" r:id="rId116"/>
-    <hyperlink ref="F119" r:id="rId117"/>
-    <hyperlink ref="F120" r:id="rId118"/>
-    <hyperlink ref="F121" r:id="rId119"/>
-    <hyperlink ref="F122" r:id="rId120"/>
-    <hyperlink ref="F123" r:id="rId121" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F124" r:id="rId122" location="/sina/single/l25km67668n1?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F125" r:id="rId123"/>
-    <hyperlink ref="F126" r:id="rId124"/>
-    <hyperlink ref="F127" r:id="rId125"/>
-    <hyperlink ref="F128" r:id="rId126"/>
-    <hyperlink ref="F129" r:id="rId127"/>
-    <hyperlink ref="F130" r:id="rId128"/>
-    <hyperlink ref="F131" r:id="rId129"/>
-    <hyperlink ref="F132" r:id="rId130"/>
-    <hyperlink ref="F133" r:id="rId131"/>
-    <hyperlink ref="F134" r:id="rId132"/>
-    <hyperlink ref="F135" r:id="rId133"/>
-    <hyperlink ref="F136" r:id="rId134"/>
-    <hyperlink ref="F137" r:id="rId135"/>
-    <hyperlink ref="F138" r:id="rId136"/>
-    <hyperlink ref="F139" r:id="rId137"/>
-    <hyperlink ref="F140" r:id="rId138"/>
-    <hyperlink ref="F141" r:id="rId139"/>
-    <hyperlink ref="F142" r:id="rId140"/>
-    <hyperlink ref="F143" r:id="rId141"/>
-    <hyperlink ref="F144" r:id="rId142"/>
-    <hyperlink ref="F145" r:id="rId143"/>
-    <hyperlink ref="F146" r:id="rId144"/>
-    <hyperlink ref="F147" r:id="rId145"/>
-    <hyperlink ref="F148" r:id="rId146"/>
-    <hyperlink ref="F149" r:id="rId147"/>
-    <hyperlink ref="F150" r:id="rId148"/>
-    <hyperlink ref="F151" r:id="rId149"/>
-    <hyperlink ref="F152" r:id="rId150"/>
-    <hyperlink ref="F153" r:id="rId151"/>
-    <hyperlink ref="F154" r:id="rId152"/>
-    <hyperlink ref="F155" r:id="rId153"/>
-    <hyperlink ref="F156" r:id="rId154"/>
-    <hyperlink ref="F157" r:id="rId155"/>
-    <hyperlink ref="F158" r:id="rId156"/>
-    <hyperlink ref="F159" r:id="rId157"/>
-    <hyperlink ref="F160" r:id="rId158"/>
-    <hyperlink ref="F161" r:id="rId159"/>
-    <hyperlink ref="F162" r:id="rId160"/>
-    <hyperlink ref="F163" r:id="rId161"/>
-    <hyperlink ref="F164" r:id="rId162"/>
-    <hyperlink ref="F165" r:id="rId163"/>
-    <hyperlink ref="F166" r:id="rId164"/>
-    <hyperlink ref="F167" r:id="rId165"/>
-    <hyperlink ref="F168" r:id="rId166"/>
-    <hyperlink ref="F169" r:id="rId167"/>
-    <hyperlink ref="F170" r:id="rId168"/>
-    <hyperlink ref="F171" r:id="rId169"/>
-    <hyperlink ref="F172" r:id="rId170"/>
-    <hyperlink ref="F173" r:id="rId171"/>
-    <hyperlink ref="F174" r:id="rId172"/>
-    <hyperlink ref="F175" r:id="rId173" location="/index"/>
-    <hyperlink ref="F176" r:id="rId174"/>
-    <hyperlink ref="F177" r:id="rId175"/>
-    <hyperlink ref="F178" r:id="rId176"/>
-    <hyperlink ref="F179" r:id="rId177"/>
-    <hyperlink ref="F180" r:id="rId178"/>
-    <hyperlink ref="F181" r:id="rId179"/>
-    <hyperlink ref="F182" r:id="rId180"/>
-    <hyperlink ref="F183" r:id="rId181"/>
-    <hyperlink ref="F184" r:id="rId182"/>
-    <hyperlink ref="F185" r:id="rId183"/>
-    <hyperlink ref="F186" r:id="rId184"/>
-    <hyperlink ref="F187" r:id="rId185"/>
-    <hyperlink ref="F188" r:id="rId186"/>
-    <hyperlink ref="F189" r:id="rId187"/>
-    <hyperlink ref="F190" r:id="rId188"/>
-    <hyperlink ref="F191" r:id="rId189"/>
-    <hyperlink ref="F192" r:id="rId190"/>
-    <hyperlink ref="F193" r:id="rId191"/>
-    <hyperlink ref="F194" r:id="rId192"/>
-    <hyperlink ref="F195" r:id="rId193"/>
-    <hyperlink ref="F196" r:id="rId194"/>
-    <hyperlink ref="F197" r:id="rId195"/>
-    <hyperlink ref="F198" r:id="rId196"/>
-    <hyperlink ref="F199" r:id="rId197"/>
-    <hyperlink ref="F200" r:id="rId198"/>
-    <hyperlink ref="F201" r:id="rId199"/>
-    <hyperlink ref="F202" r:id="rId200" location="0"/>
-    <hyperlink ref="F203" r:id="rId201" location="0"/>
-    <hyperlink ref="F204" r:id="rId202"/>
-    <hyperlink ref="F205" r:id="rId203"/>
-    <hyperlink ref="F206" r:id="rId204"/>
-    <hyperlink ref="F207" r:id="rId205"/>
-    <hyperlink ref="F208" r:id="rId206"/>
-    <hyperlink ref="F209" r:id="rId207"/>
-    <hyperlink ref="F210" r:id="rId208"/>
-    <hyperlink ref="F211" r:id="rId209"/>
-    <hyperlink ref="F212" r:id="rId210"/>
-    <hyperlink ref="F213" r:id="rId211"/>
-    <hyperlink ref="F214" r:id="rId212"/>
-    <hyperlink ref="F215" r:id="rId213"/>
-    <hyperlink ref="F216" r:id="rId214"/>
-    <hyperlink ref="F217" r:id="rId215"/>
-    <hyperlink ref="F218" r:id="rId216"/>
-    <hyperlink ref="F219" r:id="rId217"/>
-    <hyperlink ref="F220" r:id="rId218"/>
-    <hyperlink ref="F221" r:id="rId219"/>
-    <hyperlink ref="F222" r:id="rId220"/>
-    <hyperlink ref="F223" r:id="rId221"/>
-    <hyperlink ref="F224" r:id="rId222"/>
-    <hyperlink ref="F225" r:id="rId223"/>
-    <hyperlink ref="F226" r:id="rId224"/>
-    <hyperlink ref="F227" r:id="rId225"/>
-    <hyperlink ref="F228" r:id="rId226"/>
-    <hyperlink ref="F229" r:id="rId227"/>
-    <hyperlink ref="F230" r:id="rId228"/>
-    <hyperlink ref="F231" r:id="rId229"/>
-    <hyperlink ref="F232" r:id="rId230"/>
-    <hyperlink ref="F233" r:id="rId231"/>
-    <hyperlink ref="F234" r:id="rId232"/>
-    <hyperlink ref="F235" r:id="rId233"/>
-    <hyperlink ref="F236" r:id="rId234"/>
-    <hyperlink ref="F237" r:id="rId235"/>
-    <hyperlink ref="F238" r:id="rId236"/>
-    <hyperlink ref="F239" r:id="rId237"/>
-    <hyperlink ref="F240" r:id="rId238"/>
-    <hyperlink ref="F241" r:id="rId239"/>
-    <hyperlink ref="F242" r:id="rId240"/>
-    <hyperlink ref="F243" r:id="rId241"/>
-    <hyperlink ref="F245" r:id="rId242"/>
-    <hyperlink ref="F246" r:id="rId243"/>
-    <hyperlink ref="F247" r:id="rId244"/>
-    <hyperlink ref="F248" r:id="rId245"/>
-    <hyperlink ref="F249" r:id="rId246"/>
-    <hyperlink ref="F250" r:id="rId247"/>
-    <hyperlink ref="F251" r:id="rId248"/>
-    <hyperlink ref="F253" r:id="rId249"/>
-    <hyperlink ref="F254" r:id="rId250"/>
-    <hyperlink ref="F255" r:id="rId251"/>
-    <hyperlink ref="F256" r:id="rId252"/>
-    <hyperlink ref="F257" r:id="rId253"/>
-    <hyperlink ref="F258" r:id="rId254"/>
-    <hyperlink ref="F260" r:id="rId255"/>
-    <hyperlink ref="F261" r:id="rId256"/>
+    <hyperlink ref="F113" r:id="rId112"/>
+    <hyperlink ref="F114" r:id="rId113"/>
+    <hyperlink ref="F115" r:id="rId114"/>
+    <hyperlink ref="F116" r:id="rId115"/>
+    <hyperlink ref="F117" r:id="rId116"/>
+    <hyperlink ref="F118" r:id="rId117"/>
+    <hyperlink ref="F119" r:id="rId118"/>
+    <hyperlink ref="F120" r:id="rId119"/>
+    <hyperlink ref="F121" r:id="rId120"/>
+    <hyperlink ref="F122" r:id="rId121"/>
+    <hyperlink ref="F123" r:id="rId122"/>
+    <hyperlink ref="F124" r:id="rId123"/>
+    <hyperlink ref="F125" r:id="rId124" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F126" r:id="rId125" location="/sina/single/24j842571851?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F127" r:id="rId126"/>
+    <hyperlink ref="F128" r:id="rId127"/>
+    <hyperlink ref="F129" r:id="rId128"/>
+    <hyperlink ref="F130" r:id="rId129"/>
+    <hyperlink ref="F131" r:id="rId130"/>
+    <hyperlink ref="F132" r:id="rId131"/>
+    <hyperlink ref="F133" r:id="rId132"/>
+    <hyperlink ref="F134" r:id="rId133"/>
+    <hyperlink ref="F135" r:id="rId134"/>
+    <hyperlink ref="F136" r:id="rId135"/>
+    <hyperlink ref="F137" r:id="rId136"/>
+    <hyperlink ref="F138" r:id="rId137"/>
+    <hyperlink ref="F139" r:id="rId138"/>
+    <hyperlink ref="F140" r:id="rId139"/>
+    <hyperlink ref="F141" r:id="rId140"/>
+    <hyperlink ref="F142" r:id="rId141"/>
+    <hyperlink ref="F143" r:id="rId142"/>
+    <hyperlink ref="F144" r:id="rId143"/>
+    <hyperlink ref="F145" r:id="rId144"/>
+    <hyperlink ref="F146" r:id="rId145"/>
+    <hyperlink ref="F147" r:id="rId146"/>
+    <hyperlink ref="F148" r:id="rId147"/>
+    <hyperlink ref="F149" r:id="rId148"/>
+    <hyperlink ref="F150" r:id="rId149"/>
+    <hyperlink ref="F151" r:id="rId150"/>
+    <hyperlink ref="F152" r:id="rId151"/>
+    <hyperlink ref="F153" r:id="rId152"/>
+    <hyperlink ref="F154" r:id="rId153"/>
+    <hyperlink ref="F155" r:id="rId154"/>
+    <hyperlink ref="F156" r:id="rId155"/>
+    <hyperlink ref="F157" r:id="rId156"/>
+    <hyperlink ref="F158" r:id="rId157"/>
+    <hyperlink ref="F159" r:id="rId158"/>
+    <hyperlink ref="F160" r:id="rId159"/>
+    <hyperlink ref="F161" r:id="rId160"/>
+    <hyperlink ref="F162" r:id="rId161"/>
+    <hyperlink ref="F163" r:id="rId162"/>
+    <hyperlink ref="F164" r:id="rId163"/>
+    <hyperlink ref="F165" r:id="rId164"/>
+    <hyperlink ref="F166" r:id="rId165"/>
+    <hyperlink ref="F167" r:id="rId166"/>
+    <hyperlink ref="F168" r:id="rId167"/>
+    <hyperlink ref="F169" r:id="rId168"/>
+    <hyperlink ref="F170" r:id="rId169"/>
+    <hyperlink ref="F171" r:id="rId170"/>
+    <hyperlink ref="F172" r:id="rId171"/>
+    <hyperlink ref="F173" r:id="rId172"/>
+    <hyperlink ref="F174" r:id="rId173"/>
+    <hyperlink ref="F175" r:id="rId174"/>
+    <hyperlink ref="F176" r:id="rId175"/>
+    <hyperlink ref="F177" r:id="rId176"/>
+    <hyperlink ref="F178" r:id="rId177"/>
+    <hyperlink ref="F179" r:id="rId178"/>
+    <hyperlink ref="F180" r:id="rId179"/>
+    <hyperlink ref="F181" r:id="rId180"/>
+    <hyperlink ref="F182" r:id="rId181"/>
+    <hyperlink ref="F183" r:id="rId182"/>
+    <hyperlink ref="F184" r:id="rId183"/>
+    <hyperlink ref="F185" r:id="rId184"/>
+    <hyperlink ref="F186" r:id="rId185"/>
+    <hyperlink ref="F187" r:id="rId186"/>
+    <hyperlink ref="F188" r:id="rId187"/>
+    <hyperlink ref="F189" r:id="rId188"/>
+    <hyperlink ref="F190" r:id="rId189"/>
+    <hyperlink ref="F191" r:id="rId190"/>
+    <hyperlink ref="F192" r:id="rId191"/>
+    <hyperlink ref="F193" r:id="rId192"/>
+    <hyperlink ref="F194" r:id="rId193"/>
+    <hyperlink ref="F195" r:id="rId194"/>
+    <hyperlink ref="F196" r:id="rId195"/>
+    <hyperlink ref="F197" r:id="rId196"/>
+    <hyperlink ref="F198" r:id="rId197"/>
+    <hyperlink ref="F199" r:id="rId198"/>
+    <hyperlink ref="F200" r:id="rId199"/>
+    <hyperlink ref="F201" r:id="rId200"/>
+    <hyperlink ref="F202" r:id="rId201"/>
+    <hyperlink ref="F203" r:id="rId202"/>
+    <hyperlink ref="F204" r:id="rId203"/>
+    <hyperlink ref="F205" r:id="rId204" location="0"/>
+    <hyperlink ref="F206" r:id="rId205" location="0"/>
+    <hyperlink ref="F207" r:id="rId206"/>
+    <hyperlink ref="F208" r:id="rId207"/>
+    <hyperlink ref="F209" r:id="rId208"/>
+    <hyperlink ref="F210" r:id="rId209"/>
+    <hyperlink ref="F211" r:id="rId210"/>
+    <hyperlink ref="F212" r:id="rId211"/>
+    <hyperlink ref="F213" r:id="rId212"/>
+    <hyperlink ref="F214" r:id="rId213"/>
+    <hyperlink ref="F215" r:id="rId214"/>
+    <hyperlink ref="F216" r:id="rId215"/>
+    <hyperlink ref="F217" r:id="rId216"/>
+    <hyperlink ref="F218" r:id="rId217"/>
+    <hyperlink ref="F219" r:id="rId218"/>
+    <hyperlink ref="F220" r:id="rId219"/>
+    <hyperlink ref="F221" r:id="rId220"/>
+    <hyperlink ref="F222" r:id="rId221"/>
+    <hyperlink ref="F223" r:id="rId222"/>
+    <hyperlink ref="F224" r:id="rId223"/>
+    <hyperlink ref="F225" r:id="rId224"/>
+    <hyperlink ref="F226" r:id="rId225"/>
+    <hyperlink ref="F227" r:id="rId226"/>
+    <hyperlink ref="F228" r:id="rId227"/>
+    <hyperlink ref="F229" r:id="rId228"/>
+    <hyperlink ref="F230" r:id="rId229"/>
+    <hyperlink ref="F231" r:id="rId230"/>
+    <hyperlink ref="F232" r:id="rId231"/>
+    <hyperlink ref="F233" r:id="rId232"/>
+    <hyperlink ref="F234" r:id="rId233"/>
+    <hyperlink ref="F235" r:id="rId234"/>
+    <hyperlink ref="F236" r:id="rId235"/>
+    <hyperlink ref="F237" r:id="rId236"/>
+    <hyperlink ref="F238" r:id="rId237"/>
+    <hyperlink ref="F239" r:id="rId238"/>
+    <hyperlink ref="F240" r:id="rId239"/>
+    <hyperlink ref="F241" r:id="rId240"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/news.xlsx
+++ b/web/news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="453">
   <si>
     <t>来源</t>
   </si>
@@ -100,317 +100,301 @@
     <t>消息</t>
   </si>
   <si>
-    <t>天舟二号与天和核心舱对接</t>
-  </si>
-  <si>
-    <t>今天，让我们再次致敬……</t>
-  </si>
-  <si>
-    <t>我国每年因吸烟死亡人数超100万</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广州此轮疫情溯源结果公布 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">北大教授吐槽“学渣”女儿！网友：人间真实…… </t>
-  </si>
-  <si>
-    <t>人民币汇率现急涨行情</t>
-  </si>
-  <si>
-    <t>四因素不能忽视</t>
-  </si>
-  <si>
-    <t>盛松成:人民币快速升值不可持续</t>
-  </si>
-  <si>
-    <t>人民币升值 哪些行业或将受益</t>
-  </si>
-  <si>
-    <t>不能对冲个别大宗商品大涨</t>
-  </si>
-  <si>
-    <t>明明:人民币对美元汇率很可能到6.2</t>
-  </si>
-  <si>
-    <t>热点城市调控</t>
-  </si>
-  <si>
-    <t>发布二手房成交参考价</t>
-  </si>
-  <si>
-    <t>深圳成都稳楼市预期</t>
-  </si>
-  <si>
-    <t>多地上调房贷利率 全国楼市"加息潮"来了?</t>
-  </si>
-  <si>
-    <t>一线城市围堵炒房资金</t>
-  </si>
-  <si>
-    <t>中国住房市值报告：在国际处于什么水平</t>
-  </si>
-  <si>
-    <t>券商:人民币升值助力牛市重建</t>
-  </si>
-  <si>
-    <t>受益行业</t>
-  </si>
-  <si>
-    <t>最早喊挑战四千点机构有新观点</t>
-  </si>
-  <si>
-    <t>机构盯一板块</t>
-  </si>
-  <si>
-    <t>公募调仓瞄五行业</t>
+    <t>朱婷、赵帅担任中国代表团奥运会开幕式旗手</t>
+  </si>
+  <si>
+    <t>中央气象台继续发布暴雨黄色预警</t>
+  </si>
+  <si>
+    <t>云南省新增本土新冠肺炎确诊病例1例</t>
+  </si>
+  <si>
+    <t>事故车后备厢惊现金钱豹 官方回应：正在调查</t>
+  </si>
+  <si>
+    <t>数字人民币试点场景超一百三十二万个 累计交易七千万余笔</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OPEC+同意增产石油结束僵持局面</t>
+  </si>
+  <si>
+    <t>8月起增产40万桶/日 计划明年9月前全面取消减产</t>
+  </si>
+  <si>
+    <t>或推油价上行</t>
+  </si>
+  <si>
+    <t>需求回升仍旧需要时间</t>
+  </si>
+  <si>
+    <t>沙特与阿联酋相争 俄罗斯、伊拉克获利?</t>
+  </si>
+  <si>
+    <t>上海市场监管部门约谈华莱士总部</t>
+  </si>
+  <si>
+    <t>突击检查拟立案处罚3家华莱士门店</t>
+  </si>
+  <si>
+    <t>少数门店从业人员未取健康证</t>
+  </si>
+  <si>
+    <t>和府捞面华莱士连道歉 餐企管理漏洞待补</t>
+  </si>
+  <si>
+    <t>#华莱士被约谈#上热搜</t>
+  </si>
+  <si>
+    <t>沪指企稳回升</t>
+  </si>
+  <si>
+    <t>周期股热度不减 布局攻略</t>
+  </si>
+  <si>
+    <t>外资买入13亿</t>
+  </si>
+  <si>
+    <t>十大券商:短期不追高 震荡再布局</t>
+  </si>
+  <si>
+    <t>芯片产能大爆发</t>
   </si>
   <si>
     <t>直播</t>
   </si>
   <si>
-    <t>货币政策对市场的影响</t>
-  </si>
-  <si>
-    <t>10股能翻涨一倍</t>
-  </si>
-  <si>
-    <t>电子行业策略</t>
+    <t>省心投基新选择</t>
+  </si>
+  <si>
+    <t>国潮崛起!</t>
+  </si>
+  <si>
+    <t>"犇"牛之路</t>
+  </si>
+  <si>
+    <t>当下那些风口</t>
   </si>
   <si>
     <t>秘籍</t>
   </si>
   <si>
-    <t>做多窗口继续</t>
-  </si>
-  <si>
-    <t>人民币汇率急涨</t>
-  </si>
-  <si>
-    <t>首批公募REITs开售</t>
-  </si>
-  <si>
-    <t>深化市场改革</t>
+    <t>沪指跌0.4%</t>
+  </si>
+  <si>
+    <t>蓝筹股落入"价值陷阱" ？</t>
+  </si>
+  <si>
+    <t>1694家公司发上半年业绩预告 近7成报喜</t>
   </si>
   <si>
     <t>大盘</t>
   </si>
   <si>
-    <t>大盘看涨</t>
-  </si>
-  <si>
-    <t>存量博弈转向增量行情</t>
-  </si>
-  <si>
-    <t>汇率是关键变量</t>
-  </si>
-  <si>
-    <t>必读</t>
-  </si>
-  <si>
-    <t>报刊头条</t>
-  </si>
-  <si>
-    <t>交易提示</t>
-  </si>
-  <si>
-    <t>操盘必读</t>
-  </si>
-  <si>
-    <t>股海导航</t>
-  </si>
-  <si>
-    <t>财经早报</t>
-  </si>
-  <si>
-    <t>主力</t>
-  </si>
-  <si>
-    <t>北向净买破纪录</t>
-  </si>
-  <si>
-    <t>未来3~5年1万亿外资流入</t>
-  </si>
-  <si>
-    <t>龙虎榜</t>
+    <t>反抽之后下蹲蓄势</t>
+  </si>
+  <si>
+    <t>重心再次下坠</t>
+  </si>
+  <si>
+    <t>午后大盘如何走</t>
+  </si>
+  <si>
+    <t>板块</t>
+  </si>
+  <si>
+    <t>网络安全板块冲高</t>
+  </si>
+  <si>
+    <t>石油板块下挫</t>
+  </si>
+  <si>
+    <t>农业股午后异动</t>
+  </si>
+  <si>
+    <t>个股</t>
+  </si>
+  <si>
+    <t>片仔癀再创新高</t>
+  </si>
+  <si>
+    <t>吉祥航空午后走强</t>
+  </si>
+  <si>
+    <t>广晟有色涨停</t>
   </si>
   <si>
     <t>观点</t>
   </si>
   <si>
-    <t>银河:建党百年行情可期</t>
-  </si>
-  <si>
-    <t>东吴:核心资产散是满天星</t>
+    <t>徐荔蓉:重点关注超预期盈利</t>
+  </si>
+  <si>
+    <t>郑眼:后市取折中策略</t>
   </si>
   <si>
     <t>博客</t>
   </si>
   <si>
-    <t>加速反弹条件已具</t>
-  </si>
-  <si>
-    <t>顶部须逃命</t>
-  </si>
-  <si>
-    <t>短期回撤中期上行</t>
+    <t>调整需求仍需释放</t>
+  </si>
+  <si>
+    <t>消息面压制情绪</t>
+  </si>
+  <si>
+    <t>回调空间有限</t>
   </si>
   <si>
     <t>研报</t>
   </si>
   <si>
-    <t xml:space="preserve">招商:产业园公募REITS分析
-</t>
-  </si>
-  <si>
-    <t>中泰:周期品运行变化</t>
+    <t>长江:关注基建新赛道标的</t>
+  </si>
+  <si>
+    <t>民生:国产3DNAND崛起</t>
   </si>
   <si>
     <t>策略</t>
   </si>
   <si>
-    <t>中信:北向资金周解析</t>
-  </si>
-  <si>
-    <t>商品价回落 制造价值回升</t>
+    <t>科技之外 哪些方向值得关注</t>
+  </si>
+  <si>
+    <t>三季度或仍存在机会</t>
   </si>
   <si>
     <t>解读</t>
   </si>
   <si>
-    <t>银河:黑色系产品价格上行</t>
-  </si>
-  <si>
-    <t>深圳成都稳定楼市</t>
-  </si>
-  <si>
-    <t>中阳反弹 只欠东风</t>
-  </si>
-  <si>
-    <t>短期注意关注这几类品种机会</t>
-  </si>
-  <si>
-    <t>这个顶部必须要逃命</t>
-  </si>
-  <si>
-    <t>3731点运行到现在的一些感悟和经验之谈</t>
-  </si>
-  <si>
-    <t>5月31日利好及其影响个股</t>
-  </si>
-  <si>
-    <t>5.31浪子炒股日记</t>
-  </si>
-  <si>
-    <t>继续坚定看好6月份行情</t>
-  </si>
-  <si>
-    <t>依然是分化和轮动</t>
-  </si>
-  <si>
-    <t>首批公募REITs开始认购</t>
-  </si>
-  <si>
-    <t>都是资金面大利好 本周会有大冲锋</t>
-  </si>
-  <si>
-    <t>大盘已具备加速反弹的条件</t>
-  </si>
-  <si>
-    <t>短期需回撤中期将上行</t>
-  </si>
-  <si>
-    <t>要剑指4000了 本周出暴涨并不稀奇</t>
-  </si>
-  <si>
-    <t>五月收官 机会看这里</t>
-  </si>
-  <si>
-    <t>打破五穷魔咒六月大盘稳了吗</t>
-  </si>
-  <si>
-    <t>白酒医疗钢铁等五大主题基金的应对之策</t>
-  </si>
-  <si>
-    <t>收官战如何演绎</t>
-  </si>
-  <si>
-    <t>5.31早间要闻评论</t>
-  </si>
-  <si>
-    <t>5月31日重点关注的板块及个股</t>
-  </si>
-  <si>
-    <t>周一早间市场信息</t>
-  </si>
-  <si>
-    <t>春季行情之尾声？</t>
-  </si>
-  <si>
-    <t>四消息影响大盘</t>
-  </si>
-  <si>
-    <t>证监会副主席李超:落实“九字方针”</t>
-  </si>
-  <si>
-    <t>退市新规威力彰显</t>
-  </si>
-  <si>
-    <t>银保监会梁涛:防范热钱大进出</t>
-  </si>
-  <si>
-    <t>29家券商入选“白名单”</t>
-  </si>
-  <si>
-    <t>时隔3个月再现爆款权益基金 “10倍基”大卖近400亿元</t>
-  </si>
-  <si>
-    <t>散户又胜：华尔街空头爆亏509亿 多只锂电龙头获调研</t>
+    <t>猪肉价格未来怎么走</t>
+  </si>
+  <si>
+    <t>锂电股重挫 500亿大牛股闪崩</t>
+  </si>
+  <si>
+    <t>市场没有大跌基础</t>
+  </si>
+  <si>
+    <t>为什么五大区域看似横而不崩</t>
+  </si>
+  <si>
+    <t>市场出现转机 午后有望反弹</t>
+  </si>
+  <si>
+    <t>空头命门暴露 看到一迹象直接做主升</t>
+  </si>
+  <si>
+    <t>下半年房地产市场将不会有热点产品</t>
+  </si>
+  <si>
+    <t>继钢铁，煤炭等大幅涨价 发改委出手</t>
+  </si>
+  <si>
+    <t>大盘见底回升 下午重点看有色资源和半导体</t>
+  </si>
+  <si>
+    <t>大盘涨跌不一 消息面压制汽车产业链情绪</t>
+  </si>
+  <si>
+    <t>指数回调空间有限 震荡市场甄选个股</t>
+  </si>
+  <si>
+    <t>趋势仍在坚守</t>
+  </si>
+  <si>
+    <t>反抽之后还会下蹲蓄势</t>
+  </si>
+  <si>
+    <t>科创50破位 顺周期走强</t>
+  </si>
+  <si>
+    <t>A股放量不涨谨防指数重心再次下坠</t>
+  </si>
+  <si>
+    <t>短期或迎来震荡调整</t>
+  </si>
+  <si>
+    <t>注意交易多空分水岭</t>
+  </si>
+  <si>
+    <t>反包频现为诱饵大盘上难下易</t>
+  </si>
+  <si>
+    <t>大量股票在诱空 今天3种钱不能丢</t>
+  </si>
+  <si>
+    <t>大盘拉锯战开始 本周或有方向选择</t>
+  </si>
+  <si>
+    <t>巨头辟谣 华为迎来利好（附策略）</t>
+  </si>
+  <si>
+    <t>潜力股浮出水面</t>
+  </si>
+  <si>
+    <t>重点看有色资源</t>
+  </si>
+  <si>
+    <t>华创:啤酒提价或是下半年最大催化剂 重申推荐板块(股)</t>
+  </si>
+  <si>
+    <t>长城汽车、奇瑞汽车两款电动车召回 宁德：不是我的锅</t>
+  </si>
+  <si>
+    <t>辉丰股份证券纠纷一审宣判 224名投资者获赔8719.92万</t>
+  </si>
+  <si>
+    <t>1500亿牛股康龙化成闪崩14% 400家机构紧急组团调研</t>
   </si>
   <si>
     <t>行业</t>
   </si>
   <si>
-    <t>多地上调房贷利率 全国楼市“加息潮”真的来了？</t>
-  </si>
-  <si>
-    <t>人民币升值影响整体偏正面 不必担忧</t>
-  </si>
-  <si>
-    <t>哪些行业将受益？</t>
-  </si>
-  <si>
-    <t>教育巨头纷纷转向职业教育 哪些细分领域最受资本青睐</t>
-  </si>
-  <si>
-    <t>义乌快递价格战缩影：黄牛1000万快递单爆仓 圆通拖垮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蠢蠢欲动的福利：如何“搞钱”？这些大佬教你|报名 </t>
-  </si>
-  <si>
-    <t>王牌投研|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">估值近十年低位，稀缺标的开启扩张新征程 </t>
+    <t>锂概念高光背后:原材料价格大涨倒逼中游向上并购</t>
+  </si>
+  <si>
+    <t>1.6万辆新能源车召回 “电池茅”被错杀？涉事各方回应</t>
+  </si>
+  <si>
+    <t>大型项目接连开工 储能行业进入发展快车道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上市首日涨524% 到底是谁的狂欢？IPO市盈率高度分化 </t>
+  </si>
+  <si>
+    <t>碳交易市场启动如何布局？</t>
+  </si>
+  <si>
+    <t>军工是一日游还是大行情？</t>
+  </si>
+  <si>
+    <t>机构调研|</t>
+  </si>
+  <si>
+    <t>军工基本面投资时代 短中长期“三确认”思维</t>
   </si>
   <si>
     <t>硬核研报|</t>
   </si>
   <si>
-    <t>“至暗时刻”已过！军工板块预期差正在逆转</t>
-  </si>
-  <si>
-    <t>5年来最容易中签的新股就在今天</t>
-  </si>
-  <si>
-    <t>顶格申购或中20多签</t>
-  </si>
-  <si>
-    <t>王兴的无限战争:美团的烧钱无底洞 一季度亏损48.4亿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">让你蠢蠢欲动的福利：如何搞钱？这些大佬教你 </t>
+    <t>铜资源景气期，这些有色巨头利润弹性巨大</t>
+  </si>
+  <si>
+    <t>今年以来140家IPO企业撤单 这4家小券商撤回率达100%</t>
+  </si>
+  <si>
+    <t>金牌董秘入围名单</t>
+  </si>
+  <si>
+    <t>新纪录：新股读客文化首日暴涨18倍</t>
+  </si>
+  <si>
+    <t>锂价强势还有高潮</t>
+  </si>
+  <si>
+    <t>医药适合长期投资?</t>
+  </si>
+  <si>
+    <t>优先配龙头</t>
   </si>
   <si>
     <t>秘诀</t>
@@ -419,487 +403,487 @@
     <t>研报|</t>
   </si>
   <si>
-    <t>任泽平谈“躺平”、“内卷”</t>
-  </si>
-  <si>
-    <t>掘金车联网时代</t>
+    <t>降准后 债券继续买入还是止盈离场</t>
+  </si>
+  <si>
+    <t>7大赛道复盘</t>
   </si>
   <si>
     <t>公司</t>
   </si>
   <si>
-    <t>浪潮信息任职9年董事长离职 毛利率走低惹的祸？</t>
-  </si>
-  <si>
-    <t>BOSS直聘上市背后：绕不过的烧钱与盈利 三年亏10个亿</t>
-  </si>
-  <si>
-    <t>嘀嗒出行亏22亿二冲上市：屡被约谈与投诉 超车难度大</t>
-  </si>
-  <si>
-    <t>地产</t>
-  </si>
-  <si>
-    <t>毛利率大幅下降 美的置业仍高溢价疯狂“抢”地</t>
-  </si>
-  <si>
-    <t>海悦生活难断奶:在管规模小 依赖母公司 外拓能力不足</t>
-  </si>
-  <si>
-    <t>中梁控股降速：盈利降债务高企 楼盘质量问题频遭投诉</t>
-  </si>
-  <si>
-    <t>三问家居重返IPO:主打原创设计研发费仅2% 痛失大客户</t>
-  </si>
-  <si>
-    <t>麦迪科技营收停滞不前 辅助生殖赛道标的收购疑点重重</t>
-  </si>
-  <si>
-    <t>宁德时代3900亿市值解禁来袭 中信建投本月解禁1700亿</t>
-  </si>
-  <si>
-    <t>硬核研报</t>
-  </si>
-  <si>
-    <t>家具出口超景气 龙头1季度业绩竟然暴增130%</t>
-  </si>
-  <si>
-    <t>解读美团：一季报的隐忧与流量生意的终结</t>
-  </si>
-  <si>
-    <t>中信建投:港股新经济板块盈利高增长具有较强配置价值</t>
-  </si>
-  <si>
-    <t>中梁控股降速：盈利下降债务高企 质量问题频遭投诉</t>
-  </si>
-  <si>
-    <t>德盈控股招股书疑似数据打架 小黄鸭遭遇脸盲症尴尬</t>
-  </si>
-  <si>
-    <t>22年累计盈利逾5万亿元 公募基金交出亮丽答卷</t>
-  </si>
-  <si>
-    <t>公私募大佬加持：医药主题基金回暖 掘金2条投资主线</t>
-  </si>
-  <si>
-    <t>美团：第一季度经调整净亏损38.92亿元</t>
-  </si>
-  <si>
-    <t>烧钱无底洞</t>
-  </si>
-  <si>
-    <t>美团外卖变现率创新高至14.4% 商户困在美团财报里？</t>
-  </si>
-  <si>
-    <t>顺丰控股拟拆分同城实业在港交所上市</t>
-  </si>
-  <si>
-    <t>网易云音乐：版权不够，社交来凑？三年累计亏损近50亿</t>
-  </si>
-  <si>
-    <t>祥生活服务递表上市 一个仅有累计一年盈利的物业公司</t>
-  </si>
-  <si>
-    <t>“一早起来，又跌了快2万”比特币末日来临？爆仓数十亿 日赚3亿的挖矿机也要停了</t>
-  </si>
-  <si>
-    <t>上市公司“收购”上市公司 从法庭斗到董事会</t>
-  </si>
-  <si>
-    <t>嘀嗒出行亏22亿二度冲刺上市:半年内屡被约谈与投诉 超车难度大</t>
-  </si>
-  <si>
-    <t>市值蒸发20亿港元，呷哺“出局” 火锅内卷的终点究竟是什么？</t>
-  </si>
-  <si>
-    <t>“黑马”中梁控股降速：盈利下降债务高企 楼盘质量问题频遭投诉</t>
-  </si>
-  <si>
-    <t>海悦生活难断“奶”：在管规模小、高度依赖母公司 外拓能力严重不足</t>
-  </si>
-  <si>
-    <t>俄铝成员公司与En+的联系人订立新维修服务合约</t>
-  </si>
-  <si>
-    <t>百济神州因受限制股份单位获归属而发行16.796万股</t>
-  </si>
-  <si>
-    <t>因阵亡将士纪念日 美股周一休市</t>
-  </si>
-  <si>
-    <t>美国数据前瞻：继4月份令人失望的数据后 就业报告引关注</t>
-  </si>
-  <si>
-    <t>周末要闻：5月魔咒未现美股再创新高 美联储政策转向或成隐忧</t>
-  </si>
-  <si>
-    <t>外盘头条：美国汽油价格飙升至3美元以上 下周一迎来阵亡将士纪念日</t>
-  </si>
-  <si>
-    <t>争揽全球芯片制造商 韩国“强芯”追赶台积电</t>
-  </si>
-  <si>
-    <t>亚利桑那州诉讼显示：谷歌员工对位置跟踪表示担忧</t>
-  </si>
-  <si>
-    <t>美国汽油价格飙升至3美元以上 下周一迎来阵亡将士纪念日</t>
-  </si>
-  <si>
-    <t>苏伊士运河管理局：“长赐”号货轮船长应对搁浅事故负责</t>
-  </si>
-  <si>
-    <t>5月魔咒未现美股再创新高 美联储政策转向或成隐忧</t>
-  </si>
-  <si>
-    <t>共和党参议员：美国基础设施法案可能“真正妥协”</t>
-  </si>
-  <si>
-    <t>美股精选： ETF周报 | 半导体股强势“夺...</t>
-  </si>
-  <si>
-    <t>疲软开局，持续走弱的美元对美股意味着什么？</t>
-  </si>
-  <si>
-    <t>苹果在CarPlay上的巨大成功为其汽车雄心铺平了道路</t>
-  </si>
-  <si>
-    <t>由印度变种突变成的越南变种，到底有多厉害？</t>
-  </si>
-  <si>
-    <t>美国又要“放水” 大宗商品或将再起波澜</t>
-  </si>
-  <si>
-    <t>债务货币化 美国打算再次“收割”世界？</t>
-  </si>
-  <si>
-    <t>美邮政总局陷入财务危机 局长建议提高信函邮寄费</t>
-  </si>
-  <si>
-    <t>韩国海盐短缺致价格飙升，韩国泡菜生产企业面临困境</t>
-  </si>
-  <si>
-    <t>专家：虚拟货币缺乏价值支撑 受流动性影响易暴涨暴跌</t>
+    <t>证监会追问何氏眼科 是否规避民非组织办法第6条</t>
+  </si>
+  <si>
+    <t>“零食界华为”盐津铺子被社区团购打懵 业绩市值腰斩</t>
+  </si>
+  <si>
+    <t>董事会换血：剥离亏损影视业务 喜临门半年报难如预期</t>
+  </si>
+  <si>
+    <t>啥情况？仅3年科华生物并购标的估值从9亿暴增至275亿</t>
+  </si>
+  <si>
+    <t>房地产|</t>
+  </si>
+  <si>
+    <t>平安热衷地王无惧爆雷 项目解套承压市值蒸发</t>
+  </si>
+  <si>
+    <t>深免集团有投资意向 三年亏超40亿的*ST赫美能翻身吗?</t>
+  </si>
+  <si>
+    <t>上个交易日涨停 杭州热电今一字跌停 10万手卖单封死</t>
+  </si>
+  <si>
+    <t>谁纵容天价片酬？倩女幽魂牵ST北文沉疴 前高管揭内幕</t>
+  </si>
+  <si>
+    <t>面条大王业绩爆雷 克明食品问题出哪?</t>
+  </si>
+  <si>
+    <t>投资者用脚投票</t>
+  </si>
+  <si>
+    <t>挖牛股</t>
+  </si>
+  <si>
+    <t>调味品提价潮最快年底到来？行业基本面已恢复</t>
+  </si>
+  <si>
+    <t>中金港股：市场短期将盘整 建议超配信息技术</t>
+  </si>
+  <si>
+    <t>40亿！远洋收购红星70%股权，包含91个项目</t>
+  </si>
+  <si>
+    <t>“最惨”富二代！接班千亿房企，扛下2200亿债务</t>
+  </si>
+  <si>
+    <t>二季报陆续发布 丘栋荣、赵梅玲等明星经理调仓</t>
+  </si>
+  <si>
+    <t>268亿！公募定增获配金额同比增116%，财通诺德居前</t>
+  </si>
+  <si>
+    <t>恒生科指跌超2%：快手跌6%美团跌4%</t>
+  </si>
+  <si>
+    <t>突发！多个品牌紧急“删除”吴亦凡 央视火速下架其内容</t>
+  </si>
+  <si>
+    <t>午评：港股恒指跌1.59% “恒大系”集体走低科技股重挫</t>
+  </si>
+  <si>
+    <t>4000亿茶饮市场，为何无法诞生巨头？</t>
+  </si>
+  <si>
+    <t>远洋集团40亿收购红星地产70%股权 后者持91物业项目</t>
+  </si>
+  <si>
+    <t>康师傅冰红茶：已终止与吴亦凡的代言合作 相关手续在办理中</t>
+  </si>
+  <si>
+    <t>“恒大系”跌幅扩大：中国恒大跌近11% 恒大物业跌超11%</t>
+  </si>
+  <si>
+    <t>吴亦凡回应丑闻风波，被这些品牌一夜间紧急“删除”，3家上市公司或受影响</t>
+  </si>
+  <si>
+    <t>吴亦凡丑闻风波或波及《青簪行》 阅文集团跌近4%腾讯跌近3%</t>
+  </si>
+  <si>
+    <t>世纪大和解！阿里与腾讯互禁八年后要互通生态？</t>
+  </si>
+  <si>
+    <t>恒生科技指数跌超2%：快手跌近6%领跌 美团、百度跌超4%</t>
+  </si>
+  <si>
+    <t>中金港股策略：市场短期将盘整 建议超配信息技术</t>
+  </si>
+  <si>
+    <t>恒生指数重返28000点之上 机构看好港股三条投资主线</t>
+  </si>
+  <si>
+    <t>市场真的相信联储“暂时性”通胀的</t>
+  </si>
+  <si>
+    <t>穿透经济繁荣共识 大摩称全球经济复苏正面临两大风险</t>
+  </si>
+  <si>
+    <t>长期看空者大卫•泰斯警告：目前投资股票和比特币“非常危险”</t>
+  </si>
+  <si>
+    <t>美网友嘲笑贝佐斯太空之旅名不符实 马斯克不厚道地笑了</t>
+  </si>
+  <si>
+    <t>OPEC+周末达成增产协议 油价下跌</t>
+  </si>
+  <si>
+    <t>传记作者称麦卡菲自杀时已破产 疯狂买豪宅造光1亿美元</t>
+  </si>
+  <si>
+    <t>博世考虑关闭燃油车零部件工厂 因担心电动化转型致产能过剩</t>
+  </si>
+  <si>
+    <t>突发！韩国支付巨头IPO遇阻，监管要求修改招股文件…蚂蚁持有45%股权</t>
+  </si>
+  <si>
+    <t>交易员深陷自我怀疑：“全球资产定价之锚”的诡异飙涨没那么简单？</t>
+  </si>
+  <si>
+    <t>强生考虑将爽身粉诉讼责任打包成新公司申请破产 以避免巨额赔偿</t>
+  </si>
+  <si>
+    <t>美股精选： 数读港美 | 抱团模式再变，科技...</t>
+  </si>
+  <si>
+    <t>G20财长达成一致 百年税改大幕开启</t>
+  </si>
+  <si>
+    <t>维珍银河姊妹公司维珍轨道将于2021年第四季度发射第三颗卫星</t>
+  </si>
+  <si>
+    <t>白宫迟迟不取消对欧旅行禁令 欧洲和航空公司都急了</t>
+  </si>
+  <si>
+    <t>又一巨型并购正在酝酿 美国两大半导体公司 或“牵手”挑战台积电</t>
+  </si>
+  <si>
+    <t>在夏威夷迫降波音飞机的航空货运公司Transair被停飞</t>
+  </si>
+  <si>
+    <t>美国多州将政府救济金用作教师奖金引发争议</t>
+  </si>
+  <si>
+    <t>美共和党参议员：基础设施法案将取消税收执法</t>
+  </si>
+  <si>
+    <t>美通胀爆表提升紧缩预期 中国会否提前降低LPR</t>
   </si>
   <si>
     <t>新浪财经诚聘国际财经新闻编辑若干</t>
   </si>
   <si>
-    <t>[互联网]Facebook董事会否决限制扎克伯格权力的提案</t>
-  </si>
-  <si>
-    <t>公募REITs来了:314亿今日开抢！怎么买？买哪只?</t>
-  </si>
-  <si>
-    <t>首批公募REITs开售:涨跌幅多少?收益率多高?攻略</t>
-  </si>
-  <si>
-    <t>基金发行分化:东方红启恒爆款重现 九泰发行失败</t>
-  </si>
-  <si>
-    <t>如何把握“创时代”下投资机遇？听基金大咖说</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华安基金常锐：电子行业投资价值展望	</t>
-  </si>
-  <si>
-    <t>亢龙有悔还是飞龙在天 机构激辩周期股后市</t>
-  </si>
-  <si>
-    <t>开售！预期年化收益最高11% 9只公募REITs底层资产详解</t>
-  </si>
-  <si>
-    <t>公募累计盈利超5万亿 "基金赚钱、基民不赚钱"难题仍存</t>
-  </si>
-  <si>
-    <t>21只新基月底“卡点” 5月新发基金超190只</t>
-  </si>
-  <si>
-    <t>卷入虚假基金诈骗案 建行株洲分行等3家银行被判连带责任</t>
-  </si>
-  <si>
-    <t>私募江湖大浪淘沙 谁主沉浮:和聚投资等老牌私募掉队</t>
-  </si>
-  <si>
-    <t>权益类基金仓位降至年内最低位 公募调仓瞄准五大行业</t>
-  </si>
-  <si>
-    <t>期权“末日轮”惊现暴涨暴跌 私募火速解读来了</t>
-  </si>
-  <si>
-    <t>多家公募实施二次首发 为基金销售再添一把火</t>
-  </si>
-  <si>
-    <t>【食品饮料α掘金】次高端白酒迎新一轮“牛市”，6月是配置白酒板块最佳时间</t>
-  </si>
-  <si>
-    <t>美国要"放水" 大宗商品或将再起波澜</t>
-  </si>
-  <si>
-    <t>OPEC+会议影响油市命运</t>
-  </si>
-  <si>
-    <t>原油市场面临方向选择</t>
-  </si>
-  <si>
-    <t>需求下滑 利润受压缩 钢材市场延续调整态势</t>
-  </si>
-  <si>
-    <t>李克强：注重用市场化办法解决大宗商品上涨等问题</t>
-  </si>
-  <si>
-    <t>5.31原油市场早评：OPEC+会议在即 利空风险加剧</t>
-  </si>
-  <si>
-    <t>三大油脂价格5月冲高回落 牛市行情结束了吗？</t>
-  </si>
-  <si>
-    <t>大宗商品市场5月演绎“过山车”行情 6月如何走？</t>
-  </si>
-  <si>
-    <t>卖1斤亏1元！苹果价格大跌滞销 遭历史最严重行情？</t>
-  </si>
-  <si>
-    <t>养猪业盈亏平衡点到了吗</t>
-  </si>
-  <si>
-    <t>铝价 不宜过分悲观</t>
-  </si>
-  <si>
-    <t>再来6万亿 拜登新一轮经济刺激再给多头送东风</t>
-  </si>
-  <si>
-    <t>光大：黄金重返1900关口 本周聚焦5月非农数据</t>
-  </si>
-  <si>
-    <t>道达投资手记：核心资产牛市再度开启？谨慎</t>
-  </si>
-  <si>
-    <t>业内：推动期货法出台 助力大宗商品稳价保供</t>
+    <t>[互联网]弃用宁德时代，苹果造车依旧强势</t>
+  </si>
+  <si>
+    <t>268亿元！公募定增获配金额同比激增116%</t>
+  </si>
+  <si>
+    <t>新能源成市场最大热点 六大投资人士谈后市</t>
+  </si>
+  <si>
+    <t>有色行情迎戴维斯双击 锂电材料等主题ETF大涨</t>
+  </si>
+  <si>
+    <t>大咖说:创新药和CXO回调能上车吗?下半年如何配?</t>
+  </si>
+  <si>
+    <t>华夏杨宇:新能源热度不断 光伏发展怎么看？</t>
+  </si>
+  <si>
+    <t>博时陈奥:流动性"天团"出击！那些"风口"要追?</t>
+  </si>
+  <si>
+    <t>基金二季报陆续发布 丘栋荣、赵梅玲等明星经理调仓换股</t>
+  </si>
+  <si>
+    <t>科创板开市2周年:重塑资本市场生态 公募投研升级迭代</t>
+  </si>
+  <si>
+    <t>本周33家公司50只新基金pk:养老基金与光伏ETF或可关注</t>
+  </si>
+  <si>
+    <t>公募全面发力"碳中和" 低碳主题基金站上风口</t>
+  </si>
+  <si>
+    <t>2021银华基金杯新浪银行理财师大赛火热报名中</t>
+  </si>
+  <si>
+    <t>施卫任总经理期间农银汇理规模增加559.65亿 产品数最少</t>
+  </si>
+  <si>
+    <t>股基冠军赵诣瞄准碳减排?中材国际在他调研后,创新高</t>
+  </si>
+  <si>
+    <t>高瓴、鼎晖等一级PE/VC巨头积极设立二级证券私募</t>
+  </si>
+  <si>
+    <t>经济数据持续改善，下跌板块补涨“回血”！高毅备案超车，启林、九坤积极布局</t>
+  </si>
+  <si>
+    <t>午评:红枣全合约涨停 原油跌近3%</t>
+  </si>
+  <si>
+    <t>欧佩克+对峙落幕</t>
+  </si>
+  <si>
+    <t>靴子终于落地！</t>
+  </si>
+  <si>
+    <t>全国碳排放权交易市场上线首日成交410.4万吨</t>
+  </si>
+  <si>
+    <t>新华社：供应仍存缺口 国际油价走高压力难缓解</t>
+  </si>
+  <si>
+    <t>“三西”地区动力煤调研：煤炭长期缺口难以填补</t>
+  </si>
+  <si>
+    <t>证监会：延长对新时代证券等三家公司的接管期限</t>
+  </si>
+  <si>
+    <t>发改委：将组织好后批次铜铝锌等国家储备的投放</t>
+  </si>
+  <si>
+    <t>煤源告急！榆林20多家煤矿暂停生产 港口库存急降</t>
+  </si>
+  <si>
+    <t>后期外部进口压力缓解 郑糖多头格局依旧</t>
+  </si>
+  <si>
+    <t>市场供需“两头开火” 推升锡价至历史新高</t>
+  </si>
+  <si>
+    <t>7月19日焦炭市场整体供需逐步趋于宽松状态</t>
+  </si>
+  <si>
+    <t>政策与数据出现分歧 黄金面临短线方向选择</t>
+  </si>
+  <si>
+    <t>IC/IH比价会进一步走扩 市场大概率振荡</t>
+  </si>
+  <si>
+    <t>动力煤、玻璃和PTA偏强 能化指数继续上行</t>
   </si>
   <si>
     <t>DCE一周观察</t>
   </si>
   <si>
-    <t>弱美元何时“逆袭”？</t>
-  </si>
-  <si>
-    <t>一旦经济复苏预期再度转强，或者美联储释放偏鹰派信号，美元可能逆转&gt;&gt;</t>
+    <t>人民币或将面临一定的调整压力</t>
+  </si>
+  <si>
+    <t>中美货币政策差可能持续存在 人民币或将继续面临一定的调整压力&gt;&gt;</t>
   </si>
   <si>
     <t>全球财经直播</t>
   </si>
   <si>
-    <t>10银行外汇牌价</t>
-  </si>
-  <si>
     <t>人民币汇率</t>
   </si>
   <si>
-    <t>本周关注鲍威尔讲话、中美欧制造业PMI、5月非农</t>
-  </si>
-  <si>
-    <t>数字人民币有望为全球贸易结算开辟新视窗</t>
-  </si>
-  <si>
-    <t>未来可能推动人民币贬值的四大因素不能忽视</t>
-  </si>
-  <si>
-    <t>美联储官员态度大转弯：可能要讨论缩减QE了！</t>
-  </si>
-  <si>
-    <t>中金策略:近期美元流动性激增的内外部含义</t>
-  </si>
-  <si>
-    <t>疲软开局 持续走弱的美元对美股意味着什么？</t>
-  </si>
-  <si>
-    <t>央行调查统计司原司长：人民币快速升值不可持续</t>
-  </si>
-  <si>
-    <t>比特币又遇黑色周末!空头犹如嗜血鲨鱼</t>
-  </si>
-  <si>
-    <t>黄金重返1900关口 本周聚焦5月非农数据</t>
-  </si>
-  <si>
-    <t>一图还原白银越野赛赛况和救援状况</t>
-  </si>
-  <si>
-    <t>两个月飙升220美元！Kitco黄金调查：“对...</t>
-  </si>
-  <si>
-    <t>【央行圆桌汇】美联储官员继续淡化通胀风险</t>
-  </si>
-  <si>
-    <t>周末要闻：5月魔咒未现美股再创新高 美联储政策...</t>
-  </si>
-  <si>
-    <t>金价本周有望大涨逾45美元 机构：黄金、白银和...</t>
-  </si>
-  <si>
-    <t>本周外盘看点丨美国5月非农来袭 油价还看OPE...</t>
-  </si>
-  <si>
-    <t>通胀恐慌加剧 美联储官员们态度大转弯：可能要讨...</t>
-  </si>
-  <si>
-    <t>拆解美联储资产负债表：战时债务管理政策</t>
-  </si>
-  <si>
-    <t>投资周报：沪指站上3600 美非农就业报告下周出炉</t>
-  </si>
-  <si>
-    <t>弱美元何时“逆袭”？美联储Taper步伐渐行渐近</t>
-  </si>
-  <si>
-    <t>本周重磅：鲍威尔讲话、盯紧5月非农</t>
-  </si>
-  <si>
-    <t>专家答疑</t>
-  </si>
-  <si>
-    <t>5月债券商品齐涨为哪般？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年内公司信用类债发行逾6万亿元 同比下降2.1% </t>
-  </si>
-  <si>
-    <t>人民币升值如何影响债市？6月主要矛盾仍在于资金面</t>
-  </si>
-  <si>
-    <t>美国通胀的“出门”效应渐显 核心通胀同环比加速上行</t>
-  </si>
-  <si>
-    <t>美国通胀的前世今生：20世纪70年代、80年代和如今</t>
-  </si>
-  <si>
-    <t>施罗德投资周匀：直面不确定性 大类资产配置见招拆招</t>
-  </si>
-  <si>
-    <t>灵魂之问：美国通胀形势严峻 为什么利率却跌了</t>
-  </si>
-  <si>
-    <t>消费和制造业投资推动 中国通胀压力小于发达国家</t>
-  </si>
-  <si>
-    <t>张一格：统一视角自上而下 寻找股债配比最优解</t>
-  </si>
-  <si>
-    <t>5月份新发公募基金超过110只 债券型占比近六成</t>
-  </si>
-  <si>
-    <t>周小川：G20国家中 中国为最贫困国家缓债金额最多</t>
+    <t>英媒：美国消费者愈发担心物价飞涨</t>
+  </si>
+  <si>
+    <t>视频：印度通胀正在爆发，如今印度状况怎样？</t>
+  </si>
+  <si>
+    <t>招商宏观：5月全球经济综述 新兴拖累全球走弱</t>
+  </si>
+  <si>
+    <t>多数分析师认为拜登将提名鲍威尔连任美联储主席</t>
+  </si>
+  <si>
+    <t>张明：新周期下推进人民币国际化的策略与思路</t>
+  </si>
+  <si>
+    <t>通胀猛如虎 美债也猛如虎？市场懵了</t>
+  </si>
+  <si>
+    <t>财经早餐：OPEC+同意增产，欧洲央行决议来袭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">央行解读数字人民币：与现钞长期共存 </t>
+  </si>
+  <si>
+    <t>白银遭遇空头袭击！创逾3个月低点</t>
+  </si>
+  <si>
+    <t>长期大空头警告：现在投资美股和比特币有风险</t>
+  </si>
+  <si>
+    <t>看空大佬：目前美股和比特币“非常危险” 黄金和...</t>
+  </si>
+  <si>
+    <t>市场真的相信美联储“暂时性”通胀的判断吗？</t>
+  </si>
+  <si>
+    <t>大摩称全球经济复苏正面临两大风险</t>
+  </si>
+  <si>
+    <t>交易员深陷自我怀疑：“全球资产定价之锚”的诡异...</t>
+  </si>
+  <si>
+    <t>白银、油价联袂大跌！金银油铜最新技术前景分析</t>
+  </si>
+  <si>
+    <t>光大期货：政策与数据出现分歧 黄金面临短线方向...</t>
+  </si>
+  <si>
+    <t>方正中期史家亮：伦锡沪锡均如期刷新历史新高 后...</t>
+  </si>
+  <si>
+    <t>方正中期期货史家亮：沪锡涨至24万上方的可能性...</t>
+  </si>
+  <si>
+    <t>上个交易日黄金白银ETF持仓继续减少 美联储鸽...</t>
+  </si>
+  <si>
+    <t>白银大跌！ETF资金离场 期货投机持仓下降</t>
+  </si>
+  <si>
+    <t>重点关注白银空头机会</t>
+  </si>
+  <si>
+    <t>黄金专家答疑</t>
+  </si>
+  <si>
+    <t>降准落地后 还需要担忧供给冲击么？</t>
+  </si>
+  <si>
+    <t>市场热议中国或提前降低LPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中金宏观：中美货币政策差可能持续存在 </t>
+  </si>
+  <si>
+    <t>中金固收：“大盘回暖”对转债的不同含义</t>
+  </si>
+  <si>
+    <t>兴证宏观：货币降准后，财政下半年要发力吗？</t>
+  </si>
+  <si>
+    <t>宏观周报：7月PPI同比或再次上升至前期高点9.0%</t>
+  </si>
+  <si>
+    <t>过去3年专项债发行回顾：货币政策如何与财政相配合</t>
+  </si>
+  <si>
+    <t>中信证券明明：Taper对我国资本流动的溢出效应</t>
+  </si>
+  <si>
+    <t>流动性供需关系并没有进一步宽松 国债上涨阻力重重</t>
+  </si>
+  <si>
+    <t>中金固收：降准之后，债券继续买入还是止盈离场？</t>
+  </si>
+  <si>
+    <t>2022年专项债来了！项目储备主要投向9大领域</t>
   </si>
   <si>
     <t>全球银行同业拆借利率</t>
   </si>
   <si>
-    <t>http://www.xinhuanet.com/tech/2021-05/30/c_1127508516.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/politics/2021-05/30/c_1127508892.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/2021-05/30/c_1127510062.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/local/2021-05/30/c_1127510035.htm</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s?__biz=MzA4MjQxNjQzMA==&amp;mid=2768635077&amp;idx=1&amp;sn=ac6c29cec774f885cb0d9fe9ac0d1a2f&amp;scene=0</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5591362.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-05-30/doc-ikmxzfmm5540688.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-05-30/doc-ikmyaawc8397928.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5607635.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-05-31/doc-ikmyaawc8477021.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-05-30/doc-ikmxzfmm5490981.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-05-31/doc-ikmyaawc8462724.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-05-31/doc-ikmxzfmm5588530.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/estate/sd/2021-05-31/doc-ikmyaawc8473658.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-05-31/doc-ikmxzfmm5268283.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-05-31/doc-ikmyaawc8475074.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-31/doc-ikmxzfmm5606774.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-31/doc-ikmyaawc8475216.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-31/doc-ikmyaawc8475150.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-05-31/doc-ikmyaawc8470134.shtml</t>
+    <t>http://www.xinhuanet.com/sports/2021-07/18/c_1127666226.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/2021-07/18/c_1127666257.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/2021-07/18/c_1127666224.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/2021-07/18/c_1127666307.htm</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/2021-07/18/c_1127666300.htm</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/usstock_0718/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/2021-07-19/doc-ikqcfnca7643288.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-07-19/doc-ikqcfnca7671548.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/gjcj/2021-07-18/doc-ikqcfnca7591364.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-18/doc-ikqcfnca7606444.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/drcwl/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/2021-07-18/doc-ikqciyzk6221409.shtml</t>
+  </si>
+  <si>
+    <t>https://cj.sina.com.cn/articles/view/1988645095/768850e704000xvb9?from=news&amp;subch=onews</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-07-19/doc-ikqciyzk6225577.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-07-18/doc-ikqciyzk6225223.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/20210719/</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/4bej13g0645928574d/#/brief/course/b75141778f8c4061babaebd31d57c090</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-07-19/doc-ikqciyzk6314724.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-07-19/doc-ikqcfnca7622121.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-07-19/doc-ikqcfnca7647582.shtml</t>
   </si>
   <si>
     <t>http://live.finance.sina.com.cn/</t>
   </si>
   <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/9960</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/1n58719m3834?parentType=column&amp;parentId=f5443bd63a8b4e858b9225ffa008a6c6</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/10016</t>
-  </si>
-  <si>
-    <t>https://www.guosen.com.cn/gs/openaccount/?qrcode=1595905431891&amp;source=gegu01</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-05-31/doc-ikmxzfmm5612184.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmyaawc8462737.shtml</t>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12116</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12086</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12142</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12125</t>
+  </si>
+  <si>
+    <t>http://finance.sina.com.cn/zt_d/quanshangkaihu/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-07-19/doc-ikqciyzk6340602.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/roll/2021-07-19/doc-ikqciyzk6335009.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/roll/2021-07-19/doc-ikqciyzk6254908.shtml</t>
   </si>
   <si>
     <t>http://roll.finance.sina.com.cn/finance/zq1/scyj/index.shtml</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-30/doc-ikmxzfmm5575049.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-30/doc-ikmxzfmm5571815.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://finance.sina.com.cn/stock/jyts/ </t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmxzfmm5611588.shtml</t>
-  </si>
-  <si>
-    <t>http://vip.stock.finance.sina.com.cn/q/go.php/vInvestConsult/kind/jyts/index.phtml?tradedate=2021-5-30</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/cpbd/2021-05-31/doc-ikmyaawc8474197.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmyaawc8473975.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmxzfmm5617004.shtml</t>
+    <t>http://blog.sina.com.cn/s/blog_8cc315680102z5df.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_9c2fe26f0102z3oq.html?tj=fina</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-07-19/doc-ikqcfnca7713119.shtml</t>
+  </si>
+  <si>
+    <t>http://finance.sina.com.cn/stock/jyts/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-07-19/doc-ikqciyzk6338221.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-07-19/doc-ikqciyzk6297589.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-07-19/doc-ikqcfnca7733274.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/marketresearch/2020-08-17/doc-iivhuipn9137795.shtml</t>
@@ -908,43 +892,43 @@
     <t xml:space="preserve">http://roll.finance.sina.com.cn/finance/zq1/zldx/index.shtml </t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-30/doc-ikmyaawc8431054.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-05-31/doc-ikmxzfmm5618286.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vip.stock.finance.sina.com.cn/q/go.php/vInvestConsult/kind/lhb/index.phtml </t>
+    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-07-19/doc-ikqcfnca7735330.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-07-19/doc-ikqcfnca7731754.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-07-19/doc-ikqcfnca7690049.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=230808</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8481782.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8474163.shtml</t>
+    <t xml:space="preserve"> https://finance.sina.com.cn/roll/2021-07-19/doc-ikqcfnca7647557.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-18/doc-ikqciyzk6217283.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=57563&amp;page=1</t>
   </si>
   <si>
-    <t>http://blog.sina.com.cn/s/blog_49548d340103035a.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_5d34ec6c0102zj51.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_4c7ca1550102ydxu.html?tj=fina</t>
+    <t>http://blog.sina.com.cn/s/blog_4ab265670102zae3.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_84f53feb0102z9b8.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_148ded81d0102zpcg.html?tj=fina</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/reportch/jinqilin.shtml</t>
   </si>
   <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/675712742005/index.phtml</t>
-  </si>
-  <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/675720251181/index.phtml</t>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/680012771683/index.phtml</t>
+  </si>
+  <si>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/679998395202/index.phtml</t>
   </si>
   <si>
     <t>http://vip.stock.finance.sina.com.cn/q/go.php/vReport_List/kind/lastest/index.phtml</t>
@@ -953,91 +937,91 @@
     <t>http://licaishi.sina.com.cn/s/%E6%B7%B1%E6%B8%AF%E9%80%9A?ind_id=0&amp;t=1&amp;all=0&amp;fr=finance_top</t>
   </si>
   <si>
-    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/675738565503/index.phtml</t>
-  </si>
-  <si>
-    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/675731917114/index.phtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8481703.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8481259.shtml</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_537c46120102za5o.html?tj=fina</t>
-  </si>
-  <si>
-    <t>https://tzxy.sina.com.cn/content/detail/1658605145/118133</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmxzfmm5610157.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5600580.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-05-31/doc-ikmxzfmm5606418.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8453454.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmxzfmm5604725.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-30/doc-ikmxzfmm5547098.shtml</t>
+    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/strategy/rptid/680007673184/index.phtml</t>
+  </si>
+  <si>
+    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/strategy/rptid/680004995854/index.phtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-07-19/doc-ikqciyzk6331799.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqciyzk6331723.shtml</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_763294c70102ylqj.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://live.finance.sina.com.cn/bozhu/6820186475</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/hkgg/2021-07-19/doc-ikqciyzk6317447.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqciyzk6254407.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/relnews/cn/2021-07-19/doc-ikqcfnca7628510.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqcfnca7649518.shtml</t>
   </si>
   <si>
     <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_List/kind/industry/index.phtml</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-05-31/doc-ikmxzfmm5612042.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/review/2021-05-31/doc-ikmyaawc8474186.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-05-30/doc-ikmyaawc8407490.shtml?cref=cj</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-05-30/doc-ikmxzfmm5554392.shtml?cref=cj</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/2021jjjnh/</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/brief/column/757bacbe813249689ab15c319e8baea4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sinadaxue.cn/#/sina/single/1n5871913834?parentType=column&amp;parentId=757bacbe813249689ab15c319e8baea4  </t>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6253295.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hyyj/2021-07-19/doc-ikqcfnca7664318.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6246899.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hyyj/2021-07-19/doc-ikqcfnca7622966.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/4bej13g0645928574d/#/sinacourse/7234a949213d40b285d95063e4855283</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/4bej13g0645928574d/#/sinacourse/c1c893194faf4079af5985cc12c949e7</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-06-04/doc-ikqcfnaz9025413.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/#/sina/single/l25km13l7kn1?parentType=column&amp;parentId=f5443bd63a8b4e858b9225ffa008a6c6</t>
   </si>
   <si>
     <t>https://www.sinadaxue.cn/#/sina/brief/column/a601af39262c4bdd80274231f1fde815</t>
   </si>
   <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/7lnk6l331kj2?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmyaawc8480149.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-05-31/doc-ikmxzfmm5606550.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmyaawc8474811.shtml</t>
-  </si>
-  <si>
-    <t>https://2831761612775.huodongxing.com/event/2597371946500</t>
-  </si>
-  <si>
-    <t>http://finance.sina.com.cn/zt_d/quanshangkaihu/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockptd/2021-05-31/doc-ikmyaawc8407798.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8475420.shtml</t>
+    <t>https://www.sinadaxue.cn/#/sina/single/5lm839679896?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/quanshang/qsyj/2021-07-19/doc-ikqcfnca7653610.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/jinpaidongmi2021/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqciyzk6333681.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12140</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12085</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12144</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/stockptd/2021-07-19/doc-ikqcfnca7658289.shtml</t>
+  </si>
+  <si>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/679947671665/index.phtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/s/2019-07-09/doc-ihytcitm0843478.shtml</t>
@@ -1046,148 +1030,157 @@
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=56592&amp;page=1</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmyaawc8475660.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmyaawc8473278.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmxzfmm5610080.shtml</t>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-07-19/doc-ikqcfnca7661081.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqcfnca7662489.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqciyzk6263485.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-07-19/doc-ikqcfnca7730751.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/estate/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8474245.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmxzfmm5612411.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8474346.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmxzfmm5615540.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmxzfmm5612120.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmxzfmm5616498.shtml</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/24j842571851?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6264160.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-07-19/doc-ikqciyzk6254406.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6333329.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqcfnca7680656.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqciyzk6249239.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6225571.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sinadaxue.cn/#/sina/single/l25km13n7kn1?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/hkstock/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8474089.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmxzfmm5613906.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggipo/2021-05-31/doc-ikmxzfmm5612622.shtml</t>
+    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-07-19/doc-ikqciyzk6264509.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-07-19/doc-ikqcfnca7657787.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqcfnca7649518.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-07-19/doc-ikqciyzk6258286.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/fund/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/fund/jjpl/2021-05-31/doc-ikmyaawc8469701.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8456622.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-28/doc-ikmxzfmm5208697.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/observe/2021-05-30/doc-ikmyaawc8361122.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/hkzmt/2021-05-30/doc-ikmxzfmm5569662.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmxzfmm5608925.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/estate/integration/2021-05-30/doc-ikmyaawc8442341.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-05-31/doc-ikmxzfmm5565096.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8473598.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmxzfmm5611858.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmxzfmm5613849.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmxzfmm5620699.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8482663.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmyaawc8461436.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmyaawc8451190.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmxzfmm5604724.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmxzfmm5601496.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5591411.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmyaawc8451687.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmyaawc8462927.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/7x24/2021-05-31/doc-ikmxzfmm5603728.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5591392.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmxzfmm5587391.shtml</t>
+    <t>https://finance.sina.com.cn/money/fund/jjcc/2021-07-19/doc-ikqciyzk6238595.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6231308.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-07-19/doc-ikqcfnca7684205.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jhzx/2021-07-19/doc-ikqciyzk6251285.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-07-19/doc-ikqciyzk6323224.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-07-19/doc-ikqcfnca7654674.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-07-19/doc-ikqcfnca7655425.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-07-19/doc-ikqciyzk6338588.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-07-19/doc-ikqcfnca7732570.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-07-19/doc-ikqciyzk6340670.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-07-19/doc-ikqciyzk6340264.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-07-19/doc-ikqcfnca7709163.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-07-19/doc-ikqcfnca7684205.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-07-18/doc-ikqciyzk6213252.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqciyzk6286888.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6286854.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqcfnca7643927.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqciyzk6265397.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqcfnca7686790.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqciyzk6274152.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqciyzk6260689.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-07-19/doc-ikqcfnca7662445.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6279229.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqciyzk6256736.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/other/hsnews/detail_index.d.html</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-30/doc-ikmxzfmm5548385.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmxzfmm5601255.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-05-31/doc-ikmxzfmm5590448.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8450945.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-30/doc-ikmyaawc8322440.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-30/doc-ikmyaawc8335693.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/7x24/2021-05-30/doc-ikmyaawc8352694.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-05-30/doc-ikmxzfmm5579583.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6238677.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqcfnca7641854.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqcfnca7634818.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6238678.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqcfnca7641462.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/2021-07-19/doc-ikqcfnca7628338.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqciyzk6235952.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6238690.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/usstock/c/2019-06-04/doc-ihvhiews6789878.shtml</t>
@@ -1196,88 +1189,88 @@
     <t>https://tech.sina.com.cn/internet/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-05-31/doc-ikmxzfmm5582067.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmyaawc8469679.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/original/2021-05-31/doc-ikmxzfmm5615065.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmxzfmm5613723.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmxzfmm5606505.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmxzfmm5607575.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-28/doc-ikmyaawc7943737.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-28/doc-ikmxzfmm5087743.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5600606.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/2021-05-30/doc-ikmxzfmm5565305.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmyaawc8468853.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-05-31/doc-ikmxzfmm5626155.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8477899.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8477469.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5600768.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8470756.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/2021-05-31/doc-ikmyaawc8471134.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmxzfmm5612361.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8476984.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-05-30/doc-ikmyaawc8443550.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8453456.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/2021-05-28/doc-ikmyaawc7955944.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8475015.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8472722.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-30/doc-ikmxzfmm5575065.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/2021-05-31/doc-ikmxzfmm5608480.shtml</t>
+    <t>https://finance.sina.com.cn/money/fund/jjpl/2021-07-19/doc-ikqcfnca7634715.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6255128.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/original/2021-07-19/doc-ikqciyzk6264682.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12115</t>
+  </si>
+  <si>
+    <t>https://finance.sina.cn/fund/jjgdxw/2021-07-19/detail-ikqcfnca7656603.d.html</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/original/2021-07-19/doc-ikqcfnca7716488.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-07-19/doc-ikqcfnca7655330.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/yhjjlcs2021/index.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/observe/2021-07-16/doc-ikqcfnca7261991.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-07-19/doc-ikqcfnca7663774.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-07-19/doc-ikqcfnca7634706.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-07-19/doc-ikqciyzk6344742.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-07-19/doc-ikqciyzk6317426.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-18/doc-ikqciyzk6218792.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqciyzk6252590.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqcfnca7712963.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqcfnca7698802.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqciyzk6253433.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/2021-07-19/doc-ikqcfnca7696011.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-07-19/doc-ikqciyzk6327503.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqciyzk6250919.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqcfnca7596016.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqcfnca7649947.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqcfnca7652380.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqciyzk6252079.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqciyzk6251455.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/dcefutures/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-05-31/doc-ikmyaawc8397445.shtml</t>
+    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-07-19/doc-ikqciyzk6260943.shtml</t>
   </si>
   <si>
     <t>http://live.sina.com.cn/zt/l/v/finance/globalnews1/</t>
@@ -1286,85 +1279,97 @@
     <t>http://finance.sina.com.cn/forex/paijia.html#0</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-05-31/doc-ikmyaawc8427317.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/blockchain/coin/2021-05-31/doc-ikmxzfmm5594634.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-05-31/doc-ikmxzfmm5573546.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-30/doc-ikmxzfmm5522611.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-05-31/doc-ikmyaawc8420290.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-05-31/doc-ikmyaawc8409318.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bank/bank_hydt/2021-05-30/doc-ikmxzfmm5566725.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/blockchain/coin/2021-05-31/doc-ikmyaawc8426585.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-05-30/doc-ikmyaawc8412652.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8478645.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-05-31/doc-ikmxzfmm5616700.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-05-31/doc-ikmxzfmm5612321.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-05-30/doc-ikmyaawc8419613.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-30/doc-ikmxzfmm5565973.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/clues/hg/2021-05-30/doc-ikmyaawc8293793.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-07-18/doc-ikqciyzk6171694.shtml</t>
+  </si>
+  <si>
+    <t>https://video.sina.com.cn/p/finance/2021-07-19/detail-ikqciyzk6203058.d.html</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-07-19/doc-ikqcfnca7657240.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-07-19/doc-ikqcfnca7655096.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-07-19/doc-ikqciyzk6057641.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-07-19/doc-ikqciyzk6153712.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-07-19/doc-ikqciyzk6255325.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-07-19/doc-ikqcfnca7306348.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/byfx/2021-07-19/doc-ikqciyzk6302375.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqcfnca7672697.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6304400.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-07-19/doc-ikqcfnca7732133.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7716585.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7726905.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7722121.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqciyzk6298735.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7686083.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7679083.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7688705.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7644256.shtml</t>
   </si>
   <si>
     <t>http://biz.finance.sina.com.cn/zjzt/gold_2014.php</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmyaawc8474024.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmxzfmm5590862.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/2021-05-31/doc-ikmyaawc8445632.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmxzfmm5617143.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmxzfmm5561299.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5600610.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-30/doc-ikmyaawc8389375.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5594637.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8462752.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmxzfmm5602688.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmyaawc8368728.shtml</t>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqcfnca7679124.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqcfnca7645248.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqcfnca7657646.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqcfnca7655420.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqciyzk6292628.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqcfnca7655694.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqciyzk6289732.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqciyzk6251784.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqciyzk6261756.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqcfnca7676738.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/money/globalindex/ibor.shtml</t>
@@ -1738,7 +1743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1781,7 +1786,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1801,7 +1806,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1821,7 +1826,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1841,7 +1846,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1861,7 +1866,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1881,7 +1886,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1901,7 +1906,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1921,7 +1926,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1941,7 +1946,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1961,7 +1966,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1981,7 +1986,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2001,7 +2006,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2021,7 +2026,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2041,7 +2046,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2061,7 +2066,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2081,7 +2086,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2101,7 +2106,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2121,7 +2126,7 @@
         <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2141,7 +2146,7 @@
         <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2161,7 +2166,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2181,7 +2186,7 @@
         <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2201,7 +2206,7 @@
         <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2221,7 +2226,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2241,7 +2246,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2261,7 +2266,7 @@
         <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2281,18 +2286,18 @@
         <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2301,7 +2306,7 @@
         <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2321,7 +2326,7 @@
         <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2337,11 +2342,8 @@
       <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2357,8 +2359,11 @@
       <c r="D31" t="s">
         <v>26</v>
       </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2372,13 +2377,13 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
         <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2392,13 +2397,13 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
         <v>58</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2418,7 +2423,7 @@
         <v>59</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2438,7 +2443,7 @@
         <v>60</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2458,7 +2463,7 @@
         <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2478,7 +2483,7 @@
         <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2498,7 +2503,7 @@
         <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2518,7 +2523,7 @@
         <v>64</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2534,11 +2539,8 @@
       <c r="D40" t="s">
         <v>27</v>
       </c>
-      <c r="E40" t="s">
-        <v>65</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2555,10 +2557,10 @@
         <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2575,10 +2577,10 @@
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2595,10 +2597,10 @@
         <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2614,8 +2616,11 @@
       <c r="D44" t="s">
         <v>27</v>
       </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2635,7 +2640,7 @@
         <v>69</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2654,8 +2659,8 @@
       <c r="E46" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>297</v>
+      <c r="F46" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2675,7 +2680,7 @@
         <v>71</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2695,7 +2700,7 @@
         <v>72</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2715,7 +2720,7 @@
         <v>73</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2735,7 +2740,7 @@
         <v>74</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2755,7 +2760,7 @@
         <v>75</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2775,7 +2780,7 @@
         <v>76</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2795,7 +2800,7 @@
         <v>77</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2815,7 +2820,7 @@
         <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2835,7 +2840,7 @@
         <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2851,11 +2856,8 @@
       <c r="D56" t="s">
         <v>27</v>
       </c>
-      <c r="E56" t="s">
-        <v>80</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2872,10 +2874,10 @@
         <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2892,10 +2894,10 @@
         <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2912,10 +2914,10 @@
         <v>27</v>
       </c>
       <c r="E59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2931,8 +2933,11 @@
       <c r="D60" t="s">
         <v>27</v>
       </c>
+      <c r="E60" t="s">
+        <v>83</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2952,7 +2957,7 @@
         <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2972,7 +2977,7 @@
         <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2992,7 +2997,7 @@
         <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3012,7 +3017,7 @@
         <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3032,7 +3037,7 @@
         <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3052,7 +3057,7 @@
         <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3072,7 +3077,7 @@
         <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3092,7 +3097,7 @@
         <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3109,10 +3114,10 @@
         <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3129,10 +3134,10 @@
         <v>27</v>
       </c>
       <c r="E70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3149,10 +3154,10 @@
         <v>27</v>
       </c>
       <c r="E71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3169,10 +3174,10 @@
         <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3189,10 +3194,10 @@
         <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3209,10 +3214,10 @@
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3229,10 +3234,10 @@
         <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3249,10 +3254,10 @@
         <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3269,10 +3274,10 @@
         <v>27</v>
       </c>
       <c r="E77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3289,10 +3294,10 @@
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3309,10 +3314,10 @@
         <v>27</v>
       </c>
       <c r="E79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3329,10 +3334,10 @@
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3349,10 +3354,10 @@
         <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3369,10 +3374,10 @@
         <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3389,10 +3394,10 @@
         <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3409,10 +3414,10 @@
         <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3429,10 +3434,10 @@
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3449,10 +3454,10 @@
         <v>27</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>316</v>
+        <v>108</v>
+      </c>
+      <c r="F86" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3469,10 +3474,10 @@
         <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>317</v>
+        <v>109</v>
+      </c>
+      <c r="F87" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3489,10 +3494,10 @@
         <v>27</v>
       </c>
       <c r="E88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3509,10 +3514,10 @@
         <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3529,10 +3534,10 @@
         <v>27</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>320</v>
+        <v>112</v>
+      </c>
+      <c r="F90" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3549,10 +3554,10 @@
         <v>27</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3569,10 +3574,10 @@
         <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>115</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>322</v>
+        <v>114</v>
+      </c>
+      <c r="F92" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3589,10 +3594,10 @@
         <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3609,10 +3614,10 @@
         <v>27</v>
       </c>
       <c r="E94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3629,10 +3634,10 @@
         <v>27</v>
       </c>
       <c r="E95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3649,10 +3654,10 @@
         <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3669,10 +3674,10 @@
         <v>27</v>
       </c>
       <c r="E97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>267</v>
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3689,7 +3694,7 @@
         <v>27</v>
       </c>
       <c r="E98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>327</v>
@@ -3709,7 +3714,7 @@
         <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>328</v>
@@ -3729,7 +3734,7 @@
         <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>329</v>
@@ -3749,7 +3754,7 @@
         <v>27</v>
       </c>
       <c r="E101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>330</v>
@@ -3769,7 +3774,7 @@
         <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>331</v>
@@ -3789,7 +3794,7 @@
         <v>27</v>
       </c>
       <c r="E103" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>332</v>
@@ -3809,7 +3814,7 @@
         <v>27</v>
       </c>
       <c r="E104" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>333</v>
@@ -3829,10 +3834,10 @@
         <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3849,10 +3854,10 @@
         <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3869,10 +3874,10 @@
         <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3889,10 +3894,10 @@
         <v>27</v>
       </c>
       <c r="E108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3908,11 +3913,8 @@
       <c r="D109" t="s">
         <v>27</v>
       </c>
-      <c r="E109" t="s">
-        <v>132</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3929,10 +3931,10 @@
         <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3949,10 +3951,10 @@
         <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3969,10 +3971,10 @@
         <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3988,8 +3990,11 @@
       <c r="D113" t="s">
         <v>27</v>
       </c>
+      <c r="E113" t="s">
+        <v>134</v>
+      </c>
       <c r="F113" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4006,10 +4011,10 @@
         <v>27</v>
       </c>
       <c r="E114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4026,10 +4031,10 @@
         <v>27</v>
       </c>
       <c r="E115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4046,10 +4051,10 @@
         <v>27</v>
       </c>
       <c r="E116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4066,10 +4071,10 @@
         <v>27</v>
       </c>
       <c r="E117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4086,10 +4091,10 @@
         <v>27</v>
       </c>
       <c r="E118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4106,10 +4111,10 @@
         <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4126,10 +4131,10 @@
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4146,10 +4151,10 @@
         <v>27</v>
       </c>
       <c r="E121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4166,10 +4171,10 @@
         <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4186,10 +4191,10 @@
         <v>27</v>
       </c>
       <c r="E123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4206,10 +4211,10 @@
         <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4226,10 +4231,10 @@
         <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4246,10 +4251,10 @@
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4266,10 +4271,10 @@
         <v>27</v>
       </c>
       <c r="E127" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4286,10 +4291,10 @@
         <v>27</v>
       </c>
       <c r="E128" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4306,10 +4311,10 @@
         <v>27</v>
       </c>
       <c r="E129" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4326,10 +4331,10 @@
         <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4346,7 +4351,7 @@
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>357</v>
@@ -4354,39 +4359,39 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
         <v>17</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D132" t="s">
         <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>21</v>
-      </c>
-      <c r="F132" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F132" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
         <v>27</v>
       </c>
       <c r="E133" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>359</v>
@@ -4394,19 +4399,19 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
         <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D134" t="s">
         <v>27</v>
       </c>
       <c r="E134" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>360</v>
@@ -4426,7 +4431,7 @@
         <v>27</v>
       </c>
       <c r="E135" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>361</v>
@@ -4446,10 +4451,10 @@
         <v>27</v>
       </c>
       <c r="E136" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4466,10 +4471,10 @@
         <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4486,10 +4491,10 @@
         <v>27</v>
       </c>
       <c r="E138" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4506,10 +4511,10 @@
         <v>27</v>
       </c>
       <c r="E139" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4526,10 +4531,10 @@
         <v>27</v>
       </c>
       <c r="E140" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4546,10 +4551,10 @@
         <v>27</v>
       </c>
       <c r="E141" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4566,10 +4571,10 @@
         <v>27</v>
       </c>
       <c r="E142" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4586,10 +4591,10 @@
         <v>27</v>
       </c>
       <c r="E143" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4606,10 +4611,10 @@
         <v>27</v>
       </c>
       <c r="E144" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4626,90 +4631,90 @@
         <v>27</v>
       </c>
       <c r="E145" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B146" t="s">
         <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
         <v>27</v>
       </c>
       <c r="E146" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B147" t="s">
         <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D147" t="s">
         <v>27</v>
       </c>
       <c r="E147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B148" t="s">
         <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D148" t="s">
         <v>27</v>
       </c>
       <c r="E148" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D149" t="s">
         <v>27</v>
       </c>
       <c r="E149" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4726,10 +4731,10 @@
         <v>27</v>
       </c>
       <c r="E150" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4746,10 +4751,10 @@
         <v>27</v>
       </c>
       <c r="E151" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4766,10 +4771,10 @@
         <v>27</v>
       </c>
       <c r="E152" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4786,10 +4791,10 @@
         <v>27</v>
       </c>
       <c r="E153" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4806,10 +4811,10 @@
         <v>27</v>
       </c>
       <c r="E154" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4826,10 +4831,10 @@
         <v>27</v>
       </c>
       <c r="E155" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4846,10 +4851,10 @@
         <v>27</v>
       </c>
       <c r="E156" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4866,10 +4871,10 @@
         <v>27</v>
       </c>
       <c r="E157" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4886,10 +4891,10 @@
         <v>27</v>
       </c>
       <c r="E158" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4906,10 +4911,10 @@
         <v>27</v>
       </c>
       <c r="E159" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4926,10 +4931,10 @@
         <v>27</v>
       </c>
       <c r="E160" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4946,10 +4951,10 @@
         <v>27</v>
       </c>
       <c r="E161" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4966,10 +4971,10 @@
         <v>27</v>
       </c>
       <c r="E162" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4986,10 +4991,10 @@
         <v>27</v>
       </c>
       <c r="E163" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5006,10 +5011,10 @@
         <v>27</v>
       </c>
       <c r="E164" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5026,10 +5031,10 @@
         <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5046,90 +5051,90 @@
         <v>27</v>
       </c>
       <c r="E166" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
         <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D167" t="s">
         <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
         <v>17</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
         <v>27</v>
       </c>
       <c r="E168" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
         <v>17</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D169" t="s">
         <v>27</v>
       </c>
       <c r="E169" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
         <v>17</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D170" t="s">
         <v>27</v>
       </c>
       <c r="E170" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5146,10 +5151,10 @@
         <v>27</v>
       </c>
       <c r="E171" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5166,10 +5171,10 @@
         <v>27</v>
       </c>
       <c r="E172" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5186,10 +5191,10 @@
         <v>27</v>
       </c>
       <c r="E173" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5206,7 +5211,7 @@
         <v>27</v>
       </c>
       <c r="E174" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>395</v>
@@ -5226,10 +5231,10 @@
         <v>27</v>
       </c>
       <c r="E175" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>282</v>
+        <v>396</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5246,10 +5251,10 @@
         <v>27</v>
       </c>
       <c r="E176" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5266,10 +5271,10 @@
         <v>27</v>
       </c>
       <c r="E177" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5286,10 +5291,10 @@
         <v>27</v>
       </c>
       <c r="E178" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5306,10 +5311,10 @@
         <v>27</v>
       </c>
       <c r="E179" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5326,10 +5331,10 @@
         <v>27</v>
       </c>
       <c r="E180" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5346,90 +5351,90 @@
         <v>27</v>
       </c>
       <c r="E181" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
         <v>17</v>
       </c>
       <c r="C182" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D182" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E182" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>278</v>
+        <v>403</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
         <v>17</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D183" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E183" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>402</v>
+        <v>259</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B184" t="s">
         <v>17</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E184" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
         <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D185" t="s">
         <v>27</v>
       </c>
       <c r="E185" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5443,13 +5448,13 @@
         <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E186" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5463,13 +5468,13 @@
         <v>22</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E187" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5483,13 +5488,13 @@
         <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E188" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5506,10 +5511,10 @@
         <v>27</v>
       </c>
       <c r="E189" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5526,10 +5531,10 @@
         <v>27</v>
       </c>
       <c r="E190" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5546,10 +5551,10 @@
         <v>27</v>
       </c>
       <c r="E191" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5566,10 +5571,10 @@
         <v>27</v>
       </c>
       <c r="E192" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5586,10 +5591,10 @@
         <v>27</v>
       </c>
       <c r="E193" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5606,10 +5611,10 @@
         <v>27</v>
       </c>
       <c r="E194" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5626,10 +5631,10 @@
         <v>27</v>
       </c>
       <c r="E195" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5646,10 +5651,10 @@
         <v>27</v>
       </c>
       <c r="E196" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5666,90 +5671,90 @@
         <v>27</v>
       </c>
       <c r="E197" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B198" t="s">
         <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D198" t="s">
         <v>27</v>
       </c>
       <c r="E198" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B199" t="s">
         <v>17</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D199" t="s">
         <v>27</v>
       </c>
       <c r="E199" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
         <v>17</v>
       </c>
       <c r="C200" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D200" t="s">
         <v>27</v>
       </c>
       <c r="E200" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B201" t="s">
         <v>17</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D201" t="s">
         <v>27</v>
       </c>
       <c r="E201" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5766,10 +5771,10 @@
         <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5786,10 +5791,10 @@
         <v>27</v>
       </c>
       <c r="E203" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5806,10 +5811,10 @@
         <v>27</v>
       </c>
       <c r="E204" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5826,10 +5831,10 @@
         <v>27</v>
       </c>
       <c r="E205" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5846,10 +5851,10 @@
         <v>27</v>
       </c>
       <c r="E206" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5866,10 +5871,10 @@
         <v>27</v>
       </c>
       <c r="E207" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5886,10 +5891,10 @@
         <v>27</v>
       </c>
       <c r="E208" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5906,110 +5911,110 @@
         <v>27</v>
       </c>
       <c r="E209" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B210" t="s">
         <v>17</v>
       </c>
       <c r="C210" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E210" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B211" t="s">
         <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D211" t="s">
         <v>27</v>
       </c>
       <c r="E211" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B212" t="s">
         <v>17</v>
       </c>
       <c r="C212" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D212" t="s">
         <v>27</v>
       </c>
       <c r="E212" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B213" t="s">
         <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D213" t="s">
         <v>27</v>
       </c>
       <c r="E213" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B214" t="s">
         <v>17</v>
       </c>
       <c r="C214" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D214" t="s">
         <v>27</v>
       </c>
       <c r="E214" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6023,13 +6028,13 @@
         <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E215" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6046,10 +6051,10 @@
         <v>27</v>
       </c>
       <c r="E216" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6066,10 +6071,10 @@
         <v>27</v>
       </c>
       <c r="E217" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6086,10 +6091,10 @@
         <v>27</v>
       </c>
       <c r="E218" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6106,10 +6111,10 @@
         <v>27</v>
       </c>
       <c r="E219" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6126,10 +6131,10 @@
         <v>27</v>
       </c>
       <c r="E220" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6146,10 +6151,10 @@
         <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6166,10 +6171,10 @@
         <v>27</v>
       </c>
       <c r="E222" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6186,110 +6191,110 @@
         <v>27</v>
       </c>
       <c r="E223" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>380</v>
+        <v>441</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B224" t="s">
         <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E224" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B225" t="s">
         <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D225" t="s">
         <v>27</v>
       </c>
       <c r="E225" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B226" t="s">
         <v>17</v>
       </c>
       <c r="C226" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D226" t="s">
         <v>27</v>
       </c>
       <c r="E226" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B227" t="s">
         <v>17</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>27</v>
       </c>
       <c r="E227" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B228" t="s">
         <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
         <v>27</v>
       </c>
       <c r="E228" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6303,13 +6308,13 @@
         <v>25</v>
       </c>
       <c r="D229" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E229" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6326,10 +6331,10 @@
         <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6346,10 +6351,10 @@
         <v>27</v>
       </c>
       <c r="E231" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6366,10 +6371,10 @@
         <v>27</v>
       </c>
       <c r="E232" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6386,10 +6391,10 @@
         <v>27</v>
       </c>
       <c r="E233" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6406,10 +6411,10 @@
         <v>27</v>
       </c>
       <c r="E234" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6426,10 +6431,10 @@
         <v>27</v>
       </c>
       <c r="E235" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6446,110 +6451,10 @@
         <v>27</v>
       </c>
       <c r="E236" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" t="s">
-        <v>15</v>
-      </c>
-      <c r="B237" t="s">
-        <v>17</v>
-      </c>
-      <c r="C237" t="s">
-        <v>25</v>
-      </c>
-      <c r="D237" t="s">
-        <v>27</v>
-      </c>
-      <c r="E237" t="s">
-        <v>255</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" t="s">
-        <v>15</v>
-      </c>
-      <c r="B238" t="s">
-        <v>17</v>
-      </c>
-      <c r="C238" t="s">
-        <v>25</v>
-      </c>
-      <c r="D238" t="s">
-        <v>27</v>
-      </c>
-      <c r="E238" t="s">
-        <v>256</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" t="s">
-        <v>15</v>
-      </c>
-      <c r="B239" t="s">
-        <v>17</v>
-      </c>
-      <c r="C239" t="s">
-        <v>25</v>
-      </c>
-      <c r="D239" t="s">
-        <v>27</v>
-      </c>
-      <c r="E239" t="s">
-        <v>237</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" t="s">
-        <v>15</v>
-      </c>
-      <c r="B240" t="s">
-        <v>17</v>
-      </c>
-      <c r="C240" t="s">
-        <v>25</v>
-      </c>
-      <c r="D240" t="s">
-        <v>27</v>
-      </c>
-      <c r="E240" t="s">
-        <v>257</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" t="s">
-        <v>15</v>
-      </c>
-      <c r="B241" t="s">
-        <v>17</v>
-      </c>
-      <c r="C241" t="s">
-        <v>25</v>
-      </c>
-      <c r="D241" t="s">
-        <v>27</v>
-      </c>
-      <c r="E241" t="s">
-        <v>258</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -6570,7 +6475,7 @@
     <hyperlink ref="F15" r:id="rId14"/>
     <hyperlink ref="F16" r:id="rId15"/>
     <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F18" r:id="rId17" location="/brief/course/b75141778f8c4061babaebd31d57c090"/>
     <hyperlink ref="F19" r:id="rId18"/>
     <hyperlink ref="F20" r:id="rId19"/>
     <hyperlink ref="F21" r:id="rId20"/>
@@ -6578,7 +6483,7 @@
     <hyperlink ref="F23" r:id="rId22"/>
     <hyperlink ref="F24" r:id="rId23"/>
     <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25" location="/sina/single/1n58719m3834?parentType=column&amp;parentId=f5443bd63a8b4e858b9225ffa008a6c6"/>
+    <hyperlink ref="F26" r:id="rId25"/>
     <hyperlink ref="F27" r:id="rId26"/>
     <hyperlink ref="F28" r:id="rId27"/>
     <hyperlink ref="F29" r:id="rId28"/>
@@ -6598,202 +6503,191 @@
     <hyperlink ref="F43" r:id="rId42"/>
     <hyperlink ref="F44" r:id="rId43"/>
     <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F48" r:id="rId47"/>
-    <hyperlink ref="F49" r:id="rId48"/>
-    <hyperlink ref="F50" r:id="rId49"/>
-    <hyperlink ref="F51" r:id="rId50"/>
-    <hyperlink ref="F52" r:id="rId51"/>
-    <hyperlink ref="F53" r:id="rId52"/>
-    <hyperlink ref="F54" r:id="rId53"/>
-    <hyperlink ref="F55" r:id="rId54"/>
-    <hyperlink ref="F56" r:id="rId55"/>
-    <hyperlink ref="F57" r:id="rId56"/>
-    <hyperlink ref="F58" r:id="rId57"/>
-    <hyperlink ref="F59" r:id="rId58"/>
-    <hyperlink ref="F60" r:id="rId59"/>
-    <hyperlink ref="F61" r:id="rId60"/>
-    <hyperlink ref="F62" r:id="rId61"/>
-    <hyperlink ref="F63" r:id="rId62"/>
-    <hyperlink ref="F64" r:id="rId63"/>
-    <hyperlink ref="F65" r:id="rId64"/>
-    <hyperlink ref="F66" r:id="rId65"/>
-    <hyperlink ref="F67" r:id="rId66"/>
-    <hyperlink ref="F68" r:id="rId67"/>
-    <hyperlink ref="F69" r:id="rId68"/>
-    <hyperlink ref="F70" r:id="rId69"/>
-    <hyperlink ref="F71" r:id="rId70"/>
-    <hyperlink ref="F72" r:id="rId71"/>
-    <hyperlink ref="F73" r:id="rId72"/>
-    <hyperlink ref="F74" r:id="rId73"/>
-    <hyperlink ref="F75" r:id="rId74"/>
-    <hyperlink ref="F76" r:id="rId75"/>
-    <hyperlink ref="F77" r:id="rId76"/>
-    <hyperlink ref="F78" r:id="rId77"/>
-    <hyperlink ref="F79" r:id="rId78"/>
-    <hyperlink ref="F80" r:id="rId79"/>
-    <hyperlink ref="F81" r:id="rId80"/>
-    <hyperlink ref="F82" r:id="rId81"/>
-    <hyperlink ref="F83" r:id="rId82"/>
-    <hyperlink ref="F84" r:id="rId83"/>
-    <hyperlink ref="F85" r:id="rId84"/>
-    <hyperlink ref="F86" r:id="rId85"/>
-    <hyperlink ref="F87" r:id="rId86"/>
-    <hyperlink ref="F88" r:id="rId87"/>
-    <hyperlink ref="F89" r:id="rId88"/>
-    <hyperlink ref="F90" r:id="rId89"/>
-    <hyperlink ref="F91" r:id="rId90"/>
-    <hyperlink ref="F92" r:id="rId91"/>
-    <hyperlink ref="F93" r:id="rId92"/>
-    <hyperlink ref="F94" r:id="rId93"/>
-    <hyperlink ref="F95" r:id="rId94"/>
-    <hyperlink ref="F96" r:id="rId95"/>
-    <hyperlink ref="F97" r:id="rId96"/>
-    <hyperlink ref="F98" r:id="rId97"/>
-    <hyperlink ref="F99" r:id="rId98"/>
-    <hyperlink ref="F100" r:id="rId99"/>
-    <hyperlink ref="F101" r:id="rId100" location="/sina/brief/column/757bacbe813249689ab15c319e8baea4"/>
-    <hyperlink ref="F102" r:id="rId101" location="/sina/single/1n5871913834?parentType=column&amp;parentId=757bacbe813249689ab15c319e8baea4%20%20"/>
-    <hyperlink ref="F103" r:id="rId102" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F104" r:id="rId103" location="/sina/single/7lnk6l331kj2?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F105" r:id="rId104"/>
-    <hyperlink ref="F106" r:id="rId105"/>
-    <hyperlink ref="F107" r:id="rId106"/>
-    <hyperlink ref="F108" r:id="rId107"/>
-    <hyperlink ref="F109" r:id="rId108"/>
-    <hyperlink ref="F110" r:id="rId109"/>
-    <hyperlink ref="F111" r:id="rId110"/>
-    <hyperlink ref="F112" r:id="rId111"/>
-    <hyperlink ref="F113" r:id="rId112"/>
-    <hyperlink ref="F114" r:id="rId113"/>
-    <hyperlink ref="F115" r:id="rId114"/>
-    <hyperlink ref="F116" r:id="rId115"/>
-    <hyperlink ref="F117" r:id="rId116"/>
-    <hyperlink ref="F118" r:id="rId117"/>
-    <hyperlink ref="F119" r:id="rId118"/>
-    <hyperlink ref="F120" r:id="rId119"/>
-    <hyperlink ref="F121" r:id="rId120"/>
-    <hyperlink ref="F122" r:id="rId121"/>
-    <hyperlink ref="F123" r:id="rId122"/>
-    <hyperlink ref="F124" r:id="rId123"/>
-    <hyperlink ref="F125" r:id="rId124" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F126" r:id="rId125" location="/sina/single/24j842571851?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F127" r:id="rId126"/>
-    <hyperlink ref="F128" r:id="rId127"/>
-    <hyperlink ref="F129" r:id="rId128"/>
-    <hyperlink ref="F130" r:id="rId129"/>
-    <hyperlink ref="F131" r:id="rId130"/>
-    <hyperlink ref="F132" r:id="rId131"/>
-    <hyperlink ref="F133" r:id="rId132"/>
-    <hyperlink ref="F134" r:id="rId133"/>
-    <hyperlink ref="F135" r:id="rId134"/>
-    <hyperlink ref="F136" r:id="rId135"/>
-    <hyperlink ref="F137" r:id="rId136"/>
-    <hyperlink ref="F138" r:id="rId137"/>
-    <hyperlink ref="F139" r:id="rId138"/>
-    <hyperlink ref="F140" r:id="rId139"/>
-    <hyperlink ref="F141" r:id="rId140"/>
-    <hyperlink ref="F142" r:id="rId141"/>
-    <hyperlink ref="F143" r:id="rId142"/>
-    <hyperlink ref="F144" r:id="rId143"/>
-    <hyperlink ref="F145" r:id="rId144"/>
-    <hyperlink ref="F146" r:id="rId145"/>
-    <hyperlink ref="F147" r:id="rId146"/>
-    <hyperlink ref="F148" r:id="rId147"/>
-    <hyperlink ref="F149" r:id="rId148"/>
-    <hyperlink ref="F150" r:id="rId149"/>
-    <hyperlink ref="F151" r:id="rId150"/>
-    <hyperlink ref="F152" r:id="rId151"/>
-    <hyperlink ref="F153" r:id="rId152"/>
-    <hyperlink ref="F154" r:id="rId153"/>
-    <hyperlink ref="F155" r:id="rId154"/>
-    <hyperlink ref="F156" r:id="rId155"/>
-    <hyperlink ref="F157" r:id="rId156"/>
-    <hyperlink ref="F158" r:id="rId157"/>
-    <hyperlink ref="F159" r:id="rId158"/>
-    <hyperlink ref="F160" r:id="rId159"/>
-    <hyperlink ref="F161" r:id="rId160"/>
-    <hyperlink ref="F162" r:id="rId161"/>
-    <hyperlink ref="F163" r:id="rId162"/>
-    <hyperlink ref="F164" r:id="rId163"/>
-    <hyperlink ref="F165" r:id="rId164"/>
-    <hyperlink ref="F166" r:id="rId165"/>
-    <hyperlink ref="F167" r:id="rId166"/>
-    <hyperlink ref="F168" r:id="rId167"/>
-    <hyperlink ref="F169" r:id="rId168"/>
-    <hyperlink ref="F170" r:id="rId169"/>
-    <hyperlink ref="F171" r:id="rId170"/>
-    <hyperlink ref="F172" r:id="rId171"/>
-    <hyperlink ref="F173" r:id="rId172"/>
-    <hyperlink ref="F174" r:id="rId173"/>
-    <hyperlink ref="F175" r:id="rId174"/>
-    <hyperlink ref="F176" r:id="rId175"/>
-    <hyperlink ref="F177" r:id="rId176"/>
-    <hyperlink ref="F178" r:id="rId177"/>
-    <hyperlink ref="F179" r:id="rId178"/>
-    <hyperlink ref="F180" r:id="rId179"/>
-    <hyperlink ref="F181" r:id="rId180"/>
-    <hyperlink ref="F182" r:id="rId181"/>
-    <hyperlink ref="F183" r:id="rId182"/>
-    <hyperlink ref="F184" r:id="rId183"/>
-    <hyperlink ref="F185" r:id="rId184"/>
-    <hyperlink ref="F186" r:id="rId185"/>
-    <hyperlink ref="F187" r:id="rId186"/>
-    <hyperlink ref="F188" r:id="rId187"/>
-    <hyperlink ref="F189" r:id="rId188"/>
-    <hyperlink ref="F190" r:id="rId189"/>
-    <hyperlink ref="F191" r:id="rId190"/>
-    <hyperlink ref="F192" r:id="rId191"/>
-    <hyperlink ref="F193" r:id="rId192"/>
-    <hyperlink ref="F194" r:id="rId193"/>
-    <hyperlink ref="F195" r:id="rId194"/>
-    <hyperlink ref="F196" r:id="rId195"/>
-    <hyperlink ref="F197" r:id="rId196"/>
-    <hyperlink ref="F198" r:id="rId197"/>
-    <hyperlink ref="F199" r:id="rId198"/>
-    <hyperlink ref="F200" r:id="rId199"/>
-    <hyperlink ref="F201" r:id="rId200"/>
-    <hyperlink ref="F202" r:id="rId201"/>
-    <hyperlink ref="F203" r:id="rId202"/>
-    <hyperlink ref="F204" r:id="rId203"/>
-    <hyperlink ref="F205" r:id="rId204" location="0"/>
-    <hyperlink ref="F206" r:id="rId205" location="0"/>
-    <hyperlink ref="F207" r:id="rId206"/>
-    <hyperlink ref="F208" r:id="rId207"/>
-    <hyperlink ref="F209" r:id="rId208"/>
-    <hyperlink ref="F210" r:id="rId209"/>
-    <hyperlink ref="F211" r:id="rId210"/>
-    <hyperlink ref="F212" r:id="rId211"/>
-    <hyperlink ref="F213" r:id="rId212"/>
-    <hyperlink ref="F214" r:id="rId213"/>
-    <hyperlink ref="F215" r:id="rId214"/>
-    <hyperlink ref="F216" r:id="rId215"/>
-    <hyperlink ref="F217" r:id="rId216"/>
-    <hyperlink ref="F218" r:id="rId217"/>
-    <hyperlink ref="F219" r:id="rId218"/>
-    <hyperlink ref="F220" r:id="rId219"/>
-    <hyperlink ref="F221" r:id="rId220"/>
-    <hyperlink ref="F222" r:id="rId221"/>
-    <hyperlink ref="F223" r:id="rId222"/>
-    <hyperlink ref="F224" r:id="rId223"/>
-    <hyperlink ref="F225" r:id="rId224"/>
-    <hyperlink ref="F226" r:id="rId225"/>
-    <hyperlink ref="F227" r:id="rId226"/>
-    <hyperlink ref="F228" r:id="rId227"/>
-    <hyperlink ref="F229" r:id="rId228"/>
-    <hyperlink ref="F230" r:id="rId229"/>
-    <hyperlink ref="F231" r:id="rId230"/>
-    <hyperlink ref="F232" r:id="rId231"/>
-    <hyperlink ref="F233" r:id="rId232"/>
-    <hyperlink ref="F234" r:id="rId233"/>
-    <hyperlink ref="F235" r:id="rId234"/>
-    <hyperlink ref="F236" r:id="rId235"/>
-    <hyperlink ref="F237" r:id="rId236"/>
-    <hyperlink ref="F238" r:id="rId237"/>
-    <hyperlink ref="F239" r:id="rId238"/>
-    <hyperlink ref="F240" r:id="rId239"/>
-    <hyperlink ref="F241" r:id="rId240"/>
+    <hyperlink ref="F47" r:id="rId45"/>
+    <hyperlink ref="F48" r:id="rId46"/>
+    <hyperlink ref="F49" r:id="rId47"/>
+    <hyperlink ref="F50" r:id="rId48"/>
+    <hyperlink ref="F51" r:id="rId49"/>
+    <hyperlink ref="F52" r:id="rId50"/>
+    <hyperlink ref="F53" r:id="rId51"/>
+    <hyperlink ref="F54" r:id="rId52"/>
+    <hyperlink ref="F55" r:id="rId53"/>
+    <hyperlink ref="F56" r:id="rId54"/>
+    <hyperlink ref="F57" r:id="rId55"/>
+    <hyperlink ref="F58" r:id="rId56"/>
+    <hyperlink ref="F59" r:id="rId57"/>
+    <hyperlink ref="F60" r:id="rId58"/>
+    <hyperlink ref="F61" r:id="rId59"/>
+    <hyperlink ref="F62" r:id="rId60"/>
+    <hyperlink ref="F63" r:id="rId61"/>
+    <hyperlink ref="F64" r:id="rId62"/>
+    <hyperlink ref="F65" r:id="rId63"/>
+    <hyperlink ref="F66" r:id="rId64"/>
+    <hyperlink ref="F67" r:id="rId65"/>
+    <hyperlink ref="F68" r:id="rId66"/>
+    <hyperlink ref="F69" r:id="rId67"/>
+    <hyperlink ref="F70" r:id="rId68"/>
+    <hyperlink ref="F71" r:id="rId69"/>
+    <hyperlink ref="F72" r:id="rId70"/>
+    <hyperlink ref="F73" r:id="rId71"/>
+    <hyperlink ref="F74" r:id="rId72"/>
+    <hyperlink ref="F75" r:id="rId73"/>
+    <hyperlink ref="F76" r:id="rId74"/>
+    <hyperlink ref="F77" r:id="rId75"/>
+    <hyperlink ref="F78" r:id="rId76"/>
+    <hyperlink ref="F79" r:id="rId77"/>
+    <hyperlink ref="F80" r:id="rId78"/>
+    <hyperlink ref="F81" r:id="rId79"/>
+    <hyperlink ref="F82" r:id="rId80"/>
+    <hyperlink ref="F83" r:id="rId81"/>
+    <hyperlink ref="F84" r:id="rId82"/>
+    <hyperlink ref="F85" r:id="rId83"/>
+    <hyperlink ref="F88" r:id="rId84"/>
+    <hyperlink ref="F89" r:id="rId85"/>
+    <hyperlink ref="F91" r:id="rId86"/>
+    <hyperlink ref="F93" r:id="rId87" location="/sinacourse/7234a949213d40b285d95063e4855283"/>
+    <hyperlink ref="F94" r:id="rId88" location="/sinacourse/c1c893194faf4079af5985cc12c949e7"/>
+    <hyperlink ref="F95" r:id="rId89"/>
+    <hyperlink ref="F96" r:id="rId90" location="/sina/single/l25km13l7kn1?parentType=column&amp;parentId=f5443bd63a8b4e858b9225ffa008a6c6"/>
+    <hyperlink ref="F97" r:id="rId91" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F98" r:id="rId92" location="/sina/single/5lm839679896?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F99" r:id="rId93"/>
+    <hyperlink ref="F100" r:id="rId94"/>
+    <hyperlink ref="F101" r:id="rId95"/>
+    <hyperlink ref="F102" r:id="rId96"/>
+    <hyperlink ref="F103" r:id="rId97"/>
+    <hyperlink ref="F104" r:id="rId98"/>
+    <hyperlink ref="F105" r:id="rId99"/>
+    <hyperlink ref="F106" r:id="rId100"/>
+    <hyperlink ref="F107" r:id="rId101"/>
+    <hyperlink ref="F108" r:id="rId102"/>
+    <hyperlink ref="F109" r:id="rId103"/>
+    <hyperlink ref="F110" r:id="rId104"/>
+    <hyperlink ref="F111" r:id="rId105"/>
+    <hyperlink ref="F112" r:id="rId106"/>
+    <hyperlink ref="F113" r:id="rId107"/>
+    <hyperlink ref="F114" r:id="rId108"/>
+    <hyperlink ref="F115" r:id="rId109"/>
+    <hyperlink ref="F116" r:id="rId110"/>
+    <hyperlink ref="F117" r:id="rId111"/>
+    <hyperlink ref="F118" r:id="rId112"/>
+    <hyperlink ref="F119" r:id="rId113"/>
+    <hyperlink ref="F120" r:id="rId114"/>
+    <hyperlink ref="F121" r:id="rId115"/>
+    <hyperlink ref="F122" r:id="rId116" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F123" r:id="rId117" location="/sina/single/l25km13n7kn1?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F124" r:id="rId118"/>
+    <hyperlink ref="F125" r:id="rId119"/>
+    <hyperlink ref="F126" r:id="rId120"/>
+    <hyperlink ref="F127" r:id="rId121"/>
+    <hyperlink ref="F128" r:id="rId122"/>
+    <hyperlink ref="F129" r:id="rId123"/>
+    <hyperlink ref="F130" r:id="rId124"/>
+    <hyperlink ref="F131" r:id="rId125"/>
+    <hyperlink ref="F133" r:id="rId126"/>
+    <hyperlink ref="F134" r:id="rId127"/>
+    <hyperlink ref="F135" r:id="rId128"/>
+    <hyperlink ref="F136" r:id="rId129"/>
+    <hyperlink ref="F137" r:id="rId130"/>
+    <hyperlink ref="F138" r:id="rId131"/>
+    <hyperlink ref="F139" r:id="rId132"/>
+    <hyperlink ref="F140" r:id="rId133"/>
+    <hyperlink ref="F141" r:id="rId134"/>
+    <hyperlink ref="F142" r:id="rId135"/>
+    <hyperlink ref="F143" r:id="rId136"/>
+    <hyperlink ref="F144" r:id="rId137"/>
+    <hyperlink ref="F145" r:id="rId138"/>
+    <hyperlink ref="F146" r:id="rId139"/>
+    <hyperlink ref="F147" r:id="rId140"/>
+    <hyperlink ref="F148" r:id="rId141"/>
+    <hyperlink ref="F149" r:id="rId142"/>
+    <hyperlink ref="F150" r:id="rId143"/>
+    <hyperlink ref="F151" r:id="rId144"/>
+    <hyperlink ref="F152" r:id="rId145"/>
+    <hyperlink ref="F153" r:id="rId146"/>
+    <hyperlink ref="F154" r:id="rId147"/>
+    <hyperlink ref="F155" r:id="rId148"/>
+    <hyperlink ref="F156" r:id="rId149"/>
+    <hyperlink ref="F157" r:id="rId150"/>
+    <hyperlink ref="F158" r:id="rId151"/>
+    <hyperlink ref="F159" r:id="rId152"/>
+    <hyperlink ref="F160" r:id="rId153"/>
+    <hyperlink ref="F161" r:id="rId154"/>
+    <hyperlink ref="F162" r:id="rId155"/>
+    <hyperlink ref="F163" r:id="rId156"/>
+    <hyperlink ref="F164" r:id="rId157"/>
+    <hyperlink ref="F165" r:id="rId158"/>
+    <hyperlink ref="F166" r:id="rId159"/>
+    <hyperlink ref="F167" r:id="rId160"/>
+    <hyperlink ref="F168" r:id="rId161"/>
+    <hyperlink ref="F169" r:id="rId162"/>
+    <hyperlink ref="F170" r:id="rId163"/>
+    <hyperlink ref="F171" r:id="rId164"/>
+    <hyperlink ref="F172" r:id="rId165"/>
+    <hyperlink ref="F173" r:id="rId166"/>
+    <hyperlink ref="F174" r:id="rId167"/>
+    <hyperlink ref="F175" r:id="rId168"/>
+    <hyperlink ref="F176" r:id="rId169"/>
+    <hyperlink ref="F177" r:id="rId170"/>
+    <hyperlink ref="F178" r:id="rId171"/>
+    <hyperlink ref="F179" r:id="rId172"/>
+    <hyperlink ref="F180" r:id="rId173"/>
+    <hyperlink ref="F181" r:id="rId174"/>
+    <hyperlink ref="F182" r:id="rId175"/>
+    <hyperlink ref="F183" r:id="rId176"/>
+    <hyperlink ref="F184" r:id="rId177"/>
+    <hyperlink ref="F185" r:id="rId178"/>
+    <hyperlink ref="F186" r:id="rId179"/>
+    <hyperlink ref="F187" r:id="rId180"/>
+    <hyperlink ref="F188" r:id="rId181"/>
+    <hyperlink ref="F189" r:id="rId182"/>
+    <hyperlink ref="F190" r:id="rId183"/>
+    <hyperlink ref="F191" r:id="rId184"/>
+    <hyperlink ref="F192" r:id="rId185"/>
+    <hyperlink ref="F193" r:id="rId186"/>
+    <hyperlink ref="F194" r:id="rId187"/>
+    <hyperlink ref="F195" r:id="rId188"/>
+    <hyperlink ref="F196" r:id="rId189"/>
+    <hyperlink ref="F197" r:id="rId190"/>
+    <hyperlink ref="F198" r:id="rId191"/>
+    <hyperlink ref="F199" r:id="rId192"/>
+    <hyperlink ref="F200" r:id="rId193"/>
+    <hyperlink ref="F201" r:id="rId194" location="0"/>
+    <hyperlink ref="F202" r:id="rId195"/>
+    <hyperlink ref="F203" r:id="rId196"/>
+    <hyperlink ref="F204" r:id="rId197"/>
+    <hyperlink ref="F205" r:id="rId198"/>
+    <hyperlink ref="F206" r:id="rId199"/>
+    <hyperlink ref="F207" r:id="rId200"/>
+    <hyperlink ref="F208" r:id="rId201"/>
+    <hyperlink ref="F209" r:id="rId202"/>
+    <hyperlink ref="F210" r:id="rId203"/>
+    <hyperlink ref="F211" r:id="rId204"/>
+    <hyperlink ref="F212" r:id="rId205"/>
+    <hyperlink ref="F213" r:id="rId206"/>
+    <hyperlink ref="F214" r:id="rId207"/>
+    <hyperlink ref="F215" r:id="rId208"/>
+    <hyperlink ref="F216" r:id="rId209"/>
+    <hyperlink ref="F217" r:id="rId210"/>
+    <hyperlink ref="F218" r:id="rId211"/>
+    <hyperlink ref="F219" r:id="rId212"/>
+    <hyperlink ref="F220" r:id="rId213"/>
+    <hyperlink ref="F221" r:id="rId214"/>
+    <hyperlink ref="F222" r:id="rId215"/>
+    <hyperlink ref="F223" r:id="rId216"/>
+    <hyperlink ref="F224" r:id="rId217"/>
+    <hyperlink ref="F225" r:id="rId218"/>
+    <hyperlink ref="F226" r:id="rId219"/>
+    <hyperlink ref="F227" r:id="rId220"/>
+    <hyperlink ref="F228" r:id="rId221"/>
+    <hyperlink ref="F229" r:id="rId222"/>
+    <hyperlink ref="F230" r:id="rId223"/>
+    <hyperlink ref="F231" r:id="rId224"/>
+    <hyperlink ref="F232" r:id="rId225"/>
+    <hyperlink ref="F233" r:id="rId226"/>
+    <hyperlink ref="F234" r:id="rId227"/>
+    <hyperlink ref="F235" r:id="rId228"/>
+    <hyperlink ref="F236" r:id="rId229"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/news.xlsx
+++ b/web/news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="475">
   <si>
     <t>来源</t>
   </si>
@@ -100,109 +100,115 @@
     <t>消息</t>
   </si>
   <si>
-    <t>天舟二号与天和核心舱对接</t>
-  </si>
-  <si>
-    <t>今天，让我们再次致敬……</t>
-  </si>
-  <si>
-    <t>我国每年因吸烟死亡人数超100万</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广州此轮疫情溯源结果公布 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">北大教授吐槽“学渣”女儿！网友：人间真实…… </t>
-  </si>
-  <si>
-    <t>人民币汇率现急涨行情</t>
-  </si>
-  <si>
-    <t>四因素不能忽视</t>
-  </si>
-  <si>
-    <t>盛松成:人民币快速升值不可持续</t>
-  </si>
-  <si>
-    <t>人民币升值 哪些行业或将受益</t>
-  </si>
-  <si>
-    <t>不能对冲个别大宗商品大涨</t>
-  </si>
-  <si>
-    <t>明明:人民币对美元汇率很可能到6.2</t>
-  </si>
-  <si>
-    <t>热点城市调控</t>
-  </si>
-  <si>
-    <t>发布二手房成交参考价</t>
-  </si>
-  <si>
-    <t>深圳成都稳楼市预期</t>
-  </si>
-  <si>
-    <t>多地上调房贷利率 全国楼市"加息潮"来了?</t>
-  </si>
-  <si>
-    <t>一线城市围堵炒房资金</t>
-  </si>
-  <si>
-    <t>中国住房市值报告：在国际处于什么水平</t>
-  </si>
-  <si>
-    <t>券商:人民币升值助力牛市重建</t>
-  </si>
-  <si>
-    <t>受益行业</t>
-  </si>
-  <si>
-    <t>最早喊挑战四千点机构有新观点</t>
-  </si>
-  <si>
-    <t>机构盯一板块</t>
-  </si>
-  <si>
-    <t>公募调仓瞄五行业</t>
+    <t>所谓“民主峰会”不得人心！</t>
+  </si>
+  <si>
+    <t>31省区市新增本土确诊60例</t>
+  </si>
+  <si>
+    <t>11月份居民消费价格同比上涨2.3%</t>
+  </si>
+  <si>
+    <t>谁给被拐孩子办户口？警方凌晨通报</t>
+  </si>
+  <si>
+    <t>外墙脱落伤人伤物，谁负责？谁维修？</t>
+  </si>
+  <si>
+    <t>入世二十周年</t>
+  </si>
+  <si>
+    <t>中国与世界共赢</t>
+  </si>
+  <si>
+    <t>加入WTO二十年回顾与展望</t>
+  </si>
+  <si>
+    <t>中国全面履行入世承诺</t>
+  </si>
+  <si>
+    <t>数读入世20年</t>
+  </si>
+  <si>
+    <t>入世20年启示录</t>
+  </si>
+  <si>
+    <t>中国并非"搭便车 捡便宜"</t>
+  </si>
+  <si>
+    <t>资本市场开放大事记</t>
+  </si>
+  <si>
+    <t>社融增速回升</t>
+  </si>
+  <si>
+    <t>人民币贷款新增1.27万亿</t>
+  </si>
+  <si>
+    <t>居民中长期贷款连续增长</t>
+  </si>
+  <si>
+    <t>社融增量2.6万亿</t>
+  </si>
+  <si>
+    <t>11月M2同比增长8.5%</t>
+  </si>
+  <si>
+    <t>货币政策加大支持实体</t>
+  </si>
+  <si>
+    <t>近万亿MLF将到期</t>
+  </si>
+  <si>
+    <t>11月金融数据说明什么</t>
+  </si>
+  <si>
+    <t>跨年行情开启?</t>
+  </si>
+  <si>
+    <t>主力瞄准消费</t>
+  </si>
+  <si>
+    <t>后市咋走</t>
+  </si>
+  <si>
+    <t>聪明钱疯扫210亿！买入这些股</t>
+  </si>
+  <si>
+    <t>补涨行情来了？银行股或成主线</t>
   </si>
   <si>
     <t>直播</t>
   </si>
   <si>
-    <t>货币政策对市场的影响</t>
-  </si>
-  <si>
-    <t>10股能翻涨一倍</t>
-  </si>
-  <si>
-    <t>电子行业策略</t>
+    <t>军工还能追吗</t>
+  </si>
+  <si>
+    <t>铝离子电池要来了吗</t>
+  </si>
+  <si>
+    <t>2022年市场前瞻</t>
   </si>
   <si>
     <t>秘籍</t>
   </si>
   <si>
-    <t>做多窗口继续</t>
-  </si>
-  <si>
-    <t>人民币汇率急涨</t>
-  </si>
-  <si>
-    <t>首批公募REITs开售</t>
-  </si>
-  <si>
-    <t>深化市场改革</t>
+    <t>跨年行情开启？</t>
+  </si>
+  <si>
+    <t>虎年瞄准大消费板块</t>
+  </si>
+  <si>
+    <t>千亿级新能源赛道重大利好发布在即</t>
   </si>
   <si>
     <t>大盘</t>
   </si>
   <si>
-    <t>大盘看涨</t>
-  </si>
-  <si>
-    <t>存量博弈转向增量行情</t>
-  </si>
-  <si>
-    <t>汇率是关键变量</t>
+    <t>南网科技等3股今申购</t>
+  </si>
+  <si>
+    <t>最贵新股询价报价相差14倍</t>
   </si>
   <si>
     <t>必读</t>
@@ -214,692 +220,731 @@
     <t>交易提示</t>
   </si>
   <si>
+    <t>股海导航</t>
+  </si>
+  <si>
     <t>操盘必读</t>
   </si>
   <si>
-    <t>股海导航</t>
-  </si>
-  <si>
     <t>财经早报</t>
   </si>
   <si>
     <t>主力</t>
   </si>
   <si>
-    <t>北向净买破纪录</t>
-  </si>
-  <si>
-    <t>未来3~5年1万亿外资流入</t>
-  </si>
-  <si>
-    <t>龙虎榜</t>
+    <t>“茅族”崛起 外资狂买超200亿！</t>
+  </si>
+  <si>
+    <t>买入了这些股</t>
   </si>
   <si>
     <t>观点</t>
   </si>
   <si>
-    <t>银河:建党百年行情可期</t>
-  </si>
-  <si>
-    <t>东吴:核心资产散是满天星</t>
+    <t>道达:"茅宁"两大阵营对决</t>
+  </si>
+  <si>
+    <t>元宇宙别死于树敌太多</t>
   </si>
   <si>
     <t>博客</t>
   </si>
   <si>
-    <t>加速反弹条件已具</t>
-  </si>
-  <si>
-    <t>顶部须逃命</t>
-  </si>
-  <si>
-    <t>短期回撤中期上行</t>
+    <t>筑成右肩挑战前高</t>
+  </si>
+  <si>
+    <t>资金正三路猛攻</t>
+  </si>
+  <si>
+    <t>一类股机会大</t>
   </si>
   <si>
     <t>研报</t>
   </si>
   <si>
-    <t xml:space="preserve">招商:产业园公募REITS分析
-</t>
-  </si>
-  <si>
-    <t>中泰:周期品运行变化</t>
+    <t>长江:传媒眺望远方</t>
+  </si>
+  <si>
+    <t>安信:拥抱计算机更"均衡"繁荣</t>
   </si>
   <si>
     <t>策略</t>
   </si>
   <si>
-    <t>中信:北向资金周解析</t>
-  </si>
-  <si>
-    <t>商品价回落 制造价值回升</t>
+    <t>机构关注港口概念股</t>
+  </si>
+  <si>
+    <t>年底补涨行情来了?看好银行</t>
   </si>
   <si>
     <t>解读</t>
   </si>
   <si>
-    <t>银河:黑色系产品价格上行</t>
-  </si>
-  <si>
-    <t>深圳成都稳定楼市</t>
-  </si>
-  <si>
-    <t>中阳反弹 只欠东风</t>
-  </si>
-  <si>
-    <t>短期注意关注这几类品种机会</t>
-  </si>
-  <si>
-    <t>这个顶部必须要逃命</t>
-  </si>
-  <si>
-    <t>3731点运行到现在的一些感悟和经验之谈</t>
-  </si>
-  <si>
-    <t>5月31日利好及其影响个股</t>
-  </si>
-  <si>
-    <t>5.31浪子炒股日记</t>
-  </si>
-  <si>
-    <t>继续坚定看好6月份行情</t>
-  </si>
-  <si>
-    <t>依然是分化和轮动</t>
-  </si>
-  <si>
-    <t>首批公募REITs开始认购</t>
-  </si>
-  <si>
-    <t>都是资金面大利好 本周会有大冲锋</t>
-  </si>
-  <si>
-    <t>大盘已具备加速反弹的条件</t>
-  </si>
-  <si>
-    <t>短期需回撤中期将上行</t>
-  </si>
-  <si>
-    <t>要剑指4000了 本周出暴涨并不稀奇</t>
-  </si>
-  <si>
-    <t>五月收官 机会看这里</t>
-  </si>
-  <si>
-    <t>打破五穷魔咒六月大盘稳了吗</t>
-  </si>
-  <si>
-    <t>白酒医疗钢铁等五大主题基金的应对之策</t>
-  </si>
-  <si>
-    <t>收官战如何演绎</t>
-  </si>
-  <si>
-    <t>5.31早间要闻评论</t>
-  </si>
-  <si>
-    <t>5月31日重点关注的板块及个股</t>
-  </si>
-  <si>
-    <t>周一早间市场信息</t>
-  </si>
-  <si>
-    <t>春季行情之尾声？</t>
-  </si>
-  <si>
-    <t>四消息影响大盘</t>
-  </si>
-  <si>
-    <t>证监会副主席李超:落实“九字方针”</t>
-  </si>
-  <si>
-    <t>退市新规威力彰显</t>
-  </si>
-  <si>
-    <t>银保监会梁涛:防范热钱大进出</t>
-  </si>
-  <si>
-    <t>29家券商入选“白名单”</t>
-  </si>
-  <si>
-    <t>时隔3个月再现爆款权益基金 “10倍基”大卖近400亿元</t>
-  </si>
-  <si>
-    <t>散户又胜：华尔街空头爆亏509亿 多只锂电龙头获调研</t>
+    <t>猪价反弹 CPI重回"2时代"</t>
+  </si>
+  <si>
+    <t>养老产业瞄准"互联网+"</t>
+  </si>
+  <si>
+    <t>外资爆买受限 大盘还能继续反弹吗</t>
+  </si>
+  <si>
+    <t>12月10日利好及其影响个股</t>
+  </si>
+  <si>
+    <t>需要一颗红心 两手准备</t>
+  </si>
+  <si>
+    <t>23股股东户数连续5期下降</t>
+  </si>
+  <si>
+    <t>下个阶段行情走势 应该还是轮动</t>
+  </si>
+  <si>
+    <t>A股释放重要信号 今日大盘怎么走</t>
+  </si>
+  <si>
+    <t>退市制度强化炒ST股风险大增</t>
+  </si>
+  <si>
+    <t>确定性看低位蓝筹 紧跟随机构脚步</t>
+  </si>
+  <si>
+    <t>资金正三路猛攻 这三路爆发力都强</t>
+  </si>
+  <si>
+    <t>关键时段关键时点关键的操作建议</t>
+  </si>
+  <si>
+    <t>划重点 周末埋伏什么方向</t>
+  </si>
+  <si>
+    <t>后面涨3倍机会大 一类股明摆着有</t>
+  </si>
+  <si>
+    <t>12月10日热点概念与题材前瞻</t>
+  </si>
+  <si>
+    <t>脱离底部的蓝筹值得期待</t>
+  </si>
+  <si>
+    <t>冲锋过猛需歇息 等洗盘补缺后再跟进</t>
+  </si>
+  <si>
+    <t>12.10早间要闻评论</t>
+  </si>
+  <si>
+    <t>如何才能与指数同步获得投资收益</t>
+  </si>
+  <si>
+    <t>提高外汇准备金率对市场的影响</t>
+  </si>
+  <si>
+    <t>新能源车又迎一重大利好</t>
+  </si>
+  <si>
+    <t>高价股≠大肉签</t>
+  </si>
+  <si>
+    <t>期待周线5浪反弹</t>
+  </si>
+  <si>
+    <t>暴赚350% 浮盈13.68亿！3200亿果链龙头派出"大红包"</t>
+  </si>
+  <si>
+    <t>跨境理财通启动3月:划汇金额超3亿 南北投资者口味存异</t>
+  </si>
+  <si>
+    <t>近一个月新股发行超募占比过半 "多出来的钱"该如何用?</t>
+  </si>
+  <si>
+    <t>2500亿乳业巨头120亿定增落地 53家机构重金抢筹</t>
   </si>
   <si>
     <t>行业</t>
   </si>
   <si>
-    <t>多地上调房贷利率 全国楼市“加息潮”真的来了？</t>
-  </si>
-  <si>
-    <t>人民币升值影响整体偏正面 不必担忧</t>
-  </si>
-  <si>
-    <t>哪些行业将受益？</t>
-  </si>
-  <si>
-    <t>教育巨头纷纷转向职业教育 哪些细分领域最受资本青睐</t>
-  </si>
-  <si>
-    <t>义乌快递价格战缩影：黄牛1000万快递单爆仓 圆通拖垮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蠢蠢欲动的福利：如何“搞钱”？这些大佬教你|报名 </t>
-  </si>
-  <si>
-    <t>王牌投研|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">估值近十年低位，稀缺标的开启扩张新征程 </t>
-  </si>
-  <si>
-    <t>硬核研报|</t>
-  </si>
-  <si>
-    <t>“至暗时刻”已过！军工板块预期差正在逆转</t>
-  </si>
-  <si>
-    <t>5年来最容易中签的新股就在今天</t>
-  </si>
-  <si>
-    <t>顶格申购或中20多签</t>
-  </si>
-  <si>
-    <t>王兴的无限战争:美团的烧钱无底洞 一季度亏损48.4亿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">让你蠢蠢欲动的福利：如何搞钱？这些大佬教你 </t>
-  </si>
-  <si>
-    <t>秘诀</t>
+    <t>苹果供应链危机持续发酵 最新品市场供应量减50%</t>
+  </si>
+  <si>
+    <t>上市公司连出大手笔 锂电铜箔扩产增能再提速</t>
+  </si>
+  <si>
+    <t>EDR概念火爆！龙头股8天5板，股价1个月翻倍</t>
+  </si>
+  <si>
+    <t>新冠特效药如何撬动市场</t>
+  </si>
+  <si>
+    <t>口服药挤压下抗体药利润在哪?</t>
+  </si>
+  <si>
+    <t>硬核研报</t>
+  </si>
+  <si>
+    <t>双12大促：满1000减500 捕捉潜力股必备</t>
+  </si>
+  <si>
+    <t>主力动向</t>
+  </si>
+  <si>
+    <t>川渝或有新交易所 这些公司望受益天时地利</t>
+  </si>
+  <si>
+    <t>机构内参|</t>
+  </si>
+  <si>
+    <t>我国首个漂浮式海上风电平台 核心受益名单</t>
+  </si>
+  <si>
+    <t>肥水分流冲击执业质量 国元证券投行项目现蹊跷利益链</t>
+  </si>
+  <si>
+    <t>12万股民懵了！东吴证券突然要配股 要么缴款要么亏钱</t>
+  </si>
+  <si>
+    <t>直播|</t>
+  </si>
+  <si>
+    <t>布局A50 打包中国核心资产</t>
+  </si>
+  <si>
+    <t>食饮反弹or反转</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 秘诀</t>
   </si>
   <si>
     <t>研报|</t>
   </si>
   <si>
-    <t>任泽平谈“躺平”、“内卷”</t>
-  </si>
-  <si>
-    <t>掘金车联网时代</t>
+    <t>通信碳中和政策加码</t>
+  </si>
+  <si>
+    <t>银河:地产业进入政策友好期</t>
   </si>
   <si>
     <t>公司</t>
   </si>
   <si>
-    <t>浪潮信息任职9年董事长离职 毛利率走低惹的祸？</t>
-  </si>
-  <si>
-    <t>BOSS直聘上市背后：绕不过的烧钱与盈利 三年亏10个亿</t>
-  </si>
-  <si>
-    <t>嘀嗒出行亏22亿二冲上市：屡被约谈与投诉 超车难度大</t>
+    <t>抢疯！伊利股份120亿定增落地 高毅、高瓴都来了</t>
+  </si>
+  <si>
+    <t>3000亿“中药茅”董事长辞职 上任8个月市值暴增800亿</t>
+  </si>
+  <si>
+    <t>券商奇葩事！华西营业部老总私刻公章骗了客户300多万</t>
+  </si>
+  <si>
+    <t>"最贵新股"禾迈股份询价报价首尾相差14倍 机构吵翻了</t>
   </si>
   <si>
     <t>地产</t>
   </si>
   <si>
-    <t>毛利率大幅下降 美的置业仍高溢价疯狂“抢”地</t>
-  </si>
-  <si>
-    <t>海悦生活难断奶:在管规模小 依赖母公司 外拓能力不足</t>
-  </si>
-  <si>
-    <t>中梁控股降速：盈利降债务高企 楼盘质量问题频遭投诉</t>
-  </si>
-  <si>
-    <t>三问家居重返IPO:主打原创设计研发费仅2% 痛失大客户</t>
-  </si>
-  <si>
-    <t>麦迪科技营收停滞不前 辅助生殖赛道标的收购疑点重重</t>
-  </si>
-  <si>
-    <t>宁德时代3900亿市值解禁来袭 中信建投本月解禁1700亿</t>
-  </si>
-  <si>
-    <t>硬核研报</t>
-  </si>
-  <si>
-    <t>家具出口超景气 龙头1季度业绩竟然暴增130%</t>
-  </si>
-  <si>
-    <t>解读美团：一季报的隐忧与流量生意的终结</t>
-  </si>
-  <si>
-    <t>中信建投:港股新经济板块盈利高增长具有较强配置价值</t>
-  </si>
-  <si>
-    <t>中梁控股降速：盈利下降债务高企 质量问题频遭投诉</t>
-  </si>
-  <si>
-    <t>德盈控股招股书疑似数据打架 小黄鸭遭遇脸盲症尴尬</t>
-  </si>
-  <si>
-    <t>22年累计盈利逾5万亿元 公募基金交出亮丽答卷</t>
-  </si>
-  <si>
-    <t>公私募大佬加持：医药主题基金回暖 掘金2条投资主线</t>
-  </si>
-  <si>
-    <t>美团：第一季度经调整净亏损38.92亿元</t>
-  </si>
-  <si>
-    <t>烧钱无底洞</t>
-  </si>
-  <si>
-    <t>美团外卖变现率创新高至14.4% 商户困在美团财报里？</t>
-  </si>
-  <si>
-    <t>顺丰控股拟拆分同城实业在港交所上市</t>
-  </si>
-  <si>
-    <t>网易云音乐：版权不够，社交来凑？三年累计亏损近50亿</t>
-  </si>
-  <si>
-    <t>祥生活服务递表上市 一个仅有累计一年盈利的物业公司</t>
-  </si>
-  <si>
-    <t>“一早起来，又跌了快2万”比特币末日来临？爆仓数十亿 日赚3亿的挖矿机也要停了</t>
-  </si>
-  <si>
-    <t>上市公司“收购”上市公司 从法庭斗到董事会</t>
-  </si>
-  <si>
-    <t>嘀嗒出行亏22亿二度冲刺上市:半年内屡被约谈与投诉 超车难度大</t>
-  </si>
-  <si>
-    <t>市值蒸发20亿港元，呷哺“出局” 火锅内卷的终点究竟是什么？</t>
-  </si>
-  <si>
-    <t>“黑马”中梁控股降速：盈利下降债务高企 楼盘质量问题频遭投诉</t>
-  </si>
-  <si>
-    <t>海悦生活难断“奶”：在管规模小、高度依赖母公司 外拓能力严重不足</t>
-  </si>
-  <si>
-    <t>俄铝成员公司与En+的联系人订立新维修服务合约</t>
-  </si>
-  <si>
-    <t>百济神州因受限制股份单位获归属而发行16.796万股</t>
-  </si>
-  <si>
-    <t>因阵亡将士纪念日 美股周一休市</t>
-  </si>
-  <si>
-    <t>美国数据前瞻：继4月份令人失望的数据后 就业报告引关注</t>
-  </si>
-  <si>
-    <t>周末要闻：5月魔咒未现美股再创新高 美联储政策转向或成隐忧</t>
-  </si>
-  <si>
-    <t>外盘头条：美国汽油价格飙升至3美元以上 下周一迎来阵亡将士纪念日</t>
-  </si>
-  <si>
-    <t>争揽全球芯片制造商 韩国“强芯”追赶台积电</t>
-  </si>
-  <si>
-    <t>亚利桑那州诉讼显示：谷歌员工对位置跟踪表示担忧</t>
-  </si>
-  <si>
-    <t>美国汽油价格飙升至3美元以上 下周一迎来阵亡将士纪念日</t>
-  </si>
-  <si>
-    <t>苏伊士运河管理局：“长赐”号货轮船长应对搁浅事故负责</t>
-  </si>
-  <si>
-    <t>5月魔咒未现美股再创新高 美联储政策转向或成隐忧</t>
-  </si>
-  <si>
-    <t>共和党参议员：美国基础设施法案可能“真正妥协”</t>
-  </si>
-  <si>
-    <t>美股精选： ETF周报 | 半导体股强势“夺...</t>
-  </si>
-  <si>
-    <t>疲软开局，持续走弱的美元对美股意味着什么？</t>
-  </si>
-  <si>
-    <t>苹果在CarPlay上的巨大成功为其汽车雄心铺平了道路</t>
-  </si>
-  <si>
-    <t>由印度变种突变成的越南变种，到底有多厉害？</t>
-  </si>
-  <si>
-    <t>美国又要“放水” 大宗商品或将再起波澜</t>
-  </si>
-  <si>
-    <t>债务货币化 美国打算再次“收割”世界？</t>
-  </si>
-  <si>
-    <t>美邮政总局陷入财务危机 局长建议提高信函邮寄费</t>
-  </si>
-  <si>
-    <t>韩国海盐短缺致价格飙升，韩国泡菜生产企业面临困境</t>
-  </si>
-  <si>
-    <t>专家：虚拟货币缺乏价值支撑 受流动性影响易暴涨暴跌</t>
+    <t>深圳两旧改项目公示：伟城拿下光明鸿大新城旧改</t>
+  </si>
+  <si>
+    <t>当初靠"氢燃料"收获7连板 如今京城股份却改口:不涉及</t>
+  </si>
+  <si>
+    <t>倍特药业IPO注册前景生波：实控人资本原罪遭监管追溯</t>
+  </si>
+  <si>
+    <t>啥情况？吉视传媒每股净资产咋多了1毛钱？投资者诉苦</t>
+  </si>
+  <si>
+    <t>莱绅通灵内斗再升级：提名总裁遭新反对 独董也来抢戏</t>
+  </si>
+  <si>
+    <t>挖牛股</t>
+  </si>
+  <si>
+    <t xml:space="preserve">投资研报&amp;决策商城双12大促来了！满1000减500 </t>
+  </si>
+  <si>
+    <t>金麒麟港美股上市公司评选榜单即将揭晓</t>
+  </si>
+  <si>
+    <t>北向资金单日净买入216亿元 人民币升值或是主要推手</t>
+  </si>
+  <si>
+    <t>雍禾医疗定价15.8港元：一手中签率15% 乙头中签22手</t>
+  </si>
+  <si>
+    <t>解码首个国产新冠“特效药”：对奥密克戎是否有效？</t>
+  </si>
+  <si>
+    <t>风格转换路径清晰 公募布局圈定新目标迎跨年</t>
+  </si>
+  <si>
+    <t>长信基金6产品前11月跌超10% 副总经理旗下混基占4席</t>
+  </si>
+  <si>
+    <t>央行出手</t>
+  </si>
+  <si>
+    <t>人民币汇率直线暴跌300点</t>
+  </si>
+  <si>
+    <t>金麒麟港美股上市公司评选火热投票中</t>
+  </si>
+  <si>
+    <t>金麒麟港美股最佳上市公司评选隆重开启 竞逐九项大奖</t>
+  </si>
+  <si>
+    <t>易纲最新表态！短期个别房企风险、香港国际金融中心建设均有提及，来看要点…</t>
+  </si>
+  <si>
+    <t>彩生活：花样年正寻求法律意见以保护其合法权益 公司股价复牌</t>
+  </si>
+  <si>
+    <t>首款国产新冠特效药揭秘！七问七答，涉及定价、抗体效果等</t>
+  </si>
+  <si>
+    <t>雍禾医疗定价15.8港元：一手中签率15% 公开发售触发回拨机制</t>
+  </si>
+  <si>
+    <t>元宇宙买地太火了！知名地产大亨豪掷3200万，购入最大虚拟土地！</t>
+  </si>
+  <si>
+    <t>年内二度上调外汇存款准备金率 央行释放人民币汇率“降温”信号</t>
+  </si>
+  <si>
+    <t>不存在虚假宣传动机：长城汽车就欧拉好猫“换芯门”致歉，再推补偿方案</t>
+  </si>
+  <si>
+    <t>港股市值缩水7成，业绩增速放缓，春立医疗高光不再</t>
+  </si>
+  <si>
+    <t>等待CPI数据 美股收低纳指跌270点</t>
+  </si>
+  <si>
+    <t>美参议院通过法案 允许加快提高债务上限操作程序</t>
+  </si>
+  <si>
+    <t>方舟基金今年大跌逾20%，“木头姐”称正自我反省</t>
+  </si>
+  <si>
+    <t>特斯拉蒸发4200亿！“木头姐”发声：特斯拉被低估，股价可能上3000美元</t>
+  </si>
+  <si>
+    <t>不管通胀洪水滔天，谷歌高管告诉员工不会因为通胀全面涨薪</t>
+  </si>
+  <si>
+    <t>通胀跑步迈入“7时代”？美CPI料创近40年新高 美联储或被迫3月就加息</t>
+  </si>
+  <si>
+    <t>12月9日美股成交额前20：“木头姐”称特斯拉仍被低估，股价可能上3000</t>
+  </si>
+  <si>
+    <t>外盘头条：美家庭净资产创疫后复苏以来最低增幅</t>
+  </si>
+  <si>
+    <t>隔夜要闻：CPI数据前美股走低 美油收跌2% 巴菲特参投的数字银行IPO首日大涨</t>
+  </si>
+  <si>
+    <t>比特币巨鲸MicroStrategy又买1400多枚，总计持有122478枚</t>
+  </si>
+  <si>
+    <t>美股精选： 华盛早报 | 特斯拉大跌6%科技...</t>
+  </si>
+  <si>
+    <t>默多克2亿美元买下科赫家族牧场</t>
+  </si>
+  <si>
+    <t>秘鲁央行连续第五个月加息，以遏制通胀</t>
+  </si>
+  <si>
+    <t>大众超千亿美元投资电动车等新技术 追赶特斯拉脚步不停歇</t>
+  </si>
+  <si>
+    <t>IMF首席经济学家：全球面临通胀压力和奥密克戎带来的风险</t>
+  </si>
+  <si>
+    <t>美参议院让提高债务上限进入快车道 进一步降低政府关门的风险</t>
+  </si>
+  <si>
+    <t>贝莱德的Chaudhuri：现在是时候对冲通货膨胀了</t>
+  </si>
+  <si>
+    <t>美国商务部长称若不能解决芯片危机会造成毁灭性影响</t>
+  </si>
+  <si>
+    <t>尽管面临疫情挑战 标普仍预计明年石油需求将增长</t>
   </si>
   <si>
     <t>新浪财经诚聘国际财经新闻编辑若干</t>
   </si>
   <si>
-    <t>[互联网]Facebook董事会否决限制扎克伯格权力的提案</t>
-  </si>
-  <si>
-    <t>公募REITs来了:314亿今日开抢！怎么买？买哪只?</t>
-  </si>
-  <si>
-    <t>首批公募REITs开售:涨跌幅多少?收益率多高?攻略</t>
-  </si>
-  <si>
-    <t>基金发行分化:东方红启恒爆款重现 九泰发行失败</t>
-  </si>
-  <si>
-    <t>如何把握“创时代”下投资机遇？听基金大咖说</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华安基金常锐：电子行业投资价值展望	</t>
-  </si>
-  <si>
-    <t>亢龙有悔还是飞龙在天 机构激辩周期股后市</t>
-  </si>
-  <si>
-    <t>开售！预期年化收益最高11% 9只公募REITs底层资产详解</t>
-  </si>
-  <si>
-    <t>公募累计盈利超5万亿 "基金赚钱、基民不赚钱"难题仍存</t>
-  </si>
-  <si>
-    <t>21只新基月底“卡点” 5月新发基金超190只</t>
-  </si>
-  <si>
-    <t>卷入虚假基金诈骗案 建行株洲分行等3家银行被判连带责任</t>
-  </si>
-  <si>
-    <t>私募江湖大浪淘沙 谁主沉浮:和聚投资等老牌私募掉队</t>
-  </si>
-  <si>
-    <t>权益类基金仓位降至年内最低位 公募调仓瞄准五大行业</t>
-  </si>
-  <si>
-    <t>期权“末日轮”惊现暴涨暴跌 私募火速解读来了</t>
-  </si>
-  <si>
-    <t>多家公募实施二次首发 为基金销售再添一把火</t>
-  </si>
-  <si>
-    <t>【食品饮料α掘金】次高端白酒迎新一轮“牛市”，6月是配置白酒板块最佳时间</t>
-  </si>
-  <si>
-    <t>美国要"放水" 大宗商品或将再起波澜</t>
-  </si>
-  <si>
-    <t>OPEC+会议影响油市命运</t>
-  </si>
-  <si>
-    <t>原油市场面临方向选择</t>
-  </si>
-  <si>
-    <t>需求下滑 利润受压缩 钢材市场延续调整态势</t>
-  </si>
-  <si>
-    <t>李克强：注重用市场化办法解决大宗商品上涨等问题</t>
-  </si>
-  <si>
-    <t>5.31原油市场早评：OPEC+会议在即 利空风险加剧</t>
-  </si>
-  <si>
-    <t>三大油脂价格5月冲高回落 牛市行情结束了吗？</t>
-  </si>
-  <si>
-    <t>大宗商品市场5月演绎“过山车”行情 6月如何走？</t>
-  </si>
-  <si>
-    <t>卖1斤亏1元！苹果价格大跌滞销 遭历史最严重行情？</t>
-  </si>
-  <si>
-    <t>养猪业盈亏平衡点到了吗</t>
-  </si>
-  <si>
-    <t>铝价 不宜过分悲观</t>
-  </si>
-  <si>
-    <t>再来6万亿 拜登新一轮经济刺激再给多头送东风</t>
-  </si>
-  <si>
-    <t>光大：黄金重返1900关口 本周聚焦5月非农数据</t>
-  </si>
-  <si>
-    <t>道达投资手记：核心资产牛市再度开启？谨慎</t>
-  </si>
-  <si>
-    <t>业内：推动期货法出台 助力大宗商品稳价保供</t>
+    <t>[互联网]谷歌向全体员工发放1600美元奖金</t>
+  </si>
+  <si>
+    <t>公募又掀限购潮，基金开启年底冲业绩模式</t>
+  </si>
+  <si>
+    <t>跨年行情:风格转换路径清晰 公募布局圈定新目标</t>
+  </si>
+  <si>
+    <t>长信基金6产品前11月跌超10% 副总旗下混基占4席</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+大咖说:食品饮料崛起是反弹or反转？(虎年策略)</t>
+  </si>
+  <si>
+    <t>中欧2022权益投资策略会:窦玉明 周蔚文等出席</t>
+  </si>
+  <si>
+    <t>国联安基金投资策略会:2022年该如何布局？</t>
+  </si>
+  <si>
+    <t>一天46只基金限购！年末基金“闭门谢客潮”汹涌，投资者该怎么看？</t>
+  </si>
+  <si>
+    <t>12月10日最值得看的5场直播：全景视角，解密虎年市场投资策略</t>
+  </si>
+  <si>
+    <t>嘉实基金吴越解读2022投资关键词</t>
+  </si>
+  <si>
+    <t>19.73万亿！私募基金总规模再创新高！</t>
+  </si>
+  <si>
+    <t>“闭门谢客”如约而至 赵蓓、周蔚文等管理的绩优权益基金掀起限购潮</t>
+  </si>
+  <si>
+    <t>百亿量化私募“内斗”后续：李硕辞任总裁，由袁宇兼任</t>
+  </si>
+  <si>
+    <t>东方红产业升级等基金年末降费 赔钱赚吆喝</t>
+  </si>
+  <si>
+    <t>新股破发频现 打新基金收益率面临考验</t>
+  </si>
+  <si>
+    <t>重磅ETF上市！“沪深300 Pro Max”登陆上交所 主动型ETF场内交易时代正式开启！</t>
+  </si>
+  <si>
+    <t>万亿量化赛道监管趋严！头部量化私募悄然发力合规</t>
+  </si>
+  <si>
+    <t>美国基金系列|长期持有，慢慢变富</t>
+  </si>
+  <si>
+    <t>翻倍妖股背后闪现“幽灵”资金，“房地产系”私募和游资大神出没其中</t>
+  </si>
+  <si>
+    <t>浙商资管被责令暂停私募资管产品备案6个月</t>
+  </si>
+  <si>
+    <t>又一基金销售机构被罚！监管暂停北京钱景基金销售业务6个月</t>
+  </si>
+  <si>
+    <t>最新！这70家公司提前透露年度业绩，最高净利或增3倍！葛兰、朱少醒、高瓴、星石等提前布局</t>
+  </si>
+  <si>
+    <t>量化基金喝高了？长城量化精选三季度一把梭哈白酒 近三月业绩排名前十</t>
+  </si>
+  <si>
+    <t>“固收+”产品引爆年末基金市场 适时把握“基”遇布局跨年行情</t>
+  </si>
+  <si>
+    <t>"V智投"基金组合全新上线 量身打造投资方案</t>
+  </si>
+  <si>
+    <t>又一大创新！首只中国外汇交易中心债券指数基金来了，募集金额近80亿元</t>
+  </si>
+  <si>
+    <t>汇添富基金总经理张晖：好指数+好时机，站在未来现在是一个激动人心的时刻</t>
+  </si>
+  <si>
+    <t>央行年内两次上调外汇存准率</t>
+  </si>
+  <si>
+    <t>油价从二周高位下挫3美元</t>
+  </si>
+  <si>
+    <t>欧佩克能否笑到最后？</t>
+  </si>
+  <si>
+    <t>豆粕需求预期增加 预计短期内价格震荡偏强</t>
+  </si>
+  <si>
+    <t>这三地防控升级，石化基地、化工大产区停工停产</t>
+  </si>
+  <si>
+    <t>半年被罚9次罚金2000万 这家钢企为何屡次被罚？</t>
+  </si>
+  <si>
+    <t>利空因素重新占上风 逆水行舟 油价未能更进一步</t>
+  </si>
+  <si>
+    <t>新浪财经诚聘期权期货频道编辑 薪酬待遇优厚</t>
+  </si>
+  <si>
+    <t>苹果报175.08美元 市值2.87万亿美元 点击查看详情</t>
+  </si>
+  <si>
+    <t>大豆期货收高 美国农业部下调全球供应预估</t>
+  </si>
+  <si>
+    <t>消费增量不及预期 钢材期价继续回落跌近3%</t>
+  </si>
+  <si>
+    <t>纯碱破位下行 与玻璃就此“分道扬镳”？</t>
+  </si>
+  <si>
+    <t>疫情起伏削弱风险偏好 美元走强黄金下挫</t>
+  </si>
+  <si>
+    <t>连续拉升后不宜追高 股指上行路径较为曲折</t>
+  </si>
+  <si>
+    <t>期货总“背锅” 可能是这项制度出了问题</t>
   </si>
   <si>
     <t>DCE一周观察</t>
   </si>
   <si>
-    <t>弱美元何时“逆袭”？</t>
-  </si>
-  <si>
-    <t>一旦经济复苏预期再度转强，或者美联储释放偏鹰派信号，美元可能逆转&gt;&gt;</t>
+    <t>议息会议将至  美联储官员“转鹰”</t>
+  </si>
+  <si>
+    <t>货币政策趋紧带来的压力持续上升，黄金下行趋势或延续&gt;&gt;</t>
   </si>
   <si>
     <t>全球财经直播</t>
   </si>
   <si>
-    <t>10银行外汇牌价</t>
-  </si>
-  <si>
     <t>人民币汇率</t>
   </si>
   <si>
-    <t>本周关注鲍威尔讲话、中美欧制造业PMI、5月非农</t>
-  </si>
-  <si>
-    <t>数字人民币有望为全球贸易结算开辟新视窗</t>
-  </si>
-  <si>
-    <t>未来可能推动人民币贬值的四大因素不能忽视</t>
-  </si>
-  <si>
-    <t>美联储官员态度大转弯：可能要讨论缩减QE了！</t>
-  </si>
-  <si>
-    <t>中金策略:近期美元流动性激增的内外部含义</t>
-  </si>
-  <si>
-    <t>疲软开局 持续走弱的美元对美股意味着什么？</t>
-  </si>
-  <si>
-    <t>央行调查统计司原司长：人民币快速升值不可持续</t>
-  </si>
-  <si>
-    <t>比特币又遇黑色周末!空头犹如嗜血鲨鱼</t>
-  </si>
-  <si>
-    <t>黄金重返1900关口 本周聚焦5月非农数据</t>
-  </si>
-  <si>
-    <t>一图还原白银越野赛赛况和救援状况</t>
-  </si>
-  <si>
-    <t>两个月飙升220美元！Kitco黄金调查：“对...</t>
-  </si>
-  <si>
-    <t>【央行圆桌汇】美联储官员继续淡化通胀风险</t>
-  </si>
-  <si>
-    <t>周末要闻：5月魔咒未现美股再创新高 美联储政策...</t>
-  </si>
-  <si>
-    <t>金价本周有望大涨逾45美元 机构：黄金、白银和...</t>
-  </si>
-  <si>
-    <t>本周外盘看点丨美国5月非农来袭 油价还看OPE...</t>
-  </si>
-  <si>
-    <t>通胀恐慌加剧 美联储官员们态度大转弯：可能要讨...</t>
-  </si>
-  <si>
-    <t>拆解美联储资产负债表：战时债务管理政策</t>
-  </si>
-  <si>
-    <t>投资周报：沪指站上3600 美非农就业报告下周出炉</t>
-  </si>
-  <si>
-    <t>弱美元何时“逆袭”？美联储Taper步伐渐行渐近</t>
-  </si>
-  <si>
-    <t>本周重磅：鲍威尔讲话、盯紧5月非农</t>
-  </si>
-  <si>
-    <t>专家答疑</t>
-  </si>
-  <si>
-    <t>5月债券商品齐涨为哪般？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年内公司信用类债发行逾6万亿元 同比下降2.1% </t>
-  </si>
-  <si>
-    <t>人民币升值如何影响债市？6月主要矛盾仍在于资金面</t>
-  </si>
-  <si>
-    <t>美国通胀的“出门”效应渐显 核心通胀同环比加速上行</t>
-  </si>
-  <si>
-    <t>美国通胀的前世今生：20世纪70年代、80年代和如今</t>
-  </si>
-  <si>
-    <t>施罗德投资周匀：直面不确定性 大类资产配置见招拆招</t>
-  </si>
-  <si>
-    <t>灵魂之问：美国通胀形势严峻 为什么利率却跌了</t>
-  </si>
-  <si>
-    <t>消费和制造业投资推动 中国通胀压力小于发达国家</t>
-  </si>
-  <si>
-    <t>张一格：统一视角自上而下 寻找股债配比最优解</t>
-  </si>
-  <si>
-    <t>5月份新发公募基金超过110只 债券型占比近六成</t>
-  </si>
-  <si>
-    <t>周小川：G20国家中 中国为最贫困国家缓债金额最多</t>
+    <t>央行上调外汇存款准备金率 人民币汇率应声走贬</t>
+  </si>
+  <si>
+    <t>IMF：全球面临通胀压力和奥密克戎带来的风险</t>
+  </si>
+  <si>
+    <t>央行再度“升准”抑制过度升值 哪些因素推动？</t>
+  </si>
+  <si>
+    <t>外汇提准 央行一收一放减缓人民币单边升值压力</t>
+  </si>
+  <si>
+    <t>马不停蹄！巴西央行年内第七次加息遏制通胀</t>
+  </si>
+  <si>
+    <t>美国商务部长“非常有信心”通胀将逐渐消失</t>
+  </si>
+  <si>
+    <t>生产一个比特币耗能三口之家可用一年</t>
+  </si>
+  <si>
+    <t>美CPI料创近40年新高 或被迫3月加息</t>
+  </si>
+  <si>
+    <t>就业市场持续复苏，美国首申失业金人数跌至52年...</t>
+  </si>
+  <si>
+    <t>议息会议将至 美联储官员“转鹰”！黄金将出现新...</t>
+  </si>
+  <si>
+    <t>贵金属：通胀预期冲高回落 疫情扰动未停歇</t>
+  </si>
+  <si>
+    <t>贵金属市场进入消费旺季</t>
+  </si>
+  <si>
+    <t>周四黄金期货收跌0.5% 白银下跌1.9%</t>
+  </si>
+  <si>
+    <t>白银股跌幅居前，Endeavour Silver跌超4%</t>
+  </si>
+  <si>
+    <t>世界黄金协会：全球黄金ETF自7月以来首次实现净流入</t>
+  </si>
+  <si>
+    <t>变化莫测的美联储，信誉堪忧</t>
+  </si>
+  <si>
+    <t>创52年新低！美国上周初请失业金人数降至18.4万人</t>
+  </si>
+  <si>
+    <t>现货黄金承压，两方面观点角度均支持美联储加快收...</t>
+  </si>
+  <si>
+    <t>光大期货：关注今日公布的美国11月CPI数据</t>
+  </si>
+  <si>
+    <t>疫情削弱风险偏好 美元走强黄金下挫</t>
+  </si>
+  <si>
+    <t>答疑</t>
+  </si>
+  <si>
+    <t>今年前11月外资增持中国国债逾5000亿元</t>
+  </si>
+  <si>
+    <t>保供稳价效果显现 11月CPI同比涨2.3%、PPI涨幅料缩窄</t>
+  </si>
+  <si>
+    <t>中国11月CPI同比涨幅2.3% 年内首次“破2”关口</t>
+  </si>
+  <si>
+    <t>WGBI纳入中国国债带动大波增量 11月境外资本大笔增持</t>
+  </si>
+  <si>
+    <t>11月社融M1增速回升 央行加大实体经济支持力度</t>
+  </si>
+  <si>
+    <t>11月CPI同比上涨2.3% PPI与CPI剪刀差触顶回落</t>
+  </si>
+  <si>
+    <t>多渠道融资“补血” 银行业二级资本债"大单"频现</t>
+  </si>
+  <si>
+    <t>华夏幸福债务重组计划获高票通过 将同步加快资产处置</t>
+  </si>
+  <si>
+    <t>总金额45亿元！恒大公告债券投资者回售实施办法</t>
+  </si>
+  <si>
+    <t>美参议院让提高债务上限进入快车道 降低政府关门风险</t>
+  </si>
+  <si>
+    <t>社融增速触底回升 居民中长期贷款同比连续增长</t>
+  </si>
+  <si>
+    <t>21世纪经济报道评论：通胀压力减弱 货币政策空间打开</t>
   </si>
   <si>
     <t>全球银行同业拆借利率</t>
   </si>
   <si>
-    <t>http://www.xinhuanet.com/tech/2021-05/30/c_1127508516.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/politics/2021-05/30/c_1127508892.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/2021-05/30/c_1127510062.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/local/2021-05/30/c_1127510035.htm</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s?__biz=MzA4MjQxNjQzMA==&amp;mid=2768635077&amp;idx=1&amp;sn=ac6c29cec774f885cb0d9fe9ac0d1a2f&amp;scene=0</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5591362.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-05-30/doc-ikmxzfmm5540688.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-05-30/doc-ikmyaawc8397928.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5607635.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-05-31/doc-ikmyaawc8477021.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-05-30/doc-ikmxzfmm5490981.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-05-31/doc-ikmyaawc8462724.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-05-31/doc-ikmxzfmm5588530.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/estate/sd/2021-05-31/doc-ikmyaawc8473658.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-05-31/doc-ikmxzfmm5268283.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-05-31/doc-ikmyaawc8475074.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-31/doc-ikmxzfmm5606774.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-31/doc-ikmyaawc8475216.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-31/doc-ikmyaawc8475150.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-05-31/doc-ikmyaawc8470134.shtml</t>
+    <t>http://www.news.cn/2021-12/08/c_1128143790.htm</t>
+  </si>
+  <si>
+    <t>http://www.news.cn/politics/2021-12/09/c_1128145509.htm</t>
+  </si>
+  <si>
+    <t>http://www.news.cn/fortune/2021-12/09/c_1128145822.htm</t>
+  </si>
+  <si>
+    <t>https://xhpfmapi.xinhuaxmt.com/vh512/app/10445514</t>
+  </si>
+  <si>
+    <t>http://www.news.cn/fortune/2021-12/08/c_1128144400.htm</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/rs20zn/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyakumx3155944.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyakumx3151619.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyakumx3152934.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyakumx3172286.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyamrmy7960114.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7978333.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyamrmy7999829.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/202111jjsj</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyamrmy7995768.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyamrmy7994020.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyamrmy7959774.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7979854.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/2021-12-10/doc-ikyamrmy7974163.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/2021-12-10/doc-ikyamrmy7955150.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx3116279.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zldx/2021-12-10/doc-ikyamrmy7992982.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyakumx3154920.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-10/doc-ikyamrmy7889647.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zldx/2021-12-10/doc-ikyakumx3129990.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-12-10/doc-ikyakumx3129808.shtml</t>
+  </si>
+  <si>
+    <t>https://live.finance.sina.com.cn/</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15380</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15384</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15382</t>
+  </si>
+  <si>
+    <t>http://finance.sina.com.cn/zt_d/quanshangkaihu/</t>
   </si>
   <si>
     <t>http://live.finance.sina.com.cn/</t>
   </si>
   <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/9960</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/1n58719m3834?parentType=column&amp;parentId=f5443bd63a8b4e858b9225ffa008a6c6</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/10016</t>
-  </si>
-  <si>
-    <t>https://www.guosen.com.cn/gs/openaccount/?qrcode=1595905431891&amp;source=gegu01</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-05-31/doc-ikmxzfmm5612184.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmyaawc8462737.shtml</t>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-10/doc-ikyakumx3167000.shtml</t>
   </si>
   <si>
     <t>http://roll.finance.sina.com.cn/finance/zq1/scyj/index.shtml</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-30/doc-ikmxzfmm5575049.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-30/doc-ikmxzfmm5571815.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyakumx3162567.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-12-10/doc-ikyamrmy7999810.shtml</t>
   </si>
   <si>
     <t xml:space="preserve">http://finance.sina.com.cn/stock/jyts/ </t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmxzfmm5611588.shtml</t>
-  </si>
-  <si>
-    <t>http://vip.stock.finance.sina.com.cn/q/go.php/vInvestConsult/kind/jyts/index.phtml?tradedate=2021-5-30</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/cpbd/2021-05-31/doc-ikmyaawc8474197.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmyaawc8473975.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmxzfmm5617004.shtml</t>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/y/2021-12-10/doc-ikyakumx3170564.shtml</t>
+  </si>
+  <si>
+    <t>http://vip.stock.finance.sina.com.cn/q/go.php/vInvestConsult/kind/jyts/index.phtml?tradedate=2021-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyamrmy7996684.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/cpbd/2021-12-10/doc-ikyakumx3171563.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-12-10/doc-ikyamrmy8002449.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/marketresearch/2020-08-17/doc-iivhuipn9137795.shtml</t>
@@ -908,43 +953,34 @@
     <t xml:space="preserve">http://roll.finance.sina.com.cn/finance/zq1/zldx/index.shtml </t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-05-30/doc-ikmyaawc8431054.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-05-31/doc-ikmxzfmm5618286.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vip.stock.finance.sina.com.cn/q/go.php/vInvestConsult/kind/lhb/index.phtml </t>
-  </si>
-  <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=230808</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8481782.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8474163.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx3120280.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-12-10/doc-ikyamrmy8004098.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=57563&amp;page=1</t>
   </si>
   <si>
-    <t>http://blog.sina.com.cn/s/blog_49548d340103035a.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_5d34ec6c0102zj51.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_4c7ca1550102ydxu.html?tj=fina</t>
+    <t>http://blog.sina.com.cn/s/blog_49548d340103043l.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_b0b5b4520102zcyi.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_64594bbb0102ytju.html?tj=fina</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/reportch/jinqilin.shtml</t>
   </si>
   <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/675712742005/index.phtml</t>
-  </si>
-  <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/675720251181/index.phtml</t>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/692439510705/index.phtml</t>
+  </si>
+  <si>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/692438671777/index.phtml</t>
   </si>
   <si>
     <t>http://vip.stock.finance.sina.com.cn/q/go.php/vReport_List/kind/lastest/index.phtml</t>
@@ -953,91 +989,85 @@
     <t>http://licaishi.sina.com.cn/s/%E6%B7%B1%E6%B8%AF%E9%80%9A?ind_id=0&amp;t=1&amp;all=0&amp;fr=finance_top</t>
   </si>
   <si>
-    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/675738565503/index.phtml</t>
-  </si>
-  <si>
-    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/675731917114/index.phtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8481703.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8481259.shtml</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_537c46120102za5o.html?tj=fina</t>
-  </si>
-  <si>
-    <t>https://tzxy.sina.com.cn/content/detail/1658605145/118133</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmxzfmm5610157.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5600580.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-05-31/doc-ikmxzfmm5606418.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8453454.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmxzfmm5604725.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-30/doc-ikmxzfmm5547098.shtml</t>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hyyj/2021-12-10/doc-ikyakumx3169790.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/yjdt/2021-12-10/doc-ikyamrmy7970948.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hyyj/2021-12-10/doc-ikyamrmy7949901.shtml</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_540eaf530102zbmn.html?tj=fina</t>
+  </si>
+  <si>
+    <t>https://tzxy.sina.com.cn/content/detail/1504965870/130212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyamrmy8010912.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/yjdt/2021-12-10/doc-ikyamrmy7959775.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/newstock/xgpl/2021-12-10/doc-ikyamrmy7963071.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/zqgd/2021-12-10/doc-ikyamrmy8004223.shtml</t>
   </si>
   <si>
     <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_List/kind/industry/index.phtml</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-05-31/doc-ikmxzfmm5612042.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/review/2021-05-31/doc-ikmyaawc8474186.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-05-30/doc-ikmyaawc8407490.shtml?cref=cj</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-05-30/doc-ikmxzfmm5554392.shtml?cref=cj</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/2021jjjnh/</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/brief/column/757bacbe813249689ab15c319e8baea4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sinadaxue.cn/#/sina/single/1n5871913834?parentType=column&amp;parentId=757bacbe813249689ab15c319e8baea4  </t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/brief/column/a601af39262c4bdd80274231f1fde815</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/7lnk6l331kj2?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmyaawc8480149.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-05-31/doc-ikmxzfmm5606550.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmyaawc8474811.shtml</t>
-  </si>
-  <si>
-    <t>https://2831761612775.huodongxing.com/event/2597371946500</t>
-  </si>
-  <si>
-    <t>http://finance.sina.com.cn/zt_d/quanshangkaihu/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockptd/2021-05-31/doc-ikmyaawc8407798.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockzmt/2021-05-31/doc-ikmyaawc8475420.shtml</t>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-12-10/doc-ikyakumx3151882.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyakumx3168399.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-12-09/doc-ikyamrmy7945315.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/hk/2021-12-10/doc-ikyakumx3176957.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/hk/2021-12-10/doc-ikyakumx3138797.shtml</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/column/a601af39262c4bdd80274231f1fde815</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-12-09/doc-ikyakumx2989589.shtml</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/column/f5443bd63a8b4e858b9225ffa008a6c6</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/detail/graphics/f5443bd63a8b4e858b9225ffa008a6c6/52ae13e06a8f</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/column/97e7f6ea796d8ed24794b4dcfe7e14df</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://daxue.sina.cn/detail/graphics/54a2c39021ef4ec89125cd681601b84d/6e2ca7d6bce8</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/quanshang/qsyj/2021-12-10/doc-ikyakumx3179882.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/quanshang/qsyj/2021-12-10/doc-ikyakumx3140091.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15378</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15372</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx2949491.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx2953529.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/s/2019-07-09/doc-ihytcitm0843478.shtml</t>
@@ -1046,148 +1076,148 @@
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=56592&amp;page=1</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmyaawc8475660.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmyaawc8473278.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmxzfmm5610080.shtml</t>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyakumx3167951.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyakumx3185476.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/quanshang/qsyj/2021-12-10/doc-ikyamrmy8011204.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/estate/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8474245.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmxzfmm5612411.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8474346.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmxzfmm5615540.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmxzfmm5612120.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-05-31/doc-ikmxzfmm5616498.shtml</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/24j842571851?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
+    <t>https://finance.sina.com.cn/stock/estate/integration/2021-12-10/doc-ikyakumx3177090.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyamrmy8006706.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/newstock/zxdt/2021-12-10/doc-ikyamrmy7996815.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyakumx3181066.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyamrmy8012231.shtml</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/category/130</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/hkstock/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8474089.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmxzfmm5613906.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggipo/2021-05-31/doc-ikmxzfmm5612622.shtml</t>
+    <t>https://finance.sina.com.cn/zt_d/jql_2021/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-10/doc-ikyamrmy7993844.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hkstock/ggipo/2021-12-10/doc-ikyakumx3175446.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/chanjing/cyxw/2021-12-09/doc-ikyakumx3116721.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/fund/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/fund/jjpl/2021-05-31/doc-ikmyaawc8469701.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8456622.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-28/doc-ikmxzfmm5208697.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/observe/2021-05-30/doc-ikmyaawc8361122.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/hkzmt/2021-05-30/doc-ikmxzfmm5569662.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-05-31/doc-ikmxzfmm5608925.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/estate/integration/2021-05-30/doc-ikmyaawc8442341.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-05-31/doc-ikmxzfmm5565096.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8473598.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmxzfmm5611858.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmxzfmm5613849.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmxzfmm5620699.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-05-31/doc-ikmyaawc8482663.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmyaawc8461436.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmyaawc8451190.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmxzfmm5604724.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmxzfmm5601496.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5591411.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmyaawc8451687.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmyaawc8462927.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/7x24/2021-05-31/doc-ikmxzfmm5603728.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5591392.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmxzfmm5587391.shtml</t>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-10/doc-ikyakumx3162051.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7993505.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-12-10/doc-ikyakumx3175210.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-09/doc-ikyamrmy7925249.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-11-01/doc-iktzqtyu4702456.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-12-10/doc-ikyamrmy8004244.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-10/doc-ikyamrmy8007225.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-12-09/doc-ikyamrmy7945305.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggipo/2021-12-10/doc-ikyakumx3175446.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-12-09/doc-ikyamrmy7925560.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bank/bank_hydt/2021-12-10/doc-ikyamrmy7988876.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-12-09/doc-ikyamrmy7942193.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-10/doc-ikyamrmy7992800.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7979258.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-12-10/doc-ikyakumx3185326.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3173134.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy8012598.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3181268.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3181256.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7983076.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7981726.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3163875.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3191554.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/other/hsnews/detail_index.d.html</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-30/doc-ikmxzfmm5548385.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-31/doc-ikmxzfmm5601255.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-05-31/doc-ikmxzfmm5590448.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8450945.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-30/doc-ikmyaawc8322440.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-30/doc-ikmyaawc8335693.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/7x24/2021-05-30/doc-ikmyaawc8352694.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-05-30/doc-ikmxzfmm5579583.shtml</t>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7994940.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy8003661.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy8010262.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3134748.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3151893.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3132270.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/2021-12-10/doc-ikyakumx3136795.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7974549.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/usstock/c/2019-06-04/doc-ihvhiews6789878.shtml</t>
@@ -1196,88 +1226,127 @@
     <t>https://tech.sina.com.cn/internet/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-05-31/doc-ikmxzfmm5582067.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmyaawc8469679.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/original/2021-05-31/doc-ikmxzfmm5615065.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmxzfmm5613723.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmxzfmm5606505.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-05-31/doc-ikmxzfmm5607575.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-28/doc-ikmyaawc7943737.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-28/doc-ikmxzfmm5087743.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5600606.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/2021-05-30/doc-ikmxzfmm5565305.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-05-31/doc-ikmyaawc8468853.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-05-31/doc-ikmxzfmm5626155.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8477899.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8477469.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5600768.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8470756.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/2021-05-31/doc-ikmyaawc8471134.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmxzfmm5612361.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8476984.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-05-30/doc-ikmyaawc8443550.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8453456.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/2021-05-28/doc-ikmyaawc7955944.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8475015.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-05-31/doc-ikmyaawc8472722.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-30/doc-ikmxzfmm5575065.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/2021-05-31/doc-ikmxzfmm5608480.shtml</t>
+    <t>https://finance.sina.com.cn/money/fund/fundzmt/2021-12-10/doc-ikyamrmy7949181.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/original/2021-12-09/doc-ikyamrmy7902735.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15286</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.cn/imeeting/hyt/detail/15361</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-10/doc-ikyamrmy7992599.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/original/2021-12-10/doc-ikyakumx3177042.shtml</t>
+  </si>
+  <si>
+    <t>http://video.sina.com.cn/l/p/40058724.html</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-10/doc-ikyamrmy7994707.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyakumx3154535.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-10/doc-ikyakumx3123871.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7991837.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-10/doc-ikyamrmy7987815.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7965409.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-10/doc-ikyamrmy7999794.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/2021-12-07/doc-ikyakumx2564842.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-10/doc-ikyamrmy7939282.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-09/doc-ikyakumx2933655.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx3090004.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-09/doc-ikyamrmy7918782.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/2021-12-09/doc-ikyamrmy7912572.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx3120282.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/vadvisor</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-10/doc-ikyamrmy8010299.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjh/2021-12-10/doc-ikyakumx3183813.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx3114709.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-12-10/doc-ikyakumx3164886.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-07/doc-ikyamrmy7304379.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-09/doc-ikyakumx2618076.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-10/doc-ikyakumx3175408.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-10/doc-ikyamrmy7941600.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-10/doc-ikyamrmy7994876.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/option/yw/2021-11-09/doc-iktzscyy4511650.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.cn/zt_d/gmgkh?biaoshi=ZjdsNGkxOWNjYjJm</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-12-10/doc-ikyakumx3164836.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-09/doc-ikyakumx3039440.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-12-09/doc-ikyamrmy7901393.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-12-10/doc-ikyakumx3162832.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-12-09/doc-ikyakumx3120856.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-10/doc-ikyakumx3175790.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/dcefutures/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-05-31/doc-ikmyaawc8397445.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy8011227.shtml</t>
   </si>
   <si>
     <t>http://live.sina.com.cn/zt/l/v/finance/globalnews1/</t>
@@ -1286,85 +1355,88 @@
     <t>http://finance.sina.com.cn/forex/paijia.html#0</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-05-31/doc-ikmyaawc8427317.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/blockchain/coin/2021-05-31/doc-ikmxzfmm5594634.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-05-31/doc-ikmxzfmm5573546.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-30/doc-ikmxzfmm5522611.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-05-31/doc-ikmyaawc8420290.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-05-31/doc-ikmyaawc8409318.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bank/bank_hydt/2021-05-30/doc-ikmxzfmm5566725.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/blockchain/coin/2021-05-31/doc-ikmyaawc8426585.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-05-30/doc-ikmyaawc8412652.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8478645.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-05-31/doc-ikmxzfmm5616700.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-05-31/doc-ikmxzfmm5612321.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-05-30/doc-ikmyaawc8419613.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-05-30/doc-ikmxzfmm5565973.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/clues/hg/2021-05-30/doc-ikmyaawc8293793.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy8000093.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-12-09/doc-ikyakumx3116849.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7996663.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/2021-12-10/doc-ikyamrmy7974496.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7974955.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-12-09/doc-ikyamrmy7928204.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/gjcj/2021-12-10/doc-ikyamrmy7983618.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/indu/2021-12-09/doc-ikyamrmy7793863.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-12-10/doc-ikyakumx3166112.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7973937.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-09/doc-ikyamrmy7949949.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-12-09/doc-ikyakumx2949531.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-09/doc-ikyamrmy7935689.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-09/doc-ikyakumx3113489.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-12-09/doc-ikyakumx3096237.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-12-10/doc-ikyamrmy7993601.shtml</t>
   </si>
   <si>
     <t>http://biz.finance.sina.com.cn/zjzt/gold_2014.php</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmyaawc8474024.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmxzfmm5590862.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/2021-05-31/doc-ikmyaawc8445632.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmxzfmm5617143.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmxzfmm5561299.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5600610.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-30/doc-ikmyaawc8389375.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmxzfmm5594637.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-05-31/doc-ikmyaawc8462752.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmxzfmm5602688.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-05-31/doc-ikmyaawc8368728.shtml</t>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-12-10/doc-ikyamrmy7994741.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7979853.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-12-10/doc-ikyamrmy8001465.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyakumx3171129.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7955725.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7955715.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-12-10/doc-ikyakumx3168309.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyakumx3170812.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyamrmy7945472.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy8000092.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/review/jcgc/2021-12-10/doc-ikyamrmy7955731.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/money/globalindex/ibor.shtml</t>
@@ -1738,7 +1810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1781,7 +1853,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1801,7 +1873,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1821,7 +1893,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1841,7 +1913,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1861,7 +1933,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1881,7 +1953,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1901,7 +1973,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1921,7 +1993,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1941,7 +2013,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1961,7 +2033,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1981,7 +2053,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2001,7 +2073,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2021,7 +2093,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2041,7 +2113,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2061,7 +2133,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2081,7 +2153,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2101,7 +2173,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2121,7 +2193,7 @@
         <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2141,7 +2213,7 @@
         <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2161,7 +2233,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2181,7 +2253,7 @@
         <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2201,7 +2273,7 @@
         <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2221,7 +2293,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2241,7 +2313,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2261,7 +2333,7 @@
         <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2281,7 +2353,7 @@
         <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2301,18 +2373,18 @@
         <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -2321,18 +2393,18 @@
         <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -2341,44 +2413,47 @@
         <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
       </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2395,10 +2470,10 @@
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2412,13 +2487,13 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2432,13 +2507,10 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2452,13 +2524,13 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
         <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2478,7 +2550,7 @@
         <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2498,7 +2570,7 @@
         <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2518,7 +2590,7 @@
         <v>64</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2538,7 +2610,7 @@
         <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2557,8 +2629,8 @@
       <c r="E41" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>292</v>
+      <c r="F41" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2578,7 +2650,7 @@
         <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2597,8 +2669,8 @@
       <c r="E43" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>294</v>
+      <c r="F43" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2614,8 +2686,11 @@
       <c r="D44" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>295</v>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2632,10 +2707,10 @@
         <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2651,11 +2726,8 @@
       <c r="D46" t="s">
         <v>27</v>
       </c>
-      <c r="E46" t="s">
-        <v>70</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2675,7 +2747,7 @@
         <v>71</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2695,7 +2767,7 @@
         <v>72</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2715,7 +2787,7 @@
         <v>73</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2735,7 +2807,7 @@
         <v>74</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2755,7 +2827,7 @@
         <v>75</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2775,7 +2847,7 @@
         <v>76</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2795,7 +2867,7 @@
         <v>77</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2815,7 +2887,7 @@
         <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2835,7 +2907,7 @@
         <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2855,7 +2927,7 @@
         <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2875,7 +2947,7 @@
         <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2895,7 +2967,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2915,7 +2987,7 @@
         <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2931,8 +3003,11 @@
       <c r="D60" t="s">
         <v>27</v>
       </c>
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2948,11 +3023,8 @@
       <c r="D61" t="s">
         <v>27</v>
       </c>
-      <c r="E61" t="s">
-        <v>84</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2971,8 +3043,8 @@
       <c r="E62" t="s">
         <v>85</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>313</v>
+      <c r="F62" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2992,7 +3064,7 @@
         <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3012,7 +3084,7 @@
         <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3031,8 +3103,8 @@
       <c r="E65" t="s">
         <v>88</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>315</v>
+      <c r="F65" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3051,8 +3123,8 @@
       <c r="E66" t="s">
         <v>89</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>303</v>
+      <c r="F66" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3072,7 +3144,7 @@
         <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3092,7 +3164,7 @@
         <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3112,7 +3184,7 @@
         <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3132,7 +3204,7 @@
         <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3152,7 +3224,7 @@
         <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3172,7 +3244,7 @@
         <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3192,7 +3264,7 @@
         <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3212,7 +3284,7 @@
         <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3232,7 +3304,7 @@
         <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3252,7 +3324,7 @@
         <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3272,7 +3344,7 @@
         <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3292,7 +3364,7 @@
         <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3309,10 +3381,10 @@
         <v>27</v>
       </c>
       <c r="E79" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3329,10 +3401,10 @@
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3349,10 +3421,10 @@
         <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3369,10 +3441,10 @@
         <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3389,10 +3461,10 @@
         <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3409,10 +3481,10 @@
         <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3429,10 +3501,10 @@
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3449,10 +3521,10 @@
         <v>27</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3469,10 +3541,10 @@
         <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3489,10 +3561,10 @@
         <v>27</v>
       </c>
       <c r="E88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3509,10 +3581,10 @@
         <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>319</v>
+        <v>111</v>
+      </c>
+      <c r="F89" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3529,10 +3601,10 @@
         <v>27</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>320</v>
+        <v>112</v>
+      </c>
+      <c r="F90" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3549,10 +3621,10 @@
         <v>27</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>321</v>
+        <v>113</v>
+      </c>
+      <c r="F91" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3569,10 +3641,10 @@
         <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>115</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>322</v>
+        <v>114</v>
+      </c>
+      <c r="F92" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3589,10 +3661,10 @@
         <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3609,10 +3681,10 @@
         <v>27</v>
       </c>
       <c r="E94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3629,10 +3701,10 @@
         <v>27</v>
       </c>
       <c r="E95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3649,10 +3721,10 @@
         <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3669,10 +3741,10 @@
         <v>27</v>
       </c>
       <c r="E97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3689,10 +3761,10 @@
         <v>27</v>
       </c>
       <c r="E98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3709,10 +3781,10 @@
         <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3729,10 +3801,10 @@
         <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3749,10 +3821,10 @@
         <v>27</v>
       </c>
       <c r="E101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3769,10 +3841,10 @@
         <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3789,10 +3861,10 @@
         <v>27</v>
       </c>
       <c r="E103" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3809,10 +3881,10 @@
         <v>27</v>
       </c>
       <c r="E104" t="s">
-        <v>127</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>333</v>
+        <v>126</v>
+      </c>
+      <c r="F104" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3829,10 +3901,10 @@
         <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3849,10 +3921,10 @@
         <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3869,10 +3941,10 @@
         <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3889,10 +3961,10 @@
         <v>27</v>
       </c>
       <c r="E108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3909,10 +3981,10 @@
         <v>27</v>
       </c>
       <c r="E109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3929,10 +4001,10 @@
         <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3949,10 +4021,10 @@
         <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3969,10 +4041,10 @@
         <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3988,8 +4060,11 @@
       <c r="D113" t="s">
         <v>27</v>
       </c>
+      <c r="E113" t="s">
+        <v>135</v>
+      </c>
       <c r="F113" s="2" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4005,11 +4080,8 @@
       <c r="D114" t="s">
         <v>27</v>
       </c>
-      <c r="E114" t="s">
-        <v>136</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4026,10 +4098,10 @@
         <v>27</v>
       </c>
       <c r="E115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4046,10 +4118,10 @@
         <v>27</v>
       </c>
       <c r="E116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4066,10 +4138,10 @@
         <v>27</v>
       </c>
       <c r="E117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4086,10 +4158,10 @@
         <v>27</v>
       </c>
       <c r="E118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4106,10 +4178,10 @@
         <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4126,10 +4198,10 @@
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4146,10 +4218,10 @@
         <v>27</v>
       </c>
       <c r="E121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4166,10 +4238,10 @@
         <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4186,10 +4258,10 @@
         <v>27</v>
       </c>
       <c r="E123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4206,10 +4278,10 @@
         <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4226,10 +4298,10 @@
         <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4246,10 +4318,10 @@
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4266,10 +4338,10 @@
         <v>27</v>
       </c>
       <c r="E127" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4286,10 +4358,10 @@
         <v>27</v>
       </c>
       <c r="E128" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4306,10 +4378,10 @@
         <v>27</v>
       </c>
       <c r="E129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4326,10 +4398,10 @@
         <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4346,10 +4418,10 @@
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>152</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>357</v>
+        <v>151</v>
+      </c>
+      <c r="F131" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4366,10 +4438,10 @@
         <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>21</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>358</v>
+        <v>152</v>
+      </c>
+      <c r="F132" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4386,10 +4458,10 @@
         <v>27</v>
       </c>
       <c r="E133" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4406,30 +4478,30 @@
         <v>27</v>
       </c>
       <c r="E134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
         <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D135" t="s">
         <v>27</v>
       </c>
       <c r="E135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4446,10 +4518,10 @@
         <v>27</v>
       </c>
       <c r="E136" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4469,7 +4541,7 @@
         <v>156</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4486,10 +4558,10 @@
         <v>27</v>
       </c>
       <c r="E138" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4506,10 +4578,10 @@
         <v>27</v>
       </c>
       <c r="E139" t="s">
-        <v>158</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>363</v>
+        <v>152</v>
+      </c>
+      <c r="F139" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4526,7 +4598,7 @@
         <v>27</v>
       </c>
       <c r="E140" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>364</v>
@@ -4546,10 +4618,10 @@
         <v>27</v>
       </c>
       <c r="E141" t="s">
-        <v>160</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>365</v>
+        <v>158</v>
+      </c>
+      <c r="F141" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4566,9 +4638,9 @@
         <v>27</v>
       </c>
       <c r="E142" t="s">
-        <v>161</v>
-      </c>
-      <c r="F142" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F142" t="s">
         <v>366</v>
       </c>
     </row>
@@ -4586,10 +4658,10 @@
         <v>27</v>
       </c>
       <c r="E143" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4606,10 +4678,10 @@
         <v>27</v>
       </c>
       <c r="E144" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4626,10 +4698,10 @@
         <v>27</v>
       </c>
       <c r="E145" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4646,10 +4718,10 @@
         <v>27</v>
       </c>
       <c r="E146" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4666,10 +4738,10 @@
         <v>27</v>
       </c>
       <c r="E147" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4686,10 +4758,10 @@
         <v>27</v>
       </c>
       <c r="E148" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4706,30 +4778,30 @@
         <v>27</v>
       </c>
       <c r="E149" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D150" t="s">
         <v>27</v>
       </c>
       <c r="E150" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4746,10 +4818,10 @@
         <v>27</v>
       </c>
       <c r="E151" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4766,10 +4838,10 @@
         <v>27</v>
       </c>
       <c r="E152" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4786,10 +4858,10 @@
         <v>27</v>
       </c>
       <c r="E153" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4806,10 +4878,10 @@
         <v>27</v>
       </c>
       <c r="E154" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4826,10 +4898,10 @@
         <v>27</v>
       </c>
       <c r="E155" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4846,10 +4918,10 @@
         <v>27</v>
       </c>
       <c r="E156" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4866,10 +4938,10 @@
         <v>27</v>
       </c>
       <c r="E157" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4886,10 +4958,10 @@
         <v>27</v>
       </c>
       <c r="E158" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4906,10 +4978,10 @@
         <v>27</v>
       </c>
       <c r="E159" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4926,10 +4998,10 @@
         <v>27</v>
       </c>
       <c r="E160" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4946,10 +5018,10 @@
         <v>27</v>
       </c>
       <c r="E161" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4966,10 +5038,10 @@
         <v>27</v>
       </c>
       <c r="E162" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4986,10 +5058,10 @@
         <v>27</v>
       </c>
       <c r="E163" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5006,10 +5078,10 @@
         <v>27</v>
       </c>
       <c r="E164" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5026,10 +5098,10 @@
         <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5046,10 +5118,10 @@
         <v>27</v>
       </c>
       <c r="E166" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5066,10 +5138,10 @@
         <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5086,10 +5158,10 @@
         <v>27</v>
       </c>
       <c r="E168" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5106,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="E169" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5126,30 +5198,30 @@
         <v>27</v>
       </c>
       <c r="E170" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
         <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D171" t="s">
         <v>27</v>
       </c>
       <c r="E171" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5166,10 +5238,10 @@
         <v>27</v>
       </c>
       <c r="E172" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>284</v>
+        <v>403</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5186,10 +5258,10 @@
         <v>27</v>
       </c>
       <c r="E173" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5206,10 +5278,10 @@
         <v>27</v>
       </c>
       <c r="E174" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5226,10 +5298,10 @@
         <v>27</v>
       </c>
       <c r="E175" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5246,10 +5318,10 @@
         <v>27</v>
       </c>
       <c r="E176" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5266,10 +5338,10 @@
         <v>27</v>
       </c>
       <c r="E177" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5286,10 +5358,10 @@
         <v>27</v>
       </c>
       <c r="E178" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5306,10 +5378,10 @@
         <v>27</v>
       </c>
       <c r="E179" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5326,10 +5398,10 @@
         <v>27</v>
       </c>
       <c r="E180" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5346,10 +5418,10 @@
         <v>27</v>
       </c>
       <c r="E181" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5366,10 +5438,10 @@
         <v>27</v>
       </c>
       <c r="E182" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>278</v>
+        <v>411</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5386,10 +5458,10 @@
         <v>27</v>
       </c>
       <c r="E183" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5406,10 +5478,10 @@
         <v>27</v>
       </c>
       <c r="E184" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5426,250 +5498,250 @@
         <v>27</v>
       </c>
       <c r="E185" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B186" t="s">
         <v>17</v>
       </c>
       <c r="C186" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E186" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
         <v>17</v>
       </c>
       <c r="C187" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E187" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B188" t="s">
         <v>17</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E188" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B189" t="s">
         <v>17</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D189" t="s">
         <v>27</v>
       </c>
       <c r="E189" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B190" t="s">
         <v>17</v>
       </c>
       <c r="C190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D190" t="s">
         <v>27</v>
       </c>
       <c r="E190" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
         <v>17</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D191" t="s">
         <v>27</v>
       </c>
       <c r="E191" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B192" t="s">
         <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
         <v>27</v>
       </c>
       <c r="E192" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
         <v>17</v>
       </c>
       <c r="C193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D193" t="s">
         <v>27</v>
       </c>
       <c r="E193" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B194" t="s">
         <v>17</v>
       </c>
       <c r="C194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D194" t="s">
         <v>27</v>
       </c>
       <c r="E194" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B195" t="s">
         <v>17</v>
       </c>
       <c r="C195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
         <v>27</v>
       </c>
       <c r="E195" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B196" t="s">
         <v>17</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D196" t="s">
         <v>27</v>
       </c>
       <c r="E196" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B197" t="s">
         <v>17</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D197" t="s">
         <v>27</v>
       </c>
       <c r="E197" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5683,13 +5755,13 @@
         <v>22</v>
       </c>
       <c r="D198" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E198" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5703,13 +5775,13 @@
         <v>22</v>
       </c>
       <c r="D199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E199" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5723,13 +5795,13 @@
         <v>22</v>
       </c>
       <c r="D200" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E200" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5746,250 +5818,250 @@
         <v>27</v>
       </c>
       <c r="E201" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B202" t="s">
         <v>17</v>
       </c>
       <c r="C202" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D202" t="s">
         <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B203" t="s">
         <v>17</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
         <v>27</v>
       </c>
       <c r="E203" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B204" t="s">
         <v>17</v>
       </c>
       <c r="C204" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D204" t="s">
         <v>27</v>
       </c>
       <c r="E204" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B205" t="s">
         <v>17</v>
       </c>
       <c r="C205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D205" t="s">
         <v>27</v>
       </c>
       <c r="E205" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B206" t="s">
         <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D206" t="s">
         <v>27</v>
       </c>
       <c r="E206" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B207" t="s">
         <v>17</v>
       </c>
       <c r="C207" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D207" t="s">
         <v>27</v>
       </c>
       <c r="E207" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B208" t="s">
         <v>17</v>
       </c>
       <c r="C208" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
         <v>27</v>
       </c>
       <c r="E208" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B209" t="s">
         <v>17</v>
       </c>
       <c r="C209" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D209" t="s">
         <v>27</v>
       </c>
       <c r="E209" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B210" t="s">
         <v>17</v>
       </c>
       <c r="C210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D210" t="s">
         <v>27</v>
       </c>
       <c r="E210" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B211" t="s">
         <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D211" t="s">
         <v>27</v>
       </c>
       <c r="E211" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B212" t="s">
         <v>17</v>
       </c>
       <c r="C212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D212" t="s">
         <v>27</v>
       </c>
       <c r="E212" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B213" t="s">
         <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D213" t="s">
         <v>27</v>
       </c>
       <c r="E213" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6006,230 +6078,230 @@
         <v>27</v>
       </c>
       <c r="E214" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B215" t="s">
         <v>17</v>
       </c>
       <c r="C215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D215" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E215" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
         <v>17</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D216" t="s">
         <v>27</v>
       </c>
       <c r="E216" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B217" t="s">
         <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D217" t="s">
         <v>27</v>
       </c>
       <c r="E217" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
         <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D218" t="s">
         <v>27</v>
       </c>
       <c r="E218" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
         <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D219" t="s">
         <v>27</v>
       </c>
       <c r="E219" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
         <v>17</v>
       </c>
       <c r="C220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D220" t="s">
         <v>27</v>
       </c>
       <c r="E220" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B221" t="s">
         <v>17</v>
       </c>
       <c r="C221" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D221" t="s">
         <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B222" t="s">
         <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D222" t="s">
         <v>27</v>
       </c>
       <c r="E222" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
         <v>17</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D223" t="s">
         <v>27</v>
       </c>
       <c r="E223" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B224" t="s">
         <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D224" t="s">
         <v>27</v>
       </c>
       <c r="E224" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B225" t="s">
         <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D225" t="s">
         <v>27</v>
       </c>
       <c r="E225" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6243,13 +6315,13 @@
         <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E226" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6266,10 +6338,10 @@
         <v>27</v>
       </c>
       <c r="E227" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6286,230 +6358,230 @@
         <v>27</v>
       </c>
       <c r="E228" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
         <v>17</v>
       </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E229" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B230" t="s">
         <v>17</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
         <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B231" t="s">
         <v>17</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D231" t="s">
         <v>27</v>
       </c>
       <c r="E231" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B232" t="s">
         <v>17</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
         <v>27</v>
       </c>
       <c r="E232" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B233" t="s">
         <v>17</v>
       </c>
       <c r="C233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D233" t="s">
         <v>27</v>
       </c>
       <c r="E233" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B234" t="s">
         <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D234" t="s">
         <v>27</v>
       </c>
       <c r="E234" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B235" t="s">
         <v>17</v>
       </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D235" t="s">
         <v>27</v>
       </c>
       <c r="E235" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B236" t="s">
         <v>17</v>
       </c>
       <c r="C236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D236" t="s">
         <v>27</v>
       </c>
       <c r="E236" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B237" t="s">
         <v>17</v>
       </c>
       <c r="C237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D237" t="s">
         <v>27</v>
       </c>
       <c r="E237" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B238" t="s">
         <v>17</v>
       </c>
       <c r="C238" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D238" t="s">
         <v>27</v>
       </c>
       <c r="E238" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B239" t="s">
         <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D239" t="s">
         <v>27</v>
       </c>
       <c r="E239" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6523,13 +6595,13 @@
         <v>25</v>
       </c>
       <c r="D240" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E240" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6546,10 +6618,230 @@
         <v>27</v>
       </c>
       <c r="E241" t="s">
+        <v>256</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" t="s">
+        <v>17</v>
+      </c>
+      <c r="C242" t="s">
+        <v>25</v>
+      </c>
+      <c r="D242" t="s">
+        <v>27</v>
+      </c>
+      <c r="E242" t="s">
+        <v>257</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" t="s">
+        <v>17</v>
+      </c>
+      <c r="C243" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243" t="s">
+        <v>27</v>
+      </c>
+      <c r="E243" t="s">
         <v>258</v>
       </c>
-      <c r="F241" s="2" t="s">
-        <v>450</v>
+      <c r="F243" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" t="s">
+        <v>17</v>
+      </c>
+      <c r="C244" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" t="s">
+        <v>27</v>
+      </c>
+      <c r="E244" t="s">
+        <v>259</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>15</v>
+      </c>
+      <c r="B245" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" t="s">
+        <v>27</v>
+      </c>
+      <c r="E245" t="s">
+        <v>260</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" t="s">
+        <v>17</v>
+      </c>
+      <c r="C246" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246" t="s">
+        <v>27</v>
+      </c>
+      <c r="E246" t="s">
+        <v>261</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" t="s">
+        <v>27</v>
+      </c>
+      <c r="E247" t="s">
+        <v>262</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248" t="s">
+        <v>25</v>
+      </c>
+      <c r="D248" t="s">
+        <v>27</v>
+      </c>
+      <c r="E248" t="s">
+        <v>263</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" t="s">
+        <v>17</v>
+      </c>
+      <c r="C249" t="s">
+        <v>25</v>
+      </c>
+      <c r="D249" t="s">
+        <v>27</v>
+      </c>
+      <c r="E249" t="s">
+        <v>264</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" t="s">
+        <v>17</v>
+      </c>
+      <c r="C250" t="s">
+        <v>25</v>
+      </c>
+      <c r="D250" t="s">
+        <v>27</v>
+      </c>
+      <c r="E250" t="s">
+        <v>265</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>17</v>
+      </c>
+      <c r="C251" t="s">
+        <v>25</v>
+      </c>
+      <c r="D251" t="s">
+        <v>27</v>
+      </c>
+      <c r="E251" t="s">
+        <v>266</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" t="s">
+        <v>17</v>
+      </c>
+      <c r="C252" t="s">
+        <v>25</v>
+      </c>
+      <c r="D252" t="s">
+        <v>27</v>
+      </c>
+      <c r="E252" t="s">
+        <v>267</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -6578,7 +6870,7 @@
     <hyperlink ref="F23" r:id="rId22"/>
     <hyperlink ref="F24" r:id="rId23"/>
     <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25" location="/sina/single/1n58719m3834?parentType=column&amp;parentId=f5443bd63a8b4e858b9225ffa008a6c6"/>
+    <hyperlink ref="F26" r:id="rId25"/>
     <hyperlink ref="F27" r:id="rId26"/>
     <hyperlink ref="F28" r:id="rId27"/>
     <hyperlink ref="F29" r:id="rId28"/>
@@ -6593,207 +6885,202 @@
     <hyperlink ref="F38" r:id="rId37"/>
     <hyperlink ref="F39" r:id="rId38"/>
     <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F48" r:id="rId47"/>
-    <hyperlink ref="F49" r:id="rId48"/>
-    <hyperlink ref="F50" r:id="rId49"/>
-    <hyperlink ref="F51" r:id="rId50"/>
-    <hyperlink ref="F52" r:id="rId51"/>
-    <hyperlink ref="F53" r:id="rId52"/>
-    <hyperlink ref="F54" r:id="rId53"/>
-    <hyperlink ref="F55" r:id="rId54"/>
-    <hyperlink ref="F56" r:id="rId55"/>
-    <hyperlink ref="F57" r:id="rId56"/>
-    <hyperlink ref="F58" r:id="rId57"/>
-    <hyperlink ref="F59" r:id="rId58"/>
-    <hyperlink ref="F60" r:id="rId59"/>
-    <hyperlink ref="F61" r:id="rId60"/>
-    <hyperlink ref="F62" r:id="rId61"/>
-    <hyperlink ref="F63" r:id="rId62"/>
-    <hyperlink ref="F64" r:id="rId63"/>
-    <hyperlink ref="F65" r:id="rId64"/>
-    <hyperlink ref="F66" r:id="rId65"/>
-    <hyperlink ref="F67" r:id="rId66"/>
-    <hyperlink ref="F68" r:id="rId67"/>
-    <hyperlink ref="F69" r:id="rId68"/>
-    <hyperlink ref="F70" r:id="rId69"/>
-    <hyperlink ref="F71" r:id="rId70"/>
-    <hyperlink ref="F72" r:id="rId71"/>
-    <hyperlink ref="F73" r:id="rId72"/>
-    <hyperlink ref="F74" r:id="rId73"/>
-    <hyperlink ref="F75" r:id="rId74"/>
-    <hyperlink ref="F76" r:id="rId75"/>
-    <hyperlink ref="F77" r:id="rId76"/>
-    <hyperlink ref="F78" r:id="rId77"/>
-    <hyperlink ref="F79" r:id="rId78"/>
-    <hyperlink ref="F80" r:id="rId79"/>
-    <hyperlink ref="F81" r:id="rId80"/>
-    <hyperlink ref="F82" r:id="rId81"/>
-    <hyperlink ref="F83" r:id="rId82"/>
-    <hyperlink ref="F84" r:id="rId83"/>
-    <hyperlink ref="F85" r:id="rId84"/>
-    <hyperlink ref="F86" r:id="rId85"/>
-    <hyperlink ref="F87" r:id="rId86"/>
-    <hyperlink ref="F88" r:id="rId87"/>
-    <hyperlink ref="F89" r:id="rId88"/>
-    <hyperlink ref="F90" r:id="rId89"/>
-    <hyperlink ref="F91" r:id="rId90"/>
-    <hyperlink ref="F92" r:id="rId91"/>
-    <hyperlink ref="F93" r:id="rId92"/>
-    <hyperlink ref="F94" r:id="rId93"/>
-    <hyperlink ref="F95" r:id="rId94"/>
-    <hyperlink ref="F96" r:id="rId95"/>
-    <hyperlink ref="F97" r:id="rId96"/>
-    <hyperlink ref="F98" r:id="rId97"/>
-    <hyperlink ref="F99" r:id="rId98"/>
-    <hyperlink ref="F100" r:id="rId99"/>
-    <hyperlink ref="F101" r:id="rId100" location="/sina/brief/column/757bacbe813249689ab15c319e8baea4"/>
-    <hyperlink ref="F102" r:id="rId101" location="/sina/single/1n5871913834?parentType=column&amp;parentId=757bacbe813249689ab15c319e8baea4%20%20"/>
-    <hyperlink ref="F103" r:id="rId102" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F104" r:id="rId103" location="/sina/single/7lnk6l331kj2?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F105" r:id="rId104"/>
-    <hyperlink ref="F106" r:id="rId105"/>
-    <hyperlink ref="F107" r:id="rId106"/>
-    <hyperlink ref="F108" r:id="rId107"/>
-    <hyperlink ref="F109" r:id="rId108"/>
-    <hyperlink ref="F110" r:id="rId109"/>
-    <hyperlink ref="F111" r:id="rId110"/>
-    <hyperlink ref="F112" r:id="rId111"/>
-    <hyperlink ref="F113" r:id="rId112"/>
-    <hyperlink ref="F114" r:id="rId113"/>
-    <hyperlink ref="F115" r:id="rId114"/>
-    <hyperlink ref="F116" r:id="rId115"/>
-    <hyperlink ref="F117" r:id="rId116"/>
-    <hyperlink ref="F118" r:id="rId117"/>
-    <hyperlink ref="F119" r:id="rId118"/>
-    <hyperlink ref="F120" r:id="rId119"/>
-    <hyperlink ref="F121" r:id="rId120"/>
-    <hyperlink ref="F122" r:id="rId121"/>
-    <hyperlink ref="F123" r:id="rId122"/>
-    <hyperlink ref="F124" r:id="rId123"/>
-    <hyperlink ref="F125" r:id="rId124" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F126" r:id="rId125" location="/sina/single/24j842571851?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F127" r:id="rId126"/>
-    <hyperlink ref="F128" r:id="rId127"/>
-    <hyperlink ref="F129" r:id="rId128"/>
-    <hyperlink ref="F130" r:id="rId129"/>
-    <hyperlink ref="F131" r:id="rId130"/>
-    <hyperlink ref="F132" r:id="rId131"/>
-    <hyperlink ref="F133" r:id="rId132"/>
-    <hyperlink ref="F134" r:id="rId133"/>
-    <hyperlink ref="F135" r:id="rId134"/>
-    <hyperlink ref="F136" r:id="rId135"/>
-    <hyperlink ref="F137" r:id="rId136"/>
-    <hyperlink ref="F138" r:id="rId137"/>
-    <hyperlink ref="F139" r:id="rId138"/>
-    <hyperlink ref="F140" r:id="rId139"/>
-    <hyperlink ref="F141" r:id="rId140"/>
-    <hyperlink ref="F142" r:id="rId141"/>
-    <hyperlink ref="F143" r:id="rId142"/>
-    <hyperlink ref="F144" r:id="rId143"/>
-    <hyperlink ref="F145" r:id="rId144"/>
-    <hyperlink ref="F146" r:id="rId145"/>
-    <hyperlink ref="F147" r:id="rId146"/>
-    <hyperlink ref="F148" r:id="rId147"/>
-    <hyperlink ref="F149" r:id="rId148"/>
-    <hyperlink ref="F150" r:id="rId149"/>
-    <hyperlink ref="F151" r:id="rId150"/>
-    <hyperlink ref="F152" r:id="rId151"/>
-    <hyperlink ref="F153" r:id="rId152"/>
-    <hyperlink ref="F154" r:id="rId153"/>
-    <hyperlink ref="F155" r:id="rId154"/>
-    <hyperlink ref="F156" r:id="rId155"/>
-    <hyperlink ref="F157" r:id="rId156"/>
-    <hyperlink ref="F158" r:id="rId157"/>
-    <hyperlink ref="F159" r:id="rId158"/>
-    <hyperlink ref="F160" r:id="rId159"/>
-    <hyperlink ref="F161" r:id="rId160"/>
-    <hyperlink ref="F162" r:id="rId161"/>
-    <hyperlink ref="F163" r:id="rId162"/>
-    <hyperlink ref="F164" r:id="rId163"/>
-    <hyperlink ref="F165" r:id="rId164"/>
-    <hyperlink ref="F166" r:id="rId165"/>
-    <hyperlink ref="F167" r:id="rId166"/>
-    <hyperlink ref="F168" r:id="rId167"/>
-    <hyperlink ref="F169" r:id="rId168"/>
-    <hyperlink ref="F170" r:id="rId169"/>
-    <hyperlink ref="F171" r:id="rId170"/>
-    <hyperlink ref="F172" r:id="rId171"/>
-    <hyperlink ref="F173" r:id="rId172"/>
-    <hyperlink ref="F174" r:id="rId173"/>
-    <hyperlink ref="F175" r:id="rId174"/>
-    <hyperlink ref="F176" r:id="rId175"/>
-    <hyperlink ref="F177" r:id="rId176"/>
-    <hyperlink ref="F178" r:id="rId177"/>
-    <hyperlink ref="F179" r:id="rId178"/>
-    <hyperlink ref="F180" r:id="rId179"/>
-    <hyperlink ref="F181" r:id="rId180"/>
-    <hyperlink ref="F182" r:id="rId181"/>
-    <hyperlink ref="F183" r:id="rId182"/>
-    <hyperlink ref="F184" r:id="rId183"/>
-    <hyperlink ref="F185" r:id="rId184"/>
-    <hyperlink ref="F186" r:id="rId185"/>
-    <hyperlink ref="F187" r:id="rId186"/>
-    <hyperlink ref="F188" r:id="rId187"/>
-    <hyperlink ref="F189" r:id="rId188"/>
-    <hyperlink ref="F190" r:id="rId189"/>
-    <hyperlink ref="F191" r:id="rId190"/>
-    <hyperlink ref="F192" r:id="rId191"/>
-    <hyperlink ref="F193" r:id="rId192"/>
-    <hyperlink ref="F194" r:id="rId193"/>
-    <hyperlink ref="F195" r:id="rId194"/>
-    <hyperlink ref="F196" r:id="rId195"/>
-    <hyperlink ref="F197" r:id="rId196"/>
-    <hyperlink ref="F198" r:id="rId197"/>
-    <hyperlink ref="F199" r:id="rId198"/>
-    <hyperlink ref="F200" r:id="rId199"/>
-    <hyperlink ref="F201" r:id="rId200"/>
-    <hyperlink ref="F202" r:id="rId201"/>
-    <hyperlink ref="F203" r:id="rId202"/>
-    <hyperlink ref="F204" r:id="rId203"/>
-    <hyperlink ref="F205" r:id="rId204" location="0"/>
-    <hyperlink ref="F206" r:id="rId205" location="0"/>
-    <hyperlink ref="F207" r:id="rId206"/>
-    <hyperlink ref="F208" r:id="rId207"/>
-    <hyperlink ref="F209" r:id="rId208"/>
-    <hyperlink ref="F210" r:id="rId209"/>
-    <hyperlink ref="F211" r:id="rId210"/>
-    <hyperlink ref="F212" r:id="rId211"/>
-    <hyperlink ref="F213" r:id="rId212"/>
-    <hyperlink ref="F214" r:id="rId213"/>
-    <hyperlink ref="F215" r:id="rId214"/>
-    <hyperlink ref="F216" r:id="rId215"/>
-    <hyperlink ref="F217" r:id="rId216"/>
-    <hyperlink ref="F218" r:id="rId217"/>
-    <hyperlink ref="F219" r:id="rId218"/>
-    <hyperlink ref="F220" r:id="rId219"/>
-    <hyperlink ref="F221" r:id="rId220"/>
-    <hyperlink ref="F222" r:id="rId221"/>
-    <hyperlink ref="F223" r:id="rId222"/>
-    <hyperlink ref="F224" r:id="rId223"/>
-    <hyperlink ref="F225" r:id="rId224"/>
-    <hyperlink ref="F226" r:id="rId225"/>
-    <hyperlink ref="F227" r:id="rId226"/>
-    <hyperlink ref="F228" r:id="rId227"/>
-    <hyperlink ref="F229" r:id="rId228"/>
-    <hyperlink ref="F230" r:id="rId229"/>
-    <hyperlink ref="F231" r:id="rId230"/>
-    <hyperlink ref="F232" r:id="rId231"/>
-    <hyperlink ref="F233" r:id="rId232"/>
-    <hyperlink ref="F234" r:id="rId233"/>
-    <hyperlink ref="F235" r:id="rId234"/>
-    <hyperlink ref="F236" r:id="rId235"/>
-    <hyperlink ref="F237" r:id="rId236"/>
-    <hyperlink ref="F238" r:id="rId237"/>
-    <hyperlink ref="F239" r:id="rId238"/>
-    <hyperlink ref="F240" r:id="rId239"/>
-    <hyperlink ref="F241" r:id="rId240"/>
+    <hyperlink ref="F42" r:id="rId40"/>
+    <hyperlink ref="F45" r:id="rId41"/>
+    <hyperlink ref="F46" r:id="rId42"/>
+    <hyperlink ref="F47" r:id="rId43"/>
+    <hyperlink ref="F48" r:id="rId44"/>
+    <hyperlink ref="F49" r:id="rId45"/>
+    <hyperlink ref="F50" r:id="rId46"/>
+    <hyperlink ref="F51" r:id="rId47"/>
+    <hyperlink ref="F52" r:id="rId48"/>
+    <hyperlink ref="F53" r:id="rId49"/>
+    <hyperlink ref="F54" r:id="rId50"/>
+    <hyperlink ref="F55" r:id="rId51"/>
+    <hyperlink ref="F56" r:id="rId52"/>
+    <hyperlink ref="F57" r:id="rId53"/>
+    <hyperlink ref="F58" r:id="rId54"/>
+    <hyperlink ref="F59" r:id="rId55"/>
+    <hyperlink ref="F60" r:id="rId56"/>
+    <hyperlink ref="F61" r:id="rId57"/>
+    <hyperlink ref="F63" r:id="rId58"/>
+    <hyperlink ref="F64" r:id="rId59"/>
+    <hyperlink ref="F67" r:id="rId60"/>
+    <hyperlink ref="F68" r:id="rId61"/>
+    <hyperlink ref="F69" r:id="rId62"/>
+    <hyperlink ref="F70" r:id="rId63"/>
+    <hyperlink ref="F71" r:id="rId64"/>
+    <hyperlink ref="F72" r:id="rId65"/>
+    <hyperlink ref="F73" r:id="rId66"/>
+    <hyperlink ref="F74" r:id="rId67"/>
+    <hyperlink ref="F75" r:id="rId68"/>
+    <hyperlink ref="F76" r:id="rId69"/>
+    <hyperlink ref="F77" r:id="rId70"/>
+    <hyperlink ref="F78" r:id="rId71"/>
+    <hyperlink ref="F79" r:id="rId72"/>
+    <hyperlink ref="F80" r:id="rId73"/>
+    <hyperlink ref="F81" r:id="rId74"/>
+    <hyperlink ref="F82" r:id="rId75"/>
+    <hyperlink ref="F83" r:id="rId76"/>
+    <hyperlink ref="F84" r:id="rId77"/>
+    <hyperlink ref="F85" r:id="rId78"/>
+    <hyperlink ref="F86" r:id="rId79"/>
+    <hyperlink ref="F87" r:id="rId80"/>
+    <hyperlink ref="F88" r:id="rId81"/>
+    <hyperlink ref="F93" r:id="rId82"/>
+    <hyperlink ref="F94" r:id="rId83"/>
+    <hyperlink ref="F95" r:id="rId84"/>
+    <hyperlink ref="F96" r:id="rId85"/>
+    <hyperlink ref="F97" r:id="rId86"/>
+    <hyperlink ref="F98" r:id="rId87"/>
+    <hyperlink ref="F99" r:id="rId88"/>
+    <hyperlink ref="F100" r:id="rId89"/>
+    <hyperlink ref="F101" r:id="rId90"/>
+    <hyperlink ref="F102" r:id="rId91"/>
+    <hyperlink ref="F103" r:id="rId92"/>
+    <hyperlink ref="F105" r:id="rId93"/>
+    <hyperlink ref="F106" r:id="rId94"/>
+    <hyperlink ref="F107" r:id="rId95"/>
+    <hyperlink ref="F108" r:id="rId96"/>
+    <hyperlink ref="F109" r:id="rId97"/>
+    <hyperlink ref="F110" r:id="rId98"/>
+    <hyperlink ref="F111" r:id="rId99"/>
+    <hyperlink ref="F112" r:id="rId100"/>
+    <hyperlink ref="F113" r:id="rId101"/>
+    <hyperlink ref="F114" r:id="rId102"/>
+    <hyperlink ref="F115" r:id="rId103"/>
+    <hyperlink ref="F116" r:id="rId104"/>
+    <hyperlink ref="F117" r:id="rId105"/>
+    <hyperlink ref="F118" r:id="rId106"/>
+    <hyperlink ref="F119" r:id="rId107"/>
+    <hyperlink ref="F120" r:id="rId108"/>
+    <hyperlink ref="F121" r:id="rId109"/>
+    <hyperlink ref="F122" r:id="rId110"/>
+    <hyperlink ref="F123" r:id="rId111"/>
+    <hyperlink ref="F124" r:id="rId112"/>
+    <hyperlink ref="F125" r:id="rId113"/>
+    <hyperlink ref="F126" r:id="rId114"/>
+    <hyperlink ref="F127" r:id="rId115"/>
+    <hyperlink ref="F128" r:id="rId116"/>
+    <hyperlink ref="F129" r:id="rId117"/>
+    <hyperlink ref="F130" r:id="rId118"/>
+    <hyperlink ref="F133" r:id="rId119"/>
+    <hyperlink ref="F134" r:id="rId120"/>
+    <hyperlink ref="F135" r:id="rId121"/>
+    <hyperlink ref="F136" r:id="rId122"/>
+    <hyperlink ref="F137" r:id="rId123"/>
+    <hyperlink ref="F138" r:id="rId124"/>
+    <hyperlink ref="F140" r:id="rId125"/>
+    <hyperlink ref="F143" r:id="rId126"/>
+    <hyperlink ref="F144" r:id="rId127"/>
+    <hyperlink ref="F145" r:id="rId128"/>
+    <hyperlink ref="F146" r:id="rId129"/>
+    <hyperlink ref="F147" r:id="rId130"/>
+    <hyperlink ref="F148" r:id="rId131"/>
+    <hyperlink ref="F149" r:id="rId132"/>
+    <hyperlink ref="F150" r:id="rId133"/>
+    <hyperlink ref="F151" r:id="rId134"/>
+    <hyperlink ref="F152" r:id="rId135"/>
+    <hyperlink ref="F153" r:id="rId136"/>
+    <hyperlink ref="F154" r:id="rId137"/>
+    <hyperlink ref="F155" r:id="rId138"/>
+    <hyperlink ref="F156" r:id="rId139"/>
+    <hyperlink ref="F157" r:id="rId140"/>
+    <hyperlink ref="F158" r:id="rId141"/>
+    <hyperlink ref="F159" r:id="rId142"/>
+    <hyperlink ref="F160" r:id="rId143"/>
+    <hyperlink ref="F161" r:id="rId144"/>
+    <hyperlink ref="F162" r:id="rId145"/>
+    <hyperlink ref="F163" r:id="rId146"/>
+    <hyperlink ref="F164" r:id="rId147"/>
+    <hyperlink ref="F165" r:id="rId148"/>
+    <hyperlink ref="F166" r:id="rId149"/>
+    <hyperlink ref="F167" r:id="rId150"/>
+    <hyperlink ref="F168" r:id="rId151"/>
+    <hyperlink ref="F169" r:id="rId152"/>
+    <hyperlink ref="F170" r:id="rId153"/>
+    <hyperlink ref="F171" r:id="rId154"/>
+    <hyperlink ref="F172" r:id="rId155"/>
+    <hyperlink ref="F173" r:id="rId156"/>
+    <hyperlink ref="F174" r:id="rId157"/>
+    <hyperlink ref="F175" r:id="rId158"/>
+    <hyperlink ref="F176" r:id="rId159"/>
+    <hyperlink ref="F177" r:id="rId160"/>
+    <hyperlink ref="F178" r:id="rId161"/>
+    <hyperlink ref="F179" r:id="rId162"/>
+    <hyperlink ref="F180" r:id="rId163"/>
+    <hyperlink ref="F181" r:id="rId164"/>
+    <hyperlink ref="F182" r:id="rId165"/>
+    <hyperlink ref="F183" r:id="rId166"/>
+    <hyperlink ref="F184" r:id="rId167"/>
+    <hyperlink ref="F185" r:id="rId168"/>
+    <hyperlink ref="F186" r:id="rId169"/>
+    <hyperlink ref="F187" r:id="rId170"/>
+    <hyperlink ref="F188" r:id="rId171"/>
+    <hyperlink ref="F189" r:id="rId172"/>
+    <hyperlink ref="F190" r:id="rId173"/>
+    <hyperlink ref="F191" r:id="rId174"/>
+    <hyperlink ref="F192" r:id="rId175"/>
+    <hyperlink ref="F193" r:id="rId176"/>
+    <hyperlink ref="F194" r:id="rId177"/>
+    <hyperlink ref="F195" r:id="rId178"/>
+    <hyperlink ref="F196" r:id="rId179"/>
+    <hyperlink ref="F197" r:id="rId180"/>
+    <hyperlink ref="F198" r:id="rId181"/>
+    <hyperlink ref="F199" r:id="rId182"/>
+    <hyperlink ref="F200" r:id="rId183"/>
+    <hyperlink ref="F201" r:id="rId184"/>
+    <hyperlink ref="F202" r:id="rId185"/>
+    <hyperlink ref="F203" r:id="rId186"/>
+    <hyperlink ref="F204" r:id="rId187"/>
+    <hyperlink ref="F205" r:id="rId188"/>
+    <hyperlink ref="F206" r:id="rId189"/>
+    <hyperlink ref="F207" r:id="rId190"/>
+    <hyperlink ref="F208" r:id="rId191"/>
+    <hyperlink ref="F209" r:id="rId192"/>
+    <hyperlink ref="F210" r:id="rId193"/>
+    <hyperlink ref="F211" r:id="rId194"/>
+    <hyperlink ref="F212" r:id="rId195"/>
+    <hyperlink ref="F213" r:id="rId196"/>
+    <hyperlink ref="F214" r:id="rId197"/>
+    <hyperlink ref="F215" r:id="rId198"/>
+    <hyperlink ref="F216" r:id="rId199"/>
+    <hyperlink ref="F217" r:id="rId200" location="0"/>
+    <hyperlink ref="F218" r:id="rId201"/>
+    <hyperlink ref="F219" r:id="rId202"/>
+    <hyperlink ref="F220" r:id="rId203"/>
+    <hyperlink ref="F221" r:id="rId204"/>
+    <hyperlink ref="F222" r:id="rId205"/>
+    <hyperlink ref="F223" r:id="rId206"/>
+    <hyperlink ref="F224" r:id="rId207"/>
+    <hyperlink ref="F225" r:id="rId208"/>
+    <hyperlink ref="F226" r:id="rId209"/>
+    <hyperlink ref="F227" r:id="rId210"/>
+    <hyperlink ref="F228" r:id="rId211"/>
+    <hyperlink ref="F229" r:id="rId212"/>
+    <hyperlink ref="F230" r:id="rId213"/>
+    <hyperlink ref="F231" r:id="rId214"/>
+    <hyperlink ref="F232" r:id="rId215"/>
+    <hyperlink ref="F233" r:id="rId216"/>
+    <hyperlink ref="F234" r:id="rId217"/>
+    <hyperlink ref="F235" r:id="rId218"/>
+    <hyperlink ref="F236" r:id="rId219"/>
+    <hyperlink ref="F237" r:id="rId220"/>
+    <hyperlink ref="F238" r:id="rId221"/>
+    <hyperlink ref="F239" r:id="rId222"/>
+    <hyperlink ref="F240" r:id="rId223"/>
+    <hyperlink ref="F241" r:id="rId224"/>
+    <hyperlink ref="F242" r:id="rId225"/>
+    <hyperlink ref="F243" r:id="rId226"/>
+    <hyperlink ref="F244" r:id="rId227"/>
+    <hyperlink ref="F245" r:id="rId228"/>
+    <hyperlink ref="F246" r:id="rId229"/>
+    <hyperlink ref="F247" r:id="rId230"/>
+    <hyperlink ref="F248" r:id="rId231"/>
+    <hyperlink ref="F249" r:id="rId232"/>
+    <hyperlink ref="F250" r:id="rId233"/>
+    <hyperlink ref="F251" r:id="rId234"/>
+    <hyperlink ref="F252" r:id="rId235"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/news.xlsx
+++ b/web/news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="484">
   <si>
     <t>来源</t>
   </si>
@@ -100,316 +100,319 @@
     <t>消息</t>
   </si>
   <si>
-    <t>所谓“民主峰会”不得人心！</t>
-  </si>
-  <si>
-    <t>31省区市新增本土确诊60例</t>
-  </si>
-  <si>
-    <t>11月份居民消费价格同比上涨2.3%</t>
-  </si>
-  <si>
-    <t>谁给被拐孩子办户口？警方凌晨通报</t>
-  </si>
-  <si>
-    <t>外墙脱落伤人伤物，谁负责？谁维修？</t>
-  </si>
-  <si>
-    <t>入世二十周年</t>
-  </si>
-  <si>
-    <t>中国与世界共赢</t>
-  </si>
-  <si>
-    <t>加入WTO二十年回顾与展望</t>
-  </si>
-  <si>
-    <t>中国全面履行入世承诺</t>
-  </si>
-  <si>
-    <t>数读入世20年</t>
-  </si>
-  <si>
-    <t>入世20年启示录</t>
-  </si>
-  <si>
-    <t>中国并非"搭便车 捡便宜"</t>
-  </si>
-  <si>
-    <t>资本市场开放大事记</t>
-  </si>
-  <si>
-    <t>社融增速回升</t>
-  </si>
-  <si>
-    <t>人民币贷款新增1.27万亿</t>
-  </si>
-  <si>
-    <t>居民中长期贷款连续增长</t>
-  </si>
-  <si>
-    <t>社融增量2.6万亿</t>
-  </si>
-  <si>
-    <t>11月M2同比增长8.5%</t>
-  </si>
-  <si>
-    <t>货币政策加大支持实体</t>
-  </si>
-  <si>
-    <t>近万亿MLF将到期</t>
-  </si>
-  <si>
-    <t>11月金融数据说明什么</t>
-  </si>
-  <si>
-    <t>跨年行情开启?</t>
-  </si>
-  <si>
-    <t>主力瞄准消费</t>
-  </si>
-  <si>
-    <t>后市咋走</t>
-  </si>
-  <si>
-    <t>聪明钱疯扫210亿！买入这些股</t>
-  </si>
-  <si>
-    <t>补涨行情来了？银行股或成主线</t>
+    <t>去年GDP现价总量1013567亿元</t>
+  </si>
+  <si>
+    <t>外交部发言人佩戴徽章迎冬奥</t>
+  </si>
+  <si>
+    <t>16日新增本土确诊病例56例</t>
+  </si>
+  <si>
+    <t>孝义透水事故7名犯罪嫌疑人被控制</t>
+  </si>
+  <si>
+    <t>郑渊洁宣布《童话大王》将停刊</t>
+  </si>
+  <si>
+    <t>茶颜悦色疑因降薪至2000元引“内乱”</t>
+  </si>
+  <si>
+    <t>人均工时11小时</t>
+  </si>
+  <si>
+    <t>工资2000提成8块，薪资减少引发“内部大战”</t>
+  </si>
+  <si>
+    <t>月亏2000万？</t>
+  </si>
+  <si>
+    <t>创始人吕良道歉：希望我们8000个人能一起扛一扛</t>
+  </si>
+  <si>
+    <t>管涛：年底人民币会不会升值？</t>
+  </si>
+  <si>
+    <t>陈道富：银企关系正在发生根本性变化</t>
+  </si>
+  <si>
+    <t>周月秋:加快布局老龄客群</t>
+  </si>
+  <si>
+    <t>陈卫东:防范化解资本的无序流动</t>
+  </si>
+  <si>
+    <t>16位意见领袖畅谈金融业新趋势</t>
+  </si>
+  <si>
+    <t>金麒麟金融峰会</t>
+  </si>
+  <si>
+    <t>银行论坛</t>
+  </si>
+  <si>
+    <t>保险论坛</t>
+  </si>
+  <si>
+    <t>资管论坛</t>
+  </si>
+  <si>
+    <t>智慧金融峰会回顾</t>
+  </si>
+  <si>
+    <t>沪指跌1.16%</t>
+  </si>
+  <si>
+    <t>半导体、白酒大幅调整</t>
+  </si>
+  <si>
+    <t>恒指跌1.2%</t>
+  </si>
+  <si>
+    <t>北向净卖65.61亿元</t>
+  </si>
+  <si>
+    <t>热议后市</t>
+  </si>
+  <si>
+    <t>下周或逐步企稳回升?</t>
   </si>
   <si>
     <t>直播</t>
   </si>
   <si>
-    <t>军工还能追吗</t>
-  </si>
-  <si>
-    <t>铝离子电池要来了吗</t>
-  </si>
-  <si>
-    <t>2022年市场前瞻</t>
+    <t>涨停狙击</t>
+  </si>
+  <si>
+    <t>新机遇</t>
+  </si>
+  <si>
+    <t>钴即将爆发?</t>
+  </si>
+  <si>
+    <t>隐藏的BOSS</t>
+  </si>
+  <si>
+    <t>下个风口?</t>
   </si>
   <si>
     <t>秘籍</t>
   </si>
   <si>
-    <t>跨年行情开启？</t>
-  </si>
-  <si>
-    <t>虎年瞄准大消费板块</t>
-  </si>
-  <si>
-    <t>千亿级新能源赛道重大利好发布在即</t>
+    <t>沪指跌逾1%</t>
+  </si>
+  <si>
+    <t>绿电继续活跃 半导体领跌</t>
+  </si>
+  <si>
+    <t>19交易日13涨停！A股又现疯狂牛股</t>
   </si>
   <si>
     <t>大盘</t>
   </si>
   <si>
-    <t>南网科技等3股今申购</t>
-  </si>
-  <si>
-    <t>最贵新股询价报价相差14倍</t>
-  </si>
-  <si>
-    <t>必读</t>
-  </si>
-  <si>
-    <t>报刊头条</t>
-  </si>
-  <si>
-    <t>交易提示</t>
-  </si>
-  <si>
-    <t>股海导航</t>
-  </si>
-  <si>
-    <t>操盘必读</t>
-  </si>
-  <si>
-    <t>财经早报</t>
+    <t>涨停板复盘</t>
+  </si>
+  <si>
+    <t>下周现报复性反弹?</t>
+  </si>
+  <si>
+    <t>持续低吸质优个股</t>
+  </si>
+  <si>
+    <t>分析</t>
+  </si>
+  <si>
+    <t>回踩是为跨年</t>
+  </si>
+  <si>
+    <t>十大博客看后市</t>
+  </si>
+  <si>
+    <t>这些方向值得关注</t>
   </si>
   <si>
     <t>主力</t>
   </si>
   <si>
-    <t>“茅族”崛起 外资狂买超200亿！</t>
-  </si>
-  <si>
-    <t>买入了这些股</t>
+    <t>北向资金净卖出65.61亿元</t>
+  </si>
+  <si>
+    <t>主力资金重点出击4股</t>
   </si>
   <si>
     <t>观点</t>
   </si>
   <si>
-    <t>道达:"茅宁"两大阵营对决</t>
-  </si>
-  <si>
-    <t>元宇宙别死于树敌太多</t>
+    <t>美联储加速缩债对我影响有限</t>
+  </si>
+  <si>
+    <t>首日破发症结在哪</t>
   </si>
   <si>
     <t>博客</t>
   </si>
   <si>
-    <t>筑成右肩挑战前高</t>
-  </si>
-  <si>
-    <t>资金正三路猛攻</t>
-  </si>
-  <si>
-    <t>一类股机会大</t>
+    <t>再消化年初高点</t>
+  </si>
+  <si>
+    <t>低吸机会来临</t>
+  </si>
+  <si>
+    <t>惯性下跌小幅上拉</t>
   </si>
   <si>
     <t>研报</t>
   </si>
   <si>
-    <t>长江:传媒眺望远方</t>
-  </si>
-  <si>
-    <t>安信:拥抱计算机更"均衡"繁荣</t>
+    <t>华创:"十四五"按图索骥</t>
+  </si>
+  <si>
+    <t>天风:用加息预期打败加息</t>
   </si>
   <si>
     <t>策略</t>
   </si>
   <si>
-    <t>机构关注港口概念股</t>
-  </si>
-  <si>
-    <t>年底补涨行情来了?看好银行</t>
+    <t>降准如期而至 关注三个低位</t>
+  </si>
+  <si>
+    <t>哪些刺激政策可期待</t>
   </si>
   <si>
     <t>解读</t>
   </si>
   <si>
-    <t>猪价反弹 CPI重回"2时代"</t>
-  </si>
-  <si>
-    <t>养老产业瞄准"互联网+"</t>
-  </si>
-  <si>
-    <t>外资爆买受限 大盘还能继续反弹吗</t>
-  </si>
-  <si>
-    <t>12月10日利好及其影响个股</t>
-  </si>
-  <si>
-    <t>需要一颗红心 两手准备</t>
-  </si>
-  <si>
-    <t>23股股东户数连续5期下降</t>
-  </si>
-  <si>
-    <t>下个阶段行情走势 应该还是轮动</t>
-  </si>
-  <si>
-    <t>A股释放重要信号 今日大盘怎么走</t>
-  </si>
-  <si>
-    <t>退市制度强化炒ST股风险大增</t>
-  </si>
-  <si>
-    <t>确定性看低位蓝筹 紧跟随机构脚步</t>
-  </si>
-  <si>
-    <t>资金正三路猛攻 这三路爆发力都强</t>
-  </si>
-  <si>
-    <t>关键时段关键时点关键的操作建议</t>
-  </si>
-  <si>
-    <t>划重点 周末埋伏什么方向</t>
-  </si>
-  <si>
-    <t>后面涨3倍机会大 一类股明摆着有</t>
-  </si>
-  <si>
-    <t>12月10日热点概念与题材前瞻</t>
-  </si>
-  <si>
-    <t>脱离底部的蓝筹值得期待</t>
-  </si>
-  <si>
-    <t>冲锋过猛需歇息 等洗盘补缺后再跟进</t>
-  </si>
-  <si>
-    <t>12.10早间要闻评论</t>
-  </si>
-  <si>
-    <t>如何才能与指数同步获得投资收益</t>
-  </si>
-  <si>
-    <t>提高外汇准备金率对市场的影响</t>
-  </si>
-  <si>
-    <t>新能源车又迎一重大利好</t>
-  </si>
-  <si>
-    <t>高价股≠大肉签</t>
-  </si>
-  <si>
-    <t>期待周线5浪反弹</t>
-  </si>
-  <si>
-    <t>暴赚350% 浮盈13.68亿！3200亿果链龙头派出"大红包"</t>
-  </si>
-  <si>
-    <t>跨境理财通启动3月:划汇金额超3亿 南北投资者口味存异</t>
-  </si>
-  <si>
-    <t>近一个月新股发行超募占比过半 "多出来的钱"该如何用?</t>
-  </si>
-  <si>
-    <t>2500亿乳业巨头120亿定增落地 53家机构重金抢筹</t>
+    <t>2021年A股十个"万万没想到"</t>
+  </si>
+  <si>
+    <t>年内2倍牛股被问询</t>
+  </si>
+  <si>
+    <t>8000亿大逃杀果然开始 谁涨谁跌定了</t>
+  </si>
+  <si>
+    <t>大盘弱势调整 下周初很关键</t>
+  </si>
+  <si>
+    <t>DRG迎重大改革 逢低潜伏收益大大的</t>
+  </si>
+  <si>
+    <t>短期事件不会改变中期趋势继续买跌低吸</t>
+  </si>
+  <si>
+    <t>下周先抑后扬</t>
+  </si>
+  <si>
+    <t>震荡中寻机遇</t>
+  </si>
+  <si>
+    <t>下周一有个消息将决定后市走势</t>
+  </si>
+  <si>
+    <t>酿酒板块也即将迎来死叉</t>
+  </si>
+  <si>
+    <t>躲避风险远比抓住机会更重要</t>
+  </si>
+  <si>
+    <t>不必慌 一个好的信号出现了</t>
+  </si>
+  <si>
+    <t>大盘震荡走高是主旋律</t>
+  </si>
+  <si>
+    <t>大盘有多少杀跌空间</t>
+  </si>
+  <si>
+    <t>短线或还有震荡反复（收评暨周评）</t>
+  </si>
+  <si>
+    <t>周四止跌信号失效沪指关注3637点争夺</t>
+  </si>
+  <si>
+    <t>本周等待调整的低点</t>
+  </si>
+  <si>
+    <t>下周能否出现报复性反弹</t>
+  </si>
+  <si>
+    <t>年底的箱体高位该怎么操作</t>
+  </si>
+  <si>
+    <t>下周将会迎来短线抄底机会</t>
+  </si>
+  <si>
+    <t>补完缺口 下周这样应对</t>
+  </si>
+  <si>
+    <t>回踩是为跨年度行情作准备</t>
+  </si>
+  <si>
+    <t>佯攻补缺诱空蓄</t>
+  </si>
+  <si>
+    <t>A股缘何放量下跌</t>
+  </si>
+  <si>
+    <t>陈果转战中信建投：首创宁组合概念 明年看好这些板块</t>
+  </si>
+  <si>
+    <t>中金|折叠屏手机:价格下探至7700元 突破手机创新瓶颈</t>
+  </si>
+  <si>
+    <t>没有不散的筵席?重仓持股5年张坤首次大举抛售苏泊尔</t>
+  </si>
+  <si>
+    <t>白酒企业“涨价潮”来袭！市场正静待茅台“靴子落地”</t>
   </si>
   <si>
     <t>行业</t>
   </si>
   <si>
-    <t>苹果供应链危机持续发酵 最新品市场供应量减50%</t>
-  </si>
-  <si>
-    <t>上市公司连出大手笔 锂电铜箔扩产增能再提速</t>
-  </si>
-  <si>
-    <t>EDR概念火爆！龙头股8天5板，股价1个月翻倍</t>
-  </si>
-  <si>
-    <t>新冠特效药如何撬动市场</t>
-  </si>
-  <si>
-    <t>口服药挤压下抗体药利润在哪?</t>
+    <t>"元宇宙"火爆背后隐患重重 已经有人开始收割了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资本逐鹿生长激素前景诱人 贩卖身高焦虑?监管利剑悬 </t>
+  </si>
+  <si>
+    <t>隆基股份再次下调硅片价格 刺激光伏产业链加速回暖</t>
+  </si>
+  <si>
+    <t>奥园健康获物企服务力TOP14</t>
   </si>
   <si>
     <t>硬核研报</t>
   </si>
   <si>
-    <t>双12大促：满1000减500 捕捉潜力股必备</t>
+    <t>市值50亿细分冠军 市占率国内第一全球前三</t>
   </si>
   <si>
     <t>主力动向</t>
   </si>
   <si>
-    <t>川渝或有新交易所 这些公司望受益天时地利</t>
-  </si>
-  <si>
-    <t>机构内参|</t>
-  </si>
-  <si>
-    <t>我国首个漂浮式海上风电平台 核心受益名单</t>
-  </si>
-  <si>
-    <t>肥水分流冲击执业质量 国元证券投行项目现蹊跷利益链</t>
-  </si>
-  <si>
-    <t>12万股民懵了！东吴证券突然要配股 要么缴款要么亏钱</t>
+    <t>370亿欧元做研发 奥迪2033年全车型电动化</t>
+  </si>
+  <si>
+    <t>涨停内参|</t>
+  </si>
+  <si>
+    <t>隆基硅片再降价 华为23日举行发布新机或爆款</t>
+  </si>
+  <si>
+    <t>滥用制裁！美“实体清单”又涉8家中国上市公司(名单)</t>
+  </si>
+  <si>
+    <t>龙芯中科冲科创板IPO：涉隐瞒关联关系打脸信披真实性</t>
   </si>
   <si>
     <t>直播|</t>
   </si>
   <si>
-    <t>布局A50 打包中国核心资产</t>
-  </si>
-  <si>
-    <t>食饮反弹or反转</t>
+    <t>医药还能进场吗？</t>
+  </si>
+  <si>
+    <t>2022的科技板块值得期待</t>
   </si>
   <si>
     <t xml:space="preserve"> 秘诀</t>
@@ -418,299 +421,302 @@
     <t>研报|</t>
   </si>
   <si>
-    <t>通信碳中和政策加码</t>
-  </si>
-  <si>
-    <t>银河:地产业进入政策友好期</t>
+    <t>任泽平:建立鼓励生育基金 扭转“低生育率陷阱”</t>
   </si>
   <si>
     <t>公司</t>
   </si>
   <si>
-    <t>抢疯！伊利股份120亿定增落地 高毅、高瓴都来了</t>
-  </si>
-  <si>
-    <t>3000亿“中药茅”董事长辞职 上任8个月市值暴增800亿</t>
-  </si>
-  <si>
-    <t>券商奇葩事！华西营业部老总私刻公章骗了客户300多万</t>
-  </si>
-  <si>
-    <t>"最贵新股"禾迈股份询价报价首尾相差14倍 机构吵翻了</t>
+    <t>19天连拉了13板的陕西金叶 各路游资击鼓传花</t>
+  </si>
+  <si>
+    <t>苏泊尔员工1元买股票 考核净利增速仅5%被疑利益输送</t>
+  </si>
+  <si>
+    <t>山西汾酒市值缩水 股东人均亏42万 董事长退休为谣言?</t>
+  </si>
+  <si>
+    <t>又遭点名 业绩增长背后藏隐忧 这家股份制银行怎么了?</t>
   </si>
   <si>
     <t>地产</t>
   </si>
   <si>
-    <t>深圳两旧改项目公示：伟城拿下光明鸿大新城旧改</t>
-  </si>
-  <si>
-    <t>当初靠"氢燃料"收获7连板 如今京城股份却改口:不涉及</t>
-  </si>
-  <si>
-    <t>倍特药业IPO注册前景生波：实控人资本原罪遭监管追溯</t>
-  </si>
-  <si>
-    <t>啥情况？吉视传媒每股净资产咋多了1毛钱？投资者诉苦</t>
-  </si>
-  <si>
-    <t>莱绅通灵内斗再升级：提名总裁遭新反对 独董也来抢戏</t>
+    <t>中天金融剥离房地产业务 交易作价为何会大缩水?</t>
+  </si>
+  <si>
+    <t>A股再现天价离案 涉30亿财产分割 赛腾股份控制权生变</t>
+  </si>
+  <si>
+    <t>双双跌停 中公教育遭立案调查 另有海航投资也被立案</t>
+  </si>
+  <si>
+    <t>安信证券首席策略分析师陈果离职</t>
+  </si>
+  <si>
+    <t>下一站转战中信建投</t>
+  </si>
+  <si>
+    <t>汇绿生态收关注函:要求自查公开发行事项信息保密工作</t>
   </si>
   <si>
     <t>挖牛股</t>
   </si>
   <si>
-    <t xml:space="preserve">投资研报&amp;决策商城双12大促来了！满1000减500 </t>
+    <t>华为23日办发布会新机或爆款 关注唯一供应商</t>
   </si>
   <si>
     <t>金麒麟港美股上市公司评选榜单即将揭晓</t>
   </si>
   <si>
-    <t>北向资金单日净买入216亿元 人民币升值或是主要推手</t>
-  </si>
-  <si>
-    <t>雍禾医疗定价15.8港元：一手中签率15% 乙头中签22手</t>
-  </si>
-  <si>
-    <t>解码首个国产新冠“特效药”：对奥密克戎是否有效？</t>
-  </si>
-  <si>
-    <t>风格转换路径清晰 公募布局圈定新目标迎跨年</t>
-  </si>
-  <si>
-    <t>长信基金6产品前11月跌超10% 副总经理旗下混基占4席</t>
-  </si>
-  <si>
-    <t>央行出手</t>
-  </si>
-  <si>
-    <t>人民币汇率直线暴跌300点</t>
-  </si>
-  <si>
-    <t>金麒麟港美股上市公司评选火热投票中</t>
+    <t>2021：恒指表现全球最差 港股“失落”根源何在</t>
+  </si>
+  <si>
+    <t>荐股群变韭菜园 香港、新加坡监管联手 上演跨境抓捕</t>
+  </si>
+  <si>
+    <t>一声锣响 三地上市 百济神州离全球医药巨头有多远？</t>
+  </si>
+  <si>
+    <t>直播:广发刘格菘、上投摩根倪权生话明年</t>
+  </si>
+  <si>
+    <t>重仓持股五年 张坤首次大举抛售苏泊尔:价量有天花板</t>
+  </si>
+  <si>
+    <t>2021恒指表现全球最差 港股失落根源</t>
+  </si>
+  <si>
+    <t>收评：港股恒指跌1.2% 科技股、光伏太阳能股下跌</t>
+  </si>
+  <si>
+    <t>俞敏洪回应财富缩水185亿：那不是我的钱，是社会的</t>
+  </si>
+  <si>
+    <t>金麒麟港美股上市公司评选火热进行中</t>
   </si>
   <si>
     <t>金麒麟港美股最佳上市公司评选隆重开启 竞逐九项大奖</t>
   </si>
   <si>
-    <t>易纲最新表态！短期个别房企风险、香港国际金融中心建设均有提及，来看要点…</t>
-  </si>
-  <si>
-    <t>彩生活：花样年正寻求法律意见以保护其合法权益 公司股价复牌</t>
-  </si>
-  <si>
-    <t>首款国产新冠特效药揭秘！七问七答，涉及定价、抗体效果等</t>
-  </si>
-  <si>
-    <t>雍禾医疗定价15.8港元：一手中签率15% 公开发售触发回拨机制</t>
-  </si>
-  <si>
-    <t>元宇宙买地太火了！知名地产大亨豪掷3200万，购入最大虚拟土地！</t>
-  </si>
-  <si>
-    <t>年内二度上调外汇存款准备金率 央行释放人民币汇率“降温”信号</t>
-  </si>
-  <si>
-    <t>不存在虚假宣传动机：长城汽车就欧拉好猫“换芯门”致歉，再推补偿方案</t>
-  </si>
-  <si>
-    <t>港股市值缩水7成，业绩增速放缓，春立医疗高光不再</t>
-  </si>
-  <si>
-    <t>等待CPI数据 美股收低纳指跌270点</t>
-  </si>
-  <si>
-    <t>美参议院通过法案 允许加快提高债务上限操作程序</t>
-  </si>
-  <si>
-    <t>方舟基金今年大跌逾20%，“木头姐”称正自我反省</t>
-  </si>
-  <si>
-    <t>特斯拉蒸发4200亿！“木头姐”发声：特斯拉被低估，股价可能上3000美元</t>
-  </si>
-  <si>
-    <t>不管通胀洪水滔天，谷歌高管告诉员工不会因为通胀全面涨薪</t>
-  </si>
-  <si>
-    <t>通胀跑步迈入“7时代”？美CPI料创近40年新高 美联储或被迫3月就加息</t>
-  </si>
-  <si>
-    <t>12月9日美股成交额前20：“木头姐”称特斯拉仍被低估，股价可能上3000</t>
-  </si>
-  <si>
-    <t>外盘头条：美家庭净资产创疫后复苏以来最低增幅</t>
-  </si>
-  <si>
-    <t>隔夜要闻：CPI数据前美股走低 美油收跌2% 巴菲特参投的数字银行IPO首日大涨</t>
-  </si>
-  <si>
-    <t>比特币巨鲸MicroStrategy又买1400多枚，总计持有122478枚</t>
-  </si>
-  <si>
-    <t>美股精选： 华盛早报 | 特斯拉大跌6%科技...</t>
-  </si>
-  <si>
-    <t>默多克2亿美元买下科赫家族牧场</t>
-  </si>
-  <si>
-    <t>秘鲁央行连续第五个月加息，以遏制通胀</t>
-  </si>
-  <si>
-    <t>大众超千亿美元投资电动车等新技术 追赶特斯拉脚步不停歇</t>
-  </si>
-  <si>
-    <t>IMF首席经济学家：全球面临通胀压力和奥密克戎带来的风险</t>
-  </si>
-  <si>
-    <t>美参议院让提高债务上限进入快车道 进一步降低政府关门的风险</t>
-  </si>
-  <si>
-    <t>贝莱德的Chaudhuri：现在是时候对冲通货膨胀了</t>
-  </si>
-  <si>
-    <t>美国商务部长称若不能解决芯片危机会造成毁灭性影响</t>
-  </si>
-  <si>
-    <t>尽管面临疫情挑战 标普仍预计明年石油需求将增长</t>
+    <t>又见券商换帅 今年来证券公司董事长、总经理变动近30人</t>
+  </si>
+  <si>
+    <t>收评：北向资金净卖出65.61亿元 沪股通净卖出35.94亿元</t>
+  </si>
+  <si>
+    <t>上海区域人事大换防 万科进入地产开发强管控时刻</t>
+  </si>
+  <si>
+    <t>美国又列实体清单？多家公司回应…恒生科技指数创新低，千亿巨头暴跌10%，A股低位震荡，昔日龙头被砸跌停</t>
+  </si>
+  <si>
+    <t>“网红神盘”不香了？深圳豪宅新盘大降温，此前曾遭疯抢…严控下购房者变理性，新房市场抢客花招百出</t>
+  </si>
+  <si>
+    <t>弘阳1936·纺宿别院 2022开启龙城“节气”生活方式</t>
+  </si>
+  <si>
+    <t>小米澄清：“雷军进军私募”报道存在误读，所涉公司不会以任何方式公开募集和发行基金</t>
+  </si>
+  <si>
+    <t>腾讯9款应用逐步恢复更新，系“过渡性行政指导”后首次</t>
+  </si>
+  <si>
+    <t>世茂服务：赎回100万股股份 耗资约517万港元</t>
+  </si>
+  <si>
+    <t>美股终将成也美联储，败也美联储？</t>
+  </si>
+  <si>
+    <t>通胀担忧加剧！热钱蜂拥流入大宗商品市场</t>
+  </si>
+  <si>
+    <t>美股科技巨头全线下挫 终究仍躲不开美联储紧缩风暴？</t>
+  </si>
+  <si>
+    <t>浑水为何盯上贝壳，长达77页的做空报告怎么来的？</t>
+  </si>
+  <si>
+    <t>美股回购热潮重启，美国政界、SEC要这样加强监管</t>
+  </si>
+  <si>
+    <t>供应增长或无法跟上需求 高盛料油价可能升破每桶100美元</t>
+  </si>
+  <si>
+    <t>日本央行维持主要宽松政策不变 与其他主要央行的立场差异扩大</t>
+  </si>
+  <si>
+    <t>本周第二次套现！马斯克再卖93万股特斯拉 出售目标完成四分之三</t>
+  </si>
+  <si>
+    <t>美债收益率与美股双双下挫 市场有些跟不上鹰派美联储的脚步？</t>
+  </si>
+  <si>
+    <t>币圈大佬预言：明年美元会崩，比特币跌破4万美元就抄底</t>
+  </si>
+  <si>
+    <t>美股精选： 美股前瞻丨美联储暗示明年加息三次...</t>
+  </si>
+  <si>
+    <t>自称美国纳税第一人，马斯克今年税单或达120亿美元</t>
+  </si>
+  <si>
+    <t>福奇发出“恐怖预警”：奥密克戎几周内就将占领美国 成为主要毒株</t>
+  </si>
+  <si>
+    <t>软银称将继续投资印度数字公司，无惧Paytm股价大跌</t>
+  </si>
+  <si>
+    <t>全球主要央行对新冠疫情担忧减轻 认为通胀才是更大威胁</t>
+  </si>
+  <si>
+    <t>为什么说2022年仍是美股的“春天”？小摩给出三大理由</t>
+  </si>
+  <si>
+    <t>12月16日美股成交额前20：辉瑞新冠药物明年市场份额将达85%</t>
+  </si>
+  <si>
+    <t>土耳其又有“神操作”：为了抵御通胀，将最低工资提高50%</t>
+  </si>
+  <si>
+    <t>纽交所传奇人物：通胀很快将见顶 市场将在2022年迎来其他意外</t>
   </si>
   <si>
     <t>新浪财经诚聘国际财经新闻编辑若干</t>
   </si>
   <si>
-    <t>[互联网]谷歌向全体员工发放1600美元奖金</t>
-  </si>
-  <si>
-    <t>公募又掀限购潮，基金开启年底冲业绩模式</t>
-  </si>
-  <si>
-    <t>跨年行情:风格转换路径清晰 公募布局圈定新目标</t>
-  </si>
-  <si>
-    <t>长信基金6产品前11月跌超10% 副总旗下混基占4席</t>
+    <t>[互联网]苹果设立新办公室开发自研无线芯片</t>
+  </si>
+  <si>
+    <t>重仓持股五年 张坤首次大举抛售苏泊尔 发生了什么</t>
+  </si>
+  <si>
+    <t>消费股热点扩散  明星基金经理提前“埋伏”</t>
+  </si>
+  <si>
+    <t>创投大佬汪潮涌被抓？信中利紧急停牌</t>
   </si>
   <si>
     <t xml:space="preserve">
-大咖说:食品饮料崛起是反弹or反转？(虎年策略)</t>
-  </si>
-  <si>
-    <t>中欧2022权益投资策略会:窦玉明 周蔚文等出席</t>
-  </si>
-  <si>
-    <t>国联安基金投资策略会:2022年该如何布局？</t>
-  </si>
-  <si>
-    <t>一天46只基金限购！年末基金“闭门谢客潮”汹涌，投资者该怎么看？</t>
-  </si>
-  <si>
-    <t>12月10日最值得看的5场直播：全景视角，解密虎年市场投资策略</t>
-  </si>
-  <si>
-    <t>嘉实基金吴越解读2022投资关键词</t>
-  </si>
-  <si>
-    <t>19.73万亿！私募基金总规模再创新高！</t>
-  </si>
-  <si>
-    <t>“闭门谢客”如约而至 赵蓓、周蔚文等管理的绩优权益基金掀起限购潮</t>
-  </si>
-  <si>
-    <t>百亿量化私募“内斗”后续：李硕辞任总裁，由袁宇兼任</t>
-  </si>
-  <si>
-    <t>东方红产业升级等基金年末降费 赔钱赚吆喝</t>
-  </si>
-  <si>
-    <t>新股破发频现 打新基金收益率面临考验</t>
-  </si>
-  <si>
-    <t>重磅ETF上市！“沪深300 Pro Max”登陆上交所 主动型ETF场内交易时代正式开启！</t>
-  </si>
-  <si>
-    <t>万亿量化赛道监管趋严！头部量化私募悄然发力合规</t>
-  </si>
-  <si>
-    <t>美国基金系列|长期持有，慢慢变富</t>
-  </si>
-  <si>
-    <t>翻倍妖股背后闪现“幽灵”资金，“房地产系”私募和游资大神出没其中</t>
-  </si>
-  <si>
-    <t>浙商资管被责令暂停私募资管产品备案6个月</t>
-  </si>
-  <si>
-    <t>又一基金销售机构被罚！监管暂停北京钱景基金销售业务6个月</t>
-  </si>
-  <si>
-    <t>最新！这70家公司提前透露年度业绩，最高净利或增3倍！葛兰、朱少醒、高瓴、星石等提前布局</t>
-  </si>
-  <si>
-    <t>量化基金喝高了？长城量化精选三季度一把梭哈白酒 近三月业绩排名前十</t>
-  </si>
-  <si>
-    <t>“固收+”产品引爆年末基金市场 适时把握“基”遇布局跨年行情</t>
+大咖说：逆周期调节修复煤炭预期？医药进场？</t>
+  </si>
+  <si>
+    <t>南方李佳亮："聪明资金"青睐A50 一键布局</t>
+  </si>
+  <si>
+    <t>广发张芊 傅友兴 刘格菘：乘风破浪开新篇</t>
+  </si>
+  <si>
+    <t>私募大佬汪潮涌夫妇往事：一个华尔街神童，一个13岁武术冠军，妻子也曾失联</t>
+  </si>
+  <si>
+    <t>抄底资金“越跌越买” 多只医药类ETF获大额净申购</t>
+  </si>
+  <si>
+    <t>持仓动向看点多 基金备战跨年行情进退有序</t>
+  </si>
+  <si>
+    <t>打造创新产品线 公募跑出发展“加速度”</t>
+  </si>
+  <si>
+    <t>量化交易时代切忌满仓操作</t>
+  </si>
+  <si>
+    <t>美国基金系列：赚钱≠每年都赚钱</t>
+  </si>
+  <si>
+    <t>百亿私募大佬汪潮涌失联？被誉“华尔街中国神童”，去年亏16亿</t>
+  </si>
+  <si>
+    <t>重点关注五场直播：广发基刘格菘、上投摩根倪权生带你共话2022年投资机遇</t>
+  </si>
+  <si>
+    <t>中国民生银行私人银行：润物细语</t>
+  </si>
+  <si>
+    <t>第十届银华基金资产管理论坛</t>
+  </si>
+  <si>
+    <t>头部公司加速布局指数基金 目前有50多只产品正在发行中</t>
+  </si>
+  <si>
+    <t>刷屏!老牌百亿私募掌门人失联，旗下公司紧急停牌！曾被誉为"华尔街神童"，杠杆并购A股公司成滑铁卢</t>
+  </si>
+  <si>
+    <t>同业存单指数基金申报达100只 首批6只结束募集</t>
+  </si>
+  <si>
+    <t>招商基金邓和权、邓童：逆周期政策调节会否修复煤炭预期？</t>
+  </si>
+  <si>
+    <t>上投摩根倪权生：“权”景视角看投资：2022市场投资展望</t>
   </si>
   <si>
     <t>"V智投"基金组合全新上线 量身打造投资方案</t>
   </si>
   <si>
-    <t>又一大创新！首只中国外汇交易中心债券指数基金来了，募集金额近80亿元</t>
-  </si>
-  <si>
-    <t>汇添富基金总经理张晖：好指数+好时机，站在未来现在是一个激动人心的时刻</t>
-  </si>
-  <si>
-    <t>央行年内两次上调外汇存准率</t>
-  </si>
-  <si>
-    <t>油价从二周高位下挫3美元</t>
-  </si>
-  <si>
-    <t>欧佩克能否笑到最后？</t>
-  </si>
-  <si>
-    <t>豆粕需求预期增加 预计短期内价格震荡偏强</t>
-  </si>
-  <si>
-    <t>这三地防控升级，石化基地、化工大产区停工停产</t>
-  </si>
-  <si>
-    <t>半年被罚9次罚金2000万 这家钢企为何屡次被罚？</t>
-  </si>
-  <si>
-    <t>利空因素重新占上风 逆水行舟 油价未能更进一步</t>
-  </si>
-  <si>
-    <t>新浪财经诚聘期权期货频道编辑 薪酬待遇优厚</t>
-  </si>
-  <si>
-    <t>苹果报175.08美元 市值2.87万亿美元 点击查看详情</t>
-  </si>
-  <si>
-    <t>大豆期货收高 美国农业部下调全球供应预估</t>
-  </si>
-  <si>
-    <t>消费增量不及预期 钢材期价继续回落跌近3%</t>
-  </si>
-  <si>
-    <t>纯碱破位下行 与玻璃就此“分道扬镳”？</t>
-  </si>
-  <si>
-    <t>疫情起伏削弱风险偏好 美元走强黄金下挫</t>
-  </si>
-  <si>
-    <t>连续拉升后不宜追高 股指上行路径较为曲折</t>
-  </si>
-  <si>
-    <t>期货总“背锅” 可能是这项制度出了问题</t>
+    <t>基金经理也懵了！上市1个多月赚了22%，基民却快跑光了！但券商高喊这个板块的权重股还能涨</t>
+  </si>
+  <si>
+    <t>两份私募高管的相似履历表：昔日挑灯考研，今日掌舵私募，各自职场升华</t>
+  </si>
+  <si>
+    <t>招商银行丁华安：明年我国通胀总体可控 主要矛盾是经济下行压力加大 结构性行情可能延续 人民币小幅走弱</t>
+  </si>
+  <si>
+    <t>博时吕修磊：产业债仍具较高的信用风险适配性 关注企业现金流改善驱动融资修复的机会</t>
+  </si>
+  <si>
+    <t>收评：动力煤、沪锌、纯碱涨超4%</t>
+  </si>
+  <si>
+    <t>高盛：不排除未来油价升至三位数</t>
+  </si>
+  <si>
+    <t>海岬型船运价触及六个月最低</t>
+  </si>
+  <si>
+    <t>铁矿700点关口遇阻 预期改善恐难抵疲软现实</t>
+  </si>
+  <si>
+    <t>盗采煤矿透水事故扰动 动力煤有希望“暖”起来吗？</t>
+  </si>
+  <si>
+    <t>一个月十几张涨价函！轮胎“轮番”涨价 咋回事？</t>
+  </si>
+  <si>
+    <t>"超能力生产"致多个煤矿受罚 增产不能踩安全红线</t>
+  </si>
+  <si>
+    <t>招聘！期权期货频道编辑</t>
+  </si>
+  <si>
+    <t>大豆期货收高 豆油期货强劲涨势带来支撑</t>
+  </si>
+  <si>
+    <t>2022年铁矿石市场展望 预计价格震荡缓慢回调</t>
+  </si>
+  <si>
+    <t>南方赶工需求有所释放 沥青主力创一个月新高</t>
+  </si>
+  <si>
+    <t>鹰派央行难阻黄金大涨 三大因素推升黄金价格</t>
+  </si>
+  <si>
+    <t>超150亿元资金涌入上证50ETF 沪深300ETF</t>
+  </si>
+  <si>
+    <t>高通胀持续压顶 “保值”资产开始香了？</t>
   </si>
   <si>
     <t>DCE一周观察</t>
   </si>
   <si>
-    <t>议息会议将至  美联储官员“转鹰”</t>
-  </si>
-  <si>
-    <t>货币政策趋紧带来的压力持续上升，黄金下行趋势或延续&gt;&gt;</t>
+    <t>再创历史新低！里拉跌破16关口</t>
+  </si>
+  <si>
+    <t>再创历史新低！土耳其里拉兑美元短线快速走弱，跌破16关口&gt;&gt;</t>
   </si>
   <si>
     <t>全球财经直播</t>
@@ -719,232 +725,244 @@
     <t>人民币汇率</t>
   </si>
   <si>
-    <t>央行上调外汇存款准备金率 人民币汇率应声走贬</t>
-  </si>
-  <si>
-    <t>IMF：全球面临通胀压力和奥密克戎带来的风险</t>
-  </si>
-  <si>
-    <t>央行再度“升准”抑制过度升值 哪些因素推动？</t>
-  </si>
-  <si>
-    <t>外汇提准 央行一收一放减缓人民币单边升值压力</t>
-  </si>
-  <si>
-    <t>马不停蹄！巴西央行年内第七次加息遏制通胀</t>
-  </si>
-  <si>
-    <t>美国商务部长“非常有信心”通胀将逐渐消失</t>
-  </si>
-  <si>
-    <t>生产一个比特币耗能三口之家可用一年</t>
-  </si>
-  <si>
-    <t>美CPI料创近40年新高 或被迫3月加息</t>
-  </si>
-  <si>
-    <t>就业市场持续复苏，美国首申失业金人数跌至52年...</t>
-  </si>
-  <si>
-    <t>议息会议将至 美联储官员“转鹰”！黄金将出现新...</t>
-  </si>
-  <si>
-    <t>贵金属：通胀预期冲高回落 疫情扰动未停歇</t>
-  </si>
-  <si>
-    <t>贵金属市场进入消费旺季</t>
-  </si>
-  <si>
-    <t>周四黄金期货收跌0.5% 白银下跌1.9%</t>
-  </si>
-  <si>
-    <t>白银股跌幅居前，Endeavour Silver跌超4%</t>
-  </si>
-  <si>
-    <t>世界黄金协会：全球黄金ETF自7月以来首次实现净流入</t>
-  </si>
-  <si>
-    <t>变化莫测的美联储，信誉堪忧</t>
-  </si>
-  <si>
-    <t>创52年新低！美国上周初请失业金人数降至18.4万人</t>
-  </si>
-  <si>
-    <t>现货黄金承压，两方面观点角度均支持美联储加快收...</t>
-  </si>
-  <si>
-    <t>光大期货：关注今日公布的美国11月CPI数据</t>
-  </si>
-  <si>
-    <t>疫情削弱风险偏好 美元走强黄金下挫</t>
-  </si>
-  <si>
-    <t>答疑</t>
-  </si>
-  <si>
-    <t>今年前11月外资增持中国国债逾5000亿元</t>
-  </si>
-  <si>
-    <t>保供稳价效果显现 11月CPI同比涨2.3%、PPI涨幅料缩窄</t>
-  </si>
-  <si>
-    <t>中国11月CPI同比涨幅2.3% 年内首次“破2”关口</t>
-  </si>
-  <si>
-    <t>WGBI纳入中国国债带动大波增量 11月境外资本大笔增持</t>
-  </si>
-  <si>
-    <t>11月社融M1增速回升 央行加大实体经济支持力度</t>
-  </si>
-  <si>
-    <t>11月CPI同比上涨2.3% PPI与CPI剪刀差触顶回落</t>
-  </si>
-  <si>
-    <t>多渠道融资“补血” 银行业二级资本债"大单"频现</t>
-  </si>
-  <si>
-    <t>华夏幸福债务重组计划获高票通过 将同步加快资产处置</t>
-  </si>
-  <si>
-    <t>总金额45亿元！恒大公告债券投资者回售实施办法</t>
-  </si>
-  <si>
-    <t>美参议院让提高债务上限进入快车道 降低政府关门风险</t>
-  </si>
-  <si>
-    <t>社融增速触底回升 居民中长期贷款同比连续增长</t>
-  </si>
-  <si>
-    <t>21世纪经济报道评论：通胀压力减弱 货币政策空间打开</t>
+    <t xml:space="preserve">招商宏观：预计2022年人民币汇率或先弱后强 </t>
+  </si>
+  <si>
+    <t>通胀压力高企 欧洲央行退出量宽仍无时间表</t>
+  </si>
+  <si>
+    <t>新增确诊全球居首，疫情让美国人圣诞节前闹心</t>
+  </si>
+  <si>
+    <t>跨境支付、汇款麻烦？看数字人民币如何化繁为简</t>
+  </si>
+  <si>
+    <t>日本央行：将如期结束对企业债券紧急购买</t>
+  </si>
+  <si>
+    <t>美联储加息信号如何影响中国？是否需要应对？</t>
+  </si>
+  <si>
+    <t>邦达亚洲:英国央行意外加息 英镑刷新16日高位</t>
+  </si>
+  <si>
+    <t>乌拉圭将拥有首台加密货币ATM机</t>
+  </si>
+  <si>
+    <t>各国央行政策存异 利空落地后黄金反弹</t>
+  </si>
+  <si>
+    <t>国际金价料时隔四周重现周阳线 美元短线面临两股...</t>
+  </si>
+  <si>
+    <t>央行超级周！英国意外加息美元遭重创，黄金强势突...</t>
+  </si>
+  <si>
+    <t>金价向上突破 新的涨势开始了？</t>
+  </si>
+  <si>
+    <t>长期来看什么金融资产的回报率最高？不是黄金也不...</t>
+  </si>
+  <si>
+    <t>黄金板块涨势强劲、国际金价重回1800美元关口...</t>
+  </si>
+  <si>
+    <t>高通胀！金价迎来新一轮上涨？</t>
+  </si>
+  <si>
+    <t>12月17日黄金交易策略：金价涨势强劲 日内大...</t>
+  </si>
+  <si>
+    <t>英国央行意外宣布加息 国际金价震荡收涨（视频）</t>
+  </si>
+  <si>
+    <t>国际金价短线或进一步上摸1815美元</t>
+  </si>
+  <si>
+    <t>美联储开启鹰派模式 但黄金表现出弹性</t>
+  </si>
+  <si>
+    <t>鹰派美联储难阻黄金大涨 是反弹还是反转？</t>
+  </si>
+  <si>
+    <t>黄金无惧美联储“鹰”声直逼1800</t>
+  </si>
+  <si>
+    <t>专家答疑</t>
+  </si>
+  <si>
+    <t>国债期货冲高回落 十年期涨0.16%</t>
+  </si>
+  <si>
+    <t>中国缘何坚持“以我为主”货币政策？</t>
+  </si>
+  <si>
+    <t>明年专项债聚焦9大领域 坚决遏制隐性债务增量</t>
+  </si>
+  <si>
+    <t>1.46万亿元2022年新增专项债务额度提前下达</t>
+  </si>
+  <si>
+    <t>信用风险释放 高收益债市场迎发展良机</t>
+  </si>
+  <si>
+    <t>流动性无虞 新兴市场优质资产迎投资良机</t>
+  </si>
+  <si>
+    <t>美联储加速缩债 全球货币政策或将逐步正常化</t>
+  </si>
+  <si>
+    <t>美联储加速缩减购债 对我国金融市场影响有限</t>
+  </si>
+  <si>
+    <t>中美货币政策“错峰”运行 跨周期调节迎有利窗口期</t>
+  </si>
+  <si>
+    <t>关于地方债，财政部今天释放五大政策信号</t>
+  </si>
+  <si>
+    <t>专项债怎么用、怎么管？债务风险有多大、如何防？</t>
+  </si>
+  <si>
+    <t>带动扩大有效投资 稳经济 明年地方债有新部署</t>
   </si>
   <si>
     <t>全球银行同业拆借利率</t>
   </si>
   <si>
-    <t>http://www.news.cn/2021-12/08/c_1128143790.htm</t>
-  </si>
-  <si>
-    <t>http://www.news.cn/politics/2021-12/09/c_1128145509.htm</t>
-  </si>
-  <si>
-    <t>http://www.news.cn/fortune/2021-12/09/c_1128145822.htm</t>
-  </si>
-  <si>
-    <t>https://xhpfmapi.xinhuaxmt.com/vh512/app/10445514</t>
-  </si>
-  <si>
-    <t>http://www.news.cn/fortune/2021-12/08/c_1128144400.htm</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/rs20zn/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyakumx3155944.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyakumx3151619.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyakumx3152934.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyakumx3172286.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyamrmy7960114.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7978333.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyamrmy7999829.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/202111jjsj</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyamrmy7995768.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyamrmy7994020.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-12-10/doc-ikyamrmy7959774.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7979854.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-12-10/doc-ikyamrmy7974163.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-12-10/doc-ikyamrmy7955150.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx3116279.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zldx/2021-12-10/doc-ikyamrmy7992982.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyakumx3154920.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-10/doc-ikyamrmy7889647.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zldx/2021-12-10/doc-ikyakumx3129990.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-12-10/doc-ikyakumx3129808.shtml</t>
+    <t>http://www.news.cn/fortune/2021-12/17/c_1128172365.htm</t>
+  </si>
+  <si>
+    <t>http://www.news.cn/world/2021-12/16/c_1128169912.htm</t>
+  </si>
+  <si>
+    <t>http://www.news.cn/politics/2021-12/17/c_1128171794.htm</t>
+  </si>
+  <si>
+    <t>http://www.news.cn/politics/2021-12/17/c_1128172613.htm</t>
+  </si>
+  <si>
+    <t>https://xhpfmapi.xinhuaxmt.com/vh512/share/10465051</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/cyysxz/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-12-17/doc-ikyamrmy9539109.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-12-17/doc-ikyakumx4730631.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-12-17/doc-ikyakumx4734724.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/tech/2021-12-17/doc-ikyakumx4733095.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bank/bank_hydt/2021-12-17/doc-ikyamrmy9516437.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bank/2021-12-17/doc-ikyamrmy9502193.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bank/bank_hydt/2021-12-17/doc-ikyamrmy9505670.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bank/bank_hydt/2021-12-17/doc-ikyamrmy9511621.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/yjlx/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/14jqljr/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/2021yhylt/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/bxgflt/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/btflgflt/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/zhjrfh/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/jiepan20211216/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-17/doc-ikyamrmy9585326.shtml?cref=cj</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-12-17/doc-ikyamrmy9581873.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-12-17/doc-ikyakumx4742130.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-12-17/doc-ikyamrmy9577108.shtml?cref=cj</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-12-17/doc-ikyamrmy9576495.shtml?cref=cj</t>
   </si>
   <si>
     <t>https://live.finance.sina.com.cn/</t>
   </si>
   <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15380</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15384</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15382</t>
+    <t>https://daxue.sina.cn/detail/graphics/10b012bac304449cacf837729af84e13/696473d38592</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/detail/graphics/1a3971a466489e1796dc092794f59956/c67ef2bc68e3</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/detail/graphics/1a3971a466489e1796dc092794f59956/f0b6c4743880</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/detail/graphics/f5443bd63a8b4e858b9225ffa008a6c6/5880cc4f71b3</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/detail/graphics/f5443bd63a8b4e858b9225ffa008a6c6/27f402d924a3</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/quanshangkaihu/</t>
   </si>
   <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-12-17/doc-ikyamrmy9566506.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-12-17/doc-ikyamrmy9573225.shtml?cref=cj</t>
+  </si>
+  <si>
     <t>http://live.finance.sina.com.cn/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-10/doc-ikyakumx3167000.shtml</t>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-17/doc-ikyakumx4714158.shtml</t>
   </si>
   <si>
     <t>http://roll.finance.sina.com.cn/finance/zq1/scyj/index.shtml</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyakumx3162567.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-12-10/doc-ikyamrmy7999810.shtml</t>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-17/doc-ikyamrmy9572112.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-17/doc-ikyamrmy9577307.shtml?cref=cj</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-12-17/doc-ikyamrmy9576354.shtml?cref=cj</t>
   </si>
   <si>
     <t xml:space="preserve">http://finance.sina.com.cn/stock/jyts/ </t>
   </si>
   <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/y/2021-12-10/doc-ikyakumx3170564.shtml</t>
-  </si>
-  <si>
-    <t>http://vip.stock.finance.sina.com.cn/q/go.php/vInvestConsult/kind/jyts/index.phtml?tradedate=2021-12-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyamrmy7996684.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/cpbd/2021-12-10/doc-ikyakumx3171563.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/y/2021-12-10/doc-ikyamrmy8002449.shtml</t>
+    <t>http://blog.sina.com.cn/s/blog_4ca2560d0102yqjd.html?tj=fina</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-12-17/doc-ikyamrmy9577108.shtml</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_6308e0590102yr7g.html?tj=fina</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/marketresearch/2020-08-17/doc-iivhuipn9137795.shtml</t>
@@ -953,34 +971,37 @@
     <t xml:space="preserve">http://roll.finance.sina.com.cn/finance/zq1/zldx/index.shtml </t>
   </si>
   <si>
+    <t>https://finance.sina.com.cn/stock/data/2021-12-17/doc-ikyakumx4747352.shtml?cref=cj</t>
+  </si>
+  <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=230808</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx3120280.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-12-10/doc-ikyamrmy8004098.shtml</t>
+    <t>https://finance.sina.com.cn/stock/stockptd/2021-12-17/doc-ikyakumx4649855.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9441461.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=57563&amp;page=1</t>
   </si>
   <si>
-    <t>http://blog.sina.com.cn/s/blog_49548d340103043l.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_b0b5b4520102zcyi.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_64594bbb0102ytju.html?tj=fina</t>
+    <t>http://blog.sina.com.cn/s/blog_59b3f4ee0102zfch.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_6de4335d01031bys.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_8cc315680102z6zs.html?tj=fina</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/reportch/jinqilin.shtml</t>
   </si>
   <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/692439510705/index.phtml</t>
-  </si>
-  <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/692438671777/index.phtml</t>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/693051806744/index.phtml</t>
+  </si>
+  <si>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/693049367775/index.phtml</t>
   </si>
   <si>
     <t>http://vip.stock.finance.sina.com.cn/q/go.php/vReport_List/kind/lastest/index.phtml</t>
@@ -989,85 +1010,79 @@
     <t>http://licaishi.sina.com.cn/s/%E6%B7%B1%E6%B8%AF%E9%80%9A?ind_id=0&amp;t=1&amp;all=0&amp;fr=finance_top</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hyyj/2021-12-10/doc-ikyakumx3169790.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/yjdt/2021-12-10/doc-ikyamrmy7970948.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hyyj/2021-12-10/doc-ikyamrmy7949901.shtml</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_540eaf530102zbmn.html?tj=fina</t>
-  </si>
-  <si>
-    <t>https://tzxy.sina.com.cn/content/detail/1504965870/130212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyamrmy8010912.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/yjdt/2021-12-10/doc-ikyamrmy7959775.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/newstock/xgpl/2021-12-10/doc-ikyamrmy7963071.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/zqgd/2021-12-10/doc-ikyamrmy8004223.shtml</t>
+    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/strategy/rptid/693044898927/index.phtml</t>
+  </si>
+  <si>
+    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/strategy/rptid/693043570395/index.phtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-12-17/doc-ikyamrmy9541827.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-17/doc-ikyakumx4720102.shtml</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_8cc315680102z6zd.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_6fe7ef8d0102z85p.html?tj=fina</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-12-17/doc-ikyakumx4715899.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-12-17/doc-ikyakumx4652802.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-17/doc-ikyamrmy9476555.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9557715.shtml</t>
   </si>
   <si>
     <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_List/kind/industry/index.phtml</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-12-10/doc-ikyakumx3151882.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyakumx3168399.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-12-09/doc-ikyamrmy7945315.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/hk/2021-12-10/doc-ikyakumx3176957.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/hk/2021-12-10/doc-ikyakumx3138797.shtml</t>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-12-17/doc-ikyakumx4759910.shtml?cref=cj</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-12-17/doc-ikyamrmy9457876.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9474482.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/enterprise/2021-12-16/doc-ikyakumx4593115.shtml</t>
   </si>
   <si>
     <t>https://daxue.sina.cn/column/a601af39262c4bdd80274231f1fde815</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-12-09/doc-ikyakumx2989589.shtml</t>
+    <t>https://daxue.sina.cn/detail/graphics/a601af39262c4bdd80274231f1fde815/8025280d8492?type=tzyb</t>
   </si>
   <si>
     <t>https://daxue.sina.cn/column/f5443bd63a8b4e858b9225ffa008a6c6</t>
   </si>
   <si>
-    <t>https://daxue.sina.cn/detail/graphics/f5443bd63a8b4e858b9225ffa008a6c6/52ae13e06a8f</t>
-  </si>
-  <si>
     <t>https://daxue.sina.cn/column/97e7f6ea796d8ed24794b4dcfe7e14df</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://daxue.sina.cn/detail/graphics/54a2c39021ef4ec89125cd681601b84d/6e2ca7d6bce8</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/quanshang/qsyj/2021-12-10/doc-ikyakumx3179882.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/quanshang/qsyj/2021-12-10/doc-ikyakumx3140091.shtml</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15378</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15372</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx2949491.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx2953529.shtml</t>
+    <t>https://daxue.sina.cn/detail/graphics/54a2c39021ef4ec89125cd681601b84d/7b2541ec864e</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-17/doc-ikyamrmy9468625.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-12-17/doc-ikyakumx4618152.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15580</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15592</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-17/doc-ikyakumx4653411.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/s/2019-07-09/doc-ihytcitm0843478.shtml</t>
@@ -1076,31 +1091,37 @@
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=56592&amp;page=1</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyakumx3167951.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyakumx3185476.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/quanshang/qsyj/2021-12-10/doc-ikyamrmy8011204.shtml</t>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-17/doc-ikyamrmy9585567.shtml?cref=cj</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9475267.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-17/doc-ikyamrmy9439913.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-17/doc-ikyakumx4766357.shtml?cref=cj</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/estate/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/estate/integration/2021-12-10/doc-ikyakumx3177090.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyamrmy8006706.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/newstock/zxdt/2021-12-10/doc-ikyamrmy7996815.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyakumx3181066.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-12-10/doc-ikyamrmy8012231.shtml</t>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-17/doc-ikyamrmy9591634.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-12-17/doc-ikyakumx4645931.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-12-17/doc-ikyakumx4750136.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-12-17/doc-ikyamrmy9436204.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-16/doc-ikyamrmy9346478.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/observe/2021-12-17/doc-ikyamrmy9577345.shtml?cref=cj</t>
   </si>
   <si>
     <t>https://daxue.sina.cn/category/130</t>
@@ -1112,112 +1133,106 @@
     <t>https://finance.sina.com.cn/zt_d/jql_2021/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-10/doc-ikyamrmy7993844.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hkstock/ggipo/2021-12-10/doc-ikyakumx3175446.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/chanjing/cyxw/2021-12-09/doc-ikyakumx3116721.shtml</t>
+    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-12-17/doc-ikyamrmy9472648.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-12-17/doc-ikyakumx4650035.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/newstock/xgpl/2021-12-17/doc-ikyamrmy9425031.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/fund/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-10/doc-ikyakumx3162051.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7993505.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-12-10/doc-ikyakumx3175210.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/marketresearch/2021-12-09/doc-ikyamrmy7925249.shtml</t>
+    <t>https://finance.sina.com.cn/money/fund/original/2021-12-16/doc-ikyamrmy9400353.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-17/doc-ikyamrmy9582701.shtml</t>
   </si>
   <si>
     <t xml:space="preserve"> https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-11-01/doc-iktzqtyu4702456.shtml</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-12-10/doc-ikyamrmy8004244.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-10/doc-ikyamrmy8007225.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-12-09/doc-ikyamrmy7945305.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggipo/2021-12-10/doc-ikyakumx3175446.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-12-09/doc-ikyamrmy7925560.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bank/bank_hydt/2021-12-10/doc-ikyamrmy7988876.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-12-09/doc-ikyamrmy7942193.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-10/doc-ikyamrmy7992800.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7979258.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-12-10/doc-ikyakumx3185326.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3173134.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy8012598.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3181268.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3181256.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7983076.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7981726.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3163875.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3191554.shtml</t>
+    <t>https://finance.sina.com.cn/stock/roll/2021-12-16/doc-ikyakumx4593818.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-17/doc-ikyakumx4750837.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-12-17/doc-ikyamrmy9544495.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-12-17/doc-ikyakumx4719144.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/roll/2021-12-16/doc-ikyamrmy9322515.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-12-17/doc-ikyakumx4670138.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-12-17/doc-ikyamrmy9519357.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-17/doc-ikyakumx4766549.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyamrmy9559582.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyamrmy9546105.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyakumx4682483.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyakumx4707970.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyakumx4697101.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyamrmy9577228.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyakumx4707610.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9532931.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-12-17/doc-ikyakumx4663376.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyamrmy9518770.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/other/hsnews/detail_index.d.html</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7994940.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy8003661.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy8010262.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3134748.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3151893.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyakumx3132270.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-12-10/doc-ikyakumx3136795.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7974549.shtml</t>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyakumx4652375.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyakumx4656947.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyamrmy9562926.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyamrmy9502619.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9503939.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyakumx4634771.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyamrmy9488872.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-17/doc-ikyakumx4655837.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/usstock/c/2019-06-04/doc-ihvhiews6789878.shtml</t>
@@ -1226,127 +1241,124 @@
     <t>https://tech.sina.com.cn/internet/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/fund/fundzmt/2021-12-10/doc-ikyamrmy7949181.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/original/2021-12-09/doc-ikyamrmy7902735.shtml</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15286</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.cn/imeeting/hyt/detail/15361</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-10/doc-ikyamrmy7992599.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/original/2021-12-10/doc-ikyakumx3177042.shtml</t>
-  </si>
-  <si>
-    <t>http://video.sina.com.cn/l/p/40058724.html</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-10/doc-ikyamrmy7994707.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyakumx3154535.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-10/doc-ikyakumx3123871.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7991837.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-10/doc-ikyamrmy7987815.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7965409.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-10/doc-ikyamrmy7999794.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/2021-12-07/doc-ikyakumx2564842.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-10/doc-ikyamrmy7939282.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-09/doc-ikyakumx2933655.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx3090004.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-09/doc-ikyamrmy7918782.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/2021-12-09/doc-ikyamrmy7912572.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx3120282.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-12-16/doc-ikyakumx4599810.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-17/doc-ikyakumx4607814.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/2021-12-16/doc-ikyamrmy9398025.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15590</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15449</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-17/doc-ikyakumx4599080.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-12-17/doc-ikyamrmy9467955.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-12-17/doc-ikyamrmy9464719.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-17/doc-ikyamrmy9461446.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9438418.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.cn/2021-12-16/detail-ikyamrmy9275347.d.html</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-17/doc-ikyamrmy9473614.shtml</t>
+  </si>
+  <si>
+    <t>http://client.sina.com.cn/news/2021-12-14/doc-ikyakumx4080598.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.cn/imeeting/hyt/detail/15543</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjdt/2021-12-17/doc-ikyakumx4645904.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-12-17/doc-ikyamrmy9425060.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyakumx4616274.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15554</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/15539</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/zt_d/vadvisor</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-10/doc-ikyamrmy8010299.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjh/2021-12-10/doc-ikyakumx3183813.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyakumx3114709.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-12-10/doc-ikyakumx3164886.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-07/doc-ikyamrmy7304379.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-09/doc-ikyakumx2618076.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-10/doc-ikyakumx3175408.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-10/doc-ikyamrmy7941600.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-10/doc-ikyamrmy7994876.shtml</t>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-17/doc-ikyakumx4764585.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyakumx4765278.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjsy/2021-12-17/doc-ikyakumx4763635.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjsy/2021-12-17/doc-ikyakumx4761274.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-17/doc-ikyakumx4742731.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-17/doc-ikyamrmy9565557.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-12-16/doc-ikyakumx4605477.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-17/doc-ikyamrmy9569801.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-12-17/doc-ikyakumx4745652.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-12-17/doc-ikyakumx4611686.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-12-17/doc-ikyakumx4650865.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/option/yw/2021-11-09/doc-iktzscyy4511650.shtml</t>
   </si>
   <si>
-    <t>https://finance.sina.cn/zt_d/gmgkh?biaoshi=ZjdsNGkxOWNjYjJm</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-12-10/doc-ikyakumx3164836.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-09/doc-ikyakumx3039440.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-12-09/doc-ikyamrmy7901393.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-12-10/doc-ikyakumx3162832.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-12-09/doc-ikyakumx3120856.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-10/doc-ikyakumx3175790.shtml</t>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-12-17/doc-ikyamrmy9462637.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-12-16/doc-ikyakumx4557592.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-17/doc-ikyakumx4744095.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-17/doc-ikyamrmy9467761.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-12-16/doc-ikyakumx4608476.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-12-17/doc-ikyamrmy9472208.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/dcefutures/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy8011227.shtml</t>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-12-17/doc-ikyakumx4734593.shtml</t>
   </si>
   <si>
     <t>http://live.sina.com.cn/zt/l/v/finance/globalnews1/</t>
@@ -1355,88 +1367,103 @@
     <t>http://finance.sina.com.cn/forex/paijia.html#0</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy8000093.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/gncj/2021-12-09/doc-ikyakumx3116849.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7996663.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-12-10/doc-ikyamrmy7974496.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7974955.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-12-09/doc-ikyamrmy7928204.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/gjcj/2021-12-10/doc-ikyamrmy7983618.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/indu/2021-12-09/doc-ikyamrmy7793863.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/jjxw/2021-12-10/doc-ikyakumx3166112.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-12-10/doc-ikyamrmy7973937.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-09/doc-ikyamrmy7949949.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-12-09/doc-ikyakumx2949531.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-09/doc-ikyamrmy7935689.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-12-09/doc-ikyakumx3113489.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-12-09/doc-ikyakumx3096237.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-12-10/doc-ikyamrmy7993601.shtml</t>
+    <t>https://finance.sina.com.cn/money/forex/forexrmb/2021-12-17/doc-ikyamrmy9548913.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9561636.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-12-17/doc-ikyakumx4725700.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-12-17/doc-ikyakumx4725288.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyakumx4721115.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-12-17/doc-ikyakumx4699149.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexfxyc/2021-12-17/doc-ikyakumx4732246.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-12-17/doc-ikyakumx4644692.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-12-17/doc-ikyakumx4643245.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-12-17/doc-ikyamrmy9582350.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9580763.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-12-17/doc-ikyakumx4745650.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-12-17/doc-ikyakumx4754924.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-12-17/doc-ikyamrmy9532586.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-12-17/doc-ikyamrmy9558369.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-12-17/doc-ikyamrmy9554079.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-12-17/doc-ikyamrmy9545884.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-12-17/doc-ikyamrmy9551653.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-12-17/doc-ikyamrmy9571297.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/indu/2021-12-17/doc-ikyakumx4672091.shtml</t>
   </si>
   <si>
     <t>http://biz.finance.sina.com.cn/zjzt/gold_2014.php</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-12-10/doc-ikyamrmy7994741.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7979853.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-12-10/doc-ikyamrmy8001465.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyakumx3171129.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7955725.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy7955715.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-12-10/doc-ikyakumx3168309.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyakumx3170812.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-09/doc-ikyamrmy7945472.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-12-10/doc-ikyamrmy8000092.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/review/jcgc/2021-12-10/doc-ikyamrmy7955731.shtml</t>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-12-17/doc-ikyakumx4746209.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-12-17/doc-ikyakumx4613641.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyakumx4610986.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9457889.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9457923.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9457935.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9436248.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-12-17/doc-ikyamrmy9439953.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-12-17/doc-ikyakumx4643201.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-16/doc-ikyamrmy9415029.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyamrmy9471484.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-12-17/doc-ikyakumx4629363.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/money/globalindex/ibor.shtml</t>
@@ -1810,7 +1837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1853,7 +1880,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1873,7 +1900,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1893,7 +1920,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1913,7 +1940,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1933,7 +1960,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1953,7 +1980,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1973,7 +2000,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1993,7 +2020,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2013,7 +2040,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2033,7 +2060,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2053,7 +2080,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2073,7 +2100,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2093,7 +2120,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2113,7 +2140,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2133,7 +2160,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2153,7 +2180,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2173,7 +2200,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2193,7 +2220,7 @@
         <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2213,7 +2240,7 @@
         <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2233,7 +2260,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2253,7 +2280,7 @@
         <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2273,7 +2300,7 @@
         <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2293,7 +2320,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2313,7 +2340,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2333,7 +2360,7 @@
         <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2353,7 +2380,7 @@
         <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2373,7 +2400,7 @@
         <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2393,7 +2420,7 @@
         <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2413,7 +2440,7 @@
         <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2433,7 +2460,7 @@
         <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2453,18 +2480,18 @@
         <v>58</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
@@ -2473,18 +2500,18 @@
         <v>59</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -2493,7 +2520,7 @@
         <v>60</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2509,8 +2536,11 @@
       <c r="D35" t="s">
         <v>26</v>
       </c>
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2527,10 +2557,10 @@
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2544,13 +2574,10 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2564,13 +2591,13 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
         <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2590,7 +2617,7 @@
         <v>64</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2610,7 +2637,7 @@
         <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2629,8 +2656,8 @@
       <c r="E41" t="s">
         <v>66</v>
       </c>
-      <c r="F41" t="s">
-        <v>305</v>
+      <c r="F41" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2650,7 +2677,7 @@
         <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2669,8 +2696,8 @@
       <c r="E43" t="s">
         <v>68</v>
       </c>
-      <c r="F43" t="s">
-        <v>307</v>
+      <c r="F43" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2689,8 +2716,8 @@
       <c r="E44" t="s">
         <v>69</v>
       </c>
-      <c r="F44" t="s">
-        <v>308</v>
+      <c r="F44" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2710,7 +2737,7 @@
         <v>70</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2726,8 +2753,11 @@
       <c r="D46" t="s">
         <v>27</v>
       </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2743,11 +2773,8 @@
       <c r="D47" t="s">
         <v>27</v>
       </c>
-      <c r="E47" t="s">
-        <v>71</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2767,7 +2794,7 @@
         <v>72</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2787,7 +2814,7 @@
         <v>73</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2807,7 +2834,7 @@
         <v>74</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2827,7 +2854,7 @@
         <v>75</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2847,7 +2874,7 @@
         <v>76</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2867,7 +2894,7 @@
         <v>77</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2887,7 +2914,7 @@
         <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2907,7 +2934,7 @@
         <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2927,7 +2954,7 @@
         <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2947,7 +2974,7 @@
         <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2967,7 +2994,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2987,7 +3014,7 @@
         <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3007,7 +3034,7 @@
         <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3023,8 +3050,11 @@
       <c r="D61" t="s">
         <v>27</v>
       </c>
+      <c r="E61" t="s">
+        <v>85</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3040,11 +3070,8 @@
       <c r="D62" t="s">
         <v>27</v>
       </c>
-      <c r="E62" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" t="s">
-        <v>324</v>
+      <c r="F62" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3064,7 +3091,7 @@
         <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3084,7 +3111,7 @@
         <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3103,8 +3130,8 @@
       <c r="E65" t="s">
         <v>88</v>
       </c>
-      <c r="F65" t="s">
-        <v>325</v>
+      <c r="F65" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3123,8 +3150,8 @@
       <c r="E66" t="s">
         <v>89</v>
       </c>
-      <c r="F66" t="s">
-        <v>326</v>
+      <c r="F66" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3144,7 +3171,7 @@
         <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3164,7 +3191,7 @@
         <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3184,7 +3211,7 @@
         <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3204,7 +3231,7 @@
         <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3224,7 +3251,7 @@
         <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3244,7 +3271,7 @@
         <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3264,7 +3291,7 @@
         <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3284,7 +3311,7 @@
         <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3304,7 +3331,7 @@
         <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3324,7 +3351,7 @@
         <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3344,7 +3371,7 @@
         <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3364,7 +3391,7 @@
         <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3381,10 +3408,10 @@
         <v>27</v>
       </c>
       <c r="E79" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3401,10 +3428,10 @@
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3421,10 +3448,10 @@
         <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3441,10 +3468,10 @@
         <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3461,10 +3488,10 @@
         <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3481,10 +3508,10 @@
         <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3501,10 +3528,10 @@
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3521,10 +3548,10 @@
         <v>27</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3541,10 +3568,10 @@
         <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3561,10 +3588,10 @@
         <v>27</v>
       </c>
       <c r="E88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3581,10 +3608,10 @@
         <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>111</v>
-      </c>
-      <c r="F89" t="s">
-        <v>329</v>
+        <v>112</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3601,10 +3628,10 @@
         <v>27</v>
       </c>
       <c r="E90" t="s">
-        <v>112</v>
-      </c>
-      <c r="F90" t="s">
-        <v>330</v>
+        <v>113</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3621,10 +3648,10 @@
         <v>27</v>
       </c>
       <c r="E91" t="s">
-        <v>113</v>
-      </c>
-      <c r="F91" t="s">
-        <v>331</v>
+        <v>114</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3641,10 +3668,10 @@
         <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F92" t="s">
-        <v>332</v>
+        <v>115</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3661,10 +3688,10 @@
         <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3681,10 +3708,10 @@
         <v>27</v>
       </c>
       <c r="E94" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3701,10 +3728,10 @@
         <v>27</v>
       </c>
       <c r="E95" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3721,10 +3748,10 @@
         <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3741,10 +3768,10 @@
         <v>27</v>
       </c>
       <c r="E97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3761,10 +3788,10 @@
         <v>27</v>
       </c>
       <c r="E98" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3781,10 +3808,10 @@
         <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3801,10 +3828,10 @@
         <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3821,10 +3848,10 @@
         <v>27</v>
       </c>
       <c r="E101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3841,10 +3868,10 @@
         <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3861,10 +3888,10 @@
         <v>27</v>
       </c>
       <c r="E103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3881,10 +3908,10 @@
         <v>27</v>
       </c>
       <c r="E104" t="s">
-        <v>126</v>
-      </c>
-      <c r="F104" t="s">
-        <v>344</v>
+        <v>127</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3901,10 +3928,10 @@
         <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3921,10 +3948,10 @@
         <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3941,10 +3968,10 @@
         <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3961,10 +3988,10 @@
         <v>27</v>
       </c>
       <c r="E108" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3981,10 +4008,10 @@
         <v>27</v>
       </c>
       <c r="E109" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4001,10 +4028,10 @@
         <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4021,10 +4048,10 @@
         <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4041,10 +4068,10 @@
         <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4060,11 +4087,8 @@
       <c r="D113" t="s">
         <v>27</v>
       </c>
-      <c r="E113" t="s">
-        <v>135</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4080,8 +4104,11 @@
       <c r="D114" t="s">
         <v>27</v>
       </c>
+      <c r="E114" t="s">
+        <v>136</v>
+      </c>
       <c r="F114" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4098,10 +4125,10 @@
         <v>27</v>
       </c>
       <c r="E115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4118,10 +4145,10 @@
         <v>27</v>
       </c>
       <c r="E116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4138,10 +4165,10 @@
         <v>27</v>
       </c>
       <c r="E117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4158,10 +4185,10 @@
         <v>27</v>
       </c>
       <c r="E118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4178,10 +4205,10 @@
         <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4198,10 +4225,10 @@
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4218,10 +4245,10 @@
         <v>27</v>
       </c>
       <c r="E121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4238,10 +4265,10 @@
         <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4258,10 +4285,10 @@
         <v>27</v>
       </c>
       <c r="E123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4278,10 +4305,10 @@
         <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4298,10 +4325,10 @@
         <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4318,10 +4345,10 @@
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4338,10 +4365,10 @@
         <v>27</v>
       </c>
       <c r="E127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4361,7 +4388,7 @@
         <v>19</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4378,10 +4405,10 @@
         <v>27</v>
       </c>
       <c r="E129" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4398,10 +4425,10 @@
         <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4418,10 +4445,10 @@
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>151</v>
-      </c>
-      <c r="F131" t="s">
-        <v>366</v>
+        <v>152</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4438,10 +4465,10 @@
         <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>152</v>
-      </c>
-      <c r="F132" t="s">
-        <v>367</v>
+        <v>153</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4461,7 +4488,7 @@
         <v>21</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4478,10 +4505,10 @@
         <v>27</v>
       </c>
       <c r="E134" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4498,10 +4525,10 @@
         <v>27</v>
       </c>
       <c r="E135" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4518,10 +4545,10 @@
         <v>27</v>
       </c>
       <c r="E136" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4538,10 +4565,10 @@
         <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>372</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4558,10 +4585,10 @@
         <v>27</v>
       </c>
       <c r="E138" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4578,10 +4605,10 @@
         <v>27</v>
       </c>
       <c r="E139" t="s">
-        <v>152</v>
-      </c>
-      <c r="F139" t="s">
-        <v>367</v>
+        <v>159</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4598,10 +4625,10 @@
         <v>27</v>
       </c>
       <c r="E140" t="s">
-        <v>157</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>364</v>
+        <v>160</v>
+      </c>
+      <c r="F140" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4618,10 +4645,10 @@
         <v>27</v>
       </c>
       <c r="E141" t="s">
-        <v>158</v>
-      </c>
-      <c r="F141" t="s">
-        <v>373</v>
+        <v>161</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4638,10 +4665,10 @@
         <v>27</v>
       </c>
       <c r="E142" t="s">
-        <v>151</v>
-      </c>
-      <c r="F142" t="s">
-        <v>366</v>
+        <v>162</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4658,10 +4685,10 @@
         <v>27</v>
       </c>
       <c r="E143" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4678,10 +4705,10 @@
         <v>27</v>
       </c>
       <c r="E144" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4698,10 +4725,10 @@
         <v>27</v>
       </c>
       <c r="E145" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4718,10 +4745,10 @@
         <v>27</v>
       </c>
       <c r="E146" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4738,10 +4765,10 @@
         <v>27</v>
       </c>
       <c r="E147" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4758,10 +4785,10 @@
         <v>27</v>
       </c>
       <c r="E148" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4778,30 +4805,30 @@
         <v>27</v>
       </c>
       <c r="E149" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D150" t="s">
         <v>27</v>
       </c>
       <c r="E150" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4818,10 +4845,10 @@
         <v>27</v>
       </c>
       <c r="E151" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4838,10 +4865,10 @@
         <v>27</v>
       </c>
       <c r="E152" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4858,10 +4885,10 @@
         <v>27</v>
       </c>
       <c r="E153" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4878,10 +4905,10 @@
         <v>27</v>
       </c>
       <c r="E154" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4898,10 +4925,10 @@
         <v>27</v>
       </c>
       <c r="E155" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4918,10 +4945,10 @@
         <v>27</v>
       </c>
       <c r="E156" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4938,10 +4965,10 @@
         <v>27</v>
       </c>
       <c r="E157" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4958,10 +4985,10 @@
         <v>27</v>
       </c>
       <c r="E158" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4978,10 +5005,10 @@
         <v>27</v>
       </c>
       <c r="E159" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4998,10 +5025,10 @@
         <v>27</v>
       </c>
       <c r="E160" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5018,10 +5045,10 @@
         <v>27</v>
       </c>
       <c r="E161" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5038,10 +5065,10 @@
         <v>27</v>
       </c>
       <c r="E162" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5058,10 +5085,10 @@
         <v>27</v>
       </c>
       <c r="E163" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5078,10 +5105,10 @@
         <v>27</v>
       </c>
       <c r="E164" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5098,10 +5125,10 @@
         <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5118,10 +5145,10 @@
         <v>27</v>
       </c>
       <c r="E166" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5138,10 +5165,10 @@
         <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5158,10 +5185,10 @@
         <v>27</v>
       </c>
       <c r="E168" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5178,10 +5205,10 @@
         <v>27</v>
       </c>
       <c r="E169" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5198,30 +5225,30 @@
         <v>27</v>
       </c>
       <c r="E170" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
         <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
         <v>27</v>
       </c>
       <c r="E171" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5238,10 +5265,10 @@
         <v>27</v>
       </c>
       <c r="E172" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5258,10 +5285,10 @@
         <v>27</v>
       </c>
       <c r="E173" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5278,10 +5305,10 @@
         <v>27</v>
       </c>
       <c r="E174" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5298,10 +5325,10 @@
         <v>27</v>
       </c>
       <c r="E175" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5318,10 +5345,10 @@
         <v>27</v>
       </c>
       <c r="E176" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5338,10 +5365,10 @@
         <v>27</v>
       </c>
       <c r="E177" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5358,10 +5385,10 @@
         <v>27</v>
       </c>
       <c r="E178" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5378,10 +5405,10 @@
         <v>27</v>
       </c>
       <c r="E179" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5398,10 +5425,10 @@
         <v>27</v>
       </c>
       <c r="E180" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5418,10 +5445,10 @@
         <v>27</v>
       </c>
       <c r="E181" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5438,10 +5465,10 @@
         <v>27</v>
       </c>
       <c r="E182" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5458,10 +5485,10 @@
         <v>27</v>
       </c>
       <c r="E183" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5478,10 +5505,10 @@
         <v>27</v>
       </c>
       <c r="E184" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5498,10 +5525,10 @@
         <v>27</v>
       </c>
       <c r="E185" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5518,10 +5545,10 @@
         <v>27</v>
       </c>
       <c r="E186" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5538,10 +5565,10 @@
         <v>27</v>
       </c>
       <c r="E187" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5558,10 +5585,10 @@
         <v>27</v>
       </c>
       <c r="E188" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5578,10 +5605,10 @@
         <v>27</v>
       </c>
       <c r="E189" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5598,10 +5625,10 @@
         <v>27</v>
       </c>
       <c r="E190" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5618,10 +5645,10 @@
         <v>27</v>
       </c>
       <c r="E191" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5638,10 +5665,10 @@
         <v>27</v>
       </c>
       <c r="E192" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5658,10 +5685,10 @@
         <v>27</v>
       </c>
       <c r="E193" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5678,10 +5705,10 @@
         <v>27</v>
       </c>
       <c r="E194" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5698,10 +5725,10 @@
         <v>27</v>
       </c>
       <c r="E195" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5718,30 +5745,30 @@
         <v>27</v>
       </c>
       <c r="E196" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B197" t="s">
         <v>17</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D197" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E197" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5758,10 +5785,10 @@
         <v>26</v>
       </c>
       <c r="E198" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5778,10 +5805,10 @@
         <v>26</v>
       </c>
       <c r="E199" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5795,13 +5822,13 @@
         <v>22</v>
       </c>
       <c r="D200" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E200" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5818,10 +5845,10 @@
         <v>27</v>
       </c>
       <c r="E201" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5838,10 +5865,10 @@
         <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5858,10 +5885,10 @@
         <v>27</v>
       </c>
       <c r="E203" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5878,10 +5905,10 @@
         <v>27</v>
       </c>
       <c r="E204" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5898,10 +5925,10 @@
         <v>27</v>
       </c>
       <c r="E205" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5918,10 +5945,10 @@
         <v>27</v>
       </c>
       <c r="E206" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5938,10 +5965,10 @@
         <v>27</v>
       </c>
       <c r="E207" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5958,10 +5985,10 @@
         <v>27</v>
       </c>
       <c r="E208" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5978,10 +6005,10 @@
         <v>27</v>
       </c>
       <c r="E209" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5998,10 +6025,10 @@
         <v>27</v>
       </c>
       <c r="E210" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6018,50 +6045,50 @@
         <v>27</v>
       </c>
       <c r="E211" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B212" t="s">
         <v>17</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D212" t="s">
         <v>27</v>
       </c>
       <c r="E212" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B213" t="s">
         <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D213" t="s">
         <v>27</v>
       </c>
       <c r="E213" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6078,10 +6105,10 @@
         <v>27</v>
       </c>
       <c r="E214" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6098,10 +6125,10 @@
         <v>27</v>
       </c>
       <c r="E215" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6118,10 +6145,10 @@
         <v>27</v>
       </c>
       <c r="E216" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6138,10 +6165,10 @@
         <v>27</v>
       </c>
       <c r="E217" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6158,10 +6185,10 @@
         <v>27</v>
       </c>
       <c r="E218" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6178,10 +6205,10 @@
         <v>27</v>
       </c>
       <c r="E219" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6198,10 +6225,10 @@
         <v>27</v>
       </c>
       <c r="E220" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6218,10 +6245,10 @@
         <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6238,10 +6265,10 @@
         <v>27</v>
       </c>
       <c r="E222" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6258,50 +6285,50 @@
         <v>27</v>
       </c>
       <c r="E223" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B224" t="s">
         <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E224" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B225" t="s">
         <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D225" t="s">
         <v>27</v>
       </c>
       <c r="E225" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6315,13 +6342,13 @@
         <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E226" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>387</v>
+        <v>460</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6338,10 +6365,10 @@
         <v>27</v>
       </c>
       <c r="E227" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6358,10 +6385,10 @@
         <v>27</v>
       </c>
       <c r="E228" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6378,10 +6405,10 @@
         <v>27</v>
       </c>
       <c r="E229" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6398,10 +6425,10 @@
         <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6418,10 +6445,10 @@
         <v>27</v>
       </c>
       <c r="E231" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6438,10 +6465,10 @@
         <v>27</v>
       </c>
       <c r="E232" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6458,10 +6485,10 @@
         <v>27</v>
       </c>
       <c r="E233" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6478,10 +6505,10 @@
         <v>27</v>
       </c>
       <c r="E234" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6498,10 +6525,10 @@
         <v>27</v>
       </c>
       <c r="E235" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6518,10 +6545,10 @@
         <v>27</v>
       </c>
       <c r="E236" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6538,50 +6565,50 @@
         <v>27</v>
       </c>
       <c r="E237" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B238" t="s">
         <v>17</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D238" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E238" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B239" t="s">
         <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D239" t="s">
         <v>27</v>
       </c>
       <c r="E239" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6595,13 +6622,13 @@
         <v>25</v>
       </c>
       <c r="D240" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E240" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6618,10 +6645,10 @@
         <v>27</v>
       </c>
       <c r="E241" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6638,10 +6665,10 @@
         <v>27</v>
       </c>
       <c r="E242" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6658,10 +6685,10 @@
         <v>27</v>
       </c>
       <c r="E243" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6678,10 +6705,10 @@
         <v>27</v>
       </c>
       <c r="E244" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6698,10 +6725,10 @@
         <v>27</v>
       </c>
       <c r="E245" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6718,10 +6745,10 @@
         <v>27</v>
       </c>
       <c r="E246" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6738,10 +6765,10 @@
         <v>27</v>
       </c>
       <c r="E247" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6758,10 +6785,10 @@
         <v>27</v>
       </c>
       <c r="E248" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6778,10 +6805,10 @@
         <v>27</v>
       </c>
       <c r="E249" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>397</v>
+        <v>482</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6798,50 +6825,10 @@
         <v>27</v>
       </c>
       <c r="E250" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" t="s">
-        <v>15</v>
-      </c>
-      <c r="B251" t="s">
-        <v>17</v>
-      </c>
-      <c r="C251" t="s">
-        <v>25</v>
-      </c>
-      <c r="D251" t="s">
-        <v>27</v>
-      </c>
-      <c r="E251" t="s">
-        <v>266</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" t="s">
-        <v>15</v>
-      </c>
-      <c r="B252" t="s">
-        <v>17</v>
-      </c>
-      <c r="C252" t="s">
-        <v>25</v>
-      </c>
-      <c r="D252" t="s">
-        <v>27</v>
-      </c>
-      <c r="E252" t="s">
-        <v>267</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -6885,202 +6872,215 @@
     <hyperlink ref="F38" r:id="rId37"/>
     <hyperlink ref="F39" r:id="rId38"/>
     <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F42" r:id="rId40"/>
-    <hyperlink ref="F45" r:id="rId41"/>
-    <hyperlink ref="F46" r:id="rId42"/>
-    <hyperlink ref="F47" r:id="rId43"/>
-    <hyperlink ref="F48" r:id="rId44"/>
-    <hyperlink ref="F49" r:id="rId45"/>
-    <hyperlink ref="F50" r:id="rId46"/>
-    <hyperlink ref="F51" r:id="rId47"/>
-    <hyperlink ref="F52" r:id="rId48"/>
-    <hyperlink ref="F53" r:id="rId49"/>
-    <hyperlink ref="F54" r:id="rId50"/>
-    <hyperlink ref="F55" r:id="rId51"/>
-    <hyperlink ref="F56" r:id="rId52"/>
-    <hyperlink ref="F57" r:id="rId53"/>
-    <hyperlink ref="F58" r:id="rId54"/>
-    <hyperlink ref="F59" r:id="rId55"/>
-    <hyperlink ref="F60" r:id="rId56"/>
-    <hyperlink ref="F61" r:id="rId57"/>
-    <hyperlink ref="F63" r:id="rId58"/>
-    <hyperlink ref="F64" r:id="rId59"/>
-    <hyperlink ref="F67" r:id="rId60"/>
-    <hyperlink ref="F68" r:id="rId61"/>
-    <hyperlink ref="F69" r:id="rId62"/>
-    <hyperlink ref="F70" r:id="rId63"/>
-    <hyperlink ref="F71" r:id="rId64"/>
-    <hyperlink ref="F72" r:id="rId65"/>
-    <hyperlink ref="F73" r:id="rId66"/>
-    <hyperlink ref="F74" r:id="rId67"/>
-    <hyperlink ref="F75" r:id="rId68"/>
-    <hyperlink ref="F76" r:id="rId69"/>
-    <hyperlink ref="F77" r:id="rId70"/>
-    <hyperlink ref="F78" r:id="rId71"/>
-    <hyperlink ref="F79" r:id="rId72"/>
-    <hyperlink ref="F80" r:id="rId73"/>
-    <hyperlink ref="F81" r:id="rId74"/>
-    <hyperlink ref="F82" r:id="rId75"/>
-    <hyperlink ref="F83" r:id="rId76"/>
-    <hyperlink ref="F84" r:id="rId77"/>
-    <hyperlink ref="F85" r:id="rId78"/>
-    <hyperlink ref="F86" r:id="rId79"/>
-    <hyperlink ref="F87" r:id="rId80"/>
-    <hyperlink ref="F88" r:id="rId81"/>
-    <hyperlink ref="F93" r:id="rId82"/>
-    <hyperlink ref="F94" r:id="rId83"/>
-    <hyperlink ref="F95" r:id="rId84"/>
-    <hyperlink ref="F96" r:id="rId85"/>
-    <hyperlink ref="F97" r:id="rId86"/>
-    <hyperlink ref="F98" r:id="rId87"/>
-    <hyperlink ref="F99" r:id="rId88"/>
-    <hyperlink ref="F100" r:id="rId89"/>
-    <hyperlink ref="F101" r:id="rId90"/>
-    <hyperlink ref="F102" r:id="rId91"/>
-    <hyperlink ref="F103" r:id="rId92"/>
-    <hyperlink ref="F105" r:id="rId93"/>
-    <hyperlink ref="F106" r:id="rId94"/>
-    <hyperlink ref="F107" r:id="rId95"/>
-    <hyperlink ref="F108" r:id="rId96"/>
-    <hyperlink ref="F109" r:id="rId97"/>
-    <hyperlink ref="F110" r:id="rId98"/>
-    <hyperlink ref="F111" r:id="rId99"/>
-    <hyperlink ref="F112" r:id="rId100"/>
-    <hyperlink ref="F113" r:id="rId101"/>
-    <hyperlink ref="F114" r:id="rId102"/>
-    <hyperlink ref="F115" r:id="rId103"/>
-    <hyperlink ref="F116" r:id="rId104"/>
-    <hyperlink ref="F117" r:id="rId105"/>
-    <hyperlink ref="F118" r:id="rId106"/>
-    <hyperlink ref="F119" r:id="rId107"/>
-    <hyperlink ref="F120" r:id="rId108"/>
-    <hyperlink ref="F121" r:id="rId109"/>
-    <hyperlink ref="F122" r:id="rId110"/>
-    <hyperlink ref="F123" r:id="rId111"/>
-    <hyperlink ref="F124" r:id="rId112"/>
-    <hyperlink ref="F125" r:id="rId113"/>
-    <hyperlink ref="F126" r:id="rId114"/>
-    <hyperlink ref="F127" r:id="rId115"/>
-    <hyperlink ref="F128" r:id="rId116"/>
-    <hyperlink ref="F129" r:id="rId117"/>
-    <hyperlink ref="F130" r:id="rId118"/>
-    <hyperlink ref="F133" r:id="rId119"/>
-    <hyperlink ref="F134" r:id="rId120"/>
-    <hyperlink ref="F135" r:id="rId121"/>
-    <hyperlink ref="F136" r:id="rId122"/>
-    <hyperlink ref="F137" r:id="rId123"/>
-    <hyperlink ref="F138" r:id="rId124"/>
-    <hyperlink ref="F140" r:id="rId125"/>
-    <hyperlink ref="F143" r:id="rId126"/>
-    <hyperlink ref="F144" r:id="rId127"/>
-    <hyperlink ref="F145" r:id="rId128"/>
-    <hyperlink ref="F146" r:id="rId129"/>
-    <hyperlink ref="F147" r:id="rId130"/>
-    <hyperlink ref="F148" r:id="rId131"/>
-    <hyperlink ref="F149" r:id="rId132"/>
-    <hyperlink ref="F150" r:id="rId133"/>
-    <hyperlink ref="F151" r:id="rId134"/>
-    <hyperlink ref="F152" r:id="rId135"/>
-    <hyperlink ref="F153" r:id="rId136"/>
-    <hyperlink ref="F154" r:id="rId137"/>
-    <hyperlink ref="F155" r:id="rId138"/>
-    <hyperlink ref="F156" r:id="rId139"/>
-    <hyperlink ref="F157" r:id="rId140"/>
-    <hyperlink ref="F158" r:id="rId141"/>
-    <hyperlink ref="F159" r:id="rId142"/>
-    <hyperlink ref="F160" r:id="rId143"/>
-    <hyperlink ref="F161" r:id="rId144"/>
-    <hyperlink ref="F162" r:id="rId145"/>
-    <hyperlink ref="F163" r:id="rId146"/>
-    <hyperlink ref="F164" r:id="rId147"/>
-    <hyperlink ref="F165" r:id="rId148"/>
-    <hyperlink ref="F166" r:id="rId149"/>
-    <hyperlink ref="F167" r:id="rId150"/>
-    <hyperlink ref="F168" r:id="rId151"/>
-    <hyperlink ref="F169" r:id="rId152"/>
-    <hyperlink ref="F170" r:id="rId153"/>
-    <hyperlink ref="F171" r:id="rId154"/>
-    <hyperlink ref="F172" r:id="rId155"/>
-    <hyperlink ref="F173" r:id="rId156"/>
-    <hyperlink ref="F174" r:id="rId157"/>
-    <hyperlink ref="F175" r:id="rId158"/>
-    <hyperlink ref="F176" r:id="rId159"/>
-    <hyperlink ref="F177" r:id="rId160"/>
-    <hyperlink ref="F178" r:id="rId161"/>
-    <hyperlink ref="F179" r:id="rId162"/>
-    <hyperlink ref="F180" r:id="rId163"/>
-    <hyperlink ref="F181" r:id="rId164"/>
-    <hyperlink ref="F182" r:id="rId165"/>
-    <hyperlink ref="F183" r:id="rId166"/>
-    <hyperlink ref="F184" r:id="rId167"/>
-    <hyperlink ref="F185" r:id="rId168"/>
-    <hyperlink ref="F186" r:id="rId169"/>
-    <hyperlink ref="F187" r:id="rId170"/>
-    <hyperlink ref="F188" r:id="rId171"/>
-    <hyperlink ref="F189" r:id="rId172"/>
-    <hyperlink ref="F190" r:id="rId173"/>
-    <hyperlink ref="F191" r:id="rId174"/>
-    <hyperlink ref="F192" r:id="rId175"/>
-    <hyperlink ref="F193" r:id="rId176"/>
-    <hyperlink ref="F194" r:id="rId177"/>
-    <hyperlink ref="F195" r:id="rId178"/>
-    <hyperlink ref="F196" r:id="rId179"/>
-    <hyperlink ref="F197" r:id="rId180"/>
-    <hyperlink ref="F198" r:id="rId181"/>
-    <hyperlink ref="F199" r:id="rId182"/>
-    <hyperlink ref="F200" r:id="rId183"/>
-    <hyperlink ref="F201" r:id="rId184"/>
-    <hyperlink ref="F202" r:id="rId185"/>
-    <hyperlink ref="F203" r:id="rId186"/>
-    <hyperlink ref="F204" r:id="rId187"/>
-    <hyperlink ref="F205" r:id="rId188"/>
-    <hyperlink ref="F206" r:id="rId189"/>
-    <hyperlink ref="F207" r:id="rId190"/>
-    <hyperlink ref="F208" r:id="rId191"/>
-    <hyperlink ref="F209" r:id="rId192"/>
-    <hyperlink ref="F210" r:id="rId193"/>
-    <hyperlink ref="F211" r:id="rId194"/>
-    <hyperlink ref="F212" r:id="rId195"/>
-    <hyperlink ref="F213" r:id="rId196"/>
-    <hyperlink ref="F214" r:id="rId197"/>
-    <hyperlink ref="F215" r:id="rId198"/>
-    <hyperlink ref="F216" r:id="rId199"/>
-    <hyperlink ref="F217" r:id="rId200" location="0"/>
-    <hyperlink ref="F218" r:id="rId201"/>
-    <hyperlink ref="F219" r:id="rId202"/>
-    <hyperlink ref="F220" r:id="rId203"/>
-    <hyperlink ref="F221" r:id="rId204"/>
-    <hyperlink ref="F222" r:id="rId205"/>
-    <hyperlink ref="F223" r:id="rId206"/>
-    <hyperlink ref="F224" r:id="rId207"/>
-    <hyperlink ref="F225" r:id="rId208"/>
-    <hyperlink ref="F226" r:id="rId209"/>
-    <hyperlink ref="F227" r:id="rId210"/>
-    <hyperlink ref="F228" r:id="rId211"/>
-    <hyperlink ref="F229" r:id="rId212"/>
-    <hyperlink ref="F230" r:id="rId213"/>
-    <hyperlink ref="F231" r:id="rId214"/>
-    <hyperlink ref="F232" r:id="rId215"/>
-    <hyperlink ref="F233" r:id="rId216"/>
-    <hyperlink ref="F234" r:id="rId217"/>
-    <hyperlink ref="F235" r:id="rId218"/>
-    <hyperlink ref="F236" r:id="rId219"/>
-    <hyperlink ref="F237" r:id="rId220"/>
-    <hyperlink ref="F238" r:id="rId221"/>
-    <hyperlink ref="F239" r:id="rId222"/>
-    <hyperlink ref="F240" r:id="rId223"/>
-    <hyperlink ref="F241" r:id="rId224"/>
-    <hyperlink ref="F242" r:id="rId225"/>
-    <hyperlink ref="F243" r:id="rId226"/>
-    <hyperlink ref="F244" r:id="rId227"/>
-    <hyperlink ref="F245" r:id="rId228"/>
-    <hyperlink ref="F246" r:id="rId229"/>
-    <hyperlink ref="F247" r:id="rId230"/>
-    <hyperlink ref="F248" r:id="rId231"/>
-    <hyperlink ref="F249" r:id="rId232"/>
-    <hyperlink ref="F250" r:id="rId233"/>
-    <hyperlink ref="F251" r:id="rId234"/>
-    <hyperlink ref="F252" r:id="rId235"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F50" r:id="rId49"/>
+    <hyperlink ref="F51" r:id="rId50"/>
+    <hyperlink ref="F52" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
+    <hyperlink ref="F59" r:id="rId58"/>
+    <hyperlink ref="F60" r:id="rId59"/>
+    <hyperlink ref="F61" r:id="rId60"/>
+    <hyperlink ref="F62" r:id="rId61"/>
+    <hyperlink ref="F63" r:id="rId62"/>
+    <hyperlink ref="F64" r:id="rId63"/>
+    <hyperlink ref="F65" r:id="rId64"/>
+    <hyperlink ref="F66" r:id="rId65"/>
+    <hyperlink ref="F67" r:id="rId66"/>
+    <hyperlink ref="F68" r:id="rId67"/>
+    <hyperlink ref="F69" r:id="rId68"/>
+    <hyperlink ref="F70" r:id="rId69"/>
+    <hyperlink ref="F71" r:id="rId70"/>
+    <hyperlink ref="F72" r:id="rId71"/>
+    <hyperlink ref="F73" r:id="rId72"/>
+    <hyperlink ref="F74" r:id="rId73"/>
+    <hyperlink ref="F75" r:id="rId74"/>
+    <hyperlink ref="F76" r:id="rId75"/>
+    <hyperlink ref="F77" r:id="rId76"/>
+    <hyperlink ref="F78" r:id="rId77"/>
+    <hyperlink ref="F79" r:id="rId78"/>
+    <hyperlink ref="F80" r:id="rId79"/>
+    <hyperlink ref="F81" r:id="rId80"/>
+    <hyperlink ref="F82" r:id="rId81"/>
+    <hyperlink ref="F83" r:id="rId82"/>
+    <hyperlink ref="F84" r:id="rId83"/>
+    <hyperlink ref="F85" r:id="rId84"/>
+    <hyperlink ref="F86" r:id="rId85"/>
+    <hyperlink ref="F87" r:id="rId86"/>
+    <hyperlink ref="F88" r:id="rId87"/>
+    <hyperlink ref="F89" r:id="rId88"/>
+    <hyperlink ref="F90" r:id="rId89"/>
+    <hyperlink ref="F91" r:id="rId90"/>
+    <hyperlink ref="F92" r:id="rId91"/>
+    <hyperlink ref="F93" r:id="rId92"/>
+    <hyperlink ref="F94" r:id="rId93"/>
+    <hyperlink ref="F95" r:id="rId94"/>
+    <hyperlink ref="F96" r:id="rId95"/>
+    <hyperlink ref="F97" r:id="rId96"/>
+    <hyperlink ref="F98" r:id="rId97"/>
+    <hyperlink ref="F99" r:id="rId98"/>
+    <hyperlink ref="F100" r:id="rId99"/>
+    <hyperlink ref="F101" r:id="rId100"/>
+    <hyperlink ref="F102" r:id="rId101"/>
+    <hyperlink ref="F103" r:id="rId102"/>
+    <hyperlink ref="F104" r:id="rId103"/>
+    <hyperlink ref="F105" r:id="rId104"/>
+    <hyperlink ref="F106" r:id="rId105"/>
+    <hyperlink ref="F107" r:id="rId106"/>
+    <hyperlink ref="F108" r:id="rId107"/>
+    <hyperlink ref="F109" r:id="rId108"/>
+    <hyperlink ref="F110" r:id="rId109"/>
+    <hyperlink ref="F111" r:id="rId110"/>
+    <hyperlink ref="F112" r:id="rId111"/>
+    <hyperlink ref="F113" r:id="rId112"/>
+    <hyperlink ref="F114" r:id="rId113"/>
+    <hyperlink ref="F115" r:id="rId114"/>
+    <hyperlink ref="F116" r:id="rId115"/>
+    <hyperlink ref="F117" r:id="rId116"/>
+    <hyperlink ref="F118" r:id="rId117"/>
+    <hyperlink ref="F119" r:id="rId118"/>
+    <hyperlink ref="F120" r:id="rId119"/>
+    <hyperlink ref="F121" r:id="rId120"/>
+    <hyperlink ref="F122" r:id="rId121"/>
+    <hyperlink ref="F123" r:id="rId122"/>
+    <hyperlink ref="F124" r:id="rId123"/>
+    <hyperlink ref="F125" r:id="rId124"/>
+    <hyperlink ref="F126" r:id="rId125"/>
+    <hyperlink ref="F127" r:id="rId126"/>
+    <hyperlink ref="F128" r:id="rId127"/>
+    <hyperlink ref="F129" r:id="rId128"/>
+    <hyperlink ref="F130" r:id="rId129"/>
+    <hyperlink ref="F131" r:id="rId130"/>
+    <hyperlink ref="F132" r:id="rId131"/>
+    <hyperlink ref="F133" r:id="rId132"/>
+    <hyperlink ref="F134" r:id="rId133"/>
+    <hyperlink ref="F135" r:id="rId134"/>
+    <hyperlink ref="F136" r:id="rId135"/>
+    <hyperlink ref="F137" r:id="rId136"/>
+    <hyperlink ref="F138" r:id="rId137"/>
+    <hyperlink ref="F139" r:id="rId138"/>
+    <hyperlink ref="F141" r:id="rId139"/>
+    <hyperlink ref="F142" r:id="rId140"/>
+    <hyperlink ref="F143" r:id="rId141"/>
+    <hyperlink ref="F144" r:id="rId142"/>
+    <hyperlink ref="F145" r:id="rId143"/>
+    <hyperlink ref="F146" r:id="rId144"/>
+    <hyperlink ref="F147" r:id="rId145"/>
+    <hyperlink ref="F148" r:id="rId146"/>
+    <hyperlink ref="F149" r:id="rId147"/>
+    <hyperlink ref="F150" r:id="rId148"/>
+    <hyperlink ref="F151" r:id="rId149"/>
+    <hyperlink ref="F152" r:id="rId150"/>
+    <hyperlink ref="F153" r:id="rId151"/>
+    <hyperlink ref="F154" r:id="rId152"/>
+    <hyperlink ref="F155" r:id="rId153"/>
+    <hyperlink ref="F156" r:id="rId154"/>
+    <hyperlink ref="F157" r:id="rId155"/>
+    <hyperlink ref="F158" r:id="rId156"/>
+    <hyperlink ref="F159" r:id="rId157"/>
+    <hyperlink ref="F160" r:id="rId158"/>
+    <hyperlink ref="F161" r:id="rId159"/>
+    <hyperlink ref="F162" r:id="rId160"/>
+    <hyperlink ref="F163" r:id="rId161"/>
+    <hyperlink ref="F164" r:id="rId162"/>
+    <hyperlink ref="F165" r:id="rId163"/>
+    <hyperlink ref="F166" r:id="rId164"/>
+    <hyperlink ref="F167" r:id="rId165"/>
+    <hyperlink ref="F168" r:id="rId166"/>
+    <hyperlink ref="F169" r:id="rId167"/>
+    <hyperlink ref="F170" r:id="rId168"/>
+    <hyperlink ref="F171" r:id="rId169"/>
+    <hyperlink ref="F172" r:id="rId170"/>
+    <hyperlink ref="F173" r:id="rId171"/>
+    <hyperlink ref="F174" r:id="rId172"/>
+    <hyperlink ref="F175" r:id="rId173"/>
+    <hyperlink ref="F176" r:id="rId174"/>
+    <hyperlink ref="F177" r:id="rId175"/>
+    <hyperlink ref="F178" r:id="rId176"/>
+    <hyperlink ref="F179" r:id="rId177"/>
+    <hyperlink ref="F180" r:id="rId178"/>
+    <hyperlink ref="F181" r:id="rId179"/>
+    <hyperlink ref="F182" r:id="rId180"/>
+    <hyperlink ref="F183" r:id="rId181"/>
+    <hyperlink ref="F184" r:id="rId182"/>
+    <hyperlink ref="F185" r:id="rId183"/>
+    <hyperlink ref="F186" r:id="rId184"/>
+    <hyperlink ref="F187" r:id="rId185"/>
+    <hyperlink ref="F188" r:id="rId186"/>
+    <hyperlink ref="F189" r:id="rId187"/>
+    <hyperlink ref="F190" r:id="rId188"/>
+    <hyperlink ref="F191" r:id="rId189"/>
+    <hyperlink ref="F192" r:id="rId190"/>
+    <hyperlink ref="F193" r:id="rId191"/>
+    <hyperlink ref="F194" r:id="rId192"/>
+    <hyperlink ref="F195" r:id="rId193"/>
+    <hyperlink ref="F196" r:id="rId194"/>
+    <hyperlink ref="F197" r:id="rId195"/>
+    <hyperlink ref="F198" r:id="rId196"/>
+    <hyperlink ref="F199" r:id="rId197"/>
+    <hyperlink ref="F200" r:id="rId198"/>
+    <hyperlink ref="F201" r:id="rId199"/>
+    <hyperlink ref="F202" r:id="rId200"/>
+    <hyperlink ref="F203" r:id="rId201"/>
+    <hyperlink ref="F204" r:id="rId202"/>
+    <hyperlink ref="F205" r:id="rId203"/>
+    <hyperlink ref="F206" r:id="rId204"/>
+    <hyperlink ref="F207" r:id="rId205"/>
+    <hyperlink ref="F208" r:id="rId206"/>
+    <hyperlink ref="F209" r:id="rId207"/>
+    <hyperlink ref="F210" r:id="rId208"/>
+    <hyperlink ref="F211" r:id="rId209"/>
+    <hyperlink ref="F212" r:id="rId210"/>
+    <hyperlink ref="F213" r:id="rId211"/>
+    <hyperlink ref="F214" r:id="rId212"/>
+    <hyperlink ref="F215" r:id="rId213" location="0"/>
+    <hyperlink ref="F216" r:id="rId214"/>
+    <hyperlink ref="F217" r:id="rId215"/>
+    <hyperlink ref="F218" r:id="rId216"/>
+    <hyperlink ref="F219" r:id="rId217"/>
+    <hyperlink ref="F220" r:id="rId218"/>
+    <hyperlink ref="F221" r:id="rId219"/>
+    <hyperlink ref="F222" r:id="rId220"/>
+    <hyperlink ref="F223" r:id="rId221"/>
+    <hyperlink ref="F224" r:id="rId222"/>
+    <hyperlink ref="F225" r:id="rId223"/>
+    <hyperlink ref="F226" r:id="rId224"/>
+    <hyperlink ref="F227" r:id="rId225"/>
+    <hyperlink ref="F228" r:id="rId226"/>
+    <hyperlink ref="F229" r:id="rId227"/>
+    <hyperlink ref="F230" r:id="rId228"/>
+    <hyperlink ref="F231" r:id="rId229"/>
+    <hyperlink ref="F232" r:id="rId230"/>
+    <hyperlink ref="F233" r:id="rId231"/>
+    <hyperlink ref="F234" r:id="rId232"/>
+    <hyperlink ref="F235" r:id="rId233"/>
+    <hyperlink ref="F236" r:id="rId234"/>
+    <hyperlink ref="F237" r:id="rId235"/>
+    <hyperlink ref="F238" r:id="rId236"/>
+    <hyperlink ref="F239" r:id="rId237"/>
+    <hyperlink ref="F240" r:id="rId238"/>
+    <hyperlink ref="F241" r:id="rId239"/>
+    <hyperlink ref="F242" r:id="rId240"/>
+    <hyperlink ref="F243" r:id="rId241"/>
+    <hyperlink ref="F244" r:id="rId242"/>
+    <hyperlink ref="F245" r:id="rId243"/>
+    <hyperlink ref="F246" r:id="rId244"/>
+    <hyperlink ref="F247" r:id="rId245"/>
+    <hyperlink ref="F248" r:id="rId246"/>
+    <hyperlink ref="F249" r:id="rId247"/>
+    <hyperlink ref="F250" r:id="rId248"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/news.xlsx
+++ b/web/news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="473">
   <si>
     <t>来源</t>
   </si>
@@ -100,571 +100,615 @@
     <t>消息</t>
   </si>
   <si>
-    <t>朱婷、赵帅担任中国代表团奥运会开幕式旗手</t>
-  </si>
-  <si>
-    <t>中央气象台继续发布暴雨黄色预警</t>
-  </si>
-  <si>
-    <t>云南省新增本土新冠肺炎确诊病例1例</t>
-  </si>
-  <si>
-    <t>事故车后备厢惊现金钱豹 官方回应：正在调查</t>
-  </si>
-  <si>
-    <t>数字人民币试点场景超一百三十二万个 累计交易七千万余笔</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OPEC+同意增产石油结束僵持局面</t>
-  </si>
-  <si>
-    <t>8月起增产40万桶/日 计划明年9月前全面取消减产</t>
-  </si>
-  <si>
-    <t>或推油价上行</t>
-  </si>
-  <si>
-    <t>需求回升仍旧需要时间</t>
-  </si>
-  <si>
-    <t>沙特与阿联酋相争 俄罗斯、伊拉克获利?</t>
-  </si>
-  <si>
-    <t>上海市场监管部门约谈华莱士总部</t>
-  </si>
-  <si>
-    <t>突击检查拟立案处罚3家华莱士门店</t>
-  </si>
-  <si>
-    <t>少数门店从业人员未取健康证</t>
-  </si>
-  <si>
-    <t>和府捞面华莱士连道歉 餐企管理漏洞待补</t>
-  </si>
-  <si>
-    <t>#华莱士被约谈#上热搜</t>
-  </si>
-  <si>
-    <t>沪指企稳回升</t>
-  </si>
-  <si>
-    <t>周期股热度不减 布局攻略</t>
-  </si>
-  <si>
-    <t>外资买入13亿</t>
-  </si>
-  <si>
-    <t>十大券商:短期不追高 震荡再布局</t>
-  </si>
-  <si>
-    <t>芯片产能大爆发</t>
+    <t>前三季度中央企业实现净利润超1.5万亿元</t>
+  </si>
+  <si>
+    <t>成渝地区双城经济圈建设规划纲要发布</t>
+  </si>
+  <si>
+    <t>秋粮增产已成定局 全年粮食产量将再创新高</t>
+  </si>
+  <si>
+    <t>北京冬奥会火种抵达北京</t>
+  </si>
+  <si>
+    <t>国家发改委研究依法对煤价实行干预</t>
+  </si>
+  <si>
+    <t>刘鹤谈金融风险防控 释放重要信号</t>
+  </si>
+  <si>
+    <t>刘鹤:完全可以实现今年的经济发展目标</t>
+  </si>
+  <si>
+    <t>房地产市场风险总体可控</t>
+  </si>
+  <si>
+    <t>易纲:中国货币供应量总量政策合理流动性充足</t>
+  </si>
+  <si>
+    <t>充分发挥金融功能</t>
+  </si>
+  <si>
+    <t>郭树清:不搞“一刀切”和“运动式”减碳</t>
+  </si>
+  <si>
+    <t>大力提高保险保障水平</t>
+  </si>
+  <si>
+    <t>潘功胜:人民币汇率将在合理均衡水平上保持基本稳定</t>
+  </si>
+  <si>
+    <t>金融街论坛</t>
+  </si>
+  <si>
+    <t>楼市降温</t>
+  </si>
+  <si>
+    <t>70城房价逾6年来首次普跌</t>
+  </si>
+  <si>
+    <t>一二手房降温显著 三四线城市促销回款热</t>
+  </si>
+  <si>
+    <t>拐点后房地产市场何往</t>
+  </si>
+  <si>
+    <t>年内月均调控超50次</t>
+  </si>
+  <si>
+    <t>中介称一个月只开三单</t>
+  </si>
+  <si>
+    <t>银行贷款额度仍紧张</t>
+  </si>
+  <si>
+    <t>"煤超疯"全军覆没</t>
+  </si>
+  <si>
+    <t>证监会强调抑制投机</t>
+  </si>
+  <si>
+    <t>震荡市捕捉业绩浪</t>
+  </si>
+  <si>
+    <t>消费赛道又香了</t>
+  </si>
+  <si>
+    <t>又一批顶流基金经理持仓出炉</t>
   </si>
   <si>
     <t>直播</t>
   </si>
   <si>
-    <t>省心投基新选择</t>
-  </si>
-  <si>
-    <t>国潮崛起!</t>
-  </si>
-  <si>
-    <t>"犇"牛之路</t>
-  </si>
-  <si>
-    <t>当下那些风口</t>
+    <t>稀土+物流整合受益标的</t>
+  </si>
+  <si>
+    <t>游资抢筹1股</t>
+  </si>
+  <si>
+    <t>新能源还能投吗</t>
   </si>
   <si>
     <t>秘籍</t>
   </si>
   <si>
-    <t>沪指跌0.4%</t>
-  </si>
-  <si>
-    <t>蓝筹股落入"价值陷阱" ？</t>
-  </si>
-  <si>
-    <t>1694家公司发上半年业绩预告 近7成报喜</t>
+    <t>煤电"拉扯"见分晓 新能源行情好才是真的好</t>
+  </si>
+  <si>
+    <t>金融街论坛年会开幕 聚焦经济韧性</t>
   </si>
   <si>
     <t>大盘</t>
   </si>
   <si>
-    <t>反抽之后下蹲蓄势</t>
-  </si>
-  <si>
-    <t>重心再次下坠</t>
-  </si>
-  <si>
-    <t>午后大盘如何走</t>
-  </si>
-  <si>
-    <t>板块</t>
-  </si>
-  <si>
-    <t>网络安全板块冲高</t>
-  </si>
-  <si>
-    <t>石油板块下挫</t>
-  </si>
-  <si>
-    <t>农业股午后异动</t>
-  </si>
-  <si>
-    <t>个股</t>
-  </si>
-  <si>
-    <t>片仔癀再创新高</t>
-  </si>
-  <si>
-    <t>吉祥航空午后走强</t>
-  </si>
-  <si>
-    <t>广晟有色涨停</t>
+    <t>聚焦科技板块</t>
+  </si>
+  <si>
+    <t>三季报行情发酵</t>
+  </si>
+  <si>
+    <t>消费赛道又香了？</t>
+  </si>
+  <si>
+    <t>必读</t>
+  </si>
+  <si>
+    <t>报刊头条</t>
+  </si>
+  <si>
+    <t>交易提示</t>
+  </si>
+  <si>
+    <t>操盘必读</t>
+  </si>
+  <si>
+    <t>股海导航</t>
+  </si>
+  <si>
+    <t>明日风口</t>
+  </si>
+  <si>
+    <t>主力</t>
+  </si>
+  <si>
+    <t>北交所开市脚步渐近</t>
+  </si>
+  <si>
+    <t>活水奔流 资本搭定增顺风车</t>
   </si>
   <si>
     <t>观点</t>
   </si>
   <si>
-    <t>徐荔蓉:重点关注超预期盈利</t>
-  </si>
-  <si>
-    <t>郑眼:后市取折中策略</t>
+    <t>刘鹤、易纲、郭树清齐发声!房地产风险总体可控</t>
   </si>
   <si>
     <t>博客</t>
   </si>
   <si>
-    <t>调整需求仍需释放</t>
-  </si>
-  <si>
-    <t>消息面压制情绪</t>
-  </si>
-  <si>
-    <t>回调空间有限</t>
+    <t>今日大盘将很精彩</t>
+  </si>
+  <si>
+    <t>轻大盘重个股</t>
+  </si>
+  <si>
+    <t>一批股出现金坑</t>
   </si>
   <si>
     <t>研报</t>
   </si>
   <si>
-    <t>长江:关注基建新赛道标的</t>
-  </si>
-  <si>
-    <t>民生:国产3DNAND崛起</t>
+    <t>9月用电量同比增幅扩大 工业机器人产量增幅收窄</t>
   </si>
   <si>
     <t>策略</t>
   </si>
   <si>
-    <t>科技之外 哪些方向值得关注</t>
-  </si>
-  <si>
-    <t>三季度或仍存在机会</t>
+    <t>太平鸟:短期业绩虽然有所波动 但不改中长期向好</t>
   </si>
   <si>
     <t>解读</t>
   </si>
   <si>
-    <t>猪肉价格未来怎么走</t>
-  </si>
-  <si>
-    <t>锂电股重挫 500亿大牛股闪崩</t>
-  </si>
-  <si>
-    <t>市场没有大跌基础</t>
-  </si>
-  <si>
-    <t>为什么五大区域看似横而不崩</t>
-  </si>
-  <si>
-    <t>市场出现转机 午后有望反弹</t>
-  </si>
-  <si>
-    <t>空头命门暴露 看到一迹象直接做主升</t>
-  </si>
-  <si>
-    <t>下半年房地产市场将不会有热点产品</t>
-  </si>
-  <si>
-    <t>继钢铁，煤炭等大幅涨价 发改委出手</t>
-  </si>
-  <si>
-    <t>大盘见底回升 下午重点看有色资源和半导体</t>
-  </si>
-  <si>
-    <t>大盘涨跌不一 消息面压制汽车产业链情绪</t>
-  </si>
-  <si>
-    <t>指数回调空间有限 震荡市场甄选个股</t>
-  </si>
-  <si>
-    <t>趋势仍在坚守</t>
-  </si>
-  <si>
-    <t>反抽之后还会下蹲蓄势</t>
-  </si>
-  <si>
-    <t>科创50破位 顺周期走强</t>
-  </si>
-  <si>
-    <t>A股放量不涨谨防指数重心再次下坠</t>
-  </si>
-  <si>
-    <t>短期或迎来震荡调整</t>
-  </si>
-  <si>
-    <t>注意交易多空分水岭</t>
-  </si>
-  <si>
-    <t>反包频现为诱饵大盘上难下易</t>
-  </si>
-  <si>
-    <t>大量股票在诱空 今天3种钱不能丢</t>
-  </si>
-  <si>
-    <t>大盘拉锯战开始 本周或有方向选择</t>
-  </si>
-  <si>
-    <t>巨头辟谣 华为迎来利好（附策略）</t>
-  </si>
-  <si>
-    <t>潜力股浮出水面</t>
-  </si>
-  <si>
-    <t>重点看有色资源</t>
-  </si>
-  <si>
-    <t>华创:啤酒提价或是下半年最大催化剂 重申推荐板块(股)</t>
-  </si>
-  <si>
-    <t>长城汽车、奇瑞汽车两款电动车召回 宁德：不是我的锅</t>
-  </si>
-  <si>
-    <t>辉丰股份证券纠纷一审宣判 224名投资者获赔8719.92万</t>
-  </si>
-  <si>
-    <t>1500亿牛股康龙化成闪崩14% 400家机构紧急组团调研</t>
+    <t>手术机器人赛道将腾飞 国产龙头开启发展新征程</t>
+  </si>
+  <si>
+    <t>留神今天有比煤炭板块更惊险的股</t>
+  </si>
+  <si>
+    <t>煤炭上演跌停潮 还能企稳吗</t>
+  </si>
+  <si>
+    <t>券商研报需整顿规范时不我待</t>
+  </si>
+  <si>
+    <t>稀土煤炭医疗券商中证500等板块应对思路</t>
+  </si>
+  <si>
+    <t>先下手的已翻倍 一批股正出现金坑</t>
+  </si>
+  <si>
+    <t>轻大盘重个股 盯紧这些核心</t>
+  </si>
+  <si>
+    <t>时间窗口 拉升就溜</t>
+  </si>
+  <si>
+    <t>10.21早间要闻评论</t>
+  </si>
+  <si>
+    <t>股指又在酝酿新一轮上涨行情</t>
+  </si>
+  <si>
+    <t>10月21日热点概念与题材前瞻</t>
+  </si>
+  <si>
+    <t>10月21日重点关注的板块及个股</t>
+  </si>
+  <si>
+    <t>为何很多个股涨一天跌一天</t>
+  </si>
+  <si>
+    <t>保荐机构需勤勉尽责重拳出击</t>
+  </si>
+  <si>
+    <t>今天大盘走势只有一个字</t>
+  </si>
+  <si>
+    <t>今天有三条大消息</t>
+  </si>
+  <si>
+    <t>量能放大依旧是关键 新热点呼之欲出</t>
+  </si>
+  <si>
+    <t>10月21日热点资讯涨停早知道</t>
+  </si>
+  <si>
+    <t>煤炭暴跌后市如何操作</t>
+  </si>
+  <si>
+    <t>热点轮换该到这些板块了</t>
+  </si>
+  <si>
+    <t>为何涨一天跌一天</t>
+  </si>
+  <si>
+    <t>冲高回落藏玄机</t>
+  </si>
+  <si>
+    <t>专家详解北交所市场定位  创新型中小企业迎发展主场</t>
+  </si>
+  <si>
+    <t>发改委投放首批钾肥储备  适时采取针对性保供稳价措施</t>
+  </si>
+  <si>
+    <t>证监会:多措并举抑制过度投机 维护期现货市场平稳运行</t>
+  </si>
+  <si>
+    <t>上市银行首批三季报"开门红"第三季度净利增幅超20%</t>
   </si>
   <si>
     <t>行业</t>
   </si>
   <si>
-    <t>锂概念高光背后:原材料价格大涨倒逼中游向上并购</t>
-  </si>
-  <si>
-    <t>1.6万辆新能源车召回 “电池茅”被错杀？涉事各方回应</t>
-  </si>
-  <si>
-    <t>大型项目接连开工 储能行业进入发展快车道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上市首日涨524% 到底是谁的狂欢？IPO市盈率高度分化 </t>
-  </si>
-  <si>
-    <t>碳交易市场启动如何布局？</t>
-  </si>
-  <si>
-    <t>军工是一日游还是大行情？</t>
-  </si>
-  <si>
-    <t>机构调研|</t>
-  </si>
-  <si>
-    <t>军工基本面投资时代 短中长期“三确认”思维</t>
-  </si>
-  <si>
-    <t>硬核研报|</t>
-  </si>
-  <si>
-    <t>铜资源景气期，这些有色巨头利润弹性巨大</t>
-  </si>
-  <si>
-    <t>今年以来140家IPO企业撤单 这4家小券商撤回率达100%</t>
-  </si>
-  <si>
-    <t>金牌董秘入围名单</t>
-  </si>
-  <si>
-    <t>新纪录：新股读客文化首日暴涨18倍</t>
-  </si>
-  <si>
-    <t>锂价强势还有高潮</t>
-  </si>
-  <si>
-    <t>医药适合长期投资?</t>
-  </si>
-  <si>
-    <t>优先配龙头</t>
-  </si>
-  <si>
-    <t>秘诀</t>
+    <t>今日视点:金融机构推动引领数字经济发展责无旁贷</t>
+  </si>
+  <si>
+    <t>易会满:注册制须立足国情市情 源头上遏制过度发债融资</t>
+  </si>
+  <si>
+    <t xml:space="preserve">锂电概念重聚人气!板块持续回暖 机构推荐受益标的一览
+</t>
+  </si>
+  <si>
+    <t>顶流基金经理持仓出炉！ 刘彦春葛兰坚定持有迈瑞医疗</t>
+  </si>
+  <si>
+    <t>硬核研报</t>
+  </si>
+  <si>
+    <t>最强风口：两大概念助力 这一板块望趁势起飞</t>
+  </si>
+  <si>
+    <t>主力动向</t>
+  </si>
+  <si>
+    <t>两大顶级游资抢筹1股！市场再现重磅信号(股)</t>
+  </si>
+  <si>
+    <t>狙击牛股|</t>
+  </si>
+  <si>
+    <t>新能源高潮 涨停在哪里？这四支股票值得关注</t>
+  </si>
+  <si>
+    <t>IPO撤单潮持续:年内208家企业终止IPO 多家注册期折戟</t>
+  </si>
+  <si>
+    <t>金麒麟分析师评选</t>
+  </si>
+  <si>
+    <t>投票</t>
+  </si>
+  <si>
+    <t>首席研说</t>
+  </si>
+  <si>
+    <t>周期板块迎价值重估</t>
+  </si>
+  <si>
+    <t>直播|</t>
+  </si>
+  <si>
+    <t>新能源风起 高端制造王牌怎么打</t>
+  </si>
+  <si>
+    <t>光伏企稳</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 秘诀</t>
   </si>
   <si>
     <t>研报|</t>
   </si>
   <si>
-    <t>降准后 债券继续买入还是止盈离场</t>
-  </si>
-  <si>
-    <t>7大赛道复盘</t>
+    <t>滞胀期纳斯达克的崛起</t>
+  </si>
+  <si>
+    <t>关注通胀强化下加息节奏</t>
   </si>
   <si>
     <t>公司</t>
   </si>
   <si>
-    <t>证监会追问何氏眼科 是否规避民非组织办法第6条</t>
-  </si>
-  <si>
-    <t>“零食界华为”盐津铺子被社区团购打懵 业绩市值腰斩</t>
-  </si>
-  <si>
-    <t>董事会换血：剥离亏损影视业务 喜临门半年报难如预期</t>
-  </si>
-  <si>
-    <t>啥情况？仅3年科华生物并购标的估值从9亿暴增至275亿</t>
-  </si>
-  <si>
-    <t>房地产|</t>
-  </si>
-  <si>
-    <t>平安热衷地王无惧爆雷 项目解套承压市值蒸发</t>
-  </si>
-  <si>
-    <t>深免集团有投资意向 三年亏超40亿的*ST赫美能翻身吗?</t>
-  </si>
-  <si>
-    <t>上个交易日涨停 杭州热电今一字跌停 10万手卖单封死</t>
-  </si>
-  <si>
-    <t>谁纵容天价片酬？倩女幽魂牵ST北文沉疴 前高管揭内幕</t>
-  </si>
-  <si>
-    <t>面条大王业绩爆雷 克明食品问题出哪?</t>
-  </si>
-  <si>
-    <t>投资者用脚投票</t>
+    <t>茅台镇不是市值管理之所 2公司跨界买醉相继告吹</t>
+  </si>
+  <si>
+    <t>内讧！惠伦晶体十年老董秘遭下属取代:称公司变一言堂</t>
+  </si>
+  <si>
+    <t>海伦哲原实控人欲夺回控制权 子公司业绩造假疑云未解</t>
+  </si>
+  <si>
+    <t>宁波华翔大手笔分红20亿 大礼包or杀鸡取卵？背后隐情</t>
+  </si>
+  <si>
+    <t>地产</t>
+  </si>
+  <si>
+    <t>地产项目烂尾？李亚鹏否认：烂尾的不是我们项目</t>
+  </si>
+  <si>
+    <t>遭封7天后 安信陈果公众号低调回归 68字声明格外醒目</t>
+  </si>
+  <si>
+    <t>比亚迪入股:一则公告让人直呼王炸 四川路桥要搞大事?</t>
+  </si>
+  <si>
+    <t>GQY视讯重组四连败</t>
+  </si>
+  <si>
+    <t>天立教育创始人被带走调查？回应</t>
+  </si>
+  <si>
+    <t>收购进新阶段:新时代证券股权转让下架 买家已交资料</t>
   </si>
   <si>
     <t>挖牛股</t>
   </si>
   <si>
-    <t>调味品提价潮最快年底到来？行业基本面已恢复</t>
-  </si>
-  <si>
-    <t>中金港股：市场短期将盘整 建议超配信息技术</t>
-  </si>
-  <si>
-    <t>40亿！远洋收购红星70%股权，包含91个项目</t>
-  </si>
-  <si>
-    <t>“最惨”富二代！接班千亿房企，扛下2200亿债务</t>
-  </si>
-  <si>
-    <t>二季报陆续发布 丘栋荣、赵梅玲等明星经理调仓</t>
-  </si>
-  <si>
-    <t>268亿！公募定增获配金额同比增116%，财通诺德居前</t>
-  </si>
-  <si>
-    <t>恒生科指跌超2%：快手跌6%美团跌4%</t>
-  </si>
-  <si>
-    <t>突发！多个品牌紧急“删除”吴亦凡 央视火速下架其内容</t>
-  </si>
-  <si>
-    <t>午评：港股恒指跌1.59% “恒大系”集体走低科技股重挫</t>
-  </si>
-  <si>
-    <t>4000亿茶饮市场，为何无法诞生巨头？</t>
-  </si>
-  <si>
-    <t>远洋集团40亿收购红星地产70%股权 后者持91物业项目</t>
-  </si>
-  <si>
-    <t>康师傅冰红茶：已终止与吴亦凡的代言合作 相关手续在办理中</t>
-  </si>
-  <si>
-    <t>“恒大系”跌幅扩大：中国恒大跌近11% 恒大物业跌超11%</t>
-  </si>
-  <si>
-    <t>吴亦凡回应丑闻风波，被这些品牌一夜间紧急“删除”，3家上市公司或受影响</t>
-  </si>
-  <si>
-    <t>吴亦凡丑闻风波或波及《青簪行》 阅文集团跌近4%腾讯跌近3%</t>
-  </si>
-  <si>
-    <t>世纪大和解！阿里与腾讯互禁八年后要互通生态？</t>
-  </si>
-  <si>
-    <t>恒生科技指数跌超2%：快手跌近6%领跌 美团、百度跌超4%</t>
-  </si>
-  <si>
-    <t>中金港股策略：市场短期将盘整 建议超配信息技术</t>
-  </si>
-  <si>
-    <t>恒生指数重返28000点之上 机构看好港股三条投资主线</t>
-  </si>
-  <si>
-    <t>市场真的相信联储“暂时性”通胀的</t>
-  </si>
-  <si>
-    <t>穿透经济繁荣共识 大摩称全球经济复苏正面临两大风险</t>
-  </si>
-  <si>
-    <t>长期看空者大卫•泰斯警告：目前投资股票和比特币“非常危险”</t>
-  </si>
-  <si>
-    <t>美网友嘲笑贝佐斯太空之旅名不符实 马斯克不厚道地笑了</t>
-  </si>
-  <si>
-    <t>OPEC+周末达成增产协议 油价下跌</t>
-  </si>
-  <si>
-    <t>传记作者称麦卡菲自杀时已破产 疯狂买豪宅造光1亿美元</t>
-  </si>
-  <si>
-    <t>博世考虑关闭燃油车零部件工厂 因担心电动化转型致产能过剩</t>
-  </si>
-  <si>
-    <t>突发！韩国支付巨头IPO遇阻，监管要求修改招股文件…蚂蚁持有45%股权</t>
-  </si>
-  <si>
-    <t>交易员深陷自我怀疑：“全球资产定价之锚”的诡异飙涨没那么简单？</t>
-  </si>
-  <si>
-    <t>强生考虑将爽身粉诉讼责任打包成新公司申请破产 以避免巨额赔偿</t>
-  </si>
-  <si>
-    <t>美股精选： 数读港美 | 抱团模式再变，科技...</t>
-  </si>
-  <si>
-    <t>G20财长达成一致 百年税改大幕开启</t>
-  </si>
-  <si>
-    <t>维珍银河姊妹公司维珍轨道将于2021年第四季度发射第三颗卫星</t>
-  </si>
-  <si>
-    <t>白宫迟迟不取消对欧旅行禁令 欧洲和航空公司都急了</t>
-  </si>
-  <si>
-    <t>又一巨型并购正在酝酿 美国两大半导体公司 或“牵手”挑战台积电</t>
-  </si>
-  <si>
-    <t>在夏威夷迫降波音飞机的航空货运公司Transair被停飞</t>
-  </si>
-  <si>
-    <t>美国多州将政府救济金用作教师奖金引发争议</t>
-  </si>
-  <si>
-    <t>美共和党参议员：基础设施法案将取消税收执法</t>
-  </si>
-  <si>
-    <t>美通胀爆表提升紧缩预期 中国会否提前降低LPR</t>
+    <t>大势研判！沪指或共振回调！重点关注这四支股</t>
+  </si>
+  <si>
+    <t>世茂服务折让9.75%配售1.15亿股</t>
+  </si>
+  <si>
+    <t>中教控股配售</t>
+  </si>
+  <si>
+    <t>海底捞200g毛肚只有138g？门店回应：员工操作失误</t>
+  </si>
+  <si>
+    <t>时富金融持有不足1月陆续出售26000股腾讯 亏损150万</t>
+  </si>
+  <si>
+    <t>这只银行股盘前暴跌25%，发生了什么？谁在大举扫货？</t>
+  </si>
+  <si>
+    <t>又一批顶流基金经理持仓出炉！</t>
+  </si>
+  <si>
+    <t>认购24亿元私募基金 上市公司青睐债券和量化产品</t>
+  </si>
+  <si>
+    <t>海底捞200g毛肚只有138g？门店回应</t>
+  </si>
+  <si>
+    <t>收评：港股恒指涨1.35% 科技、电力股强势煤炭股大跌</t>
+  </si>
+  <si>
+    <t>发改委出手，严查资本恶炒动力煤，“煤超疯”全线跌停</t>
+  </si>
+  <si>
+    <t>时富金融出售26000股腾讯 亏损150万</t>
+  </si>
+  <si>
+    <t>海通国际：董事会主席瞿秋平因工作变动辞任 李军接任</t>
+  </si>
+  <si>
+    <t>中教控股折让9%配售7800万股</t>
+  </si>
+  <si>
+    <t>世茂服务配售1.15亿股</t>
+  </si>
+  <si>
+    <t>深夜突发！恒大不卖了：刚宣布终止200亿交易 更有偿债大消息来了</t>
+  </si>
+  <si>
+    <t>经纬中国、腾讯重仓持有！又有“Z世代”公司要IPO了</t>
+  </si>
+  <si>
+    <t>大举减持阿里！增仓美团！超长期投资巨头最新持仓来了</t>
+  </si>
+  <si>
+    <t>房地产税试点要来，一线炒房客慌了：抛售多余房产？惠州楼市也"魔幻":打"骨折"也卖不掉！</t>
+  </si>
+  <si>
+    <t>收评：北向资金净买入40.79亿元 沪股通净买入16.31亿元</t>
+  </si>
+  <si>
+    <t>重磅！恒大负债约3000亿美元，央行行长最新表态</t>
+  </si>
+  <si>
+    <t>恒大汽车进行一系列人事任免 引战投尚未有实质性进展</t>
+  </si>
+  <si>
+    <t>道指收高150点 标普指数6连涨</t>
+  </si>
+  <si>
+    <t>10月20日美股成交额前20：脸书即将改名，小扎要当被告</t>
+  </si>
+  <si>
+    <t>外盘头条：美国假日季在线消费增幅或创8年新低</t>
+  </si>
+  <si>
+    <t>隔夜要闻：标普指数6连涨 特斯拉Q3营收净利润均创新高</t>
+  </si>
+  <si>
+    <t>美联储褐皮书：经济活动适度到温和增长 多数地区物价显著上涨</t>
+  </si>
+  <si>
+    <t>美联储理事Quarles敦促11月减码债券收购 对通胀发出警告</t>
+  </si>
+  <si>
+    <t>比特币历史性站上6.6万美元 真正检验“成色”的时刻到了</t>
+  </si>
+  <si>
+    <t>特斯拉公布三季度财报 营收和净利润均创新高</t>
+  </si>
+  <si>
+    <t>花旗：欧洲严冬可能耗尽天然气库存 期货价格有机会涨至100美元</t>
+  </si>
+  <si>
+    <t>热门中概股周三收盘多数上扬 嘉楠科技涨18%</t>
+  </si>
+  <si>
+    <t>传PayPal有意收购社交媒体公司Pinterest 后者股价飙升并两度停牌</t>
+  </si>
+  <si>
+    <t>华尔街基金经理大举押注大通胀题材 盘点多种相关热门交易</t>
+  </si>
+  <si>
+    <t>美财长耶伦：美国明年有望按计划实现充分就业</t>
+  </si>
+  <si>
+    <t>比特币期货ETF风头一时无两 投资者中却没有Cathie Wood</t>
+  </si>
+  <si>
+    <t>盖茨基金会：投入最高1.2亿美元帮助低收入国家加速获取新冠肺炎药物</t>
+  </si>
+  <si>
+    <t>镍价飙升至七年最高 因主要生产商下调镍产量预测</t>
+  </si>
+  <si>
+    <t>白宫计划向5至11岁儿童推广疫苗 以挽救拜登灾难性的支持率</t>
+  </si>
+  <si>
+    <t>Facebook“剑桥分析丑闻”诉讼案升级：扎克伯格要成为被告</t>
   </si>
   <si>
     <t>新浪财经诚聘国际财经新闻编辑若干</t>
   </si>
   <si>
-    <t>[互联网]弃用宁德时代，苹果造车依旧强势</t>
-  </si>
-  <si>
-    <t>268亿元！公募定增获配金额同比激增116%</t>
-  </si>
-  <si>
-    <t>新能源成市场最大热点 六大投资人士谈后市</t>
-  </si>
-  <si>
-    <t>有色行情迎戴维斯双击 锂电材料等主题ETF大涨</t>
-  </si>
-  <si>
-    <t>大咖说:创新药和CXO回调能上车吗?下半年如何配?</t>
-  </si>
-  <si>
-    <t>华夏杨宇:新能源热度不断 光伏发展怎么看？</t>
-  </si>
-  <si>
-    <t>博时陈奥:流动性"天团"出击！那些"风口"要追?</t>
-  </si>
-  <si>
-    <t>基金二季报陆续发布 丘栋荣、赵梅玲等明星经理调仓换股</t>
-  </si>
-  <si>
-    <t>科创板开市2周年:重塑资本市场生态 公募投研升级迭代</t>
-  </si>
-  <si>
-    <t>本周33家公司50只新基金pk:养老基金与光伏ETF或可关注</t>
-  </si>
-  <si>
-    <t>公募全面发力"碳中和" 低碳主题基金站上风口</t>
-  </si>
-  <si>
-    <t>2021银华基金杯新浪银行理财师大赛火热报名中</t>
-  </si>
-  <si>
-    <t>施卫任总经理期间农银汇理规模增加559.65亿 产品数最少</t>
-  </si>
-  <si>
-    <t>股基冠军赵诣瞄准碳减排?中材国际在他调研后,创新高</t>
-  </si>
-  <si>
-    <t>高瓴、鼎晖等一级PE/VC巨头积极设立二级证券私募</t>
-  </si>
-  <si>
-    <t>经济数据持续改善，下跌板块补涨“回血”！高毅备案超车，启林、九坤积极布局</t>
-  </si>
-  <si>
-    <t>午评:红枣全合约涨停 原油跌近3%</t>
-  </si>
-  <si>
-    <t>欧佩克+对峙落幕</t>
-  </si>
-  <si>
-    <t>靴子终于落地！</t>
-  </si>
-  <si>
-    <t>全国碳排放权交易市场上线首日成交410.4万吨</t>
-  </si>
-  <si>
-    <t>新华社：供应仍存缺口 国际油价走高压力难缓解</t>
-  </si>
-  <si>
-    <t>“三西”地区动力煤调研：煤炭长期缺口难以填补</t>
-  </si>
-  <si>
-    <t>证监会：延长对新时代证券等三家公司的接管期限</t>
-  </si>
-  <si>
-    <t>发改委：将组织好后批次铜铝锌等国家储备的投放</t>
-  </si>
-  <si>
-    <t>煤源告急！榆林20多家煤矿暂停生产 港口库存急降</t>
-  </si>
-  <si>
-    <t>后期外部进口压力缓解 郑糖多头格局依旧</t>
-  </si>
-  <si>
-    <t>市场供需“两头开火” 推升锡价至历史新高</t>
-  </si>
-  <si>
-    <t>7月19日焦炭市场整体供需逐步趋于宽松状态</t>
-  </si>
-  <si>
-    <t>政策与数据出现分歧 黄金面临短线方向选择</t>
-  </si>
-  <si>
-    <t>IC/IH比价会进一步走扩 市场大概率振荡</t>
-  </si>
-  <si>
-    <t>动力煤、玻璃和PTA偏强 能化指数继续上行</t>
+    <t>[互联网]Netflix高管解读:为长期增长而提高付费价格</t>
+  </si>
+  <si>
+    <t>社保基金三季报重仓股名单出炉 "矿业茅"获持3亿股</t>
+  </si>
+  <si>
+    <t>指数基金方兴未艾 ESG投资成“蓝海”</t>
+  </si>
+  <si>
+    <t>董承非卸任基金经理 600亿“顶流”要奔私？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+大咖说:大金融机会几何？建材行情能否反转？</t>
+  </si>
+  <si>
+    <t>富国牛志冬:水泥价格大幅上涨 建材行情反转？</t>
+  </si>
+  <si>
+    <t>国泰基金林小聪 ：寻找超预期聚焦新变化</t>
+  </si>
+  <si>
+    <t>又一批顶流基金经理持仓出炉！刘彦春葛兰坚定持有迈瑞医疗</t>
+  </si>
+  <si>
+    <t>价值老将追捧“成长” 基金投资阵营分化</t>
+  </si>
+  <si>
+    <t>5场精彩直播：建材行情能否反转？如何管好“固收+”？</t>
+  </si>
+  <si>
+    <t>“猪茅”又香了 顶流基金经理雷鸣胡昕炜亲自调研</t>
+  </si>
+  <si>
+    <t>高顿财经谭文曦：理财师是客户的“金融医生”</t>
+  </si>
+  <si>
+    <t>基金公司密集申报“北交所”基金</t>
+  </si>
+  <si>
+    <t>顶流基金经理刘彦春葛兰出手扫货这家4500亿巨头</t>
+  </si>
+  <si>
+    <t>鸣石投资股权大战落幕 盘点明星私募分家往事</t>
+  </si>
+  <si>
+    <t>投票进行中|2021第三届金麒麟最佳证券分析师评选投票</t>
+  </si>
+  <si>
+    <t>社保基金三季报重仓名单 "矿业茅"获持超3亿股</t>
+  </si>
+  <si>
+    <t>2021银华基金杯新浪银行理财师大赛团队复赛（上海场）</t>
+  </si>
+  <si>
+    <t>兴证全球董理：企业的成长空间比短期股价更重要</t>
+  </si>
+  <si>
+    <t>易方达林伟斌、广发首席郭磊：投资优质龙头</t>
+  </si>
+  <si>
+    <t>南方基金朱伟豪：估值到底了？大金融的机会</t>
+  </si>
+  <si>
+    <t>不畏寒冬，静待花开 银行业投资策略和工具解读</t>
+  </si>
+  <si>
+    <t>私募圈又出大新闻！明星基金经理被举报"老鼠仓"</t>
+  </si>
+  <si>
+    <t>第二批公募REITs呼之欲出</t>
+  </si>
+  <si>
+    <t>动力煤期货大跌 “翻倍基”能源化工ETF跌停</t>
+  </si>
+  <si>
+    <t>不眠夜x2！动力煤“连板”</t>
+  </si>
+  <si>
+    <t>能源危机波及原油</t>
+  </si>
+  <si>
+    <t>伊拉克加入100美元阵营</t>
+  </si>
+  <si>
+    <t>严查恶意炒作 煤炭期货日内净流出逾40亿</t>
+  </si>
+  <si>
+    <t>农业农村部：生猪供应相对过剩将持续一段时间</t>
+  </si>
+  <si>
+    <t>市场人士：国内外棕榈油阶段性强势难改</t>
+  </si>
+  <si>
+    <t>市场人士：天气因素提振天胶市场</t>
+  </si>
+  <si>
+    <t>投放首批钾肥储备 将适时采取针对性保供稳价措施</t>
+  </si>
+  <si>
+    <t>如何拥有一个港美股账户 简单！三步就能搞定</t>
+  </si>
+  <si>
+    <t>受原油领衔的外围带动 豆油升破万元关口</t>
+  </si>
+  <si>
+    <t>整体供需双弱 螺纹钢四季度振荡运行</t>
+  </si>
+  <si>
+    <t>发改委赴三地督导调研煤炭保供稳价工作</t>
+  </si>
+  <si>
+    <t>光大期货：欧洲停产拉动白银 金价紧跟收涨</t>
+  </si>
+  <si>
+    <t>类滞胀下股指难有趋势性行情 宽幅振荡为主</t>
+  </si>
+  <si>
+    <t>菜油期货盘面价格波动幅度加剧 注意风险</t>
   </si>
   <si>
     <t>DCE一周观察</t>
   </si>
   <si>
-    <t>人民币或将面临一定的调整压力</t>
-  </si>
-  <si>
-    <t>中美货币政策差可能持续存在 人民币或将继续面临一定的调整压力&gt;&gt;</t>
+    <t>Taper临近，人民币缘何升破6.4？</t>
+  </si>
+  <si>
+    <t>走弱的美元、强势的中国出口以及资金的流入主导了最近的人民币走强&gt;&gt;</t>
   </si>
   <si>
     <t>全球财经直播</t>
@@ -673,217 +717,226 @@
     <t>人民币汇率</t>
   </si>
   <si>
-    <t>英媒：美国消费者愈发担心物价飞涨</t>
-  </si>
-  <si>
-    <t>视频：印度通胀正在爆发，如今印度状况怎样？</t>
-  </si>
-  <si>
-    <t>招商宏观：5月全球经济综述 新兴拖累全球走弱</t>
-  </si>
-  <si>
-    <t>多数分析师认为拜登将提名鲍威尔连任美联储主席</t>
-  </si>
-  <si>
-    <t>张明：新周期下推进人民币国际化的策略与思路</t>
-  </si>
-  <si>
-    <t>通胀猛如虎 美债也猛如虎？市场懵了</t>
-  </si>
-  <si>
-    <t>财经早餐：OPEC+同意增产，欧洲央行决议来袭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">央行解读数字人民币：与现钞长期共存 </t>
-  </si>
-  <si>
-    <t>白银遭遇空头袭击！创逾3个月低点</t>
-  </si>
-  <si>
-    <t>长期大空头警告：现在投资美股和比特币有风险</t>
-  </si>
-  <si>
-    <t>看空大佬：目前美股和比特币“非常危险” 黄金和...</t>
-  </si>
-  <si>
-    <t>市场真的相信美联储“暂时性”通胀的判断吗？</t>
-  </si>
-  <si>
-    <t>大摩称全球经济复苏正面临两大风险</t>
-  </si>
-  <si>
-    <t>交易员深陷自我怀疑：“全球资产定价之锚”的诡异...</t>
-  </si>
-  <si>
-    <t>白银、油价联袂大跌！金银油铜最新技术前景分析</t>
-  </si>
-  <si>
-    <t>光大期货：政策与数据出现分歧 黄金面临短线方向...</t>
-  </si>
-  <si>
-    <t>方正中期史家亮：伦锡沪锡均如期刷新历史新高 后...</t>
-  </si>
-  <si>
-    <t>方正中期期货史家亮：沪锡涨至24万上方的可能性...</t>
-  </si>
-  <si>
-    <t>上个交易日黄金白银ETF持仓继续减少 美联储鸽...</t>
-  </si>
-  <si>
-    <t>白银大跌！ETF资金离场 期货投机持仓下降</t>
-  </si>
-  <si>
-    <t>重点关注白银空头机会</t>
-  </si>
-  <si>
-    <t>黄金专家答疑</t>
-  </si>
-  <si>
-    <t>降准落地后 还需要担忧供给冲击么？</t>
-  </si>
-  <si>
-    <t>市场热议中国或提前降低LPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中金宏观：中美货币政策差可能持续存在 </t>
-  </si>
-  <si>
-    <t>中金固收：“大盘回暖”对转债的不同含义</t>
-  </si>
-  <si>
-    <t>兴证宏观：货币降准后，财政下半年要发力吗？</t>
-  </si>
-  <si>
-    <t>宏观周报：7月PPI同比或再次上升至前期高点9.0%</t>
-  </si>
-  <si>
-    <t>过去3年专项债发行回顾：货币政策如何与财政相配合</t>
-  </si>
-  <si>
-    <t>中信证券明明：Taper对我国资本流动的溢出效应</t>
-  </si>
-  <si>
-    <t>流动性供需关系并没有进一步宽松 国债上涨阻力重重</t>
-  </si>
-  <si>
-    <t>中金固收：降准之后，债券继续买入还是止盈离场？</t>
-  </si>
-  <si>
-    <t>2022年专项债来了！项目储备主要投向9大领域</t>
+    <t>人民币再次升破6.4关口，外贸企业利润更薄了</t>
+  </si>
+  <si>
+    <t>结汇需求旺盛 人民币汇率一度收复6.38关口</t>
+  </si>
+  <si>
+    <t>财经早餐：美元走低黄金跳涨，美油续刷七年新高</t>
+  </si>
+  <si>
+    <t>风险偏好升温拖累美元下跌，商品货币涨幅居前</t>
+  </si>
+  <si>
+    <t>我国外汇市场受本轮美联储政策转向的影响可控</t>
+  </si>
+  <si>
+    <t>纽元升至逾四个月高位，新西兰联储料进一步加息</t>
+  </si>
+  <si>
+    <t>维稳流动性合理充裕 央行加量操作逆回购</t>
+  </si>
+  <si>
+    <t>比特币突破66000美元，创历史最高价</t>
+  </si>
+  <si>
+    <t>黄金暴拉逾20美元后“高台跳水”</t>
+  </si>
+  <si>
+    <t>美联储理事Quarles敦促11月减码债券收购...</t>
+  </si>
+  <si>
+    <t>美联储褐皮书划重点：提及劳动力短缺26次，供应...</t>
+  </si>
+  <si>
+    <t>黄金期货周三收高0.8% 通胀上涨提振需求</t>
+  </si>
+  <si>
+    <t>华尔街传奇大佬：通胀非暂时，比担心的还糟！美联...</t>
+  </si>
+  <si>
+    <t>美联储褐皮书：劳动力短缺和供应链瓶颈正遏制经济...</t>
+  </si>
+  <si>
+    <t>美联储褐皮书：经济活动适度到温和增长 多数地区...</t>
+  </si>
+  <si>
+    <t>潘功胜：我国外汇市场受本轮美联储政策转向的影响...</t>
+  </si>
+  <si>
+    <t>美联储褐皮书：多数地区物价明显上涨 劳动力短缺...</t>
+  </si>
+  <si>
+    <t>财经早餐：美元走低黄金跳涨，美油续刷七年新高，...</t>
+  </si>
+  <si>
+    <t>潘功胜：预计我国外汇市场受本轮美联储政策转向的...</t>
+  </si>
+  <si>
+    <t>全球央行加息预期过浓 美联储料远远落后</t>
+  </si>
+  <si>
+    <t>汇丰：美联储走向正常化恐推高美元</t>
+  </si>
+  <si>
+    <t>专家答疑</t>
+  </si>
+  <si>
+    <t>未来货币政策仍将坚持稳健基调</t>
+  </si>
+  <si>
+    <t>以地方专项债  撬动“稳投资”</t>
+  </si>
+  <si>
+    <t>二级资本债发行“卡顿” 首只债等到花儿也谢了</t>
+  </si>
+  <si>
+    <t>LPR“横盘”18个月 未影响企业实际贷款利率下行</t>
+  </si>
+  <si>
+    <t>财政部完成40亿美元主权债发行 国际投资人踊跃认购</t>
+  </si>
+  <si>
+    <t>房地产业风声鹤唳 券商多业务线缩减地产债</t>
+  </si>
+  <si>
+    <t>2.5亿美元债确认未偿还，新力信用评级再遭下调</t>
+  </si>
+  <si>
+    <t>西部宏观：我们对于近期人民币升值的理解</t>
+  </si>
+  <si>
+    <t>为什么GDP跌破5，人民币却升破6.4？</t>
+  </si>
+  <si>
+    <t>中金：强劲的人民币汇率将何去何从</t>
   </si>
   <si>
     <t>全球银行同业拆借利率</t>
   </si>
   <si>
-    <t>http://www.xinhuanet.com/sports/2021-07/18/c_1127666226.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/2021-07/18/c_1127666257.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/2021-07/18/c_1127666224.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/2021-07/18/c_1127666307.htm</t>
-  </si>
-  <si>
-    <t>http://www.xinhuanet.com/2021-07/18/c_1127666300.htm</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/usstock_0718/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-07-19/doc-ikqcfnca7643288.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-07-19/doc-ikqcfnca7671548.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/gjcj/2021-07-18/doc-ikqcfnca7591364.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-18/doc-ikqcfnca7606444.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/drcwl/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/china/2021-07-18/doc-ikqciyzk6221409.shtml</t>
-  </si>
-  <si>
-    <t>https://cj.sina.com.cn/articles/view/1988645095/768850e704000xvb9?from=news&amp;subch=onews</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-07-19/doc-ikqciyzk6225577.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-07-18/doc-ikqciyzk6225223.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/20210719/</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/4bej13g0645928574d/#/brief/course/b75141778f8c4061babaebd31d57c090</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-07-19/doc-ikqciyzk6314724.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-07-19/doc-ikqcfnca7622121.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-07-19/doc-ikqcfnca7647582.shtml</t>
+    <t>http://www.news.cn/fortune/2021-10/20/c_1127977667.htm</t>
+  </si>
+  <si>
+    <t>http://www.news.cn/politics/2021-10/20/c_1127978182.htm</t>
+  </si>
+  <si>
+    <t>http://www.news.cn/2021-10/21/c_1127978795.htm</t>
+  </si>
+  <si>
+    <t>http://www.news.cn/sports/2021-10/20/c_1127974779.htm</t>
+  </si>
+  <si>
+    <t>http://www.news.cn/fortune/2021-10/19/c_1127974507.htm</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-10-21/doc-iktzscyy0832389.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzscyy0848069.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bank/bank_hydt/2021-10-21/doc-iktzscyy0851435.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzqtyu2621725.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzscyy0844821.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-10-21/doc-iktzqtyu2611783.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzscyy0857089.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-20/doc-iktzqtyu2598119.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/jrjnh/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/dckb/2021-10-21/doc-iktzscyy0841785.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-10-21/doc-iktzqtyu2602378.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-10-20/doc-iktzscyy0819345.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-10-21/doc-iktzqtyu2633036.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-10-21/doc-iktzqtyu2609753.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-10-21/doc-iktzscyy0835782.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-10-20/doc-iktzscyy0833202.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/marketresearch/2021-10-20/doc-iktzqtyu2587839.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-10-21/doc-iktzqtyu2609230.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-10-21/doc-iktzqtyu2630498.shtml</t>
+  </si>
+  <si>
+    <t>https://live.finance.sina.com.cn/</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/detail/graphics/f5443bd63a8b4e858b9225ffa008a6c6/f62832f6f899</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/detail/graphics/f5443bd63a8b4e858b9225ffa008a6c6/a6eacab3a35c</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/14138</t>
+  </si>
+  <si>
+    <t>http://finance.sina.com.cn/zt_d/quanshangkaihu/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/jsy/2021-10-21/doc-iktzqtyu2604951.shtml</t>
   </si>
   <si>
     <t>http://live.finance.sina.com.cn/</t>
   </si>
   <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12116</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12086</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12142</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12125</t>
-  </si>
-  <si>
-    <t>http://finance.sina.com.cn/zt_d/quanshangkaihu/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-07-19/doc-ikqciyzk6340602.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/roll/2021-07-19/doc-ikqciyzk6335009.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/roll/2021-07-19/doc-ikqciyzk6254908.shtml</t>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/t/2021-10-21/doc-iktzscyy0840816.shtml</t>
   </si>
   <si>
     <t>http://roll.finance.sina.com.cn/finance/zq1/scyj/index.shtml</t>
   </si>
   <si>
-    <t>http://blog.sina.com.cn/s/blog_8cc315680102z5df.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_9c2fe26f0102z3oq.html?tj=fina</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-07-19/doc-ikqcfnca7713119.shtml</t>
-  </si>
-  <si>
-    <t>http://finance.sina.com.cn/stock/jyts/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-07-19/doc-ikqciyzk6338221.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-07-19/doc-ikqciyzk6297589.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-07-19/doc-ikqcfnca7733274.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzscyy0857099.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzqtyu2621739.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://finance.sina.com.cn/stock/jyts/ </t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-10-21/doc-iktzqtyu2632619.shtml</t>
+  </si>
+  <si>
+    <t>http://vip.stock.finance.sina.com.cn/q/go.php/vInvestConsult/kind/jyts/index.phtml?tradedate=2021-10-21</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/cpbd/2021-10-21/doc-iktzscyy0868140.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-10-21/doc-iktzscyy0867920.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-10-20/doc-iktzscyy0809233.shtml?cref=cj</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/marketresearch/2020-08-17/doc-iivhuipn9137795.shtml</t>
@@ -892,43 +945,34 @@
     <t xml:space="preserve">http://roll.finance.sina.com.cn/finance/zq1/zldx/index.shtml </t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/gujiayidong/2021-07-19/doc-ikqcfnca7735330.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-07-19/doc-ikqcfnca7731754.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/jsy/2021-07-19/doc-ikqcfnca7690049.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzscyy0846878.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/roll/2021-10-21/doc-iktzscyy0857086.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=230808</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/roll/2021-07-19/doc-ikqcfnca7647557.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-18/doc-ikqciyzk6217283.shtml</t>
+    <t>https://finance.sina.com.cn/stock/y/2021-10-21/doc-iktzqtyu2600582.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=57563&amp;page=1</t>
   </si>
   <si>
-    <t>http://blog.sina.com.cn/s/blog_4ab265670102zae3.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_84f53feb0102z9b8.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_148ded81d0102zpcg.html?tj=fina</t>
+    <t>http://blog.sina.com.cn/s/blog_678137d00102zqcm.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_763294c70102yltu.html?tj=fina</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_64594bbb0102ytde.html?tj=fina</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/reportch/jinqilin.shtml</t>
   </si>
   <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/680012771683/index.phtml</t>
-  </si>
-  <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/679998395202/index.phtml</t>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/688082253604/index.phtml</t>
   </si>
   <si>
     <t>http://vip.stock.finance.sina.com.cn/q/go.php/vReport_List/kind/lastest/index.phtml</t>
@@ -937,91 +981,85 @@
     <t>http://licaishi.sina.com.cn/s/%E6%B7%B1%E6%B8%AF%E9%80%9A?ind_id=0&amp;t=1&amp;all=0&amp;fr=finance_top</t>
   </si>
   <si>
-    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/strategy/rptid/680007673184/index.phtml</t>
-  </si>
-  <si>
-    <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/strategy/rptid/680004995854/index.phtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-07-19/doc-ikqciyzk6331799.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqciyzk6331723.shtml</t>
-  </si>
-  <si>
-    <t>http://blog.sina.com.cn/s/blog_763294c70102ylqj.html?tj=fina</t>
-  </si>
-  <si>
-    <t>http://live.finance.sina.com.cn/bozhu/6820186475</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/hkgg/2021-07-19/doc-ikqciyzk6317447.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqciyzk6254407.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/relnews/cn/2021-07-19/doc-ikqcfnca7628510.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqcfnca7649518.shtml</t>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/688087578033/index.phtml</t>
+  </si>
+  <si>
+    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/688085002183/index.phtml</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_599d75180102zobn.html?tj=fina</t>
+  </si>
+  <si>
+    <t>https://tzxy.sina.com.cn/content/detail/1092849864/127378</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/stocktalk/2021-10-21/doc-iktzscyy0869635.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/stockptd/2021-10-21/doc-iktzqtyu2608094.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzqtyu2609724.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/observe/2021-10-21/doc-iktzqtyu2612111.shtml</t>
   </si>
   <si>
     <t>http://stock.finance.sina.com.cn/stock/go.php/vReport_List/kind/industry/index.phtml</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6253295.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hyyj/2021-07-19/doc-ikqcfnca7664318.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6246899.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hyyj/2021-07-19/doc-ikqcfnca7622966.shtml</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/4bej13g0645928574d/#/sinacourse/7234a949213d40b285d95063e4855283</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/4bej13g0645928574d/#/sinacourse/c1c893194faf4079af5985cc12c949e7</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-06-04/doc-ikqcfnaz9025413.shtml</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/l25km13l7kn1?parentType=column&amp;parentId=f5443bd63a8b4e858b9225ffa008a6c6</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/brief/column/a601af39262c4bdd80274231f1fde815</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/5lm839679896?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/quanshang/qsyj/2021-07-19/doc-ikqcfnca7653610.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/jinpaidongmi2021/</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqciyzk6333681.shtml</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12140</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12085</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12144</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/stockptd/2021-07-19/doc-ikqcfnca7658289.shtml</t>
-  </si>
-  <si>
-    <t>https://stock.finance.sina.com.cn/stock/go.php/vReport_Show/kind/lastest/rptid/679947671665/index.phtml</t>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/stockptd/2021-10-21/doc-iktzqtyu2632654.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-10-21/doc-iktzqtyu2633354.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-10-20/doc-iktzqtyu2562038.shtml?cref=cj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/wm/2021-10-21/doc-iktzqtyu2630498.shtml</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/column/a601af39262c4bdd80274231f1fde815</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/detail/graphics/a601af39262c4bdd80274231f1fde815/18e461b10980</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/column/f5443bd63a8b4e858b9225ffa008a6c6</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/detail/graphics/97e7f6ea796d8ed24794b4dcfe7e14df/9659cd669ccc</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/detail/graphics/deb88ca9e26dcc8ac9fbab439fe817db/3d973ebe54cc</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/newstock/zrzdt/2021-10-21/doc-iktzscyy0850767.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-09-08/doc-iktzqtyt4744922.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-11/doc-iktzscyx8974685.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/zt_d/yjwlxlcjsxysjjtc/</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-18/doc-iktzqtyu1559503.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/14135</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/14134</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/stockptd/2021-10-21/doc-iktzqtyu2548670.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/stockptd/2021-10-21/doc-iktzqtyu2578013.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/s/2019-07-09/doc-ihytcitm0843478.shtml</t>
@@ -1030,157 +1068,151 @@
     <t>http://finance.sina.com.cn/roll/index.d.html?cid=56592&amp;page=1</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/hyyj/2021-07-19/doc-ikqcfnca7661081.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqcfnca7662489.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqciyzk6263485.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/wm/2021-07-19/doc-ikqcfnca7730751.shtml</t>
+    <t>https://finance.sina.com.cn/stock/s/2021-10-21/doc-iktzqtyu2641701.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-10-21/doc-iktzscyy0872285.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-10-21/doc-iktzqtyu2600594.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzscyy0852784.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/estate/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6264160.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/relnews/cn/2021-07-19/doc-ikqciyzk6254406.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6333329.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqcfnca7680656.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqciyzk6249239.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6225571.shtml</t>
-  </si>
-  <si>
-    <t>https://www.sinadaxue.cn/#/sina/single/l25km13n7kn1?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815</t>
+    <t>https://finance.sina.com.cn/stock/s/2021-10-21/doc-iktzscyy0874893.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-10-21/doc-iktzscyy0865662.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/wm/2021-10-21/doc-iktzqtyu2638653.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/s/2021-10-21/doc-iktzscyy0836854.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-10-21/doc-iktzscyy0802406.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-10-21/doc-iktzqtyu2600579.shtml</t>
+  </si>
+  <si>
+    <t>https://daxue.sina.cn/category/130</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/stock/hkstock/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-07-19/doc-ikqciyzk6264509.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-07-19/doc-ikqcfnca7657787.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-07-19/doc-ikqcfnca7649518.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-07-19/doc-ikqciyzk6258286.shtml</t>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-10-20/doc-iktzqtyu2436375.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-10-20/doc-iktzqtyu2437327.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-10-20/doc-iktzscyy0664782.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-10-20/doc-iktzqtyu2438806.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/zqgd/2021-10-20/doc-iktzscyy0633275.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/fund/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/fund/jjcc/2021-07-19/doc-ikqciyzk6238595.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6231308.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-07-19/doc-ikqcfnca7684205.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/jhzx/2021-07-19/doc-ikqciyzk6251285.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-07-19/doc-ikqciyzk6323224.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-07-19/doc-ikqcfnca7654674.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-07-19/doc-ikqcfnca7655425.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-07-19/doc-ikqciyzk6338588.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-07-19/doc-ikqcfnca7732570.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-07-19/doc-ikqciyzk6340670.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-07-19/doc-ikqciyzk6340264.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-07-19/doc-ikqcfnca7709163.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-07-19/doc-ikqcfnca7684205.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/s/2021-07-18/doc-ikqciyzk6213252.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqciyzk6286888.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6286854.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqcfnca7643927.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqciyzk6265397.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqcfnca7686790.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqciyzk6274152.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqciyzk6260689.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/zqgd/2021-07-19/doc-ikqcfnca7662445.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6279229.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqciyzk6256736.shtml</t>
-  </si>
-  <si>
-    <t>http://finance.sina.com.cn/other/hsnews/detail_index.d.html</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6238677.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqcfnca7641854.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqcfnca7634818.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6238678.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqcfnca7641462.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/world/2021-07-19/doc-ikqcfnca7628338.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/usstock/c/2021-07-19/doc-ikqciyzk6235952.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6238690.shtml</t>
+    <t xml:space="preserve"> https://finance.sina.com.cn/roll/2021-10-21/doc-iktzqtyu2621736.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-10-20/doc-iktzscyy0765921.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-10-20/doc-iktzqtyu2435643.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-10-20/doc-iktzqtyu2438096.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/y/2021-10-21/doc-iktzqtyu2602374.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggipo/2021-10-21/doc-iktzscyy0837573.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-10-21/doc-iktzqtyu2638204.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/hkstocknews/2021-10-21/doc-iktzqtyu2641130.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-10-20/doc-iktzscyy0765921.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/marketalerts/2021-10-20/doc-iktzscyy0751900.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hkstock/ggscyd/2021-10-20/doc-iktzqtyu2533966.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/gsnews/2021-10-20/doc-iktzscyy0769743.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzscyy0852439.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzqtyu2619246.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzscyy0856904.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzscyy0861435.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzqtyu2610166.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzscyy0847302.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzscyy0848473.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzscyy0852535.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/gjcj/2021-10-21/doc-iktzqtyu2606924.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzscyy0856203.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzqtyu2608680.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-20/doc-iktzqtyu2592643.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-20/doc-iktzscyy0829925.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzscyy0846606.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/gjcj/2021-10-21/doc-iktzscyy0825438.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzqtyu2604134.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/gjcj/2021-10-21/doc-iktzqtyu2596525.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzscyy0834942.shtml</t>
   </si>
   <si>
     <t>https://finance.sina.com.cn/stock/usstock/c/2019-06-04/doc-ihvhiews6789878.shtml</t>
@@ -1189,88 +1221,127 @@
     <t>https://tech.sina.com.cn/internet/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/fund/jjpl/2021-07-19/doc-ikqcfnca7634715.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6255128.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/original/2021-07-19/doc-ikqciyzk6264682.shtml</t>
-  </si>
-  <si>
-    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/12115</t>
-  </si>
-  <si>
-    <t>https://finance.sina.cn/fund/jjgdxw/2021-07-19/detail-ikqcfnca7656603.d.html</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/original/2021-07-19/doc-ikqcfnca7716488.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-07-19/doc-ikqcfnca7655330.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/zt_d/yhjjlcs2021/index.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/stock/observe/2021-07-16/doc-ikqcfnca7261991.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-07-19/doc-ikqcfnca7663774.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-07-19/doc-ikqcfnca7634706.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/smjj/smdt/2021-07-19/doc-ikqciyzk6344742.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-07-19/doc-ikqciyzk6317426.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-18/doc-ikqciyzk6218792.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqciyzk6252590.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqcfnca7712963.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqcfnca7698802.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqciyzk6253433.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/2021-07-19/doc-ikqcfnca7696011.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/fmnews/2021-07-19/doc-ikqciyzk6327503.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqciyzk6250919.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqcfnca7596016.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqcfnca7649947.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqcfnca7652380.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqciyzk6252079.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqciyzk6251455.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-10-20/doc-iktzscyy0666410.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-20/doc-iktzqtyu2419497.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-10-20/doc-iktzscyy0636815.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/original/2021-10-19/doc-iktzqtyu2362827.shtml</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/14088</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/14083</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzqtyu2621736.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzscyy0857093.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/original/2021-10-20/doc-iktzscyy0696067.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.cn/stock/ssgs/2021-10-19/detail-iktzscyy0631480.d.html</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/event/lcsds/2021/2021-10-17/doc-iktzqtyu1950968.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.cn/stock/zldx/2021-10-20/detail-iktzscyy0652069.d.html</t>
+  </si>
+  <si>
+    <t>https://finance.sina.cn/stock/ssgs/2021-10-20/detail-iktzscyy0638860.d.html</t>
+  </si>
+  <si>
+    <t>https://finance.sina.cn/2021-10-20/detail-iktzscyy0636815.d.html</t>
+  </si>
+  <si>
+    <t>https://finance.sina.cn/2021-10-20/detail-iktzqtyu2390261.d.html</t>
+  </si>
+  <si>
+    <t>https://finance.sina.cn/2021-10-20/detail-iktzscyy0666410.d.html</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/event/lcsds/2021/2021-10-17/doc-iktzqtyu1959523.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.cn/2021-10-20/detail-iktzqtyu2390255.d.html</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/14084</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/14086</t>
+  </si>
+  <si>
+    <t>https://rl.cj.sina.com.cn/imeeting/hyt/detail/14087</t>
+  </si>
+  <si>
+    <t>https://finance.sina.cn/2021-10-19/detail-iktzqtyu2377989.d.html</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzscyy0857092.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/fund/jjyj/2021-10-21/doc-iktzqtyu2609226.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-10-21/doc-iktzqtyu2634493.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-10-21/doc-iktzqtyu2633739.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-10-21/doc-iktzqtyu2630601.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-10-21/doc-iktzqtyu2636882.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-10-21/doc-iktzqtyu2629733.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-10-21/doc-iktzqtyu2630013.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-10-21/doc-iktzscyy0868715.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/chanjing/cyxw/2021-10-21/doc-iktzscyy0844804.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.cn/zt_d/gmgkh?biaoshi=OTZsMWk0OTFjMTI3</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-10-21/doc-iktzscyy0867331.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-10-21/doc-iktzqtyu2633317.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-10-21/doc-iktzqtyu2634588.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-10-21/doc-iktzscyy0869265.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/gzqh/2021-10-21/doc-iktzscyy0867811.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/roll/2021-10-21/doc-iktzscyy0867539.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/zt_d/dcefutures/</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-07-19/doc-ikqciyzk6260943.shtml</t>
+    <t>https://finance.sina.com.cn/zt_d/rmbyhsz/</t>
   </si>
   <si>
     <t>http://live.sina.com.cn/zt/l/v/finance/globalnews1/</t>
@@ -1279,97 +1350,88 @@
     <t>http://finance.sina.com.cn/forex/paijia.html#0</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-18/doc-ikqciyzk6171694.shtml</t>
-  </si>
-  <si>
-    <t>https://video.sina.com.cn/p/finance/2021-07-19/detail-ikqciyzk6203058.d.html</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-07-19/doc-ikqcfnca7657240.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-07-19/doc-ikqcfnca7655096.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-07-19/doc-ikqciyzk6057641.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-07-19/doc-ikqciyzk6153712.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-07-19/doc-ikqciyzk6255325.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-07-19/doc-ikqcfnca7306348.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/byfx/2021-07-19/doc-ikqciyzk6302375.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqcfnca7672697.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqciyzk6304400.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/forex/forexroll/2021-07-19/doc-ikqcfnca7732133.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7716585.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7726905.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7722121.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqciyzk6298735.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7686083.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7679083.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7688705.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/nmetal/hjzx/2021-07-19/doc-ikqcfnca7644256.shtml</t>
+    <t>https://finance.sina.com.cn/china/gncj/2021-10-20/doc-iktzscyy0827073.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzqtyu2627106.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-10-21/doc-iktzscyy0870718.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexinfo/2021-10-21/doc-iktzqtyu2635484.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/2021-10-21/doc-iktzscyy0871818.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-10-21/doc-iktzqtyu2571001.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-10-21/doc-iktzqtyu2632611.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/blockchain/roll/2021-10-21/doc-iktzqtyu2592736.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/future/fmnews/2021-10-20/doc-iktzqtyu2422224.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzscyy0871137.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzscyy0849083.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-21/doc-iktzqtyu2624022.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/world/2021-10-21/doc-iktzqtyu2627309.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzscyy0853053.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/china/gncj/2021-10-21/doc-iktzqtyu2586873.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/usstock/c/2021-10-20/doc-iktzscyy0639421.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/hbfx/2021-10-20/doc-iktzqtyu2414414.shtml</t>
   </si>
   <si>
     <t>http://biz.finance.sina.com.cn/zjzt/gold_2014.php</t>
   </si>
   <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqcfnca7679124.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/roll/2021-07-19/doc-ikqcfnca7645248.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqcfnca7657646.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqcfnca7655420.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqciyzk6292628.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqcfnca7655694.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqciyzk6289732.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/future/roll/2021-07-19/doc-ikqciyzk6251784.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqciyzk6261756.shtml</t>
-  </si>
-  <si>
-    <t>https://finance.sina.com.cn/money/bond/market/2021-07-19/doc-ikqcfnca7676738.shtml</t>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzscyy0835673.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/jjxw/2021-10-21/doc-iktzqtyu2629859.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-10-21/doc-iktzqtyu2609235.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-21/doc-iktzqtyu2609754.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/roll/2021-10-20/doc-iktzqtyu2527341.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/stock/hyyj/2021-10-21/doc-iktzqtyu2609296.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/bond/market/2021-10-21/doc-iktzscyy0819762.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/rmb/2021-10-20/doc-iktzscyy0667219.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexrmb/2021-10-20/doc-iktzscyy0666672.shtml</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/money/forex/forexrmb/2021-10-20/doc-iktzqtyu2435949.shtml</t>
   </si>
   <si>
     <t>http://finance.sina.com.cn/money/globalindex/ibor.shtml</t>
@@ -1743,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1786,7 +1848,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1806,7 +1868,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1826,7 +1888,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1846,7 +1908,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1866,7 +1928,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1886,7 +1948,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1906,7 +1968,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1926,7 +1988,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1946,7 +2008,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1966,7 +2028,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1986,7 +2048,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2006,7 +2068,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2026,7 +2088,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2046,7 +2108,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2066,7 +2128,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2086,7 +2148,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2106,7 +2168,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2126,7 +2188,7 @@
         <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2146,7 +2208,7 @@
         <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2166,7 +2228,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2186,7 +2248,7 @@
         <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2206,7 +2268,7 @@
         <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2226,7 +2288,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2246,7 +2308,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2266,7 +2328,7 @@
         <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2286,18 +2348,18 @@
         <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2306,18 +2368,18 @@
         <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -2326,64 +2388,67 @@
         <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
       </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2397,13 +2462,13 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2417,13 +2482,10 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2437,13 +2499,13 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>285</v>
+      <c r="F35" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2463,7 +2525,7 @@
         <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2483,7 +2545,7 @@
         <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2503,7 +2565,7 @@
         <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2523,7 +2585,7 @@
         <v>64</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2539,8 +2601,11 @@
       <c r="D40" t="s">
         <v>27</v>
       </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2557,10 +2622,10 @@
         <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2577,10 +2642,10 @@
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2597,10 +2662,10 @@
         <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2617,10 +2682,10 @@
         <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2637,10 +2702,10 @@
         <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2656,11 +2721,8 @@
       <c r="D46" t="s">
         <v>27</v>
       </c>
-      <c r="E46" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" t="s">
-        <v>296</v>
+      <c r="F46" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2680,7 +2742,7 @@
         <v>71</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2700,7 +2762,7 @@
         <v>72</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2719,8 +2781,8 @@
       <c r="E49" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>299</v>
+      <c r="F49" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2740,7 +2802,7 @@
         <v>74</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2760,7 +2822,7 @@
         <v>75</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2780,7 +2842,7 @@
         <v>76</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2800,7 +2862,7 @@
         <v>77</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2820,7 +2882,7 @@
         <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2840,7 +2902,7 @@
         <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2856,8 +2918,11 @@
       <c r="D56" t="s">
         <v>27</v>
       </c>
+      <c r="E56" t="s">
+        <v>80</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2874,10 +2939,10 @@
         <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2894,10 +2959,10 @@
         <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2913,11 +2978,8 @@
       <c r="D59" t="s">
         <v>27</v>
       </c>
-      <c r="E59" t="s">
-        <v>82</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2937,7 +2999,7 @@
         <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2957,7 +3019,7 @@
         <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2977,7 +3039,7 @@
         <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2997,7 +3059,7 @@
         <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3017,7 +3079,7 @@
         <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3037,7 +3099,7 @@
         <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3057,7 +3119,7 @@
         <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3074,10 +3136,10 @@
         <v>27</v>
       </c>
       <c r="E67" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3094,10 +3156,10 @@
         <v>27</v>
       </c>
       <c r="E68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3114,10 +3176,10 @@
         <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3137,7 +3199,7 @@
         <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3157,7 +3219,7 @@
         <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3177,7 +3239,7 @@
         <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3197,7 +3259,7 @@
         <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3217,7 +3279,7 @@
         <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3237,7 +3299,7 @@
         <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3257,7 +3319,7 @@
         <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3277,7 +3339,7 @@
         <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3297,7 +3359,7 @@
         <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3317,7 +3379,7 @@
         <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3337,7 +3399,7 @@
         <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3357,7 +3419,7 @@
         <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3377,7 +3439,7 @@
         <v>104</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3397,7 +3459,7 @@
         <v>105</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3417,7 +3479,7 @@
         <v>106</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3436,8 +3498,8 @@
       <c r="E85" t="s">
         <v>107</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>314</v>
+      <c r="F85" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3456,8 +3518,8 @@
       <c r="E86" t="s">
         <v>108</v>
       </c>
-      <c r="F86" t="s">
-        <v>315</v>
+      <c r="F86" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3476,8 +3538,8 @@
       <c r="E87" t="s">
         <v>109</v>
       </c>
-      <c r="F87" t="s">
-        <v>316</v>
+      <c r="F87" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3497,7 +3559,7 @@
         <v>110</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3517,7 +3579,7 @@
         <v>111</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3537,7 +3599,7 @@
         <v>112</v>
       </c>
       <c r="F90" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3557,7 +3619,7 @@
         <v>113</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3576,8 +3638,8 @@
       <c r="E92" t="s">
         <v>114</v>
       </c>
-      <c r="F92" t="s">
-        <v>321</v>
+      <c r="F92" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3596,8 +3658,8 @@
       <c r="E93" t="s">
         <v>115</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>322</v>
+      <c r="F93" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3617,7 +3679,7 @@
         <v>116</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3637,7 +3699,7 @@
         <v>117</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3657,7 +3719,7 @@
         <v>118</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3677,7 +3739,7 @@
         <v>119</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3697,7 +3759,7 @@
         <v>120</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3717,7 +3779,7 @@
         <v>121</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3737,7 +3799,7 @@
         <v>122</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3757,7 +3819,7 @@
         <v>123</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3777,7 +3839,7 @@
         <v>124</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3797,7 +3859,7 @@
         <v>125</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3817,7 +3879,7 @@
         <v>126</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3837,7 +3899,7 @@
         <v>127</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3857,7 +3919,7 @@
         <v>128</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3877,7 +3939,7 @@
         <v>129</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3897,7 +3959,7 @@
         <v>130</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3913,8 +3975,11 @@
       <c r="D109" t="s">
         <v>27</v>
       </c>
+      <c r="E109" t="s">
+        <v>131</v>
+      </c>
       <c r="F109" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3931,10 +3996,10 @@
         <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3951,10 +4016,10 @@
         <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3970,11 +4035,8 @@
       <c r="D112" t="s">
         <v>27</v>
       </c>
-      <c r="E112" t="s">
-        <v>133</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3994,7 +4056,7 @@
         <v>134</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4014,7 +4076,7 @@
         <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4034,7 +4096,7 @@
         <v>136</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4054,7 +4116,7 @@
         <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4074,7 +4136,7 @@
         <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4094,7 +4156,7 @@
         <v>139</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4114,7 +4176,7 @@
         <v>140</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4134,7 +4196,7 @@
         <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4154,7 +4216,7 @@
         <v>142</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4174,7 +4236,7 @@
         <v>143</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4193,8 +4255,8 @@
       <c r="E123" t="s">
         <v>144</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>349</v>
+      <c r="F123" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4211,10 +4273,10 @@
         <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4231,10 +4293,10 @@
         <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4251,10 +4313,10 @@
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4271,10 +4333,10 @@
         <v>27</v>
       </c>
       <c r="E127" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4291,10 +4353,10 @@
         <v>27</v>
       </c>
       <c r="E128" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4311,10 +4373,10 @@
         <v>27</v>
       </c>
       <c r="E129" t="s">
-        <v>21</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>355</v>
+        <v>149</v>
+      </c>
+      <c r="F129" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4331,10 +4393,10 @@
         <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4351,90 +4413,90 @@
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
         <v>17</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D132" t="s">
         <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>150</v>
-      </c>
-      <c r="F132" t="s">
-        <v>358</v>
+        <v>152</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D133" t="s">
         <v>27</v>
       </c>
       <c r="E133" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B134" t="s">
         <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D134" t="s">
         <v>27</v>
       </c>
       <c r="E134" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>360</v>
+        <v>289</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
         <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D135" t="s">
         <v>27</v>
       </c>
       <c r="E135" t="s">
-        <v>153</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>361</v>
+        <v>154</v>
+      </c>
+      <c r="F135" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4451,10 +4513,10 @@
         <v>27</v>
       </c>
       <c r="E136" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4471,10 +4533,10 @@
         <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>147</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>354</v>
+        <v>156</v>
+      </c>
+      <c r="F137" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4491,10 +4553,10 @@
         <v>27</v>
       </c>
       <c r="E138" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4511,10 +4573,10 @@
         <v>27</v>
       </c>
       <c r="E139" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4531,10 +4593,10 @@
         <v>27</v>
       </c>
       <c r="E140" t="s">
-        <v>157</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>365</v>
+        <v>159</v>
+      </c>
+      <c r="F140" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4551,10 +4613,10 @@
         <v>27</v>
       </c>
       <c r="E141" t="s">
-        <v>158</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>366</v>
+        <v>160</v>
+      </c>
+      <c r="F141" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4571,10 +4633,10 @@
         <v>27</v>
       </c>
       <c r="E142" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4591,10 +4653,10 @@
         <v>27</v>
       </c>
       <c r="E143" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4611,10 +4673,10 @@
         <v>27</v>
       </c>
       <c r="E144" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4631,110 +4693,110 @@
         <v>27</v>
       </c>
       <c r="E145" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
         <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D146" t="s">
         <v>27</v>
       </c>
       <c r="E146" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
         <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D147" t="s">
         <v>27</v>
       </c>
       <c r="E147" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
         <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D148" t="s">
         <v>27</v>
       </c>
       <c r="E148" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D149" t="s">
         <v>27</v>
       </c>
       <c r="E149" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D150" t="s">
         <v>27</v>
       </c>
       <c r="E150" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4751,10 +4813,10 @@
         <v>27</v>
       </c>
       <c r="E151" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4771,10 +4833,10 @@
         <v>27</v>
       </c>
       <c r="E152" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4791,10 +4853,10 @@
         <v>27</v>
       </c>
       <c r="E153" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4811,10 +4873,10 @@
         <v>27</v>
       </c>
       <c r="E154" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4831,10 +4893,10 @@
         <v>27</v>
       </c>
       <c r="E155" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4851,10 +4913,10 @@
         <v>27</v>
       </c>
       <c r="E156" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4871,10 +4933,10 @@
         <v>27</v>
       </c>
       <c r="E157" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4891,10 +4953,10 @@
         <v>27</v>
       </c>
       <c r="E158" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4911,10 +4973,10 @@
         <v>27</v>
       </c>
       <c r="E159" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4931,10 +4993,10 @@
         <v>27</v>
       </c>
       <c r="E160" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4951,10 +5013,10 @@
         <v>27</v>
       </c>
       <c r="E161" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4971,10 +5033,10 @@
         <v>27</v>
       </c>
       <c r="E162" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4991,10 +5053,10 @@
         <v>27</v>
       </c>
       <c r="E163" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5011,10 +5073,10 @@
         <v>27</v>
       </c>
       <c r="E164" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5031,10 +5093,10 @@
         <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5051,90 +5113,90 @@
         <v>27</v>
       </c>
       <c r="E166" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
         <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
         <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
         <v>17</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s">
         <v>27</v>
       </c>
       <c r="E168" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
         <v>17</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s">
         <v>27</v>
       </c>
       <c r="E169" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B170" t="s">
         <v>17</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D170" t="s">
         <v>27</v>
       </c>
       <c r="E170" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5151,10 +5213,10 @@
         <v>27</v>
       </c>
       <c r="E171" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5171,10 +5233,10 @@
         <v>27</v>
       </c>
       <c r="E172" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5191,10 +5253,10 @@
         <v>27</v>
       </c>
       <c r="E173" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5211,10 +5273,10 @@
         <v>27</v>
       </c>
       <c r="E174" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5231,10 +5293,10 @@
         <v>27</v>
       </c>
       <c r="E175" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5251,10 +5313,10 @@
         <v>27</v>
       </c>
       <c r="E176" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5271,10 +5333,10 @@
         <v>27</v>
       </c>
       <c r="E177" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>398</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5291,10 +5353,10 @@
         <v>27</v>
       </c>
       <c r="E178" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5314,7 +5376,7 @@
         <v>196</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5334,7 +5396,7 @@
         <v>197</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5354,307 +5416,307 @@
         <v>198</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B182" t="s">
         <v>17</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D182" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E182" t="s">
         <v>199</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B183" t="s">
         <v>17</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E183" t="s">
         <v>200</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>259</v>
+        <v>412</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B184" t="s">
         <v>17</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D184" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E184" t="s">
         <v>201</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B185" t="s">
         <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D185" t="s">
         <v>27</v>
       </c>
       <c r="E185" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B186" t="s">
         <v>17</v>
       </c>
       <c r="C186" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D186" t="s">
         <v>27</v>
       </c>
       <c r="E186" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
         <v>17</v>
       </c>
       <c r="C187" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D187" t="s">
         <v>27</v>
       </c>
       <c r="E187" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B188" t="s">
         <v>17</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D188" t="s">
         <v>27</v>
       </c>
       <c r="E188" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B189" t="s">
         <v>17</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D189" t="s">
         <v>27</v>
       </c>
       <c r="E189" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B190" t="s">
         <v>17</v>
       </c>
       <c r="C190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D190" t="s">
         <v>27</v>
       </c>
       <c r="E190" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
         <v>17</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D191" t="s">
         <v>27</v>
       </c>
       <c r="E191" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B192" t="s">
         <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
         <v>27</v>
       </c>
       <c r="E192" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
         <v>17</v>
       </c>
       <c r="C193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D193" t="s">
         <v>27</v>
       </c>
       <c r="E193" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B194" t="s">
         <v>17</v>
       </c>
       <c r="C194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D194" t="s">
         <v>27</v>
       </c>
       <c r="E194" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B195" t="s">
         <v>17</v>
       </c>
       <c r="C195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
         <v>27</v>
       </c>
       <c r="E195" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B196" t="s">
         <v>17</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D196" t="s">
         <v>27</v>
       </c>
       <c r="E196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5668,604 +5730,604 @@
         <v>22</v>
       </c>
       <c r="D197" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E197" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B198" t="s">
         <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D198" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E198" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B199" t="s">
         <v>17</v>
       </c>
       <c r="C199" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E199" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B200" t="s">
         <v>17</v>
       </c>
       <c r="C200" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D200" t="s">
         <v>27</v>
       </c>
       <c r="E200" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B201" t="s">
         <v>17</v>
       </c>
       <c r="C201" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
         <v>27</v>
       </c>
       <c r="E201" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B202" t="s">
         <v>17</v>
       </c>
       <c r="C202" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D202" t="s">
         <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B203" t="s">
         <v>17</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
         <v>27</v>
       </c>
       <c r="E203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B204" t="s">
         <v>17</v>
       </c>
       <c r="C204" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D204" t="s">
         <v>27</v>
       </c>
       <c r="E204" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B205" t="s">
         <v>17</v>
       </c>
       <c r="C205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D205" t="s">
         <v>27</v>
       </c>
       <c r="E205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B206" t="s">
         <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D206" t="s">
         <v>27</v>
       </c>
       <c r="E206" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B207" t="s">
         <v>17</v>
       </c>
       <c r="C207" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D207" t="s">
         <v>27</v>
       </c>
       <c r="E207" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B208" t="s">
         <v>17</v>
       </c>
       <c r="C208" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
         <v>27</v>
       </c>
       <c r="E208" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B209" t="s">
         <v>17</v>
       </c>
       <c r="C209" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D209" t="s">
         <v>27</v>
       </c>
       <c r="E209" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B210" t="s">
         <v>17</v>
       </c>
       <c r="C210" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D210" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E210" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B211" t="s">
         <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D211" t="s">
         <v>27</v>
       </c>
       <c r="E211" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B212" t="s">
         <v>17</v>
       </c>
       <c r="C212" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D212" t="s">
         <v>27</v>
       </c>
       <c r="E212" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B213" t="s">
         <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D213" t="s">
         <v>27</v>
       </c>
       <c r="E213" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B214" t="s">
         <v>17</v>
       </c>
       <c r="C214" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D214" t="s">
         <v>27</v>
       </c>
       <c r="E214" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B215" t="s">
         <v>17</v>
       </c>
       <c r="C215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D215" t="s">
         <v>27</v>
       </c>
       <c r="E215" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
         <v>17</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D216" t="s">
         <v>27</v>
       </c>
       <c r="E216" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B217" t="s">
         <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D217" t="s">
         <v>27</v>
       </c>
       <c r="E217" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
         <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D218" t="s">
         <v>27</v>
       </c>
       <c r="E218" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
         <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D219" t="s">
         <v>27</v>
       </c>
       <c r="E219" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
         <v>17</v>
       </c>
       <c r="C220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D220" t="s">
         <v>27</v>
       </c>
       <c r="E220" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B221" t="s">
         <v>17</v>
       </c>
       <c r="C221" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D221" t="s">
         <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B222" t="s">
         <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D222" t="s">
         <v>27</v>
       </c>
       <c r="E222" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
         <v>17</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D223" t="s">
         <v>27</v>
       </c>
       <c r="E223" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B224" t="s">
         <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D224" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E224" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B225" t="s">
         <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D225" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E225" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B226" t="s">
         <v>17</v>
       </c>
       <c r="C226" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D226" t="s">
         <v>27</v>
       </c>
       <c r="E226" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B227" t="s">
         <v>17</v>
       </c>
       <c r="C227" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D227" t="s">
         <v>27</v>
@@ -6274,18 +6336,18 @@
         <v>243</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B228" t="s">
         <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
         <v>27</v>
@@ -6294,18 +6356,18 @@
         <v>244</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
         <v>17</v>
       </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D229" t="s">
         <v>27</v>
@@ -6314,18 +6376,18 @@
         <v>245</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B230" t="s">
         <v>17</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
         <v>27</v>
@@ -6334,18 +6396,18 @@
         <v>246</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B231" t="s">
         <v>17</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D231" t="s">
         <v>27</v>
@@ -6354,18 +6416,18 @@
         <v>247</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>447</v>
+        <v>385</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B232" t="s">
         <v>17</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
         <v>27</v>
@@ -6379,13 +6441,13 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B233" t="s">
         <v>17</v>
       </c>
       <c r="C233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D233" t="s">
         <v>27</v>
@@ -6394,18 +6456,18 @@
         <v>249</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B234" t="s">
         <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D234" t="s">
         <v>27</v>
@@ -6414,18 +6476,18 @@
         <v>250</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B235" t="s">
         <v>17</v>
       </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D235" t="s">
         <v>27</v>
@@ -6434,18 +6496,18 @@
         <v>251</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B236" t="s">
         <v>17</v>
       </c>
       <c r="C236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D236" t="s">
         <v>27</v>
@@ -6454,7 +6516,307 @@
         <v>252</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>452</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" t="s">
+        <v>17</v>
+      </c>
+      <c r="C237" t="s">
+        <v>24</v>
+      </c>
+      <c r="D237" t="s">
+        <v>27</v>
+      </c>
+      <c r="E237" t="s">
+        <v>253</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C238" t="s">
+        <v>24</v>
+      </c>
+      <c r="D238" t="s">
+        <v>27</v>
+      </c>
+      <c r="E238" t="s">
+        <v>254</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239" t="s">
+        <v>17</v>
+      </c>
+      <c r="C239" t="s">
+        <v>25</v>
+      </c>
+      <c r="D239" t="s">
+        <v>26</v>
+      </c>
+      <c r="E239" t="s">
+        <v>255</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" t="s">
+        <v>17</v>
+      </c>
+      <c r="C240" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240" t="s">
+        <v>27</v>
+      </c>
+      <c r="E240" t="s">
+        <v>256</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" t="s">
+        <v>17</v>
+      </c>
+      <c r="C241" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" t="s">
+        <v>27</v>
+      </c>
+      <c r="E241" t="s">
+        <v>257</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" t="s">
+        <v>17</v>
+      </c>
+      <c r="C242" t="s">
+        <v>25</v>
+      </c>
+      <c r="D242" t="s">
+        <v>27</v>
+      </c>
+      <c r="E242" t="s">
+        <v>258</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" t="s">
+        <v>17</v>
+      </c>
+      <c r="C243" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243" t="s">
+        <v>27</v>
+      </c>
+      <c r="E243" t="s">
+        <v>239</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" t="s">
+        <v>17</v>
+      </c>
+      <c r="C244" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" t="s">
+        <v>27</v>
+      </c>
+      <c r="E244" t="s">
+        <v>259</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>15</v>
+      </c>
+      <c r="B245" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" t="s">
+        <v>27</v>
+      </c>
+      <c r="E245" t="s">
+        <v>233</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" t="s">
+        <v>17</v>
+      </c>
+      <c r="C246" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246" t="s">
+        <v>27</v>
+      </c>
+      <c r="E246" t="s">
+        <v>260</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" t="s">
+        <v>27</v>
+      </c>
+      <c r="E247" t="s">
+        <v>261</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248" t="s">
+        <v>25</v>
+      </c>
+      <c r="D248" t="s">
+        <v>27</v>
+      </c>
+      <c r="E248" t="s">
+        <v>262</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" t="s">
+        <v>17</v>
+      </c>
+      <c r="C249" t="s">
+        <v>25</v>
+      </c>
+      <c r="D249" t="s">
+        <v>27</v>
+      </c>
+      <c r="E249" t="s">
+        <v>263</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" t="s">
+        <v>17</v>
+      </c>
+      <c r="C250" t="s">
+        <v>25</v>
+      </c>
+      <c r="D250" t="s">
+        <v>27</v>
+      </c>
+      <c r="E250" t="s">
+        <v>264</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>17</v>
+      </c>
+      <c r="C251" t="s">
+        <v>25</v>
+      </c>
+      <c r="D251" t="s">
+        <v>27</v>
+      </c>
+      <c r="E251" t="s">
+        <v>265</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -6475,7 +6837,7 @@
     <hyperlink ref="F15" r:id="rId14"/>
     <hyperlink ref="F16" r:id="rId15"/>
     <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17" location="/brief/course/b75141778f8c4061babaebd31d57c090"/>
+    <hyperlink ref="F18" r:id="rId17"/>
     <hyperlink ref="F19" r:id="rId18"/>
     <hyperlink ref="F20" r:id="rId19"/>
     <hyperlink ref="F21" r:id="rId20"/>
@@ -6492,65 +6854,65 @@
     <hyperlink ref="F32" r:id="rId31"/>
     <hyperlink ref="F33" r:id="rId32"/>
     <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F35" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
-    <hyperlink ref="F39" r:id="rId38"/>
-    <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F36" r:id="rId34"/>
+    <hyperlink ref="F37" r:id="rId35"/>
+    <hyperlink ref="F38" r:id="rId36"/>
+    <hyperlink ref="F39" r:id="rId37"/>
+    <hyperlink ref="F40" r:id="rId38"/>
+    <hyperlink ref="F41" r:id="rId39"/>
+    <hyperlink ref="F42" r:id="rId40"/>
+    <hyperlink ref="F43" r:id="rId41"/>
+    <hyperlink ref="F44" r:id="rId42"/>
+    <hyperlink ref="F45" r:id="rId43"/>
+    <hyperlink ref="F46" r:id="rId44"/>
     <hyperlink ref="F47" r:id="rId45"/>
     <hyperlink ref="F48" r:id="rId46"/>
-    <hyperlink ref="F49" r:id="rId47"/>
-    <hyperlink ref="F50" r:id="rId48"/>
-    <hyperlink ref="F51" r:id="rId49"/>
-    <hyperlink ref="F52" r:id="rId50"/>
-    <hyperlink ref="F53" r:id="rId51"/>
-    <hyperlink ref="F54" r:id="rId52"/>
-    <hyperlink ref="F55" r:id="rId53"/>
-    <hyperlink ref="F56" r:id="rId54"/>
-    <hyperlink ref="F57" r:id="rId55"/>
-    <hyperlink ref="F58" r:id="rId56"/>
-    <hyperlink ref="F59" r:id="rId57"/>
-    <hyperlink ref="F60" r:id="rId58"/>
-    <hyperlink ref="F61" r:id="rId59"/>
-    <hyperlink ref="F62" r:id="rId60"/>
-    <hyperlink ref="F63" r:id="rId61"/>
-    <hyperlink ref="F64" r:id="rId62"/>
-    <hyperlink ref="F65" r:id="rId63"/>
-    <hyperlink ref="F66" r:id="rId64"/>
-    <hyperlink ref="F67" r:id="rId65"/>
-    <hyperlink ref="F68" r:id="rId66"/>
-    <hyperlink ref="F69" r:id="rId67"/>
-    <hyperlink ref="F70" r:id="rId68"/>
-    <hyperlink ref="F71" r:id="rId69"/>
-    <hyperlink ref="F72" r:id="rId70"/>
-    <hyperlink ref="F73" r:id="rId71"/>
-    <hyperlink ref="F74" r:id="rId72"/>
-    <hyperlink ref="F75" r:id="rId73"/>
-    <hyperlink ref="F76" r:id="rId74"/>
-    <hyperlink ref="F77" r:id="rId75"/>
-    <hyperlink ref="F78" r:id="rId76"/>
-    <hyperlink ref="F79" r:id="rId77"/>
-    <hyperlink ref="F80" r:id="rId78"/>
-    <hyperlink ref="F81" r:id="rId79"/>
-    <hyperlink ref="F82" r:id="rId80"/>
-    <hyperlink ref="F83" r:id="rId81"/>
-    <hyperlink ref="F84" r:id="rId82"/>
-    <hyperlink ref="F85" r:id="rId83"/>
+    <hyperlink ref="F50" r:id="rId47"/>
+    <hyperlink ref="F51" r:id="rId48"/>
+    <hyperlink ref="F52" r:id="rId49"/>
+    <hyperlink ref="F53" r:id="rId50"/>
+    <hyperlink ref="F54" r:id="rId51"/>
+    <hyperlink ref="F55" r:id="rId52"/>
+    <hyperlink ref="F56" r:id="rId53"/>
+    <hyperlink ref="F57" r:id="rId54"/>
+    <hyperlink ref="F58" r:id="rId55"/>
+    <hyperlink ref="F59" r:id="rId56"/>
+    <hyperlink ref="F60" r:id="rId57"/>
+    <hyperlink ref="F61" r:id="rId58"/>
+    <hyperlink ref="F62" r:id="rId59"/>
+    <hyperlink ref="F63" r:id="rId60"/>
+    <hyperlink ref="F64" r:id="rId61"/>
+    <hyperlink ref="F65" r:id="rId62"/>
+    <hyperlink ref="F66" r:id="rId63"/>
+    <hyperlink ref="F67" r:id="rId64"/>
+    <hyperlink ref="F68" r:id="rId65"/>
+    <hyperlink ref="F69" r:id="rId66"/>
+    <hyperlink ref="F70" r:id="rId67"/>
+    <hyperlink ref="F71" r:id="rId68"/>
+    <hyperlink ref="F72" r:id="rId69"/>
+    <hyperlink ref="F73" r:id="rId70"/>
+    <hyperlink ref="F74" r:id="rId71"/>
+    <hyperlink ref="F75" r:id="rId72"/>
+    <hyperlink ref="F76" r:id="rId73"/>
+    <hyperlink ref="F77" r:id="rId74"/>
+    <hyperlink ref="F78" r:id="rId75"/>
+    <hyperlink ref="F79" r:id="rId76"/>
+    <hyperlink ref="F80" r:id="rId77"/>
+    <hyperlink ref="F81" r:id="rId78"/>
+    <hyperlink ref="F82" r:id="rId79"/>
+    <hyperlink ref="F83" r:id="rId80"/>
+    <hyperlink ref="F84" r:id="rId81"/>
+    <hyperlink ref="F86" r:id="rId82"/>
+    <hyperlink ref="F87" r:id="rId83"/>
     <hyperlink ref="F88" r:id="rId84"/>
     <hyperlink ref="F89" r:id="rId85"/>
     <hyperlink ref="F91" r:id="rId86"/>
-    <hyperlink ref="F93" r:id="rId87" location="/sinacourse/7234a949213d40b285d95063e4855283"/>
-    <hyperlink ref="F94" r:id="rId88" location="/sinacourse/c1c893194faf4079af5985cc12c949e7"/>
+    <hyperlink ref="F92" r:id="rId87"/>
+    <hyperlink ref="F94" r:id="rId88"/>
     <hyperlink ref="F95" r:id="rId89"/>
-    <hyperlink ref="F96" r:id="rId90" location="/sina/single/l25km13l7kn1?parentType=column&amp;parentId=f5443bd63a8b4e858b9225ffa008a6c6"/>
-    <hyperlink ref="F97" r:id="rId91" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F98" r:id="rId92" location="/sina/single/5lm839679896?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
+    <hyperlink ref="F96" r:id="rId90"/>
+    <hyperlink ref="F97" r:id="rId91"/>
+    <hyperlink ref="F98" r:id="rId92"/>
     <hyperlink ref="F99" r:id="rId93"/>
     <hyperlink ref="F100" r:id="rId94"/>
     <hyperlink ref="F101" r:id="rId95"/>
@@ -6574,120 +6936,130 @@
     <hyperlink ref="F119" r:id="rId113"/>
     <hyperlink ref="F120" r:id="rId114"/>
     <hyperlink ref="F121" r:id="rId115"/>
-    <hyperlink ref="F122" r:id="rId116" location="/sina/brief/column/a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F123" r:id="rId117" location="/sina/single/l25km13n7kn1?parentType=column&amp;parentId=a601af39262c4bdd80274231f1fde815"/>
-    <hyperlink ref="F124" r:id="rId118"/>
-    <hyperlink ref="F125" r:id="rId119"/>
-    <hyperlink ref="F126" r:id="rId120"/>
-    <hyperlink ref="F127" r:id="rId121"/>
-    <hyperlink ref="F128" r:id="rId122"/>
-    <hyperlink ref="F129" r:id="rId123"/>
-    <hyperlink ref="F130" r:id="rId124"/>
-    <hyperlink ref="F131" r:id="rId125"/>
-    <hyperlink ref="F133" r:id="rId126"/>
-    <hyperlink ref="F134" r:id="rId127"/>
-    <hyperlink ref="F135" r:id="rId128"/>
-    <hyperlink ref="F136" r:id="rId129"/>
-    <hyperlink ref="F137" r:id="rId130"/>
-    <hyperlink ref="F138" r:id="rId131"/>
-    <hyperlink ref="F139" r:id="rId132"/>
-    <hyperlink ref="F140" r:id="rId133"/>
-    <hyperlink ref="F141" r:id="rId134"/>
-    <hyperlink ref="F142" r:id="rId135"/>
-    <hyperlink ref="F143" r:id="rId136"/>
-    <hyperlink ref="F144" r:id="rId137"/>
-    <hyperlink ref="F145" r:id="rId138"/>
-    <hyperlink ref="F146" r:id="rId139"/>
-    <hyperlink ref="F147" r:id="rId140"/>
-    <hyperlink ref="F148" r:id="rId141"/>
-    <hyperlink ref="F149" r:id="rId142"/>
-    <hyperlink ref="F150" r:id="rId143"/>
-    <hyperlink ref="F151" r:id="rId144"/>
-    <hyperlink ref="F152" r:id="rId145"/>
-    <hyperlink ref="F153" r:id="rId146"/>
-    <hyperlink ref="F154" r:id="rId147"/>
-    <hyperlink ref="F155" r:id="rId148"/>
-    <hyperlink ref="F156" r:id="rId149"/>
-    <hyperlink ref="F157" r:id="rId150"/>
-    <hyperlink ref="F158" r:id="rId151"/>
-    <hyperlink ref="F159" r:id="rId152"/>
-    <hyperlink ref="F160" r:id="rId153"/>
-    <hyperlink ref="F161" r:id="rId154"/>
-    <hyperlink ref="F162" r:id="rId155"/>
-    <hyperlink ref="F163" r:id="rId156"/>
-    <hyperlink ref="F164" r:id="rId157"/>
-    <hyperlink ref="F165" r:id="rId158"/>
-    <hyperlink ref="F166" r:id="rId159"/>
-    <hyperlink ref="F167" r:id="rId160"/>
-    <hyperlink ref="F168" r:id="rId161"/>
-    <hyperlink ref="F169" r:id="rId162"/>
-    <hyperlink ref="F170" r:id="rId163"/>
-    <hyperlink ref="F171" r:id="rId164"/>
-    <hyperlink ref="F172" r:id="rId165"/>
-    <hyperlink ref="F173" r:id="rId166"/>
-    <hyperlink ref="F174" r:id="rId167"/>
-    <hyperlink ref="F175" r:id="rId168"/>
-    <hyperlink ref="F176" r:id="rId169"/>
-    <hyperlink ref="F177" r:id="rId170"/>
-    <hyperlink ref="F178" r:id="rId171"/>
-    <hyperlink ref="F179" r:id="rId172"/>
-    <hyperlink ref="F180" r:id="rId173"/>
-    <hyperlink ref="F181" r:id="rId174"/>
-    <hyperlink ref="F182" r:id="rId175"/>
-    <hyperlink ref="F183" r:id="rId176"/>
-    <hyperlink ref="F184" r:id="rId177"/>
-    <hyperlink ref="F185" r:id="rId178"/>
-    <hyperlink ref="F186" r:id="rId179"/>
-    <hyperlink ref="F187" r:id="rId180"/>
-    <hyperlink ref="F188" r:id="rId181"/>
-    <hyperlink ref="F189" r:id="rId182"/>
-    <hyperlink ref="F190" r:id="rId183"/>
-    <hyperlink ref="F191" r:id="rId184"/>
-    <hyperlink ref="F192" r:id="rId185"/>
-    <hyperlink ref="F193" r:id="rId186"/>
-    <hyperlink ref="F194" r:id="rId187"/>
-    <hyperlink ref="F195" r:id="rId188"/>
-    <hyperlink ref="F196" r:id="rId189"/>
-    <hyperlink ref="F197" r:id="rId190"/>
-    <hyperlink ref="F198" r:id="rId191"/>
-    <hyperlink ref="F199" r:id="rId192"/>
-    <hyperlink ref="F200" r:id="rId193"/>
-    <hyperlink ref="F201" r:id="rId194" location="0"/>
-    <hyperlink ref="F202" r:id="rId195"/>
-    <hyperlink ref="F203" r:id="rId196"/>
-    <hyperlink ref="F204" r:id="rId197"/>
-    <hyperlink ref="F205" r:id="rId198"/>
-    <hyperlink ref="F206" r:id="rId199"/>
-    <hyperlink ref="F207" r:id="rId200"/>
-    <hyperlink ref="F208" r:id="rId201"/>
-    <hyperlink ref="F209" r:id="rId202"/>
-    <hyperlink ref="F210" r:id="rId203"/>
-    <hyperlink ref="F211" r:id="rId204"/>
-    <hyperlink ref="F212" r:id="rId205"/>
-    <hyperlink ref="F213" r:id="rId206"/>
-    <hyperlink ref="F214" r:id="rId207"/>
-    <hyperlink ref="F215" r:id="rId208"/>
-    <hyperlink ref="F216" r:id="rId209"/>
-    <hyperlink ref="F217" r:id="rId210"/>
-    <hyperlink ref="F218" r:id="rId211"/>
-    <hyperlink ref="F219" r:id="rId212"/>
-    <hyperlink ref="F220" r:id="rId213"/>
-    <hyperlink ref="F221" r:id="rId214"/>
-    <hyperlink ref="F222" r:id="rId215"/>
-    <hyperlink ref="F223" r:id="rId216"/>
-    <hyperlink ref="F224" r:id="rId217"/>
-    <hyperlink ref="F225" r:id="rId218"/>
-    <hyperlink ref="F226" r:id="rId219"/>
-    <hyperlink ref="F227" r:id="rId220"/>
-    <hyperlink ref="F228" r:id="rId221"/>
-    <hyperlink ref="F229" r:id="rId222"/>
-    <hyperlink ref="F230" r:id="rId223"/>
-    <hyperlink ref="F231" r:id="rId224"/>
-    <hyperlink ref="F232" r:id="rId225"/>
-    <hyperlink ref="F233" r:id="rId226"/>
-    <hyperlink ref="F234" r:id="rId227"/>
-    <hyperlink ref="F235" r:id="rId228"/>
-    <hyperlink ref="F236" r:id="rId229"/>
+    <hyperlink ref="F122" r:id="rId116"/>
+    <hyperlink ref="F124" r:id="rId117"/>
+    <hyperlink ref="F125" r:id="rId118"/>
+    <hyperlink ref="F126" r:id="rId119"/>
+    <hyperlink ref="F127" r:id="rId120"/>
+    <hyperlink ref="F128" r:id="rId121"/>
+    <hyperlink ref="F130" r:id="rId122"/>
+    <hyperlink ref="F131" r:id="rId123"/>
+    <hyperlink ref="F132" r:id="rId124"/>
+    <hyperlink ref="F133" r:id="rId125"/>
+    <hyperlink ref="F134" r:id="rId126"/>
+    <hyperlink ref="F136" r:id="rId127"/>
+    <hyperlink ref="F138" r:id="rId128"/>
+    <hyperlink ref="F139" r:id="rId129"/>
+    <hyperlink ref="F142" r:id="rId130"/>
+    <hyperlink ref="F143" r:id="rId131"/>
+    <hyperlink ref="F144" r:id="rId132"/>
+    <hyperlink ref="F145" r:id="rId133"/>
+    <hyperlink ref="F146" r:id="rId134"/>
+    <hyperlink ref="F147" r:id="rId135"/>
+    <hyperlink ref="F148" r:id="rId136"/>
+    <hyperlink ref="F149" r:id="rId137"/>
+    <hyperlink ref="F150" r:id="rId138"/>
+    <hyperlink ref="F151" r:id="rId139"/>
+    <hyperlink ref="F152" r:id="rId140"/>
+    <hyperlink ref="F153" r:id="rId141"/>
+    <hyperlink ref="F154" r:id="rId142"/>
+    <hyperlink ref="F155" r:id="rId143"/>
+    <hyperlink ref="F156" r:id="rId144"/>
+    <hyperlink ref="F157" r:id="rId145"/>
+    <hyperlink ref="F158" r:id="rId146"/>
+    <hyperlink ref="F159" r:id="rId147"/>
+    <hyperlink ref="F160" r:id="rId148"/>
+    <hyperlink ref="F161" r:id="rId149"/>
+    <hyperlink ref="F162" r:id="rId150"/>
+    <hyperlink ref="F163" r:id="rId151"/>
+    <hyperlink ref="F164" r:id="rId152"/>
+    <hyperlink ref="F165" r:id="rId153"/>
+    <hyperlink ref="F166" r:id="rId154"/>
+    <hyperlink ref="F167" r:id="rId155"/>
+    <hyperlink ref="F168" r:id="rId156"/>
+    <hyperlink ref="F169" r:id="rId157"/>
+    <hyperlink ref="F170" r:id="rId158"/>
+    <hyperlink ref="F171" r:id="rId159"/>
+    <hyperlink ref="F172" r:id="rId160"/>
+    <hyperlink ref="F173" r:id="rId161"/>
+    <hyperlink ref="F174" r:id="rId162"/>
+    <hyperlink ref="F175" r:id="rId163"/>
+    <hyperlink ref="F176" r:id="rId164"/>
+    <hyperlink ref="F177" r:id="rId165"/>
+    <hyperlink ref="F178" r:id="rId166"/>
+    <hyperlink ref="F179" r:id="rId167"/>
+    <hyperlink ref="F180" r:id="rId168"/>
+    <hyperlink ref="F181" r:id="rId169"/>
+    <hyperlink ref="F182" r:id="rId170"/>
+    <hyperlink ref="F183" r:id="rId171"/>
+    <hyperlink ref="F184" r:id="rId172"/>
+    <hyperlink ref="F185" r:id="rId173"/>
+    <hyperlink ref="F186" r:id="rId174"/>
+    <hyperlink ref="F187" r:id="rId175"/>
+    <hyperlink ref="F188" r:id="rId176"/>
+    <hyperlink ref="F189" r:id="rId177"/>
+    <hyperlink ref="F190" r:id="rId178"/>
+    <hyperlink ref="F191" r:id="rId179"/>
+    <hyperlink ref="F192" r:id="rId180"/>
+    <hyperlink ref="F193" r:id="rId181"/>
+    <hyperlink ref="F194" r:id="rId182"/>
+    <hyperlink ref="F195" r:id="rId183"/>
+    <hyperlink ref="F196" r:id="rId184"/>
+    <hyperlink ref="F197" r:id="rId185"/>
+    <hyperlink ref="F198" r:id="rId186"/>
+    <hyperlink ref="F199" r:id="rId187"/>
+    <hyperlink ref="F200" r:id="rId188"/>
+    <hyperlink ref="F201" r:id="rId189"/>
+    <hyperlink ref="F202" r:id="rId190"/>
+    <hyperlink ref="F203" r:id="rId191"/>
+    <hyperlink ref="F204" r:id="rId192"/>
+    <hyperlink ref="F205" r:id="rId193"/>
+    <hyperlink ref="F206" r:id="rId194"/>
+    <hyperlink ref="F207" r:id="rId195"/>
+    <hyperlink ref="F208" r:id="rId196"/>
+    <hyperlink ref="F209" r:id="rId197"/>
+    <hyperlink ref="F210" r:id="rId198"/>
+    <hyperlink ref="F211" r:id="rId199"/>
+    <hyperlink ref="F212" r:id="rId200"/>
+    <hyperlink ref="F213" r:id="rId201"/>
+    <hyperlink ref="F214" r:id="rId202"/>
+    <hyperlink ref="F215" r:id="rId203"/>
+    <hyperlink ref="F216" r:id="rId204" location="0"/>
+    <hyperlink ref="F217" r:id="rId205"/>
+    <hyperlink ref="F218" r:id="rId206"/>
+    <hyperlink ref="F219" r:id="rId207"/>
+    <hyperlink ref="F220" r:id="rId208"/>
+    <hyperlink ref="F221" r:id="rId209"/>
+    <hyperlink ref="F222" r:id="rId210"/>
+    <hyperlink ref="F223" r:id="rId211"/>
+    <hyperlink ref="F224" r:id="rId212"/>
+    <hyperlink ref="F225" r:id="rId213"/>
+    <hyperlink ref="F226" r:id="rId214"/>
+    <hyperlink ref="F227" r:id="rId215"/>
+    <hyperlink ref="F228" r:id="rId216"/>
+    <hyperlink ref="F229" r:id="rId217"/>
+    <hyperlink ref="F230" r:id="rId218"/>
+    <hyperlink ref="F231" r:id="rId219"/>
+    <hyperlink ref="F232" r:id="rId220"/>
+    <hyperlink ref="F233" r:id="rId221"/>
+    <hyperlink ref="F234" r:id="rId222"/>
+    <hyperlink ref="F235" r:id="rId223"/>
+    <hyperlink ref="F236" r:id="rId224"/>
+    <hyperlink ref="F237" r:id="rId225"/>
+    <hyperlink ref="F238" r:id="rId226"/>
+    <hyperlink ref="F239" r:id="rId227"/>
+    <hyperlink ref="F240" r:id="rId228"/>
+    <hyperlink ref="F241" r:id="rId229"/>
+    <hyperlink ref="F242" r:id="rId230"/>
+    <hyperlink ref="F243" r:id="rId231"/>
+    <hyperlink ref="F244" r:id="rId232"/>
+    <hyperlink ref="F245" r:id="rId233"/>
+    <hyperlink ref="F246" r:id="rId234"/>
+    <hyperlink ref="F247" r:id="rId235"/>
+    <hyperlink ref="F248" r:id="rId236"/>
+    <hyperlink ref="F249" r:id="rId237"/>
+    <hyperlink ref="F250" r:id="rId238"/>
+    <hyperlink ref="F251" r:id="rId239"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
